--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>camp</t>
   </si>
@@ -92,6 +97,36 @@
   </si>
   <si>
     <t>SE2</t>
+  </si>
+  <si>
+    <t>LOG2</t>
+  </si>
+  <si>
+    <t>0.972599229081709</t>
+  </si>
+  <si>
+    <t>0.912282710476616</t>
+  </si>
+  <si>
+    <t>0.72270598280149</t>
+  </si>
+  <si>
+    <t>0.723700148648991</t>
+  </si>
+  <si>
+    <t>0.53062825106217</t>
+  </si>
+  <si>
+    <t>0.470003629245736</t>
+  </si>
+  <si>
+    <t>0.781300447012245</t>
+  </si>
+  <si>
+    <t>0.371563556432483</t>
+  </si>
+  <si>
+    <t>0.444685821261446</t>
   </si>
 </sst>
 </file>
@@ -171,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -306,53 +341,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,9 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -382,19 +372,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -416,9 +396,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -428,9 +405,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -443,13 +417,69 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -729,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,300 +767,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="21" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="21"/>
-    <col min="7" max="7" width="18.28515625" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="42.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="16" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="16"/>
+    <col min="7" max="7" width="8.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="38">
         <v>2.6448100000000001</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="38">
         <f>LN(B2)</f>
         <v>0.97259922908170948</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="39">
         <f>(LN(B2/E2))/1.96</f>
         <v>0.27967677689110926</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="38">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="39">
         <v>4.5895770000000002</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="13">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C10" si="0">LN(B3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="23">
         <f t="shared" ref="D3:D10" si="1">(LN(B3/E3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="13">
         <v>1.89</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="23">
         <v>3.28</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="43">
         <v>2.06</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="43">
         <f t="shared" si="0"/>
         <v>0.72270598280148979</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="44">
         <f t="shared" si="1"/>
         <v>9.7998842724142568E-2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="43">
         <v>1.7</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="44">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="17">
         <v>2.062049</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="24">
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="17">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="24">
         <v>3.6779639999999998</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="18">
         <v>1.7</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="25">
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <v>1.26</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="19">
         <v>1.6</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>0.47000362924573563</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <f t="shared" si="1"/>
         <v>0.10202882246565072</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="19">
         <v>1.31</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="26">
         <v>1.96</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="20">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="27">
         <f t="shared" si="1"/>
         <v>0.3026013838774172</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="20">
         <v>1.207077</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="27">
         <v>3.952699</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>1.45</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="27">
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="20">
         <v>1.07</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="27">
         <v>1.96</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="21">
         <v>1.56</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="21">
         <f t="shared" si="0"/>
         <v>0.44468582126144574</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="28">
         <f t="shared" si="1"/>
         <v>0.10493312285252338</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>1.27</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="28">
         <v>1.92</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A11"/>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
+    <sheet name="Full1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>camp</t>
   </si>
@@ -127,6 +123,12 @@
   </si>
   <si>
     <t>0.444685821261446</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>LOG</t>
   </si>
 </sst>
 </file>
@@ -174,7 +176,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,18 +197,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -257,26 +265,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -341,145 +329,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -759,7 +841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,336 +849,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="16" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="16"/>
-    <col min="7" max="7" width="8.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="42.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="G1" s="2"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38">
-        <v>2.6448100000000001</v>
-      </c>
-      <c r="C2" s="38">
+      <c r="B2" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="C2" s="8">
         <f>LN(B2)</f>
-        <v>0.97259922908170948</v>
-      </c>
-      <c r="D2" s="39">
+        <v>0.72270598280148979</v>
+      </c>
+      <c r="D2" s="8">
         <f>(LN(B2/E2))/1.96</f>
-        <v>0.27967677689110926</v>
-      </c>
-      <c r="E2" s="38">
-        <v>1.5287230000000001</v>
-      </c>
-      <c r="F2" s="39">
-        <v>4.5895770000000002</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+        <v>9.7998842724142568E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="40">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="26">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C10" si="0">LN(B3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="23">
-        <f t="shared" ref="D3:D10" si="1">(LN(B3/E3))/1.96</f>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D9" si="1">(LN(B3/E3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>1.89</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="26">
         <v>3.28</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+      <c r="G3" s="2"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43">
-        <v>2.06</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="19">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" si="0"/>
-        <v>0.72270598280148979</v>
-      </c>
-      <c r="D4" s="44">
+        <v>7.8811180424289848E-2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.28945759999999998</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.47000362924573563</v>
+      </c>
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>9.7998842724142568E-2</v>
-      </c>
-      <c r="E4" s="43">
+        <v>0.10202882246565072</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1.31</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1.96</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20">
         <v>1.7</v>
       </c>
-      <c r="F4" s="44">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="17">
-        <v>2.062049</v>
-      </c>
-      <c r="C5" s="17">
-        <f t="shared" si="0"/>
-        <v>0.72370014864899102</v>
-      </c>
-      <c r="D5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.29523424577300489</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1.1560870000000001</v>
-      </c>
-      <c r="F5" s="24">
-        <v>3.6779639999999998</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>1.26</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="2"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="24">
+        <v>0.57245999999999997</v>
+      </c>
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
-        <v>0.47000362924573563</v>
-      </c>
-      <c r="D7" s="26">
+        <v>-0.55781241499032752</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.32258286000000003</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1.06</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.44468582126144574</v>
+      </c>
+      <c r="D8" s="15">
         <f t="shared" si="1"/>
-        <v>0.10202882246565072</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1.31</v>
-      </c>
-      <c r="F7" s="26">
-        <v>1.96</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2.1843110000000001</v>
-      </c>
-      <c r="C8" s="20">
-        <f t="shared" si="0"/>
-        <v>0.78130044701224466</v>
-      </c>
-      <c r="D8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.3026013838774172</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.207077</v>
-      </c>
-      <c r="F8" s="27">
-        <v>3.952699</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+        <v>0.10493312285252338</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.27</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1.92</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>1.45</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="17">
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>1.07</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>1.96</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+      <c r="G9" s="2"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21">
-        <v>1.56</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="22">
+        <v>0.60192000000000001</v>
+      </c>
+      <c r="C10" s="23">
         <f t="shared" si="0"/>
-        <v>0.44468582126144574</v>
-      </c>
-      <c r="D10" s="28">
-        <f t="shared" si="1"/>
-        <v>0.10493312285252338</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1.27</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1.92</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+        <v>-0.50763073286947147</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.32955147000000001</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.309</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="11" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="11"/>
+    <col min="8" max="8" width="20.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47">
+        <v>2.6448100000000001</v>
+      </c>
+      <c r="C2" s="48">
+        <v>0.97259922908170948</v>
+      </c>
+      <c r="D2" s="47">
+        <v>0.27967677689110926</v>
+      </c>
+      <c r="E2" s="48">
+        <v>1.5287230000000001</v>
+      </c>
+      <c r="F2" s="47">
+        <v>4.5895770000000002</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="50">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0.91228271047661635</v>
+      </c>
+      <c r="D3" s="50">
+        <v>0.14066626602299256</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1.89</v>
+      </c>
+      <c r="F3" s="50">
+        <v>3.28</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="53">
+        <v>2.06</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.72270598280148979</v>
+      </c>
+      <c r="D4" s="53">
+        <v>9.7998842724142568E-2</v>
+      </c>
+      <c r="E4" s="54">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="53">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="47">
+        <v>2.062049</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.72370014864899102</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.29523424577300489</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1.1560870000000001</v>
+      </c>
+      <c r="F5" s="47">
+        <v>3.6779639999999998</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0.53062825106217038</v>
+      </c>
+      <c r="D6" s="50">
+        <v>0.15281455617284881</v>
+      </c>
+      <c r="E6" s="51">
+        <v>1.26</v>
+      </c>
+      <c r="F6" s="50">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="53">
+        <v>1.6</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.47000362924573563</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.10202882246565072</v>
+      </c>
+      <c r="E7" s="54">
+        <v>1.31</v>
+      </c>
+      <c r="F7" s="53">
+        <v>1.96</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="50">
+        <v>2.1843110000000001</v>
+      </c>
+      <c r="C8" s="51">
+        <v>0.78130044701224466</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0.3026013838774172</v>
+      </c>
+      <c r="E8" s="51">
+        <v>1.207077</v>
+      </c>
+      <c r="F8" s="50">
+        <v>3.952699</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="50">
+        <v>1.45</v>
+      </c>
+      <c r="C9" s="51">
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D9" s="50">
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="E9" s="51">
+        <v>1.07</v>
+      </c>
+      <c r="F9" s="50">
+        <v>1.96</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="53">
+        <v>1.56</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.44468582126144574</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.10493312285252338</v>
+      </c>
+      <c r="E10" s="54">
+        <v>1.27</v>
+      </c>
+      <c r="F10" s="53">
+        <v>1.92</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
-    <sheet name="Full1" sheetId="9" r:id="rId2"/>
+    <sheet name="Interval_OR" sheetId="10" r:id="rId2"/>
+    <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$13</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>camp</t>
   </si>
@@ -125,10 +126,151 @@
     <t>0.444685821261446</t>
   </si>
   <si>
-    <t>0.298</t>
-  </si>
-  <si>
     <t>LOG</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Std.Error</t>
+  </si>
+  <si>
+    <t>OddsRatio</t>
+  </si>
+  <si>
+    <t>Ln(OddsRatio)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Z*Std.Error</t>
+  </si>
+  <si>
+    <t>Ln(OddsRatio)-Z*Std.Error</t>
+  </si>
+  <si>
+    <t>Ln(OddsRatio)+Z*Std.Error</t>
+  </si>
+  <si>
+    <t>I1_OR</t>
+  </si>
+  <si>
+    <t>I2_OR</t>
+  </si>
+  <si>
+    <t>ESTUDIS</t>
+  </si>
+  <si>
+    <t>OK/KO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>UK_MOD1</t>
+  </si>
+  <si>
+    <t>UK_MOD2</t>
+  </si>
+  <si>
+    <t>UK_MOD3</t>
+  </si>
+  <si>
+    <t>UK_MOD4</t>
+  </si>
+  <si>
+    <t>FRA_MOD1</t>
+  </si>
+  <si>
+    <t>FRA_MOD2</t>
+  </si>
+  <si>
+    <t>FRA_MOD3</t>
+  </si>
+  <si>
+    <t>FRA_MOD4</t>
+  </si>
+  <si>
+    <t>HM_MOD1</t>
+  </si>
+  <si>
+    <t>HM_MOD2</t>
+  </si>
+  <si>
+    <t>HM_MOD3</t>
+  </si>
+  <si>
+    <t>HM_MOD4</t>
+  </si>
+  <si>
+    <t>BCN_MOD1</t>
+  </si>
+  <si>
+    <t>BCN_MOD2</t>
+  </si>
+  <si>
+    <t>BCN_MOD3</t>
+  </si>
+  <si>
+    <t>BCN_MOD4</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD1</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD2</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD3</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD4</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>dubtes:</t>
+  </si>
+  <si>
+    <t>Faig cas dels intervals , i trobo l'error estandard pertinent!</t>
+  </si>
+  <si>
+    <t>## Model fitted by Standard ML</t>
+  </si>
+  <si>
+    <t>## Coefficients:</t>
+  </si>
+  <si>
+    <t>##                      coef   se(coef)  lower 0.95   upper 0.95        Chisq          p method</t>
+  </si>
+  <si>
+    <t>## (Intercept)  -0.164067364 1.19836095 -2.51281166  2.184676934 0.0187442949 0.89110209      1</t>
+  </si>
+  <si>
+    <t>## DG.MACRYes   -0.071361092 0.48514512 -1.02222806  0.879505876 0.0216361326 0.88305920      1</t>
+  </si>
+  <si>
+    <t>## EDAD.AGE     -0.039170232 0.01657143 -0.07164963 -0.006690833 5.5871777867 0.01809242      1</t>
+  </si>
+  <si>
+    <t>## SEXO.SEXMALE  0.825654704 0.44451927 -0.04558705  1.696896458 3.4499733504 0.06325279      1</t>
+  </si>
+  <si>
+    <t>## DG2.HTAYes   -0.004585626 0.39799891 -0.78464916  0.775477904 0.0001327497 0.99080721      1</t>
+  </si>
+  <si>
+    <t>## DG2.MICROYes  0.616470884 0.60184716 -0.56312787  1.796069635 1.0491865458 0.30569451      1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El meu Model és diferent! </t>
   </si>
 </sst>
 </file>
@@ -138,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +317,76 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,18 +413,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -399,126 +657,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -563,6 +853,412 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,7 +1537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,43 +1545,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="1" max="1" width="42.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2"/>
@@ -900,24 +1596,22 @@
       <c r="R1"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="74">
         <v>2.06</v>
       </c>
-      <c r="C2" s="8">
-        <f>LN(B2)</f>
-        <v>0.72270598280148979</v>
-      </c>
-      <c r="D2" s="8">
-        <f>(LN(B2/E2))/1.96</f>
-        <v>9.7998842724142568E-2</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="74">
+        <v>0.72208000000000006</v>
+      </c>
+      <c r="D2" s="74">
+        <v>9.7180000000000002E-2</v>
+      </c>
+      <c r="E2" s="74">
         <v>1.7</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="121">
         <v>2.4900000000000002</v>
       </c>
       <c r="G2" s="2"/>
@@ -931,25 +1625,25 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="26">
+    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="72">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="10">
-        <f t="shared" ref="C3:C10" si="0">LN(B3)</f>
+      <c r="C3" s="72">
+        <f t="shared" ref="C3:C12" si="0">LN(B3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:D9" si="1">(LN(B3/E3))/1.96</f>
+      <c r="D3" s="72">
+        <f t="shared" ref="D3:D12" si="1">(LN(B3/E3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="72">
         <v>1.89</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="122">
         <v>3.28</v>
       </c>
       <c r="G3" s="2"/>
@@ -963,25 +1657,25 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="72">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C4" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8811180424289848E-2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.28945759999999998</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1.88</v>
+      <c r="C4" s="72">
+        <v>7.8938900000000006E-2</v>
+      </c>
+      <c r="D4" s="72">
+        <f t="shared" si="1"/>
+        <v>0.28938720751415131</v>
+      </c>
+      <c r="E4" s="72">
+        <v>0.61361489999999996</v>
+      </c>
+      <c r="F4" s="122">
+        <v>1.908401</v>
       </c>
       <c r="G4" s="2"/>
       <c r="J4"/>
@@ -994,26 +1688,26 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.47000362924573563</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>0.10202882246565072</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1.31</v>
-      </c>
-      <c r="F5" s="41">
-        <v>1.96</v>
+    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="72">
+        <v>2.6488100000000001</v>
+      </c>
+      <c r="C5" s="72">
+        <f>LN(B5)</f>
+        <v>0.97411048253824606</v>
+      </c>
+      <c r="D5" s="123">
+        <f t="shared" ref="D5" si="2">(LN(B5/E5))/1.96</f>
+        <v>0.2804478245730157</v>
+      </c>
+      <c r="E5" s="72">
+        <v>1.5287230000000001</v>
+      </c>
+      <c r="F5" s="122">
+        <v>4.5895770000000002</v>
       </c>
       <c r="G5" s="2"/>
       <c r="J5"/>
@@ -1026,26 +1720,24 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.53062825106217038</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="1"/>
-        <v>0.15281455617284881</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1.26</v>
-      </c>
-      <c r="F6" s="20">
-        <v>2.2799999999999998</v>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="124">
+        <v>1.6</v>
+      </c>
+      <c r="C6" s="125">
+        <v>0.47271299999999999</v>
+      </c>
+      <c r="D6" s="126">
+        <v>0.102038</v>
+      </c>
+      <c r="E6" s="125">
+        <v>1.31</v>
+      </c>
+      <c r="F6" s="126">
+        <v>1.96</v>
       </c>
       <c r="G6" s="2"/>
       <c r="J6"/>
@@ -1058,25 +1750,26 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="24">
-        <v>0.57245999999999997</v>
-      </c>
-      <c r="C7" s="25">
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="127">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="128">
         <f t="shared" si="0"/>
-        <v>-0.55781241499032752</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.32258286000000003</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="24">
-        <v>1.06</v>
+        <v>0.53062825106217038</v>
+      </c>
+      <c r="D7" s="129">
+        <f t="shared" si="1"/>
+        <v>0.15281455617284881</v>
+      </c>
+      <c r="E7" s="128">
+        <v>1.26</v>
+      </c>
+      <c r="F7" s="129">
+        <v>2.2799999999999998</v>
       </c>
       <c r="G7" s="2"/>
       <c r="J7"/>
@@ -1090,25 +1783,24 @@
       <c r="R7"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1.56</v>
-      </c>
-      <c r="C8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.44468582126144574</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="A8" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="127">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C8" s="130">
+        <v>-0.55780845999999995</v>
+      </c>
+      <c r="D8" s="129">
         <f t="shared" si="1"/>
-        <v>0.10493312285252338</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1.27</v>
-      </c>
-      <c r="F8" s="42">
-        <v>1.92</v>
+        <v>0.3221648429667342</v>
+      </c>
+      <c r="E8" s="128">
+        <v>0.30420320000000001</v>
+      </c>
+      <c r="F8" s="129">
+        <v>1.077283</v>
       </c>
       <c r="G8" s="2"/>
       <c r="J8"/>
@@ -1122,25 +1814,25 @@
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="21">
-        <v>1.45</v>
-      </c>
-      <c r="C9" s="17">
-        <f t="shared" si="0"/>
-        <v>0.37156355643248301</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="A9" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="131">
+        <v>2.062049</v>
+      </c>
+      <c r="C9" s="132">
+        <f t="shared" ref="C9" si="3">LN(B9)</f>
+        <v>0.72370014864899102</v>
+      </c>
+      <c r="D9" s="133">
         <f t="shared" si="1"/>
-        <v>0.15505352446870821</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1.07</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1.96</v>
+        <v>0.29523424577300489</v>
+      </c>
+      <c r="E9" s="132">
+        <v>1.1560870000000001</v>
+      </c>
+      <c r="F9" s="134">
+        <v>3.6779639999999998</v>
       </c>
       <c r="G9" s="2"/>
       <c r="J9"/>
@@ -1153,26 +1845,15 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="22">
-        <v>0.60192000000000001</v>
-      </c>
-      <c r="C10" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.50763073286947147</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.32955147000000001</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.309</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1.1299999999999999</v>
-      </c>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
       <c r="G10" s="2"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1184,30 +1865,1210 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="82">
+        <v>1.45</v>
+      </c>
+      <c r="C11" s="82">
+        <f t="shared" si="0"/>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D11" s="82">
+        <f t="shared" si="1"/>
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="E11" s="82">
+        <v>1.07</v>
+      </c>
+      <c r="F11" s="135">
+        <v>1.96</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="136">
+        <v>0.93112560940819378</v>
+      </c>
+      <c r="C12" s="137">
+        <f t="shared" si="0"/>
+        <v>-7.1361091999999959E-2</v>
+      </c>
+      <c r="D12" s="137">
+        <f t="shared" si="1"/>
+        <v>0.48514512000000004</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.35978612287722062</v>
+      </c>
+      <c r="F12" s="138">
+        <v>2.4097508085147799</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.1843110000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13" si="4">LN(B13)</f>
+        <v>0.78130044701224466</v>
+      </c>
+      <c r="D13" s="139">
+        <f t="shared" ref="D13" si="5">(LN(B13/E13))/1.96</f>
+        <v>0.3026013838774172</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.207077</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3.952699</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="140">
+        <v>1.56</v>
+      </c>
+      <c r="C14" s="140">
+        <v>0.44423099999999999</v>
+      </c>
+      <c r="D14" s="140">
+        <v>0.105994</v>
+      </c>
+      <c r="E14" s="140">
+        <v>1.27</v>
+      </c>
+      <c r="F14" s="141">
+        <v>1.92</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="142">
+        <v>1.47</v>
+      </c>
+      <c r="C15" s="142">
+        <f t="shared" ref="C15:C17" si="6">LN(B15)</f>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="D15" s="142">
+        <f>(LN(B15/E15))/1.96</f>
+        <v>0.15729661206863085</v>
+      </c>
+      <c r="E15" s="142">
+        <v>1.08</v>
+      </c>
+      <c r="F15" s="143">
+        <v>1.99</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="144">
+        <v>0.4974674</v>
+      </c>
+      <c r="C17" s="144">
+        <f t="shared" si="6"/>
+        <v>-0.69822525216871001</v>
+      </c>
+      <c r="D17" s="139">
+        <f>(LN(B17/E17))/1.96</f>
+        <v>1.9144184239579749</v>
+      </c>
+      <c r="E17" s="144">
+        <v>1.16729E-2</v>
+      </c>
+      <c r="F17" s="145">
+        <v>21.200749999999999</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A11"/>
+  <autoFilter ref="A1:A13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11" style="39" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="184">
+        <f>EXP(C2)</f>
+        <v>2.0587108789548285</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0.72208000000000006</v>
+      </c>
+      <c r="D2" s="66">
+        <v>1.96</v>
+      </c>
+      <c r="E2" s="184">
+        <v>9.7180000000000002E-2</v>
+      </c>
+      <c r="F2" s="66">
+        <f>D2*E2</f>
+        <v>0.1904728</v>
+      </c>
+      <c r="G2" s="54">
+        <f>C2-F2</f>
+        <v>0.53160720000000006</v>
+      </c>
+      <c r="H2" s="66">
+        <f>C2+F2</f>
+        <v>0.91255280000000005</v>
+      </c>
+      <c r="I2" s="53">
+        <f>EXP(G2)</f>
+        <v>1.7016650280500589</v>
+      </c>
+      <c r="J2" s="54">
+        <f>EXP(H2)</f>
+        <v>2.4906726137420994</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="185">
+        <f t="shared" ref="B3:B5" si="0">EXP(C3)</f>
+        <v>1.6043408710659648</v>
+      </c>
+      <c r="C3" s="68">
+        <v>0.47271299999999999</v>
+      </c>
+      <c r="D3" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E3" s="185">
+        <v>0.102038</v>
+      </c>
+      <c r="F3" s="69">
+        <f t="shared" ref="F3:F17" si="1">D3*E3</f>
+        <v>0.19999448</v>
+      </c>
+      <c r="G3" s="56">
+        <f t="shared" ref="G3:G17" si="2">C3-F3</f>
+        <v>0.27271851999999996</v>
+      </c>
+      <c r="H3" s="69">
+        <f t="shared" ref="H3:H17" si="3">C3+F3</f>
+        <v>0.67270748000000002</v>
+      </c>
+      <c r="I3" s="55">
+        <f t="shared" ref="I3:I17" si="4">EXP(G3)</f>
+        <v>1.3135304602297513</v>
+      </c>
+      <c r="J3" s="56">
+        <f t="shared" ref="J3:J17" si="5">EXP(H3)</f>
+        <v>1.9595355482829784</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="185" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="186">
+        <f t="shared" si="0"/>
+        <v>1.5592906401603417</v>
+      </c>
+      <c r="C5" s="71">
+        <v>0.44423099999999999</v>
+      </c>
+      <c r="D5" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E5" s="185">
+        <v>0.105994</v>
+      </c>
+      <c r="F5" s="69">
+        <f t="shared" si="1"/>
+        <v>0.20774824</v>
+      </c>
+      <c r="G5" s="56">
+        <f t="shared" si="2"/>
+        <v>0.23648275999999999</v>
+      </c>
+      <c r="H5" s="69">
+        <f t="shared" si="3"/>
+        <v>0.65197923999999996</v>
+      </c>
+      <c r="I5" s="55">
+        <f t="shared" si="4"/>
+        <v>1.2667857160461327</v>
+      </c>
+      <c r="J5" s="56">
+        <f t="shared" si="5"/>
+        <v>1.919335898482063</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="187">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C6" s="72">
+        <f>LN(B6)</f>
+        <v>0.91228271047661635</v>
+      </c>
+      <c r="D6" s="73">
+        <v>1.96</v>
+      </c>
+      <c r="E6" s="184">
+        <v>0.14066626602299256</v>
+      </c>
+      <c r="F6" s="73">
+        <f t="shared" si="1"/>
+        <v>0.27570588140506541</v>
+      </c>
+      <c r="G6" s="58">
+        <f t="shared" si="2"/>
+        <v>0.636576829071551</v>
+      </c>
+      <c r="H6" s="73">
+        <f t="shared" si="3"/>
+        <v>1.1879885918816817</v>
+      </c>
+      <c r="I6" s="57">
+        <f t="shared" si="4"/>
+        <v>1.89</v>
+      </c>
+      <c r="J6" s="58">
+        <f t="shared" si="5"/>
+        <v>3.2804761904761914</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="187">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="72">
+        <f t="shared" ref="C7:C17" si="6">LN(B7)</f>
+        <v>0.53062825106217038</v>
+      </c>
+      <c r="D7" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E7" s="185">
+        <v>0.15281455617284881</v>
+      </c>
+      <c r="F7" s="76">
+        <f t="shared" si="1"/>
+        <v>0.29951653009878365</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" si="2"/>
+        <v>0.23111172096338672</v>
+      </c>
+      <c r="H7" s="76">
+        <f t="shared" si="3"/>
+        <v>0.83014478116095403</v>
+      </c>
+      <c r="I7" s="59">
+        <f t="shared" si="4"/>
+        <v>1.26</v>
+      </c>
+      <c r="J7" s="60">
+        <f t="shared" si="5"/>
+        <v>2.2936507936507935</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="187">
+        <v>1.45</v>
+      </c>
+      <c r="C8" s="72">
+        <f t="shared" si="6"/>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D8" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E8" s="185">
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="F8" s="76">
+        <f t="shared" si="1"/>
+        <v>0.30390490795866809</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="2"/>
+        <v>6.765864847381492E-2</v>
+      </c>
+      <c r="H8" s="76">
+        <f t="shared" si="3"/>
+        <v>0.67546846439115105</v>
+      </c>
+      <c r="I8" s="59">
+        <f t="shared" si="4"/>
+        <v>1.07</v>
+      </c>
+      <c r="J8" s="60">
+        <f t="shared" si="5"/>
+        <v>1.9649532710280369</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="187">
+        <v>1.47</v>
+      </c>
+      <c r="C9" s="72">
+        <f t="shared" si="6"/>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="D9" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E9" s="185">
+        <v>0.15729661206863085</v>
+      </c>
+      <c r="F9" s="76">
+        <f t="shared" si="1"/>
+        <v>0.30830135965451649</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="2"/>
+        <v>7.6961041136128394E-2</v>
+      </c>
+      <c r="H9" s="76">
+        <f t="shared" si="3"/>
+        <v>0.69356376044516144</v>
+      </c>
+      <c r="I9" s="59">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="J9" s="60">
+        <f t="shared" si="5"/>
+        <v>2.000833333333333</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="188">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="6"/>
+        <v>7.8811180424289848E-2</v>
+      </c>
+      <c r="D10" s="78">
+        <v>1.96</v>
+      </c>
+      <c r="E10" s="190">
+        <v>0.28945759999999998</v>
+      </c>
+      <c r="F10" s="78">
+        <f t="shared" si="1"/>
+        <v>0.56733689599999992</v>
+      </c>
+      <c r="G10" s="79">
+        <f t="shared" si="2"/>
+        <v>-0.48852571557571006</v>
+      </c>
+      <c r="H10" s="78">
+        <f t="shared" si="3"/>
+        <v>0.64614807642428973</v>
+      </c>
+      <c r="I10" s="80">
+        <f t="shared" si="4"/>
+        <v>0.61353024583876781</v>
+      </c>
+      <c r="J10" s="79">
+        <f t="shared" si="5"/>
+        <v>1.9081765046472698</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="187">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C11" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.55861628760233928</v>
+      </c>
+      <c r="D11" s="83">
+        <v>1.96</v>
+      </c>
+      <c r="E11" s="185">
+        <v>0.32258286000000003</v>
+      </c>
+      <c r="F11" s="83">
+        <f t="shared" si="1"/>
+        <v>0.63226240560000002</v>
+      </c>
+      <c r="G11" s="84">
+        <f t="shared" si="2"/>
+        <v>-1.1908786932023392</v>
+      </c>
+      <c r="H11" s="83">
+        <f t="shared" si="3"/>
+        <v>7.3646117997660743E-2</v>
+      </c>
+      <c r="I11" s="85">
+        <f t="shared" si="4"/>
+        <v>0.30395406432045408</v>
+      </c>
+      <c r="J11" s="84">
+        <f t="shared" si="5"/>
+        <v>1.0764258103653943</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="187">
+        <f>EXP(C12)</f>
+        <v>0.93112560940819378</v>
+      </c>
+      <c r="C12" s="82">
+        <v>-7.1361092000000001E-2</v>
+      </c>
+      <c r="D12" s="83">
+        <v>1.96</v>
+      </c>
+      <c r="E12" s="191">
+        <v>0.48514511999999999</v>
+      </c>
+      <c r="F12" s="83">
+        <f t="shared" si="1"/>
+        <v>0.95088443519999999</v>
+      </c>
+      <c r="G12" s="84">
+        <f t="shared" si="2"/>
+        <v>-1.0222455271999999</v>
+      </c>
+      <c r="H12" s="83">
+        <f t="shared" si="3"/>
+        <v>0.87952334320000003</v>
+      </c>
+      <c r="I12" s="85">
+        <f t="shared" si="4"/>
+        <v>0.35978612287722062</v>
+      </c>
+      <c r="J12" s="84">
+        <f t="shared" si="5"/>
+        <v>2.4097508085147799</v>
+      </c>
+      <c r="K12" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="186" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="187">
+        <v>2.6488100000000001</v>
+      </c>
+      <c r="C14" s="91">
+        <f t="shared" si="6"/>
+        <v>0.97411048253824606</v>
+      </c>
+      <c r="D14" s="92">
+        <v>1.96</v>
+      </c>
+      <c r="E14" s="185">
+        <v>0.2804478245730157</v>
+      </c>
+      <c r="F14" s="92">
+        <f t="shared" si="1"/>
+        <v>0.54967773616311078</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" si="2"/>
+        <v>0.42443274637513528</v>
+      </c>
+      <c r="H14" s="92">
+        <f t="shared" si="3"/>
+        <v>1.5237882187013567</v>
+      </c>
+      <c r="I14" s="61">
+        <f t="shared" si="4"/>
+        <v>1.5287230000000001</v>
+      </c>
+      <c r="J14" s="62">
+        <f t="shared" si="5"/>
+        <v>4.5895786326888519</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="187">
+        <v>2.062049</v>
+      </c>
+      <c r="C15" s="91">
+        <f t="shared" si="6"/>
+        <v>0.72370014864899102</v>
+      </c>
+      <c r="D15" s="92">
+        <v>1.96</v>
+      </c>
+      <c r="E15" s="185">
+        <v>0.29523424577300489</v>
+      </c>
+      <c r="F15" s="92">
+        <f t="shared" si="1"/>
+        <v>0.5786591217150896</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="2"/>
+        <v>0.14504102693390142</v>
+      </c>
+      <c r="H15" s="92">
+        <f t="shared" si="3"/>
+        <v>1.3023592703640805</v>
+      </c>
+      <c r="I15" s="61">
+        <f t="shared" si="4"/>
+        <v>1.1560870000000001</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="5"/>
+        <v>3.6779637504798508</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="187">
+        <v>2.1843110000000001</v>
+      </c>
+      <c r="C16" s="91">
+        <f t="shared" si="6"/>
+        <v>0.78130044701224466</v>
+      </c>
+      <c r="D16" s="92">
+        <v>1.96</v>
+      </c>
+      <c r="E16" s="185">
+        <v>0.3026013838774172</v>
+      </c>
+      <c r="F16" s="92">
+        <f t="shared" si="1"/>
+        <v>0.59309871239973766</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="2"/>
+        <v>0.188201734612507</v>
+      </c>
+      <c r="H16" s="92">
+        <f t="shared" si="3"/>
+        <v>1.3743991594119822</v>
+      </c>
+      <c r="I16" s="61">
+        <f t="shared" si="4"/>
+        <v>1.207077</v>
+      </c>
+      <c r="J16" s="62">
+        <f t="shared" si="5"/>
+        <v>3.9527010660637232</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="187">
+        <v>0.4974674</v>
+      </c>
+      <c r="C17" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.69822525216871001</v>
+      </c>
+      <c r="D17" s="92">
+        <v>1.96</v>
+      </c>
+      <c r="E17" s="185">
+        <v>1.9144184239579749</v>
+      </c>
+      <c r="F17" s="92">
+        <f t="shared" si="1"/>
+        <v>3.7522601109576308</v>
+      </c>
+      <c r="G17" s="62">
+        <f t="shared" si="2"/>
+        <v>-4.450485363126341</v>
+      </c>
+      <c r="H17" s="92">
+        <f t="shared" si="3"/>
+        <v>3.0540348587889206</v>
+      </c>
+      <c r="I17" s="61">
+        <f t="shared" si="4"/>
+        <v>1.1672899999999996E-2</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" si="5"/>
+        <v>21.200713966774323</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="3">
+        <v>0.64958930000000004</v>
+      </c>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="101"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="91">
+        <v>0.53235580000000005</v>
+      </c>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="91">
+        <v>0.57799120000000004</v>
+      </c>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="103"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="94">
+        <v>0.83279449999999999</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="95"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="97"/>
+      <c r="B23" s="159" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="161"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="97"/>
+      <c r="B24" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="164" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="165"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="97"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="97"/>
+      <c r="B26" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="97"/>
+      <c r="B27" s="171" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="97"/>
+      <c r="B28" s="171" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="97"/>
+      <c r="B29" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
+      <c r="B30" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
+      <c r="B31" s="175" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="97"/>
+      <c r="B32" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="192"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="97"/>
+      <c r="B33" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="97"/>
+      <c r="B34" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="98"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1217,270 +3078,270 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14" style="11" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="11" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="11"/>
-    <col min="8" max="8" width="20.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="20.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="16">
         <v>2.6448100000000001</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="17">
         <v>0.97259922908170948</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="16">
         <v>0.27967677689110926</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="17">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="16">
         <v>4.5895770000000002</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="19">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="20">
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="19">
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="20">
         <v>1.89</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="19">
         <v>3.28</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="22">
         <v>2.06</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="23">
         <v>0.72270598280148979</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="22">
         <v>9.7998842724142568E-2</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="23">
         <v>1.7</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="22">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="16">
         <v>2.062049</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="17">
         <v>0.72370014864899102</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="16">
         <v>0.29523424577300489</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="17">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="16">
         <v>3.6779639999999998</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="19">
         <v>1.7</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="20">
         <v>0.53062825106217038</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="19">
         <v>0.15281455617284881</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="20">
         <v>1.26</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="19">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="22">
         <v>1.6</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="23">
         <v>0.47000362924573563</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="22">
         <v>0.10202882246565072</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="23">
         <v>1.31</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="22">
         <v>1.96</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="19">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="20">
         <v>0.78130044701224466</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="19">
         <v>0.3026013838774172</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="20">
         <v>1.207077</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="19">
         <v>3.952699</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="19">
         <v>1.45</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="20">
         <v>0.37156355643248301</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="19">
         <v>0.15505352446870821</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="20">
         <v>1.07</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="19">
         <v>1.96</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="22">
         <v>1.56</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="23">
         <v>0.44468582126144574</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="22">
         <v>0.10493312285252338</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="23">
         <v>1.27</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="22">
         <v>1.92</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="24" t="s">
         <v>34</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>camp</t>
   </si>
@@ -243,34 +243,40 @@
     <t>Faig cas dels intervals , i trobo l'error estandard pertinent!</t>
   </si>
   <si>
-    <t>## Model fitted by Standard ML</t>
-  </si>
-  <si>
-    <t>## Coefficients:</t>
-  </si>
-  <si>
-    <t>##                      coef   se(coef)  lower 0.95   upper 0.95        Chisq          p method</t>
-  </si>
-  <si>
-    <t>## (Intercept)  -0.164067364 1.19836095 -2.51281166  2.184676934 0.0187442949 0.89110209      1</t>
-  </si>
-  <si>
-    <t>## DG.MACRYes   -0.071361092 0.48514512 -1.02222806  0.879505876 0.0216361326 0.88305920      1</t>
-  </si>
-  <si>
-    <t>## EDAD.AGE     -0.039170232 0.01657143 -0.07164963 -0.006690833 5.5871777867 0.01809242      1</t>
-  </si>
-  <si>
-    <t>## SEXO.SEXMALE  0.825654704 0.44451927 -0.04558705  1.696896458 3.4499733504 0.06325279      1</t>
-  </si>
-  <si>
-    <t>## DG2.HTAYes   -0.004585626 0.39799891 -0.78464916  0.775477904 0.0001327497 0.99080721      1</t>
-  </si>
-  <si>
-    <t>## DG2.MICROYes  0.616470884 0.60184716 -0.56312787  1.796069635 1.0491865458 0.30569451      1</t>
-  </si>
-  <si>
     <t xml:space="preserve">El meu Model és diferent! </t>
+  </si>
+  <si>
+    <t>##                     coef   se(coef)   lower 0.95 upper 0.95      Chisq            p method</t>
+  </si>
+  <si>
+    <t>## (Intercept)  -8.32640968 1.24520599 -10.76696857 -5.8858508 44.7129337 2.281453e-11      1</t>
+  </si>
+  <si>
+    <t>## DG.MACRYes   -0.45101475 0.32816135  -1.09419918  0.1921697  1.8888898 1.693272e-01      1</t>
+  </si>
+  <si>
+    <t>## EDAD.AGE      0.08215091 0.01479049   0.05316208  0.1111397 30.8503112 2.787174e-08      1</t>
+  </si>
+  <si>
+    <t>## SEXO.SEXMALE  0.98601961 0.30341437   0.39133837  1.5807009 10.5608483 1.155082e-03      1</t>
+  </si>
+  <si>
+    <t>## DG2.HTAYes    0.13627338 0.31031124  -0.47192548  0.7444722  0.1928533 6.605524e-01      1</t>
+  </si>
+  <si>
+    <t>## DG2.MICROYes -0.73162099 0.51106696  -1.73329383  0.2700518  2.0493527 1.522709e-01      1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## </t>
+  </si>
+  <si>
+    <t>## Method: 1-Wald, 2-Profile penalized log-likelihood, 3-None</t>
+  </si>
+  <si>
+    <t>## Likelihood ratio test=42.1162 on 5 df, p=5.579927e-08, n=406</t>
+  </si>
+  <si>
+    <t>## Wald test = 33.67644 on 5 df, p = 2.761523e-06</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,12 +320,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -374,19 +374,12 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,12 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,18 +442,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -682,21 +663,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -745,32 +711,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -780,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -796,13 +736,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,160 +791,155 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,35 +952,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1056,21 +987,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,71 +1017,22 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,101 +1041,121 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,7 +1434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1545,28 +1442,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1581,10 +1478,11 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2"/>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1593,28 +1491,28 @@
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-      <c r="R1"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="70">
         <v>2.06</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="70">
         <v>0.72208000000000006</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="70">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="70">
         <v>1.7</v>
       </c>
-      <c r="F2" s="121">
+      <c r="F2" s="114">
         <v>2.4900000000000002</v>
       </c>
       <c r="G2" s="2"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1623,30 +1521,30 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="68">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="72">
-        <f t="shared" ref="C3:C12" si="0">LN(B3)</f>
+      <c r="C3" s="68">
+        <f t="shared" ref="C3:C11" si="0">LN(B3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="72">
-        <f t="shared" ref="D3:D12" si="1">(LN(B3/E3))/1.96</f>
+      <c r="D3" s="68">
+        <f t="shared" ref="D3:D11" si="1">(LN(B3/E3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="68">
         <v>1.89</v>
       </c>
-      <c r="F3" s="122">
+      <c r="F3" s="115">
         <v>3.28</v>
       </c>
       <c r="G3" s="2"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1655,29 +1553,29 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="68">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="68">
         <v>7.8938900000000006E-2</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="68">
         <f t="shared" si="1"/>
         <v>0.28938720751415131</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="68">
         <v>0.61361489999999996</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="115">
         <v>1.908401</v>
       </c>
       <c r="G4" s="2"/>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1686,30 +1584,30 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="113" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="172">
         <v>2.6488100000000001</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="172">
         <f>LN(B5)</f>
         <v>0.97411048253824606</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="172">
         <f t="shared" ref="D5" si="2">(LN(B5/E5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="172">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="173">
         <v>4.5895770000000002</v>
       </c>
       <c r="G5" s="2"/>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1718,28 +1616,28 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="116">
         <v>1.6</v>
       </c>
-      <c r="C6" s="125">
+      <c r="C6" s="117">
         <v>0.47271299999999999</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="118">
         <v>0.102038</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="117">
         <v>1.31</v>
       </c>
-      <c r="F6" s="126">
+      <c r="F6" s="118">
         <v>1.96</v>
       </c>
       <c r="G6" s="2"/>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -1748,30 +1646,30 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="119">
         <v>1.7</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="120">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D7" s="129">
+      <c r="D7" s="121">
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="E7" s="128">
+      <c r="E7" s="120">
         <v>1.26</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="121">
         <v>2.2799999999999998</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1780,29 +1678,29 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="127">
+      <c r="B8" s="119">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="122">
         <v>-0.55780845999999995</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="121">
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="120">
         <v>0.30420320000000001</v>
       </c>
-      <c r="F8" s="129">
+      <c r="F8" s="121">
         <v>1.077283</v>
       </c>
       <c r="G8" s="2"/>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1811,30 +1709,30 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-    </row>
-    <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="131">
+      <c r="B9" s="174">
         <v>2.062049</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="172">
         <f t="shared" ref="C9" si="3">LN(B9)</f>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="173">
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="172">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="173">
         <v>3.6779639999999998</v>
       </c>
       <c r="G9" s="2"/>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -1843,18 +1741,30 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="78">
+        <v>1.45</v>
+      </c>
+      <c r="C10" s="78">
+        <f t="shared" si="0"/>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D10" s="78">
+        <f t="shared" si="1"/>
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="E10" s="170">
+        <v>1.07</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.96</v>
+      </c>
       <c r="G10" s="2"/>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1863,183 +1773,139 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="82">
-        <v>1.45</v>
-      </c>
-      <c r="C11" s="82">
+    </row>
+    <row r="11" spans="1:17" s="31" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="175" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="176">
+        <v>0.63697999999999999</v>
+      </c>
+      <c r="C11" s="177">
         <f t="shared" si="0"/>
-        <v>0.37156355643248301</v>
-      </c>
-      <c r="D11" s="82">
+        <v>-0.45101702107712965</v>
+      </c>
+      <c r="D11" s="177">
         <f t="shared" si="1"/>
-        <v>0.15505352446870821</v>
-      </c>
-      <c r="E11" s="82">
-        <v>1.07</v>
-      </c>
-      <c r="F11" s="135">
-        <v>1.96</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:18" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="136">
-        <v>0.93112560940819378</v>
-      </c>
-      <c r="C12" s="137">
-        <f t="shared" si="0"/>
-        <v>-7.1361091999999959E-2</v>
-      </c>
-      <c r="D12" s="137">
-        <f t="shared" si="1"/>
-        <v>0.48514512000000004</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.35978612287722062</v>
-      </c>
-      <c r="F12" s="138">
-        <v>2.4097508085147799</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+        <v>0.32815053630484114</v>
+      </c>
+      <c r="E11" s="176">
+        <v>0.33481</v>
+      </c>
+      <c r="F11" s="177">
+        <v>1.2118800000000001</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B12" s="172">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C13" s="8">
-        <f t="shared" ref="C13" si="4">LN(B13)</f>
+      <c r="C12" s="172">
+        <f t="shared" ref="C12" si="4">LN(B12)</f>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D13" s="139">
-        <f t="shared" ref="D13" si="5">(LN(B13/E13))/1.96</f>
+      <c r="D12" s="172">
+        <f t="shared" ref="D12" si="5">(LN(B12/E12))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E12" s="174">
         <v>1.207077</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F12" s="172">
         <v>3.952699</v>
       </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="123">
+        <v>1.56</v>
+      </c>
+      <c r="C13" s="123">
+        <v>0.44423099999999999</v>
+      </c>
+      <c r="D13" s="123">
+        <v>0.105994</v>
+      </c>
+      <c r="E13" s="123">
+        <v>1.27</v>
+      </c>
+      <c r="F13" s="124">
+        <v>1.92</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="140">
-        <v>1.56</v>
-      </c>
-      <c r="C14" s="140">
-        <v>0.44423099999999999</v>
-      </c>
-      <c r="D14" s="140">
-        <v>0.105994</v>
-      </c>
-      <c r="E14" s="140">
-        <v>1.27</v>
-      </c>
-      <c r="F14" s="141">
-        <v>1.92</v>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="125">
+        <v>1.47</v>
+      </c>
+      <c r="C14" s="125">
+        <f t="shared" ref="C14:C15" si="6">LN(B14)</f>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="D14" s="125">
+        <f>(LN(B14/E14))/1.96</f>
+        <v>0.15729661206863085</v>
+      </c>
+      <c r="E14" s="125">
+        <v>1.08</v>
+      </c>
+      <c r="F14" s="126">
+        <v>1.99</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="142">
-        <v>1.47</v>
-      </c>
-      <c r="C15" s="142">
-        <f t="shared" ref="C15:C17" si="6">LN(B15)</f>
-        <v>0.38526240079064489</v>
-      </c>
-      <c r="D15" s="142">
-        <f>(LN(B15/E15))/1.96</f>
-        <v>0.15729661206863085</v>
-      </c>
-      <c r="E15" s="142">
-        <v>1.08</v>
-      </c>
-      <c r="F15" s="143">
-        <v>1.99</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="150" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="120" t="s">
+    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="144">
+      <c r="B15" s="172">
         <v>0.4974674</v>
       </c>
-      <c r="C17" s="144">
+      <c r="C15" s="172">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="D17" s="139">
-        <f>(LN(B17/E17))/1.96</f>
+      <c r="D15" s="172">
+        <f>(LN(B15/E15))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="E17" s="144">
+      <c r="E15" s="172">
         <v>1.16729E-2</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F15" s="173">
         <v>21.200749999999999</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A13"/>
+  <autoFilter ref="A1:A12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2047,1024 +1913,1070 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="48" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="48" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11" style="35" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="E1" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="127" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="184">
+      <c r="B2" s="144">
         <f>EXP(C2)</f>
         <v>2.0587108789548285</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="50">
         <v>0.72208000000000006</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="62">
         <v>1.96</v>
       </c>
-      <c r="E2" s="184">
+      <c r="E2" s="144">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="62">
         <f>D2*E2</f>
         <v>0.1904728</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="50">
         <f>C2-F2</f>
         <v>0.53160720000000006</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="62">
         <f>C2+F2</f>
         <v>0.91255280000000005</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="49">
         <f>EXP(G2)</f>
         <v>1.7016650280500589</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="50">
         <f>EXP(H2)</f>
         <v>2.4906726137420994</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="185">
+      <c r="B3" s="145">
         <f t="shared" ref="B3:B5" si="0">EXP(C3)</f>
         <v>1.6043408710659648</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="64">
         <v>0.47271299999999999</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="65">
         <v>1.96</v>
       </c>
-      <c r="E3" s="185">
+      <c r="E3" s="145">
         <v>0.102038</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="65">
         <f t="shared" ref="F3:F17" si="1">D3*E3</f>
         <v>0.19999448</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="52">
         <f t="shared" ref="G3:G17" si="2">C3-F3</f>
         <v>0.27271851999999996</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="65">
         <f t="shared" ref="H3:H17" si="3">C3+F3</f>
         <v>0.67270748000000002</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="51">
         <f t="shared" ref="I3:I17" si="4">EXP(G3)</f>
         <v>1.3135304602297513</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="52">
         <f t="shared" ref="J3:J17" si="5">EXP(H3)</f>
         <v>1.9595355482829784</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="186">
+      <c r="B5" s="146">
         <f t="shared" si="0"/>
         <v>1.5592906401603417</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="67">
         <v>0.44423099999999999</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="65">
         <v>1.96</v>
       </c>
-      <c r="E5" s="185">
+      <c r="E5" s="145">
         <v>0.105994</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="65">
         <f t="shared" si="1"/>
         <v>0.20774824</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="52">
         <f t="shared" si="2"/>
         <v>0.23648275999999999</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="65">
         <f t="shared" si="3"/>
         <v>0.65197923999999996</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="51">
         <f t="shared" si="4"/>
         <v>1.2667857160461327</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="52">
         <f t="shared" si="5"/>
         <v>1.919335898482063</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="187">
+      <c r="B6" s="147">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="68">
         <f>LN(B6)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="69">
         <v>1.96</v>
       </c>
-      <c r="E6" s="184">
+      <c r="E6" s="144">
         <v>0.14066626602299256</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="69">
         <f t="shared" si="1"/>
         <v>0.27570588140506541</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="54">
         <f t="shared" si="2"/>
         <v>0.636576829071551</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="69">
         <f t="shared" si="3"/>
         <v>1.1879885918816817</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="53">
         <f t="shared" si="4"/>
         <v>1.89</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="54">
         <f t="shared" si="5"/>
         <v>3.2804761904761914</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="147">
         <v>1.7</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="68">
         <f t="shared" ref="C7:C17" si="6">LN(B7)</f>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="72">
         <v>1.96</v>
       </c>
-      <c r="E7" s="185">
+      <c r="E7" s="145">
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="72">
         <f t="shared" si="1"/>
         <v>0.29951653009878365</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="56">
         <f t="shared" si="2"/>
         <v>0.23111172096338672</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="72">
         <f t="shared" si="3"/>
         <v>0.83014478116095403</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="55">
         <f t="shared" si="4"/>
         <v>1.26</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="56">
         <f t="shared" si="5"/>
         <v>2.2936507936507935</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="187">
+      <c r="B8" s="147">
         <v>1.45</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="68">
         <f t="shared" si="6"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="72">
         <v>1.96</v>
       </c>
-      <c r="E8" s="185">
+      <c r="E8" s="145">
         <v>0.15505352446870821</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="72">
         <f t="shared" si="1"/>
         <v>0.30390490795866809</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="56">
         <f t="shared" si="2"/>
         <v>6.765864847381492E-2</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="72">
         <f t="shared" si="3"/>
         <v>0.67546846439115105</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="55">
         <f t="shared" si="4"/>
         <v>1.07</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="56">
         <f t="shared" si="5"/>
         <v>1.9649532710280369</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="187">
+      <c r="B9" s="147">
         <v>1.47</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="68">
         <f t="shared" si="6"/>
         <v>0.38526240079064489</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="72">
         <v>1.96</v>
       </c>
-      <c r="E9" s="185">
+      <c r="E9" s="145">
         <v>0.15729661206863085</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="72">
         <f t="shared" si="1"/>
         <v>0.30830135965451649</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="56">
         <f t="shared" si="2"/>
         <v>7.6961041136128394E-2</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="72">
         <f t="shared" si="3"/>
         <v>0.69356376044516144</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="55">
         <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="56">
         <f t="shared" si="5"/>
         <v>2.000833333333333</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="188">
+      <c r="B10" s="148">
         <v>1.0820000000000001</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="6"/>
         <v>7.8811180424289848E-2</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="74">
         <v>1.96</v>
       </c>
-      <c r="E10" s="190">
+      <c r="E10" s="150">
         <v>0.28945759999999998</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="74">
         <f t="shared" si="1"/>
         <v>0.56733689599999992</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="75">
         <f t="shared" si="2"/>
         <v>-0.48852571557571006</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="74">
         <f t="shared" si="3"/>
         <v>0.64614807642428973</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="76">
         <f t="shared" si="4"/>
         <v>0.61353024583876781</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="75">
         <f t="shared" si="5"/>
         <v>1.9081765046472698</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="147">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="78">
         <f t="shared" si="6"/>
         <v>-0.55861628760233928</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="79">
         <v>1.96</v>
       </c>
-      <c r="E11" s="185">
+      <c r="E11" s="145">
         <v>0.32258286000000003</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="79">
         <f t="shared" si="1"/>
         <v>0.63226240560000002</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="80">
         <f t="shared" si="2"/>
         <v>-1.1908786932023392</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="79">
         <f t="shared" si="3"/>
         <v>7.3646117997660743E-2</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="81">
         <f t="shared" si="4"/>
         <v>0.30395406432045408</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="80">
         <f t="shared" si="5"/>
         <v>1.0764258103653943</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="187">
+      <c r="B12" s="147">
         <f>EXP(C12)</f>
         <v>0.93112560940819378</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="78">
         <v>-7.1361092000000001E-2</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="79">
         <v>1.96</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="151">
         <v>0.48514511999999999</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="79">
         <f t="shared" si="1"/>
         <v>0.95088443519999999</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="80">
         <f t="shared" si="2"/>
         <v>-1.0222455271999999</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="79">
         <f t="shared" si="3"/>
         <v>0.87952334320000003</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="81">
         <f t="shared" si="4"/>
         <v>0.35978612287722062</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="80">
         <f t="shared" si="5"/>
         <v>2.4097508085147799</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="149" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="186" t="s">
+      <c r="E13" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="88" t="s">
+      <c r="J13" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="187">
+      <c r="B14" s="147">
         <v>2.6488100000000001</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="87">
         <f t="shared" si="6"/>
         <v>0.97411048253824606</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="88">
         <v>1.96</v>
       </c>
-      <c r="E14" s="185">
+      <c r="E14" s="145">
         <v>0.2804478245730157</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="88">
         <f t="shared" si="1"/>
         <v>0.54967773616311078</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="58">
         <f t="shared" si="2"/>
         <v>0.42443274637513528</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="88">
         <f t="shared" si="3"/>
         <v>1.5237882187013567</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="57">
         <f t="shared" si="4"/>
         <v>1.5287230000000001</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="58">
         <f t="shared" si="5"/>
         <v>4.5895786326888519</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="187">
+      <c r="B15" s="147">
         <v>2.062049</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="87">
         <f t="shared" si="6"/>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="88">
         <v>1.96</v>
       </c>
-      <c r="E15" s="185">
+      <c r="E15" s="145">
         <v>0.29523424577300489</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="88">
         <f t="shared" si="1"/>
         <v>0.5786591217150896</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="58">
         <f t="shared" si="2"/>
         <v>0.14504102693390142</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="88">
         <f t="shared" si="3"/>
         <v>1.3023592703640805</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="57">
         <f t="shared" si="4"/>
         <v>1.1560870000000001</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="58">
         <f t="shared" si="5"/>
         <v>3.6779637504798508</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="187">
+      <c r="B16" s="147">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="87">
         <f t="shared" si="6"/>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="88">
         <v>1.96</v>
       </c>
-      <c r="E16" s="185">
+      <c r="E16" s="145">
         <v>0.3026013838774172</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="88">
         <f t="shared" si="1"/>
         <v>0.59309871239973766</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="58">
         <f t="shared" si="2"/>
         <v>0.188201734612507</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="88">
         <f t="shared" si="3"/>
         <v>1.3743991594119822</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="57">
         <f t="shared" si="4"/>
         <v>1.207077</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="58">
         <f t="shared" si="5"/>
         <v>3.9527010660637232</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="187">
+      <c r="B17" s="147">
         <v>0.4974674</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="87">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="88">
         <v>1.96</v>
       </c>
-      <c r="E17" s="185">
+      <c r="E17" s="145">
         <v>1.9144184239579749</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="88">
         <f t="shared" si="1"/>
         <v>3.7522601109576308</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="58">
         <f t="shared" si="2"/>
         <v>-4.450485363126341</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="88">
         <f t="shared" si="3"/>
         <v>3.0540348587889206</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="57">
         <f t="shared" si="4"/>
         <v>1.1672899999999996E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="58">
         <f t="shared" si="5"/>
         <v>21.200713966774323</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="3">
         <v>0.64958930000000004</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="17"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="91">
+      <c r="A19" s="97"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="87">
         <v>0.53235580000000005</v>
       </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="20"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="91">
+      <c r="A20" s="97"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="87">
         <v>0.57799120000000004</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="20"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="94">
+      <c r="A21" s="99"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="90">
         <v>0.83279449999999999</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="23"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="18"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="159" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="162"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="93"/>
+      <c r="B24" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="93"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="93"/>
+      <c r="B26" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="93"/>
+      <c r="B27" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="155"/>
+      <c r="B28" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="155"/>
+      <c r="B29" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="155"/>
+      <c r="B30" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="155"/>
+      <c r="B31" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="155"/>
+      <c r="B32" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="155"/>
+      <c r="B33" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="155"/>
+      <c r="B34" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
-      <c r="B24" s="163" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="164" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="165"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="169" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
-      <c r="B27" s="171" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
-      <c r="B28" s="171" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
-      <c r="B29" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
-      <c r="B30" s="168" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
-      <c r="B31" s="175" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
-      <c r="B32" s="171" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="171" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
-      <c r="B34" s="176" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="21"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="24"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="93"/>
+      <c r="B36" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="93"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="94"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3086,262 +2998,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>2.6448100000000001</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>0.97259922908170948</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>0.27967677689110926</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>4.5895770000000002</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>1.89</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>3.28</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>2.06</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>0.72270598280148979</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>9.7998842724142568E-2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.7</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>2.062049</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.72370014864899102</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0.29523424577300489</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>3.6779639999999998</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1.7</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.53062825106217038</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>0.15281455617284881</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>1.26</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>1.6</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>0.47000362924573563</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>0.10202882246565072</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>1.31</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>1.96</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0.78130044701224466</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>0.3026013838774172</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>1.207077</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>3.952699</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>1.45</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>0.37156355643248301</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>0.15505352446870821</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>1.07</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>1.96</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>1.56</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>0.44468582126144574</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>0.10493312285252338</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>1.27</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>1.92</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>34</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>camp</t>
   </si>
@@ -277,6 +277,27 @@
   </si>
   <si>
     <t>## Wald test = 33.67644 on 5 df, p = 2.761523e-06</t>
+  </si>
+  <si>
+    <t>0.63698</t>
+  </si>
+  <si>
+    <t>0.33481 – 1.21188</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>Odds Ratios</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>MACRO2(Updated):</t>
   </si>
 </sst>
 </file>
@@ -286,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +399,46 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +511,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -543,19 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -671,65 +729,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -742,13 +752,10 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -758,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -767,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,19 +783,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,7 +804,7 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,7 +813,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,11 +824,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,7 +840,7 @@
     <xf numFmtId="164" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,13 +852,13 @@
     <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,22 +866,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -886,17 +892,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -904,36 +910,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,35 +948,31 @@
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,28 +995,28 @@
     <xf numFmtId="164" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,43 +1025,16 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1072,7 +1047,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1082,13 +1057,13 @@
     <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,24 +1072,7 @@
     <xf numFmtId="164" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1125,8 +1083,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1136,18 +1094,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1156,6 +1114,120 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,28 +1514,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1478,7 +1550,7 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2"/>
@@ -1493,22 +1565,22 @@
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="67">
         <v>2.06</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="67">
         <v>0.72208000000000006</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="67">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="67">
         <v>1.7</v>
       </c>
-      <c r="F2" s="114">
+      <c r="F2" s="107">
         <v>2.4900000000000002</v>
       </c>
       <c r="G2" s="2"/>
@@ -1523,24 +1595,24 @@
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="65">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="68">
-        <f t="shared" ref="C3:C11" si="0">LN(B3)</f>
+      <c r="C3" s="65">
+        <f t="shared" ref="C3:C10" si="0">LN(B3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="68">
-        <f t="shared" ref="D3:D11" si="1">(LN(B3/E3))/1.96</f>
+      <c r="D3" s="65">
+        <f t="shared" ref="D3:D10" si="1">(LN(B3/E3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="65">
         <v>1.89</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="108">
         <v>3.28</v>
       </c>
       <c r="G3" s="2"/>
@@ -1555,23 +1627,23 @@
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="65">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="65">
         <v>7.8938900000000006E-2</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="65">
         <f t="shared" si="1"/>
         <v>0.28938720751415131</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="65">
         <v>0.61361489999999996</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="108">
         <v>1.908401</v>
       </c>
       <c r="G4" s="2"/>
@@ -1586,24 +1658,24 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="172">
+      <c r="B5" s="147">
         <v>2.6488100000000001</v>
       </c>
-      <c r="C5" s="172">
+      <c r="C5" s="147">
         <f>LN(B5)</f>
         <v>0.97411048253824606</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="147">
         <f t="shared" ref="D5" si="2">(LN(B5/E5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="E5" s="172">
+      <c r="E5" s="147">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F5" s="173">
+      <c r="F5" s="148">
         <v>4.5895770000000002</v>
       </c>
       <c r="G5" s="2"/>
@@ -1618,22 +1690,22 @@
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="109">
         <v>1.6</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="110">
         <v>0.47271299999999999</v>
       </c>
-      <c r="D6" s="118">
+      <c r="D6" s="111">
         <v>0.102038</v>
       </c>
-      <c r="E6" s="117">
+      <c r="E6" s="110">
         <v>1.31</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="111">
         <v>1.96</v>
       </c>
       <c r="G6" s="2"/>
@@ -1648,24 +1720,24 @@
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="112">
         <v>1.7</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="113">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D7" s="121">
+      <c r="D7" s="114">
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="113">
         <v>1.26</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="114">
         <v>2.2799999999999998</v>
       </c>
       <c r="G7" s="2"/>
@@ -1680,23 +1752,23 @@
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="112">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="115">
         <v>-0.55780845999999995</v>
       </c>
-      <c r="D8" s="121">
+      <c r="D8" s="114">
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="113">
         <v>0.30420320000000001</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="114">
         <v>1.077283</v>
       </c>
       <c r="G8" s="2"/>
@@ -1711,24 +1783,24 @@
       <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="174">
+      <c r="B9" s="149">
         <v>2.062049</v>
       </c>
-      <c r="C9" s="172">
+      <c r="C9" s="147">
         <f t="shared" ref="C9" si="3">LN(B9)</f>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D9" s="173">
+      <c r="D9" s="148">
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="147">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F9" s="173">
+      <c r="F9" s="148">
         <v>3.6779639999999998</v>
       </c>
       <c r="G9" s="2"/>
@@ -1743,24 +1815,24 @@
       <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="75">
         <v>1.45</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="75">
         <f t="shared" si="0"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="75">
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="E10" s="170">
+      <c r="E10" s="145">
         <v>1.07</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>1.96</v>
       </c>
       <c r="G10" s="2"/>
@@ -1774,135 +1846,126 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="175" t="s">
+    <row r="11" spans="1:17" s="29" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="176">
-        <v>0.63697999999999999</v>
-      </c>
-      <c r="C11" s="177">
-        <f t="shared" si="0"/>
-        <v>-0.45101702107712965</v>
-      </c>
-      <c r="D11" s="177">
-        <f t="shared" si="1"/>
-        <v>0.32815053630484114</v>
-      </c>
-      <c r="E11" s="176">
+      <c r="B11" s="151">
+        <f>EXP(C11)</f>
+        <v>0.63698144663235268</v>
+      </c>
+      <c r="C11" s="152">
+        <v>-0.45101475000000002</v>
+      </c>
+      <c r="D11" s="152">
+        <v>0.32816135000000002</v>
+      </c>
+      <c r="E11" s="151">
         <v>0.33481</v>
       </c>
-      <c r="F11" s="177">
+      <c r="F11" s="152">
         <v>1.2118800000000001</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="G11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="172">
+      <c r="B12" s="147">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C12" s="172">
+      <c r="C12" s="147">
         <f t="shared" ref="C12" si="4">LN(B12)</f>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="147">
         <f t="shared" ref="D12" si="5">(LN(B12/E12))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="E12" s="174">
+      <c r="E12" s="149">
         <v>1.207077</v>
       </c>
-      <c r="F12" s="172">
+      <c r="F12" s="147">
         <v>3.952699</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="116">
         <v>1.56</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C13" s="116">
         <v>0.44423099999999999</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="116">
         <v>0.105994</v>
       </c>
-      <c r="E13" s="123">
+      <c r="E13" s="116">
         <v>1.27</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="117">
         <v>1.92</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="125">
+      <c r="B14" s="118">
         <v>1.47</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14" s="118">
         <f t="shared" ref="C14:C15" si="6">LN(B14)</f>
         <v>0.38526240079064489</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14" s="118">
         <f>(LN(B14/E14))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="118">
         <v>1.08</v>
       </c>
-      <c r="F14" s="126">
+      <c r="F14" s="119">
         <v>1.99</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="171" t="s">
+      <c r="A15" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="172">
+      <c r="B15" s="147">
         <v>0.4974674</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="147">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="D15" s="172">
+      <c r="D15" s="147">
         <f>(LN(B15/E15))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="E15" s="172">
+      <c r="E15" s="147">
         <v>1.16729E-2</v>
       </c>
-      <c r="F15" s="173">
+      <c r="F15" s="148">
         <v>21.200749999999999</v>
       </c>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A12"/>
@@ -1913,1066 +1976,1095 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="6"/>
+    <col min="10" max="10" width="9.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:12" s="34" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="120" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="126">
         <f>EXP(C2)</f>
         <v>2.0587108789548285</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="47">
         <v>0.72208000000000006</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="59">
         <v>1.96</v>
       </c>
-      <c r="E2" s="144">
+      <c r="E2" s="126">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="59">
         <f>D2*E2</f>
         <v>0.1904728</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="47">
         <f>C2-F2</f>
         <v>0.53160720000000006</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="59">
         <f>C2+F2</f>
         <v>0.91255280000000005</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="46">
         <f>EXP(G2)</f>
         <v>1.7016650280500589</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="47">
         <f>EXP(H2)</f>
         <v>2.4906726137420994</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="145">
+      <c r="B3" s="127">
         <f t="shared" ref="B3:B5" si="0">EXP(C3)</f>
         <v>1.6043408710659648</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="61">
         <v>0.47271299999999999</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="62">
         <v>1.96</v>
       </c>
-      <c r="E3" s="145">
+      <c r="E3" s="127">
         <v>0.102038</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="62">
         <f t="shared" ref="F3:F17" si="1">D3*E3</f>
         <v>0.19999448</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="49">
         <f t="shared" ref="G3:G17" si="2">C3-F3</f>
         <v>0.27271851999999996</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="62">
         <f t="shared" ref="H3:H17" si="3">C3+F3</f>
         <v>0.67270748000000002</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="48">
         <f t="shared" ref="I3:I17" si="4">EXP(G3)</f>
         <v>1.3135304602297513</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="49">
         <f t="shared" ref="J3:J17" si="5">EXP(H3)</f>
         <v>1.9595355482829784</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="146">
+      <c r="B5" s="128">
         <f t="shared" si="0"/>
         <v>1.5592906401603417</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="64">
         <v>0.44423099999999999</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <v>1.96</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="127">
         <v>0.105994</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="62">
         <f t="shared" si="1"/>
         <v>0.20774824</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="49">
         <f t="shared" si="2"/>
         <v>0.23648275999999999</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="62">
         <f t="shared" si="3"/>
         <v>0.65197923999999996</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="48">
         <f t="shared" si="4"/>
         <v>1.2667857160461327</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="49">
         <f t="shared" si="5"/>
         <v>1.919335898482063</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="147">
+      <c r="B6" s="129">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="65">
         <f>LN(B6)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="66">
         <v>1.96</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="126">
         <v>0.14066626602299256</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="66">
         <f t="shared" si="1"/>
         <v>0.27570588140506541</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="51">
         <f t="shared" si="2"/>
         <v>0.636576829071551</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="66">
         <f t="shared" si="3"/>
         <v>1.1879885918816817</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="50">
         <f t="shared" si="4"/>
         <v>1.89</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="51">
         <f t="shared" si="5"/>
         <v>3.2804761904761914</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="147">
+      <c r="B7" s="129">
         <v>1.7</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="65">
         <f t="shared" ref="C7:C17" si="6">LN(B7)</f>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="69">
         <v>1.96</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="127">
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="69">
         <f t="shared" si="1"/>
         <v>0.29951653009878365</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="53">
         <f t="shared" si="2"/>
         <v>0.23111172096338672</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="69">
         <f t="shared" si="3"/>
         <v>0.83014478116095403</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="52">
         <f t="shared" si="4"/>
         <v>1.26</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="53">
         <f t="shared" si="5"/>
         <v>2.2936507936507935</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="147">
+      <c r="B8" s="129">
         <v>1.45</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="65">
         <f t="shared" si="6"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="69">
         <v>1.96</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="127">
         <v>0.15505352446870821</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="69">
         <f t="shared" si="1"/>
         <v>0.30390490795866809</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="53">
         <f t="shared" si="2"/>
         <v>6.765864847381492E-2</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="69">
         <f t="shared" si="3"/>
         <v>0.67546846439115105</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="52">
         <f t="shared" si="4"/>
         <v>1.07</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="53">
         <f t="shared" si="5"/>
         <v>1.9649532710280369</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="147">
+      <c r="B9" s="129">
         <v>1.47</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="65">
         <f t="shared" si="6"/>
         <v>0.38526240079064489</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="69">
         <v>1.96</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="127">
         <v>0.15729661206863085</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="69">
         <f t="shared" si="1"/>
         <v>0.30830135965451649</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="53">
         <f t="shared" si="2"/>
         <v>7.6961041136128394E-2</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="69">
         <f t="shared" si="3"/>
         <v>0.69356376044516144</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="52">
         <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="53">
         <f t="shared" si="5"/>
         <v>2.000833333333333</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="130">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" si="6"/>
         <v>7.8811180424289848E-2</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="71">
         <v>1.96</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="132">
         <v>0.28945759999999998</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="71">
         <f t="shared" si="1"/>
         <v>0.56733689599999992</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="72">
         <f t="shared" si="2"/>
         <v>-0.48852571557571006</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="71">
         <f t="shared" si="3"/>
         <v>0.64614807642428973</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="73">
         <f t="shared" si="4"/>
         <v>0.61353024583876781</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="72">
         <f t="shared" si="5"/>
         <v>1.9081765046472698</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="19"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="147">
+      <c r="B11" s="129">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="75">
         <f t="shared" si="6"/>
         <v>-0.55861628760233928</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="76">
         <v>1.96</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="127">
         <v>0.32258286000000003</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="76">
         <f t="shared" si="1"/>
         <v>0.63226240560000002</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="77">
         <f t="shared" si="2"/>
         <v>-1.1908786932023392</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="76">
         <f t="shared" si="3"/>
         <v>7.3646117997660743E-2</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="78">
         <f t="shared" si="4"/>
         <v>0.30395406432045408</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="77">
         <f t="shared" si="5"/>
         <v>1.0764258103653943</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="147">
+      <c r="B12" s="129">
         <f>EXP(C12)</f>
-        <v>0.93112560940819378</v>
-      </c>
-      <c r="C12" s="78">
-        <v>-7.1361092000000001E-2</v>
-      </c>
-      <c r="D12" s="79">
+        <v>0.63698144663235268</v>
+      </c>
+      <c r="C12" s="75">
+        <v>-0.45101475000000002</v>
+      </c>
+      <c r="D12" s="76">
         <v>1.96</v>
       </c>
-      <c r="E12" s="151">
-        <v>0.48514511999999999</v>
-      </c>
-      <c r="F12" s="79">
+      <c r="E12" s="133">
+        <v>0.32816135000000002</v>
+      </c>
+      <c r="F12" s="76">
         <f t="shared" si="1"/>
-        <v>0.95088443519999999</v>
-      </c>
-      <c r="G12" s="80">
+        <v>0.64319624600000003</v>
+      </c>
+      <c r="G12" s="77">
         <f t="shared" si="2"/>
-        <v>-1.0222455271999999</v>
-      </c>
-      <c r="H12" s="79">
+        <v>-1.0942109960000002</v>
+      </c>
+      <c r="H12" s="76">
         <f t="shared" si="3"/>
-        <v>0.87952334320000003</v>
-      </c>
-      <c r="I12" s="81">
+        <v>0.19218149600000001</v>
+      </c>
+      <c r="I12" s="78">
         <f t="shared" si="4"/>
-        <v>0.35978612287722062</v>
-      </c>
-      <c r="J12" s="80">
+        <v>0.33480366419406132</v>
+      </c>
+      <c r="J12" s="77">
         <f t="shared" si="5"/>
-        <v>2.4097508085147799</v>
-      </c>
-      <c r="K12" s="82" t="s">
+        <v>1.2118904502749519</v>
+      </c>
+      <c r="K12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="147">
+      <c r="B14" s="129">
         <v>2.6488100000000001</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="84">
         <f t="shared" si="6"/>
         <v>0.97411048253824606</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="85">
         <v>1.96</v>
       </c>
-      <c r="E14" s="145">
+      <c r="E14" s="127">
         <v>0.2804478245730157</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="85">
         <f t="shared" si="1"/>
         <v>0.54967773616311078</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="55">
         <f t="shared" si="2"/>
         <v>0.42443274637513528</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="85">
         <f t="shared" si="3"/>
         <v>1.5237882187013567</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="54">
         <f t="shared" si="4"/>
         <v>1.5287230000000001</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="55">
         <f t="shared" si="5"/>
         <v>4.5895786326888519</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="147">
+      <c r="B15" s="129">
         <v>2.062049</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="84">
         <f t="shared" si="6"/>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="85">
         <v>1.96</v>
       </c>
-      <c r="E15" s="145">
+      <c r="E15" s="127">
         <v>0.29523424577300489</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="85">
         <f t="shared" si="1"/>
         <v>0.5786591217150896</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="55">
         <f t="shared" si="2"/>
         <v>0.14504102693390142</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="85">
         <f t="shared" si="3"/>
         <v>1.3023592703640805</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="54">
         <f t="shared" si="4"/>
         <v>1.1560870000000001</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="55">
         <f t="shared" si="5"/>
         <v>3.6779637504798508</v>
       </c>
-      <c r="K15" s="89" t="s">
+      <c r="K15" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="147">
+      <c r="B16" s="129">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="84">
         <f t="shared" si="6"/>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="85">
         <v>1.96</v>
       </c>
-      <c r="E16" s="145">
+      <c r="E16" s="127">
         <v>0.3026013838774172</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="85">
         <f t="shared" si="1"/>
         <v>0.59309871239973766</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="55">
         <f t="shared" si="2"/>
         <v>0.188201734612507</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="85">
         <f t="shared" si="3"/>
         <v>1.3743991594119822</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="54">
         <f t="shared" si="4"/>
         <v>1.207077</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="55">
         <f t="shared" si="5"/>
         <v>3.9527010660637232</v>
       </c>
-      <c r="K16" s="89" t="s">
+      <c r="K16" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="147">
+      <c r="B17" s="129">
         <v>0.4974674</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="84">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="85">
         <v>1.96</v>
       </c>
-      <c r="E17" s="145">
+      <c r="E17" s="127">
         <v>1.9144184239579749</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="85">
         <f t="shared" si="1"/>
         <v>3.7522601109576308</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="55">
         <f t="shared" si="2"/>
         <v>-4.450485363126341</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="85">
         <f t="shared" si="3"/>
         <v>3.0540348587889206</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <f t="shared" si="4"/>
         <v>1.1672899999999996E-2</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="55">
         <f t="shared" si="5"/>
         <v>21.200713966774323</v>
       </c>
-      <c r="K17" s="89" t="s">
+      <c r="K17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="3">
         <v>0.64958930000000004</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="16"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="87">
+      <c r="A19" s="90"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="84">
         <v>0.53235580000000005</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="19"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="87">
+      <c r="A20" s="90"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="84">
         <v>0.57799120000000004</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="19"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="90">
+      <c r="A21" s="92"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="87">
         <v>0.83279449999999999</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="22"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="17"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="160" t="s">
+      <c r="A23" s="157"/>
+      <c r="B23" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="20"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="93"/>
-      <c r="B24" s="165" t="s">
+      <c r="A24" s="158"/>
+      <c r="B24" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="166" t="s">
+      <c r="C24" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="20"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="165"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="158"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="165"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="132" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="172"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="158"/>
+      <c r="B27" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="134" t="s">
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="155" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="194"/>
+      <c r="L27" s="156"/>
+    </row>
+    <row r="28" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="158"/>
+      <c r="B28" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="155"/>
-      <c r="B28" s="134" t="s">
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="158"/>
+      <c r="B29" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155"/>
-      <c r="B29" s="134" t="s">
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="158"/>
+      <c r="B30" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155"/>
-      <c r="B30" s="134" t="s">
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="158"/>
+      <c r="B31" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="155"/>
-      <c r="B31" s="134" t="s">
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="158"/>
+      <c r="B32" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="155"/>
-      <c r="B32" s="134" t="s">
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="158"/>
+      <c r="B33" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="155"/>
-      <c r="B33" s="134" t="s">
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="158"/>
+      <c r="B34" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="155"/>
-      <c r="B34" s="134" t="s">
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="158"/>
+      <c r="B35" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93"/>
-      <c r="B35" s="134" t="s">
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="179"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="158"/>
+      <c r="B36" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
-      <c r="B36" s="137" t="s">
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="179"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="158"/>
+      <c r="B37" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:12" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="23"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="181"/>
+    </row>
+    <row r="38" spans="1:12" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="158"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="165"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="159"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,270 +3082,270 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14" style="6" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="20.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="20.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>2.6448100000000001</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>0.97259922908170948</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>0.27967677689110926</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>4.5895770000000002</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>1.89</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>3.28</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>2.06</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>0.72270598280148979</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>9.7998842724142568E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>1.7</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>2.062049</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>0.72370014864899102</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>0.29523424577300489</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>3.6779639999999998</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>1.7</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>0.53062825106217038</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>0.15281455617284881</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>1.26</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>1.6</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>0.47000362924573563</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>0.10202882246565072</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>1.31</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>1.96</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>0.78130044701224466</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>0.3026013838774172</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>1.207077</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>3.952699</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>1.45</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>0.37156355643248301</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>0.15505352446870821</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>1.07</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>1.96</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>1.56</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>0.44468582126144574</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>0.10493312285252338</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>1.27</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>1.92</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>34</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
     <sheet name="Interval_OR" sheetId="10" r:id="rId2"/>
-    <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
+    <sheet name="Interval_OR2" sheetId="11" r:id="rId3"/>
+    <sheet name="Interval_OR3" sheetId="12" r:id="rId4"/>
+    <sheet name="base_Antiga" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$A$12</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="93">
   <si>
     <t>camp</t>
   </si>
@@ -1506,7 +1508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1516,11 +1518,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,8 +1980,1106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8" style="32" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="34" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="126">
+        <f>EXP(C2)</f>
+        <v>2.0587108789548285</v>
+      </c>
+      <c r="C2" s="47">
+        <v>0.72208000000000006</v>
+      </c>
+      <c r="D2" s="59">
+        <v>1.96</v>
+      </c>
+      <c r="E2" s="126">
+        <v>9.7180000000000002E-2</v>
+      </c>
+      <c r="F2" s="59">
+        <f>D2*E2</f>
+        <v>0.1904728</v>
+      </c>
+      <c r="G2" s="47">
+        <f>C2-F2</f>
+        <v>0.53160720000000006</v>
+      </c>
+      <c r="H2" s="59">
+        <f>C2+F2</f>
+        <v>0.91255280000000005</v>
+      </c>
+      <c r="I2" s="46">
+        <f>EXP(G2)</f>
+        <v>1.7016650280500589</v>
+      </c>
+      <c r="J2" s="47">
+        <f>EXP(H2)</f>
+        <v>2.4906726137420994</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="127">
+        <f t="shared" ref="B3:B5" si="0">EXP(C3)</f>
+        <v>1.6043408710659648</v>
+      </c>
+      <c r="C3" s="61">
+        <v>0.47271299999999999</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1.96</v>
+      </c>
+      <c r="E3" s="127">
+        <v>0.102038</v>
+      </c>
+      <c r="F3" s="62">
+        <f t="shared" ref="F3:F17" si="1">D3*E3</f>
+        <v>0.19999448</v>
+      </c>
+      <c r="G3" s="49">
+        <f t="shared" ref="G3:G17" si="2">C3-F3</f>
+        <v>0.27271851999999996</v>
+      </c>
+      <c r="H3" s="62">
+        <f t="shared" ref="H3:H17" si="3">C3+F3</f>
+        <v>0.67270748000000002</v>
+      </c>
+      <c r="I3" s="48">
+        <f t="shared" ref="I3:I17" si="4">EXP(G3)</f>
+        <v>1.3135304602297513</v>
+      </c>
+      <c r="J3" s="49">
+        <f t="shared" ref="J3:J17" si="5">EXP(H3)</f>
+        <v>1.9595355482829784</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="128">
+        <f t="shared" si="0"/>
+        <v>1.5592906401603417</v>
+      </c>
+      <c r="C5" s="64">
+        <v>0.44423099999999999</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1.96</v>
+      </c>
+      <c r="E5" s="127">
+        <v>0.105994</v>
+      </c>
+      <c r="F5" s="62">
+        <f t="shared" si="1"/>
+        <v>0.20774824</v>
+      </c>
+      <c r="G5" s="49">
+        <f t="shared" si="2"/>
+        <v>0.23648275999999999</v>
+      </c>
+      <c r="H5" s="62">
+        <f t="shared" si="3"/>
+        <v>0.65197923999999996</v>
+      </c>
+      <c r="I5" s="48">
+        <f t="shared" si="4"/>
+        <v>1.2667857160461327</v>
+      </c>
+      <c r="J5" s="49">
+        <f t="shared" si="5"/>
+        <v>1.919335898482063</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="129">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C6" s="65">
+        <f>LN(B6)</f>
+        <v>0.91228271047661635</v>
+      </c>
+      <c r="D6" s="66">
+        <v>1.96</v>
+      </c>
+      <c r="E6" s="126">
+        <v>0.14066626602299256</v>
+      </c>
+      <c r="F6" s="66">
+        <f t="shared" si="1"/>
+        <v>0.27570588140506541</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="2"/>
+        <v>0.636576829071551</v>
+      </c>
+      <c r="H6" s="66">
+        <f t="shared" si="3"/>
+        <v>1.1879885918816817</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="4"/>
+        <v>1.89</v>
+      </c>
+      <c r="J6" s="51">
+        <f t="shared" si="5"/>
+        <v>3.2804761904761914</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="129">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="65">
+        <f t="shared" ref="C7:C17" si="6">LN(B7)</f>
+        <v>0.53062825106217038</v>
+      </c>
+      <c r="D7" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E7" s="127">
+        <v>0.15281455617284881</v>
+      </c>
+      <c r="F7" s="69">
+        <f t="shared" si="1"/>
+        <v>0.29951653009878365</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="2"/>
+        <v>0.23111172096338672</v>
+      </c>
+      <c r="H7" s="69">
+        <f t="shared" si="3"/>
+        <v>0.83014478116095403</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="4"/>
+        <v>1.26</v>
+      </c>
+      <c r="J7" s="53">
+        <f t="shared" si="5"/>
+        <v>2.2936507936507935</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="129">
+        <v>1.45</v>
+      </c>
+      <c r="C8" s="65">
+        <f t="shared" si="6"/>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D8" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E8" s="127">
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="F8" s="69">
+        <f t="shared" si="1"/>
+        <v>0.30390490795866809</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="2"/>
+        <v>6.765864847381492E-2</v>
+      </c>
+      <c r="H8" s="69">
+        <f t="shared" si="3"/>
+        <v>0.67546846439115105</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="4"/>
+        <v>1.07</v>
+      </c>
+      <c r="J8" s="53">
+        <f t="shared" si="5"/>
+        <v>1.9649532710280369</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="129">
+        <v>1.47</v>
+      </c>
+      <c r="C9" s="65">
+        <f t="shared" si="6"/>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="D9" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E9" s="127">
+        <v>0.15729661206863085</v>
+      </c>
+      <c r="F9" s="69">
+        <f t="shared" si="1"/>
+        <v>0.30830135965451649</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="2"/>
+        <v>7.6961041136128394E-2</v>
+      </c>
+      <c r="H9" s="69">
+        <f t="shared" si="3"/>
+        <v>0.69356376044516144</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="J9" s="53">
+        <f t="shared" si="5"/>
+        <v>2.000833333333333</v>
+      </c>
+      <c r="K9" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="130">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="6"/>
+        <v>7.8811180424289848E-2</v>
+      </c>
+      <c r="D10" s="71">
+        <v>1.96</v>
+      </c>
+      <c r="E10" s="132">
+        <v>0.28945759999999998</v>
+      </c>
+      <c r="F10" s="71">
+        <f t="shared" si="1"/>
+        <v>0.56733689599999992</v>
+      </c>
+      <c r="G10" s="72">
+        <f t="shared" si="2"/>
+        <v>-0.48852571557571006</v>
+      </c>
+      <c r="H10" s="71">
+        <f t="shared" si="3"/>
+        <v>0.64614807642428973</v>
+      </c>
+      <c r="I10" s="73">
+        <f t="shared" si="4"/>
+        <v>0.61353024583876781</v>
+      </c>
+      <c r="J10" s="72">
+        <f t="shared" si="5"/>
+        <v>1.9081765046472698</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="129">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C11" s="75">
+        <f t="shared" si="6"/>
+        <v>-0.55861628760233928</v>
+      </c>
+      <c r="D11" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E11" s="127">
+        <v>0.32258286000000003</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="1"/>
+        <v>0.63226240560000002</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="2"/>
+        <v>-1.1908786932023392</v>
+      </c>
+      <c r="H11" s="76">
+        <f t="shared" si="3"/>
+        <v>7.3646117997660743E-2</v>
+      </c>
+      <c r="I11" s="78">
+        <f t="shared" si="4"/>
+        <v>0.30395406432045408</v>
+      </c>
+      <c r="J11" s="77">
+        <f t="shared" si="5"/>
+        <v>1.0764258103653943</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="129">
+        <f>EXP(C12)</f>
+        <v>0.63698144663235268</v>
+      </c>
+      <c r="C12" s="75">
+        <v>-0.45101475000000002</v>
+      </c>
+      <c r="D12" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E12" s="133">
+        <v>0.32816135000000002</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" si="1"/>
+        <v>0.64319624600000003</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="2"/>
+        <v>-1.0942109960000002</v>
+      </c>
+      <c r="H12" s="76">
+        <f t="shared" si="3"/>
+        <v>0.19218149600000001</v>
+      </c>
+      <c r="I12" s="78">
+        <f t="shared" si="4"/>
+        <v>0.33480366419406132</v>
+      </c>
+      <c r="J12" s="77">
+        <f t="shared" si="5"/>
+        <v>1.2118904502749519</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="129">
+        <v>2.6488100000000001</v>
+      </c>
+      <c r="C14" s="84">
+        <f t="shared" si="6"/>
+        <v>0.97411048253824606</v>
+      </c>
+      <c r="D14" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E14" s="127">
+        <v>0.2804478245730157</v>
+      </c>
+      <c r="F14" s="85">
+        <f t="shared" si="1"/>
+        <v>0.54967773616311078</v>
+      </c>
+      <c r="G14" s="55">
+        <f t="shared" si="2"/>
+        <v>0.42443274637513528</v>
+      </c>
+      <c r="H14" s="85">
+        <f t="shared" si="3"/>
+        <v>1.5237882187013567</v>
+      </c>
+      <c r="I14" s="54">
+        <f t="shared" si="4"/>
+        <v>1.5287230000000001</v>
+      </c>
+      <c r="J14" s="55">
+        <f t="shared" si="5"/>
+        <v>4.5895786326888519</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="129">
+        <v>2.062049</v>
+      </c>
+      <c r="C15" s="84">
+        <f t="shared" si="6"/>
+        <v>0.72370014864899102</v>
+      </c>
+      <c r="D15" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E15" s="127">
+        <v>0.29523424577300489</v>
+      </c>
+      <c r="F15" s="85">
+        <f t="shared" si="1"/>
+        <v>0.5786591217150896</v>
+      </c>
+      <c r="G15" s="55">
+        <f t="shared" si="2"/>
+        <v>0.14504102693390142</v>
+      </c>
+      <c r="H15" s="85">
+        <f t="shared" si="3"/>
+        <v>1.3023592703640805</v>
+      </c>
+      <c r="I15" s="54">
+        <f t="shared" si="4"/>
+        <v>1.1560870000000001</v>
+      </c>
+      <c r="J15" s="55">
+        <f t="shared" si="5"/>
+        <v>3.6779637504798508</v>
+      </c>
+      <c r="K15" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="129">
+        <v>2.1843110000000001</v>
+      </c>
+      <c r="C16" s="84">
+        <f t="shared" si="6"/>
+        <v>0.78130044701224466</v>
+      </c>
+      <c r="D16" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E16" s="127">
+        <v>0.3026013838774172</v>
+      </c>
+      <c r="F16" s="85">
+        <f t="shared" si="1"/>
+        <v>0.59309871239973766</v>
+      </c>
+      <c r="G16" s="55">
+        <f t="shared" si="2"/>
+        <v>0.188201734612507</v>
+      </c>
+      <c r="H16" s="85">
+        <f t="shared" si="3"/>
+        <v>1.3743991594119822</v>
+      </c>
+      <c r="I16" s="54">
+        <f t="shared" si="4"/>
+        <v>1.207077</v>
+      </c>
+      <c r="J16" s="55">
+        <f t="shared" si="5"/>
+        <v>3.9527010660637232</v>
+      </c>
+      <c r="K16" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="129">
+        <v>0.4974674</v>
+      </c>
+      <c r="C17" s="84">
+        <f t="shared" si="6"/>
+        <v>-0.69822525216871001</v>
+      </c>
+      <c r="D17" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E17" s="127">
+        <v>1.9144184239579749</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="1"/>
+        <v>3.7522601109576308</v>
+      </c>
+      <c r="G17" s="55">
+        <f t="shared" si="2"/>
+        <v>-4.450485363126341</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="3"/>
+        <v>3.0540348587889206</v>
+      </c>
+      <c r="I17" s="54">
+        <f t="shared" si="4"/>
+        <v>1.1672899999999996E-2</v>
+      </c>
+      <c r="J17" s="55">
+        <f t="shared" si="5"/>
+        <v>21.200713966774323</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="3">
+        <v>0.64958930000000004</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="84">
+        <v>0.53235580000000005</v>
+      </c>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="84">
+        <v>0.57799120000000004</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="87">
+        <v>0.83279449999999999</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="4.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="157"/>
+      <c r="B23" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="165"/>
+    </row>
+    <row r="25" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="158"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="165"/>
+    </row>
+    <row r="26" spans="1:12" ht="3" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="158"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="172"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="158"/>
+      <c r="B27" s="186" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="155" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="194"/>
+      <c r="L27" s="156"/>
+    </row>
+    <row r="28" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="158"/>
+      <c r="B28" s="186" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="158"/>
+      <c r="B29" s="189" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="158"/>
+      <c r="B30" s="186" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="158"/>
+      <c r="B31" s="186" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="158"/>
+      <c r="B32" s="186" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="158"/>
+      <c r="B33" s="186" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="158"/>
+      <c r="B34" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="158"/>
+      <c r="B35" s="186" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="179"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="158"/>
+      <c r="B36" s="186" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="179"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="158"/>
+      <c r="B37" s="186" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="181"/>
+    </row>
+    <row r="38" spans="1:12" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="158"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="165"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="159"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="170"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,11 +3208,11 @@
         <v>0.67270748000000002</v>
       </c>
       <c r="I3" s="48">
-        <f t="shared" ref="I3:I17" si="4">EXP(G3)</f>
+        <f t="shared" ref="I3:J17" si="4">EXP(G3)</f>
         <v>1.3135304602297513</v>
       </c>
       <c r="J3" s="49">
-        <f t="shared" ref="J3:J17" si="5">EXP(H3)</f>
+        <f t="shared" si="4"/>
         <v>1.9595355482829784</v>
       </c>
       <c r="K3" s="63" t="s">
@@ -2190,7 +3290,7 @@
         <v>1.2667857160461327</v>
       </c>
       <c r="J5" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.919335898482063</v>
       </c>
       <c r="K5" s="63" t="s">
@@ -2232,7 +3332,7 @@
         <v>1.89</v>
       </c>
       <c r="J6" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2804761904761914</v>
       </c>
       <c r="K6" s="68" t="s">
@@ -2248,7 +3348,7 @@
         <v>1.7</v>
       </c>
       <c r="C7" s="65">
-        <f t="shared" ref="C7:C17" si="6">LN(B7)</f>
+        <f t="shared" ref="C7:C17" si="5">LN(B7)</f>
         <v>0.53062825106217038</v>
       </c>
       <c r="D7" s="69">
@@ -2274,7 +3374,7 @@
         <v>1.26</v>
       </c>
       <c r="J7" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2936507936507935</v>
       </c>
       <c r="K7" s="70" t="s">
@@ -2290,7 +3390,7 @@
         <v>1.45</v>
       </c>
       <c r="C8" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.37156355643248301</v>
       </c>
       <c r="D8" s="69">
@@ -2316,7 +3416,7 @@
         <v>1.07</v>
       </c>
       <c r="J8" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9649532710280369</v>
       </c>
       <c r="K8" s="70" t="s">
@@ -2332,7 +3432,7 @@
         <v>1.47</v>
       </c>
       <c r="C9" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.38526240079064489</v>
       </c>
       <c r="D9" s="69">
@@ -2358,7 +3458,7 @@
         <v>1.08</v>
       </c>
       <c r="J9" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.000833333333333</v>
       </c>
       <c r="K9" s="70" t="s">
@@ -2374,7 +3474,7 @@
         <v>1.0820000000000001</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.8811180424289848E-2</v>
       </c>
       <c r="D10" s="71">
@@ -2400,7 +3500,7 @@
         <v>0.61353024583876781</v>
       </c>
       <c r="J10" s="72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9081765046472698</v>
       </c>
       <c r="K10" s="74" t="s">
@@ -2416,7 +3516,7 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="C11" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.55861628760233928</v>
       </c>
       <c r="D11" s="76">
@@ -2442,7 +3542,7 @@
         <v>0.30395406432045408</v>
       </c>
       <c r="J11" s="77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0764258103653943</v>
       </c>
       <c r="K11" s="79" t="s">
@@ -2484,7 +3584,7 @@
         <v>0.33480366419406132</v>
       </c>
       <c r="J12" s="77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2118904502749519</v>
       </c>
       <c r="K12" s="79" t="s">
@@ -2538,7 +3638,7 @@
         <v>2.6488100000000001</v>
       </c>
       <c r="C14" s="84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.97411048253824606</v>
       </c>
       <c r="D14" s="85">
@@ -2564,7 +3664,7 @@
         <v>1.5287230000000001</v>
       </c>
       <c r="J14" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5895786326888519</v>
       </c>
       <c r="K14" s="86" t="s">
@@ -2582,7 +3682,7 @@
         <v>2.062049</v>
       </c>
       <c r="C15" s="84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.72370014864899102</v>
       </c>
       <c r="D15" s="85">
@@ -2608,7 +3708,7 @@
         <v>1.1560870000000001</v>
       </c>
       <c r="J15" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.6779637504798508</v>
       </c>
       <c r="K15" s="86" t="s">
@@ -2626,7 +3726,7 @@
         <v>2.1843110000000001</v>
       </c>
       <c r="C16" s="84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.78130044701224466</v>
       </c>
       <c r="D16" s="85">
@@ -2652,7 +3752,7 @@
         <v>1.207077</v>
       </c>
       <c r="J16" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9527010660637232</v>
       </c>
       <c r="K16" s="86" t="s">
@@ -2670,7 +3770,7 @@
         <v>0.4974674</v>
       </c>
       <c r="C17" s="84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.69822525216871001</v>
       </c>
       <c r="D17" s="85">
@@ -2696,7 +3796,7 @@
         <v>1.1672899999999996E-2</v>
       </c>
       <c r="J17" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.200713966774323</v>
       </c>
       <c r="K17" s="86" t="s">
@@ -3068,11 +4168,1107 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="34" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="126">
+        <f>EXP(C2)</f>
+        <v>2.0587108789548285</v>
+      </c>
+      <c r="C2" s="47">
+        <v>0.72208000000000006</v>
+      </c>
+      <c r="D2" s="59">
+        <v>1.96</v>
+      </c>
+      <c r="E2" s="126">
+        <v>9.7180000000000002E-2</v>
+      </c>
+      <c r="F2" s="59">
+        <f>D2*E2</f>
+        <v>0.1904728</v>
+      </c>
+      <c r="G2" s="47">
+        <f>C2-F2</f>
+        <v>0.53160720000000006</v>
+      </c>
+      <c r="H2" s="59">
+        <f>C2+F2</f>
+        <v>0.91255280000000005</v>
+      </c>
+      <c r="I2" s="46">
+        <f>EXP(G2)</f>
+        <v>1.7016650280500589</v>
+      </c>
+      <c r="J2" s="47">
+        <f>EXP(H2)</f>
+        <v>2.4906726137420994</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="127">
+        <f t="shared" ref="B3:B5" si="0">EXP(C3)</f>
+        <v>1.6043408710659648</v>
+      </c>
+      <c r="C3" s="61">
+        <v>0.47271299999999999</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1.96</v>
+      </c>
+      <c r="E3" s="127">
+        <v>0.102038</v>
+      </c>
+      <c r="F3" s="62">
+        <f t="shared" ref="F3:F17" si="1">D3*E3</f>
+        <v>0.19999448</v>
+      </c>
+      <c r="G3" s="49">
+        <f t="shared" ref="G3:G17" si="2">C3-F3</f>
+        <v>0.27271851999999996</v>
+      </c>
+      <c r="H3" s="62">
+        <f t="shared" ref="H3:H17" si="3">C3+F3</f>
+        <v>0.67270748000000002</v>
+      </c>
+      <c r="I3" s="48">
+        <f t="shared" ref="I3:J17" si="4">EXP(G3)</f>
+        <v>1.3135304602297513</v>
+      </c>
+      <c r="J3" s="49">
+        <f t="shared" si="4"/>
+        <v>1.9595355482829784</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="128">
+        <f t="shared" si="0"/>
+        <v>1.5592906401603417</v>
+      </c>
+      <c r="C5" s="64">
+        <v>0.44423099999999999</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1.96</v>
+      </c>
+      <c r="E5" s="127">
+        <v>0.105994</v>
+      </c>
+      <c r="F5" s="62">
+        <f t="shared" si="1"/>
+        <v>0.20774824</v>
+      </c>
+      <c r="G5" s="49">
+        <f t="shared" si="2"/>
+        <v>0.23648275999999999</v>
+      </c>
+      <c r="H5" s="62">
+        <f t="shared" si="3"/>
+        <v>0.65197923999999996</v>
+      </c>
+      <c r="I5" s="48">
+        <f t="shared" si="4"/>
+        <v>1.2667857160461327</v>
+      </c>
+      <c r="J5" s="49">
+        <f t="shared" si="4"/>
+        <v>1.919335898482063</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="129">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C6" s="65">
+        <f>LN(B6)</f>
+        <v>0.91228271047661635</v>
+      </c>
+      <c r="D6" s="66">
+        <v>1.96</v>
+      </c>
+      <c r="E6" s="126">
+        <v>0.14066626602299256</v>
+      </c>
+      <c r="F6" s="66">
+        <f t="shared" si="1"/>
+        <v>0.27570588140506541</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="2"/>
+        <v>0.636576829071551</v>
+      </c>
+      <c r="H6" s="66">
+        <f t="shared" si="3"/>
+        <v>1.1879885918816817</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="4"/>
+        <v>1.89</v>
+      </c>
+      <c r="J6" s="51">
+        <f t="shared" si="4"/>
+        <v>3.2804761904761914</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="129">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="65">
+        <f t="shared" ref="C7:C17" si="5">LN(B7)</f>
+        <v>0.53062825106217038</v>
+      </c>
+      <c r="D7" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E7" s="127">
+        <v>0.15281455617284881</v>
+      </c>
+      <c r="F7" s="69">
+        <f t="shared" si="1"/>
+        <v>0.29951653009878365</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="2"/>
+        <v>0.23111172096338672</v>
+      </c>
+      <c r="H7" s="69">
+        <f t="shared" si="3"/>
+        <v>0.83014478116095403</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="4"/>
+        <v>1.26</v>
+      </c>
+      <c r="J7" s="53">
+        <f t="shared" si="4"/>
+        <v>2.2936507936507935</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="129">
+        <v>1.45</v>
+      </c>
+      <c r="C8" s="65">
+        <f t="shared" si="5"/>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="D8" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E8" s="127">
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="F8" s="69">
+        <f t="shared" si="1"/>
+        <v>0.30390490795866809</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="2"/>
+        <v>6.765864847381492E-2</v>
+      </c>
+      <c r="H8" s="69">
+        <f t="shared" si="3"/>
+        <v>0.67546846439115105</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="4"/>
+        <v>1.07</v>
+      </c>
+      <c r="J8" s="53">
+        <f t="shared" si="4"/>
+        <v>1.9649532710280369</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="129">
+        <v>1.47</v>
+      </c>
+      <c r="C9" s="65">
+        <f t="shared" si="5"/>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="D9" s="69">
+        <v>1.96</v>
+      </c>
+      <c r="E9" s="127">
+        <v>0.15729661206863085</v>
+      </c>
+      <c r="F9" s="69">
+        <f t="shared" si="1"/>
+        <v>0.30830135965451649</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="2"/>
+        <v>7.6961041136128394E-2</v>
+      </c>
+      <c r="H9" s="69">
+        <f t="shared" si="3"/>
+        <v>0.69356376044516144</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="J9" s="53">
+        <f t="shared" si="4"/>
+        <v>2.000833333333333</v>
+      </c>
+      <c r="K9" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="130">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="5"/>
+        <v>7.8811180424289848E-2</v>
+      </c>
+      <c r="D10" s="71">
+        <v>1.96</v>
+      </c>
+      <c r="E10" s="132">
+        <v>0.28945759999999998</v>
+      </c>
+      <c r="F10" s="71">
+        <f t="shared" si="1"/>
+        <v>0.56733689599999992</v>
+      </c>
+      <c r="G10" s="72">
+        <f t="shared" si="2"/>
+        <v>-0.48852571557571006</v>
+      </c>
+      <c r="H10" s="71">
+        <f t="shared" si="3"/>
+        <v>0.64614807642428973</v>
+      </c>
+      <c r="I10" s="73">
+        <f t="shared" si="4"/>
+        <v>0.61353024583876781</v>
+      </c>
+      <c r="J10" s="72">
+        <f t="shared" si="4"/>
+        <v>1.9081765046472698</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="129">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C11" s="75">
+        <f t="shared" si="5"/>
+        <v>-0.55861628760233928</v>
+      </c>
+      <c r="D11" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E11" s="127">
+        <v>0.32258286000000003</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="1"/>
+        <v>0.63226240560000002</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="2"/>
+        <v>-1.1908786932023392</v>
+      </c>
+      <c r="H11" s="76">
+        <f t="shared" si="3"/>
+        <v>7.3646117997660743E-2</v>
+      </c>
+      <c r="I11" s="78">
+        <f t="shared" si="4"/>
+        <v>0.30395406432045408</v>
+      </c>
+      <c r="J11" s="77">
+        <f t="shared" si="4"/>
+        <v>1.0764258103653943</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="129">
+        <f>EXP(C12)</f>
+        <v>0.63698144663235268</v>
+      </c>
+      <c r="C12" s="75">
+        <v>-0.45101475000000002</v>
+      </c>
+      <c r="D12" s="76">
+        <v>1.96</v>
+      </c>
+      <c r="E12" s="133">
+        <v>0.32816135000000002</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" si="1"/>
+        <v>0.64319624600000003</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="2"/>
+        <v>-1.0942109960000002</v>
+      </c>
+      <c r="H12" s="76">
+        <f t="shared" si="3"/>
+        <v>0.19218149600000001</v>
+      </c>
+      <c r="I12" s="78">
+        <f t="shared" si="4"/>
+        <v>0.33480366419406132</v>
+      </c>
+      <c r="J12" s="77">
+        <f t="shared" si="4"/>
+        <v>1.2118904502749519</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="129">
+        <v>2.6488100000000001</v>
+      </c>
+      <c r="C14" s="84">
+        <f t="shared" si="5"/>
+        <v>0.97411048253824606</v>
+      </c>
+      <c r="D14" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E14" s="127">
+        <v>0.2804478245730157</v>
+      </c>
+      <c r="F14" s="85">
+        <f t="shared" si="1"/>
+        <v>0.54967773616311078</v>
+      </c>
+      <c r="G14" s="55">
+        <f t="shared" si="2"/>
+        <v>0.42443274637513528</v>
+      </c>
+      <c r="H14" s="85">
+        <f t="shared" si="3"/>
+        <v>1.5237882187013567</v>
+      </c>
+      <c r="I14" s="54">
+        <f t="shared" si="4"/>
+        <v>1.5287230000000001</v>
+      </c>
+      <c r="J14" s="55">
+        <f t="shared" si="4"/>
+        <v>4.5895786326888519</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="129">
+        <v>2.062049</v>
+      </c>
+      <c r="C15" s="84">
+        <f t="shared" si="5"/>
+        <v>0.72370014864899102</v>
+      </c>
+      <c r="D15" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E15" s="127">
+        <v>0.29523424577300489</v>
+      </c>
+      <c r="F15" s="85">
+        <f t="shared" si="1"/>
+        <v>0.5786591217150896</v>
+      </c>
+      <c r="G15" s="55">
+        <f t="shared" si="2"/>
+        <v>0.14504102693390142</v>
+      </c>
+      <c r="H15" s="85">
+        <f t="shared" si="3"/>
+        <v>1.3023592703640805</v>
+      </c>
+      <c r="I15" s="54">
+        <f t="shared" si="4"/>
+        <v>1.1560870000000001</v>
+      </c>
+      <c r="J15" s="55">
+        <f t="shared" si="4"/>
+        <v>3.6779637504798508</v>
+      </c>
+      <c r="K15" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="129">
+        <v>2.1843110000000001</v>
+      </c>
+      <c r="C16" s="84">
+        <f t="shared" si="5"/>
+        <v>0.78130044701224466</v>
+      </c>
+      <c r="D16" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E16" s="127">
+        <v>0.3026013838774172</v>
+      </c>
+      <c r="F16" s="85">
+        <f t="shared" si="1"/>
+        <v>0.59309871239973766</v>
+      </c>
+      <c r="G16" s="55">
+        <f t="shared" si="2"/>
+        <v>0.188201734612507</v>
+      </c>
+      <c r="H16" s="85">
+        <f t="shared" si="3"/>
+        <v>1.3743991594119822</v>
+      </c>
+      <c r="I16" s="54">
+        <f t="shared" si="4"/>
+        <v>1.207077</v>
+      </c>
+      <c r="J16" s="55">
+        <f t="shared" si="4"/>
+        <v>3.9527010660637232</v>
+      </c>
+      <c r="K16" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="129">
+        <v>0.4974674</v>
+      </c>
+      <c r="C17" s="84">
+        <f t="shared" si="5"/>
+        <v>-0.69822525216871001</v>
+      </c>
+      <c r="D17" s="85">
+        <v>1.96</v>
+      </c>
+      <c r="E17" s="127">
+        <v>1.9144184239579749</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="1"/>
+        <v>3.7522601109576308</v>
+      </c>
+      <c r="G17" s="55">
+        <f t="shared" si="2"/>
+        <v>-4.450485363126341</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="3"/>
+        <v>3.0540348587889206</v>
+      </c>
+      <c r="I17" s="54">
+        <f t="shared" si="4"/>
+        <v>1.1672899999999996E-2</v>
+      </c>
+      <c r="J17" s="55">
+        <f t="shared" si="4"/>
+        <v>21.200713966774323</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="3">
+        <v>0.64958930000000004</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="84">
+        <v>0.53235580000000005</v>
+      </c>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="84">
+        <v>0.57799120000000004</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="87">
+        <v>0.83279449999999999</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="157"/>
+      <c r="B23" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="165"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="158"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="165"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="158"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="172"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="158"/>
+      <c r="B27" s="186" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="155" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="194"/>
+      <c r="L27" s="156"/>
+    </row>
+    <row r="28" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="158"/>
+      <c r="B28" s="186" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="158"/>
+      <c r="B29" s="189" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="158"/>
+      <c r="B30" s="186" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="158"/>
+      <c r="B31" s="186" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="158"/>
+      <c r="B32" s="186" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="158"/>
+      <c r="B33" s="186" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="158"/>
+      <c r="B34" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="158"/>
+      <c r="B35" s="186" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="179"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="158"/>
+      <c r="B36" s="186" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="179"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="158"/>
+      <c r="B37" s="186" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="181"/>
+    </row>
+    <row r="38" spans="1:12" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="158"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="165"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="159"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="170"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -471,7 +471,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,44 +510,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,19 +591,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -732,189 +698,87 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,40 +794,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,35 +831,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1031,65 +889,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1103,28 +958,42 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1137,168 +1006,237 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,7 +1515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1585,1048 +1523,1015 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="182" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="182" customWidth="1"/>
-    <col min="6" max="6" width="8" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="143" customWidth="1"/>
+    <col min="2" max="2" width="14" style="143" customWidth="1"/>
+    <col min="3" max="3" width="14" style="145" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="146" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="145" customWidth="1"/>
+    <col min="6" max="6" width="8" style="146" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="146" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="188" t="s">
+      <c r="G1" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="182">
         <v>2.06</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="147">
         <v>0.72208000000000006</v>
       </c>
-      <c r="E2" s="202">
+      <c r="E2" s="54">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="188">
         <v>1.7</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="189">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="183">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="148">
         <f t="shared" ref="D3:D10" si="0">LN(C3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="E3" s="133">
+      <c r="E3" s="55">
         <f t="shared" ref="E3:E10" si="1">(LN(C3/F3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="192">
         <v>1.89</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="193">
         <v>3.28</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-    </row>
-    <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="173" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="183">
         <v>1.0820000000000001</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="148">
         <v>7.8938900000000006E-2</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="55">
         <f t="shared" si="1"/>
         <v>0.28938720751415131</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="192">
         <v>0.61361489999999996</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="193">
         <v>1.908401</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="183">
+      <c r="C5" s="184">
         <v>2.6488100000000001</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="149">
         <f>LN(C5)</f>
         <v>0.97411048253824606</v>
       </c>
-      <c r="E5" s="186">
+      <c r="E5" s="56">
         <f t="shared" ref="E5" si="2">(LN(C5/F5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="197">
         <v>1.5287230000000001</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="198">
         <v>4.5895770000000002</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="198">
+      <c r="C6" s="182">
         <v>1.6</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="147">
         <v>0.47271299999999999</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="54">
         <v>0.102038</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="188">
         <v>1.31</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="189">
         <v>1.96</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="183">
         <v>1.7</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="148">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="55">
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="192">
         <v>1.26</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="193">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="169" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="183">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="150">
         <v>-0.55780845999999995</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="55">
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="192">
         <v>0.30420320000000001</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="193">
         <v>1.077283</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="184">
         <v>2.062049</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="149">
         <f t="shared" ref="D9" si="3">LN(C9)</f>
         <v>0.72370014864899102</v>
       </c>
-      <c r="E9" s="183">
+      <c r="E9" s="56">
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="197">
         <v>1.1560870000000001</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="198">
         <v>3.6779639999999998</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="187" t="s">
+      <c r="A10" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="182">
         <v>1.45</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="147">
         <f t="shared" si="0"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="E10" s="197">
+      <c r="E10" s="54">
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="F10" s="189">
+      <c r="F10" s="188">
         <v>1.07</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="189">
         <v>1.96</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:18" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="175" t="s">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" s="144" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="185">
         <f>EXP(D11)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="151">
         <v>-0.45101475000000002</v>
       </c>
-      <c r="E11" s="203">
+      <c r="E11" s="138">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F11" s="190">
+      <c r="F11" s="199">
         <v>0.33481</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="200">
         <v>1.2118800000000001</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="183">
+      <c r="C12" s="184">
         <v>2.1843110000000001</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="149">
         <f t="shared" ref="D12" si="4">LN(C12)</f>
         <v>0.78130044701224466</v>
       </c>
-      <c r="E12" s="186">
+      <c r="E12" s="56">
         <f t="shared" ref="E12" si="5">(LN(C12/F12))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="197">
         <v>1.207077</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="198">
         <v>3.952699</v>
       </c>
-      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="200">
+      <c r="C13" s="182">
         <v>1.56</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="147">
         <v>0.44423099999999999</v>
       </c>
-      <c r="E13" s="204">
+      <c r="E13" s="54">
         <v>0.105994</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="188">
         <v>1.27</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="189">
         <v>1.92</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="177" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="200">
+      <c r="C14" s="183">
         <v>1.47</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="148">
         <f t="shared" ref="D14:D15" si="6">LN(C14)</f>
         <v>0.38526240079064489</v>
       </c>
-      <c r="E14" s="204">
+      <c r="E14" s="55">
         <f>(LN(C14/F14))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="192">
         <v>1.08</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="193">
         <v>1.99</v>
       </c>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="183">
+      <c r="C15" s="184">
         <v>0.4974674</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="149">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="E15" s="186">
+      <c r="E15" s="56">
         <f>(LN(C15/F15))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="197">
         <v>1.16729E-2</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="198">
         <v>21.200749999999999</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="171" t="s">
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="141">
         <v>0.28388671819205552</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="147">
         <f>LN(C16)</f>
         <v>-1.25918</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="54">
         <v>0.19653876299053855</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172" t="s">
+      <c r="F16" s="153"/>
+      <c r="G16" s="140"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="163">
+      <c r="C17" s="155">
         <v>0.51</v>
       </c>
-      <c r="D17" s="29">
-        <f t="shared" ref="D17:D43" si="7">LN(C17)</f>
+      <c r="D17" s="148">
+        <f t="shared" ref="D17:D42" si="7">LN(C17)</f>
         <v>-0.67334455326376563</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="173" t="s">
+      <c r="F17" s="156"/>
+      <c r="G17" s="157"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="163">
+      <c r="C18" s="155">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="148">
         <f t="shared" si="7"/>
         <v>-0.26236430000000005</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="157"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="183">
+      <c r="C19" s="161">
         <v>0.68907160000000001</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="149">
         <f t="shared" si="7"/>
         <v>-0.37241009464486824</v>
       </c>
-      <c r="E19" s="186">
+      <c r="E19" s="56">
         <v>0.37108077380430665</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="167" t="s">
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="184">
+      <c r="C20" s="141">
         <v>0.45326107273685712</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="147">
         <f t="shared" si="7"/>
         <v>-0.79128699999999996</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="54">
         <v>0.30513433399859663</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="168" t="s">
+      <c r="F20" s="153"/>
+      <c r="G20" s="140"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="164">
+      <c r="C21" s="155">
         <v>0.6</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="148">
         <f t="shared" si="7"/>
         <v>-0.51082562376599072</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="169" t="s">
+      <c r="F21" s="156"/>
+      <c r="G21" s="157"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="164">
+      <c r="C22" s="155">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="148">
         <f t="shared" si="7"/>
         <v>2.1789120000000013E-2</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="170" t="s">
+      <c r="A23" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="185">
+      <c r="C23" s="161">
         <v>0.81895549999999995</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="149">
         <f t="shared" si="7"/>
         <v>-0.19972553115957761</v>
       </c>
-      <c r="E23" s="183">
+      <c r="E23" s="56">
         <v>0.3929717925727606</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="174" t="s">
+      <c r="F23" s="162"/>
+      <c r="G23" s="163"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="152" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="164">
         <v>0.59</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="147">
         <f t="shared" si="7"/>
         <v>-0.52763274208237199</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="54">
         <v>0.13820150721193863</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="175" t="s">
+      <c r="F24" s="153"/>
+      <c r="G24" s="140"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="164">
+      <c r="C25" s="155">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="148">
         <f t="shared" si="7"/>
         <v>-2.829491E-2</v>
       </c>
-      <c r="E25" s="181">
+      <c r="E25" s="138">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="166"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="183">
+      <c r="C26" s="161">
         <v>0.75462969999999996</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="149">
         <f t="shared" si="7"/>
         <v>-0.28152811362587332</v>
       </c>
-      <c r="E26" s="186">
+      <c r="E26" s="56">
         <v>0.39942732138071213</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="177" t="s">
+      <c r="F26" s="162"/>
+      <c r="G26" s="163"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="141">
         <v>0.54056412975266621</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="147">
         <f t="shared" si="7"/>
         <v>-0.61514199999999986</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="54">
         <v>0.35642682488003907</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="177" t="s">
+      <c r="F27" s="153"/>
+      <c r="G27" s="140"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="165">
+      <c r="C28" s="155">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="148">
         <f t="shared" si="7"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="183">
+      <c r="C29" s="161">
         <v>0.3101293</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="149">
         <f t="shared" si="7"/>
         <v>-1.1707659716894312</v>
       </c>
-      <c r="E29" s="186">
+      <c r="E29" s="56">
         <v>1.4320074807991772</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="171" t="s">
+      <c r="F29" s="162"/>
+      <c r="G29" s="163"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="142">
         <v>1.5349994151050002</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="147">
         <f t="shared" si="7"/>
         <v>0.42853000000000002</v>
       </c>
-      <c r="E30" s="202">
+      <c r="E30" s="54">
         <v>9.461E-2</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="F30" s="167"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="99">
         <v>0.96</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="148">
         <f t="shared" si="7"/>
         <v>-4.0821994520255166E-2</v>
       </c>
-      <c r="E31" s="133">
+      <c r="E31" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="173" t="s">
+      <c r="F31" s="168"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="99">
         <v>0.97297297704789509</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="148">
         <f t="shared" si="7"/>
         <v>-2.739897000000005E-2</v>
       </c>
-      <c r="E32" s="133">
+      <c r="E32" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="170" t="s">
+      <c r="A33" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="167" t="s">
+      <c r="C33" s="170"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="172"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="198">
+      <c r="C34" s="142">
         <v>1.4032682776745637</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="147">
         <f t="shared" si="7"/>
         <v>0.33880400000000005</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="54">
         <v>9.8753000000000007E-2</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="168" t="s">
+      <c r="F34" s="167"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="128">
+      <c r="C35" s="99">
         <v>0.89</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="148">
         <f t="shared" si="7"/>
         <v>-0.11653381625595151</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="169" t="s">
+      <c r="F35" s="168"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="128">
+      <c r="C36" s="99">
         <v>0.65410122579434049</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="148">
         <f t="shared" si="7"/>
         <v>-0.42449315999999992</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="170" t="s">
+      <c r="A37" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="185"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="187" t="s">
+      <c r="C37" s="170"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="172"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="142">
         <v>0.83</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="147">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E38" s="197">
+      <c r="E38" s="54">
         <v>0.13820150721193863</v>
       </c>
-      <c r="F38" s="189"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="175" t="s">
+      <c r="F38" s="167"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="199">
+      <c r="C39" s="173">
         <v>0.64440632009954502</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="148">
         <f t="shared" si="7"/>
         <v>-0.43942582000000008</v>
       </c>
-      <c r="E39" s="203">
+      <c r="E39" s="138">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F39" s="190"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="175"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="180" t="s">
+      <c r="B40" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="176" t="s">
+      <c r="C40" s="170"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="172"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="201">
+      <c r="C41" s="142">
         <v>1.4313184321023231</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="147">
         <f t="shared" si="7"/>
         <v>0.35859600000000003</v>
       </c>
-      <c r="E41" s="205">
+      <c r="E41" s="54">
         <v>0.10279799999999999</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="177" t="s">
+      <c r="F41" s="167"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="200">
+      <c r="C42" s="99">
         <v>0.83</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="148">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E42" s="204">
+      <c r="E42" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="170" t="s">
+      <c r="A43" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="183"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="172"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B43"/>
@@ -2646,1871 +2551,1871 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="101" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="154" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="103" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="102" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="103" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="104" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="102" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="105" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="102" customWidth="1"/>
-    <col min="11" max="11" width="12" style="106" customWidth="1"/>
-    <col min="12" max="12" width="12" style="102" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="154" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="21.42578125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="70" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="69" customWidth="1"/>
+    <col min="11" max="11" width="12" style="73" customWidth="1"/>
+    <col min="12" max="12" width="12" style="69" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="120" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="96" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:13" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="152" t="s">
+      <c r="L1" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="163">
+      <c r="B2" s="129">
         <f>EXP(C2)</f>
         <v>2.0587108789548285</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="38">
         <v>0.72208000000000006</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="43">
         <v>1.96</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="38">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="38">
         <f>D2*E2</f>
         <v>0.1904728</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="43">
         <f>C2-F2</f>
         <v>0.53160720000000006</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="43">
         <f>C2+F2</f>
         <v>0.91255280000000005</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="30">
         <f>EXP(G2)</f>
         <v>1.7016650280500589</v>
       </c>
-      <c r="J2" s="90">
+      <c r="J2" s="57">
         <f>EXP(H2)</f>
         <v>2.4906726137420994</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="87">
+      <c r="L2" s="75"/>
+      <c r="M2" s="54">
         <f t="shared" ref="M2:M13" si="0">LN(B2/I2)/1.96</f>
         <v>9.7180000000000016E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="164">
+      <c r="B3" s="130">
         <f t="shared" ref="B3:B5" si="1">EXP(C3)</f>
         <v>1.6043408710659648</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="40">
         <v>0.47271299999999999</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="44">
         <v>1.96</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="40">
         <v>0.102038</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="40">
         <f t="shared" ref="F3:F41" si="2">D3*E3</f>
         <v>0.19999448</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="44">
         <f t="shared" ref="G3:G41" si="3">C3-F3</f>
         <v>0.27271851999999996</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="44">
         <f t="shared" ref="H3:H41" si="4">C3+F3</f>
         <v>0.67270748000000002</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I41" si="5">EXP(G3)</f>
         <v>1.3135304602297513</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="58">
         <f t="shared" ref="J3:J41" si="6">EXP(H3)</f>
         <v>1.9595355482829784</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="88">
+      <c r="L3" s="65"/>
+      <c r="M3" s="55">
         <f t="shared" si="0"/>
         <v>0.10203799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="165">
+      <c r="B5" s="131">
         <f t="shared" si="1"/>
         <v>1.5592906401603417</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="42">
         <v>0.44423099999999999</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="45">
         <v>1.96</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="42">
         <v>0.105994</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="42">
         <f t="shared" si="2"/>
         <v>0.20774824</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="45">
         <f t="shared" si="3"/>
         <v>0.23648275999999999</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="45">
         <f t="shared" si="4"/>
         <v>0.65197923999999996</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="31">
         <f t="shared" si="5"/>
         <v>1.2667857160461327</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="59">
         <f t="shared" si="6"/>
         <v>1.919335898482063</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="89">
+      <c r="L5" s="77"/>
+      <c r="M5" s="56">
         <f t="shared" si="0"/>
         <v>0.10599400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="163">
+      <c r="B6" s="129">
         <f>EXP(C6)</f>
         <v>0.28388671819205552</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="38">
         <v>-1.25918</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="43">
         <v>1.96</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="38">
         <v>0.18761</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="38">
         <f t="shared" si="2"/>
         <v>0.36771559999999998</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="43">
         <f t="shared" si="3"/>
         <v>-1.6268955999999999</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="43">
         <f t="shared" si="4"/>
         <v>-0.89146440000000005</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="30">
         <f t="shared" si="5"/>
         <v>0.19653876299053855</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="57">
         <f t="shared" si="6"/>
         <v>0.41005482857208825</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="87">
+      <c r="L6" s="75"/>
+      <c r="M6" s="54">
         <f t="shared" si="0"/>
         <v>0.18760999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="164">
+      <c r="B7" s="130">
         <f t="shared" ref="B7:B9" si="7">EXP(C7)</f>
         <v>0.45326107273685712</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="40">
         <v>-0.79128699999999996</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="44">
         <v>1.96</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="40">
         <v>0.20189599999999999</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="40">
         <f t="shared" si="2"/>
         <v>0.39571615999999998</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="44">
         <f t="shared" si="3"/>
         <v>-1.1870031599999999</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="44">
         <f t="shared" si="4"/>
         <v>-0.39557083999999998</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="18">
         <f t="shared" ref="I7" si="8">EXP(G7)</f>
         <v>0.30513433399859663</v>
       </c>
-      <c r="J7" s="91">
+      <c r="J7" s="58">
         <f t="shared" ref="J7" si="9">EXP(H7)</f>
         <v>0.67329558547649826</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="88">
+      <c r="L7" s="65"/>
+      <c r="M7" s="55">
         <f t="shared" si="0"/>
         <v>0.20189599999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="77">
+      <c r="B8" s="130"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="44">
         <v>1.96</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="98"/>
-      <c r="M8" s="88" t="s">
+      <c r="L8" s="65"/>
+      <c r="M8" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="165">
+      <c r="B9" s="131">
         <f t="shared" si="7"/>
         <v>0.54056412975266621</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="42">
         <v>-0.61514199999999997</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="45">
         <v>1.96</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="42">
         <v>0.21249199999999999</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="42">
         <f t="shared" si="2"/>
         <v>0.41648431999999996</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="45">
         <f t="shared" si="3"/>
         <v>-1.03162632</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="45">
         <f t="shared" si="4"/>
         <v>-0.19865768</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="31">
         <f t="shared" ref="I9:I11" si="10">EXP(G9)</f>
         <v>0.35642682488003907</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="59">
         <f t="shared" ref="J9:J11" si="11">EXP(H9)</f>
         <v>0.81983048967654149</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="110"/>
-      <c r="M9" s="89">
+      <c r="L9" s="77"/>
+      <c r="M9" s="56">
         <f t="shared" si="0"/>
         <v>0.21249200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="164">
+      <c r="B10" s="130">
         <f>EXP(C10)</f>
         <v>1.5349994151050002</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="40">
         <v>0.42853000000000002</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="44">
         <v>1.96</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="40">
         <v>9.461E-2</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="40">
         <f t="shared" si="2"/>
         <v>0.18543560000000001</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="44">
         <f t="shared" si="3"/>
         <v>0.24309440000000002</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="44">
         <f t="shared" si="4"/>
         <v>0.6139656</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="18">
         <f t="shared" si="10"/>
         <v>1.2751889962780529</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="58">
         <f t="shared" si="11"/>
         <v>1.8477443039815267</v>
       </c>
-      <c r="K10" s="97" t="s">
+      <c r="K10" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="98"/>
-      <c r="M10" s="88">
+      <c r="L10" s="65"/>
+      <c r="M10" s="55">
         <f t="shared" si="0"/>
         <v>9.461E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="164">
+      <c r="B11" s="130">
         <f t="shared" ref="B11:B13" si="12">EXP(C11)</f>
         <v>1.4032682776745637</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="40">
         <v>0.33880399999999999</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="44">
         <v>1.96</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="40">
         <v>9.8752999999999994E-2</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="40">
         <f t="shared" si="2"/>
         <v>0.19355587999999999</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="44">
         <f t="shared" si="3"/>
         <v>0.14524812000000001</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="44">
         <f t="shared" si="4"/>
         <v>0.53235988000000001</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="18">
         <f t="shared" si="10"/>
         <v>1.1563264423940807</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="58">
         <f t="shared" si="11"/>
         <v>1.7029463194240766</v>
       </c>
-      <c r="K11" s="97" t="s">
+      <c r="K11" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="98"/>
-      <c r="M11" s="88">
+      <c r="L11" s="65"/>
+      <c r="M11" s="55">
         <f t="shared" si="0"/>
         <v>9.8753000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="164"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="77">
+      <c r="B12" s="130"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="44">
         <v>1.96</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="88" t="s">
+      <c r="L12" s="65"/>
+      <c r="M12" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="165">
+      <c r="B13" s="131">
         <f t="shared" si="12"/>
         <v>1.4313184321023231</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="42">
         <v>0.35859600000000003</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="45">
         <v>1.96</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="42">
         <v>0.102798</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="42">
         <f t="shared" si="2"/>
         <v>0.20148408000000001</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="45">
         <f t="shared" si="3"/>
         <v>0.15711192000000002</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="45">
         <f t="shared" si="4"/>
         <v>0.56008008000000009</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="31">
         <f t="shared" ref="I13" si="13">EXP(G13)</f>
         <v>1.1701265671380279</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="59">
         <f t="shared" ref="J13" si="14">EXP(H13)</f>
         <v>1.7508126997634368</v>
       </c>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="110"/>
-      <c r="M13" s="89">
+      <c r="L13" s="77"/>
+      <c r="M13" s="56">
         <f t="shared" si="0"/>
         <v>0.10279799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="163">
+      <c r="B14" s="129">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <f>LN(B14)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="46">
         <v>1.96</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>0.14066626602299256</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="19">
         <f t="shared" si="2"/>
         <v>0.27570588140506541</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="46">
         <f t="shared" si="3"/>
         <v>0.636576829071551</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="46">
         <f t="shared" si="4"/>
         <v>1.1879885918816817</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="30">
         <f t="shared" si="5"/>
         <v>1.89</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="60">
         <f t="shared" si="6"/>
         <v>3.2804761904761914</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="136"/>
-      <c r="M14" s="87">
+      <c r="L14" s="102"/>
+      <c r="M14" s="54">
         <f>LN(B14/I14)/1.96</f>
         <v>0.14066626602299256</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="164">
+      <c r="B15" s="130">
         <v>1.7</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="20">
         <f t="shared" ref="C15:C45" si="15">LN(B15)</f>
         <v>0.53062825106217038</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="47">
         <v>1.96</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="20">
         <v>0.15281455617284881</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="20">
         <f t="shared" si="2"/>
         <v>0.29951653009878365</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="47">
         <f t="shared" si="3"/>
         <v>0.23111172096338672</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="47">
         <f t="shared" si="4"/>
         <v>0.83014478116095403</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="18">
         <f t="shared" si="5"/>
         <v>1.26</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="61">
         <f t="shared" si="6"/>
         <v>2.2936507936507935</v>
       </c>
-      <c r="K15" s="99" t="s">
+      <c r="K15" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="88">
+      <c r="L15" s="67"/>
+      <c r="M15" s="55">
         <f t="shared" ref="M15:M45" si="16">LN(B15/I15)/1.96</f>
         <v>0.15281455617284881</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="164">
+      <c r="B16" s="130">
         <v>1.45</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="20">
         <f t="shared" si="15"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="47">
         <v>1.96</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="20">
         <v>0.15505352446870821</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="20">
         <f t="shared" si="2"/>
         <v>0.30390490795866809</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="47">
         <f t="shared" si="3"/>
         <v>6.765864847381492E-2</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="47">
         <f t="shared" si="4"/>
         <v>0.67546846439115105</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="18">
         <f t="shared" si="5"/>
         <v>1.07</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="61">
         <f t="shared" si="6"/>
         <v>1.9649532710280369</v>
       </c>
-      <c r="K16" s="99" t="s">
+      <c r="K16" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="100"/>
-      <c r="M16" s="88">
+      <c r="L16" s="67"/>
+      <c r="M16" s="55">
         <f t="shared" si="16"/>
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="165">
+      <c r="B17" s="131">
         <v>1.47</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="29">
         <f t="shared" si="15"/>
         <v>0.38526240079064489</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="48">
         <v>1.96</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="29">
         <v>0.15729661206863085</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="29">
         <f t="shared" si="2"/>
         <v>0.30830135965451649</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="48">
         <f t="shared" si="3"/>
         <v>7.6961041136128394E-2</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="48">
         <f t="shared" si="4"/>
         <v>0.69356376044516144</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="31">
         <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="62">
         <f t="shared" si="6"/>
         <v>2.000833333333333</v>
       </c>
-      <c r="K17" s="137" t="s">
+      <c r="K17" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="89">
+      <c r="L17" s="52"/>
+      <c r="M17" s="56">
         <f t="shared" si="16"/>
         <v>0.15729661206863085</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="163">
+      <c r="B18" s="129">
         <v>0.51</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="19">
         <f t="shared" si="15"/>
         <v>-0.67334455326376563</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="46">
         <v>1.96</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="60">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="30">
         <v>0.4</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="87">
+      <c r="J18" s="60"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="54">
         <f t="shared" si="16"/>
         <v>0.12395213194407623</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="164">
+      <c r="B19" s="130">
         <v>0.6</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="20">
         <f t="shared" si="15"/>
         <v>-0.51082562376599072</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="47">
         <v>1.96</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="26">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="18">
         <v>0.46</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="88">
+      <c r="J19" s="61"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="55">
         <f t="shared" si="16"/>
         <v>0.13556283965969668</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="164">
+      <c r="B20" s="130">
         <v>0.59</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="20">
         <f t="shared" si="15"/>
         <v>-0.52763274208237199</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="47">
         <v>1.96</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="26">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="18">
         <v>0.45</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="88">
+      <c r="J20" s="61"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="55">
         <f t="shared" si="16"/>
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="165">
+      <c r="B21" s="131">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="29">
         <f t="shared" si="15"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="48">
         <v>1.96</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="62">
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="31">
         <v>0.44</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="89">
+      <c r="J21" s="62"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56">
         <f t="shared" si="16"/>
         <v>0.14094560032048883</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="164">
+      <c r="B22" s="130">
         <v>0.96</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="20">
         <f t="shared" si="15"/>
         <v>-4.0821994520255166E-2</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="47">
         <v>1.96</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="26">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="18">
         <v>0.77</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="88">
+      <c r="J22" s="61"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="55">
         <f t="shared" si="16"/>
         <v>0.11252182123171039</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="164">
+      <c r="B23" s="130">
         <v>0.89</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="20">
         <f t="shared" si="15"/>
         <v>-0.11653381625595151</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="47">
         <v>1.96</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="26">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="18">
         <v>0.7</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="88">
+      <c r="J23" s="61"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="55">
         <f t="shared" si="16"/>
         <v>0.12252098351162294</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="164">
+      <c r="B24" s="130">
         <v>0.83</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="20">
         <f t="shared" si="15"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="47">
         <v>1.96</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="26">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="18">
         <v>0.66</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="88">
+      <c r="J24" s="61"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="55">
         <f t="shared" si="16"/>
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="164">
+      <c r="B25" s="130">
         <v>0.83</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="20">
         <f t="shared" si="15"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="47">
         <v>1.96</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="26">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="18">
         <v>0.65</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="88">
+      <c r="J25" s="61"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="55">
         <f t="shared" si="16"/>
         <v>0.12472109076579629</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
+    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="163">
+      <c r="B26" s="129">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="79">
         <f t="shared" si="15"/>
         <v>7.8811180424289848E-2</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="80">
         <v>1.96</v>
       </c>
-      <c r="E26" s="114">
+      <c r="E26" s="81">
         <v>0.28945759999999998</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="79">
         <f t="shared" si="2"/>
         <v>0.56733689599999992</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="80">
         <f t="shared" si="3"/>
         <v>-0.48852571557571006</v>
       </c>
-      <c r="H26" s="113">
+      <c r="H26" s="80">
         <f t="shared" si="4"/>
         <v>0.64614807642428973</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="30">
         <f t="shared" si="5"/>
         <v>0.61353024583876781</v>
       </c>
-      <c r="J26" s="156">
+      <c r="J26" s="122">
         <f t="shared" si="6"/>
         <v>1.9081765046472698</v>
       </c>
-      <c r="K26" s="115" t="s">
+      <c r="K26" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="116"/>
-      <c r="M26" s="87">
+      <c r="L26" s="83"/>
+      <c r="M26" s="54">
         <f t="shared" si="16"/>
         <v>0.28945759999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
+    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="164">
+      <c r="B27" s="130">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="85">
         <f t="shared" si="15"/>
         <v>-0.55861628760233928</v>
       </c>
-      <c r="D27" s="119">
+      <c r="D27" s="86">
         <v>1.96</v>
       </c>
-      <c r="E27" s="118">
+      <c r="E27" s="85">
         <v>0.32258286000000003</v>
       </c>
-      <c r="F27" s="118">
+      <c r="F27" s="85">
         <f t="shared" si="2"/>
         <v>0.63226240560000002</v>
       </c>
-      <c r="G27" s="119">
+      <c r="G27" s="86">
         <f t="shared" si="3"/>
         <v>-1.1908786932023392</v>
       </c>
-      <c r="H27" s="119">
+      <c r="H27" s="86">
         <f t="shared" si="4"/>
         <v>7.3646117997660743E-2</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="18">
         <f t="shared" si="5"/>
         <v>0.30395406432045408</v>
       </c>
-      <c r="J27" s="157">
+      <c r="J27" s="123">
         <f t="shared" si="6"/>
         <v>1.0764258103653943</v>
       </c>
-      <c r="K27" s="120" t="s">
+      <c r="K27" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="121"/>
-      <c r="M27" s="88">
+      <c r="L27" s="88"/>
+      <c r="M27" s="55">
         <f t="shared" si="16"/>
         <v>0.32258285999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="117" t="s">
+    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="164">
+      <c r="B28" s="130">
         <f>EXP(C28)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="85">
         <v>-0.45101475000000002</v>
       </c>
-      <c r="D28" s="119">
+      <c r="D28" s="86">
         <v>1.96</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="89">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F28" s="118">
+      <c r="F28" s="85">
         <f t="shared" si="2"/>
         <v>0.64319624600000003</v>
       </c>
-      <c r="G28" s="119">
+      <c r="G28" s="86">
         <f t="shared" si="3"/>
         <v>-1.0942109960000002</v>
       </c>
-      <c r="H28" s="119">
+      <c r="H28" s="86">
         <f t="shared" si="4"/>
         <v>0.19218149600000001</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="18">
         <f t="shared" si="5"/>
         <v>0.33480366419406132</v>
       </c>
-      <c r="J28" s="157">
+      <c r="J28" s="123">
         <f t="shared" si="6"/>
         <v>1.2118904502749519</v>
       </c>
-      <c r="K28" s="120" t="s">
+      <c r="K28" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="121" t="s">
+      <c r="L28" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="88">
+      <c r="M28" s="55">
         <f t="shared" si="16"/>
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="123" t="s">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="165" t="s">
+      <c r="B29" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="124" t="s">
+      <c r="E29" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="124" t="s">
+      <c r="F29" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="124" t="s">
+      <c r="G29" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="124" t="s">
+      <c r="H29" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="158" t="s">
+      <c r="J29" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="138" t="s">
+      <c r="K29" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="139"/>
-      <c r="M29" s="89" t="s">
+      <c r="L29" s="105"/>
+      <c r="M29" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="111" t="s">
+    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="163">
+      <c r="B30" s="129">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="113">
+      <c r="C30" s="79"/>
+      <c r="D30" s="80">
         <v>1.96</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="60">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="30">
         <f>EXP(-1.123705)</f>
         <v>0.32507316464627944</v>
       </c>
-      <c r="J30" s="156"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="87">
+      <c r="J30" s="122"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="54">
         <f t="shared" si="16"/>
         <v>0.43945954081632649</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="117" t="s">
+    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="164">
+      <c r="B31" s="130">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119">
+      <c r="C31" s="85"/>
+      <c r="D31" s="86">
         <v>1.96</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="26">
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="18">
         <f>EXP(-0.89886305)</f>
         <v>0.40703217199207092</v>
       </c>
-      <c r="J31" s="157"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="88">
+      <c r="J31" s="123"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="55">
         <f t="shared" si="16"/>
         <v>0.4697204948979592</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="117" t="s">
+    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="164">
+      <c r="B32" s="130">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119">
+      <c r="C32" s="85"/>
+      <c r="D32" s="86">
         <v>1.96</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="26">
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="18">
         <f>EXP(-0.9890342)</f>
         <v>0.37193573314376671</v>
       </c>
-      <c r="J32" s="157"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="88">
+      <c r="J32" s="123"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="55">
         <f t="shared" si="16"/>
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="123" t="s">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="124" t="s">
+      <c r="C33" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="124" t="s">
+      <c r="E33" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="124" t="s">
+      <c r="F33" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="125" t="s">
+      <c r="G33" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="125" t="s">
+      <c r="H33" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="62" t="s">
+      <c r="I33" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J33" s="159" t="s">
+      <c r="J33" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="126" t="s">
+      <c r="K33" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="L33" s="127"/>
-      <c r="M33" s="89" t="s">
+      <c r="L33" s="94"/>
+      <c r="M33" s="56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="117" t="s">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="164">
+      <c r="B34" s="130">
         <f>EXP(-0.02739897)</f>
         <v>0.97297297704789509</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119">
+      <c r="C34" s="85"/>
+      <c r="D34" s="86">
         <v>1.96</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="26">
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="18">
         <f>EXP(-0.5551216)</f>
         <v>0.57400245825357943</v>
       </c>
-      <c r="J34" s="157"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="88">
+      <c r="J34" s="123"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="55">
         <f t="shared" si="16"/>
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="164">
+      <c r="B35" s="130">
         <f>EXP(-0.42449316)</f>
         <v>0.65410122579434049</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="119">
+      <c r="C35" s="85"/>
+      <c r="D35" s="86">
         <v>1.96</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="26">
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="18">
         <f>EXP(-0.99644629)</f>
         <v>0.36918910372248526</v>
       </c>
-      <c r="J35" s="157"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="88">
+      <c r="J35" s="123"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="55">
         <f t="shared" si="16"/>
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="117" t="s">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="164">
+      <c r="B36" s="130">
         <f>EXP(-0.43942582)</f>
         <v>0.64440632009954502</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119">
+      <c r="C36" s="85"/>
+      <c r="D36" s="86">
         <v>1.96</v>
       </c>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="26">
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="18">
         <f>EXP(-1.0263801)</f>
         <v>0.35830163194241782</v>
       </c>
-      <c r="J36" s="157"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="88">
+      <c r="J36" s="123"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="55">
         <f t="shared" si="16"/>
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123" t="s">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="124" t="s">
+      <c r="E37" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="124" t="s">
+      <c r="F37" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="125" t="s">
+      <c r="G37" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="125" t="s">
+      <c r="H37" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="159" t="s">
+      <c r="J37" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="126" t="s">
+      <c r="K37" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="L37" s="127"/>
-      <c r="M37" s="89" t="s">
+      <c r="L37" s="94"/>
+      <c r="M37" s="56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="140" t="s">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="163">
+      <c r="B38" s="129">
         <v>2.6488100000000001</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="107">
         <f t="shared" si="15"/>
         <v>0.97411048253824606</v>
       </c>
-      <c r="D38" s="142">
+      <c r="D38" s="108">
         <v>1.96</v>
       </c>
-      <c r="E38" s="141">
+      <c r="E38" s="107">
         <v>0.2804478245730157</v>
       </c>
-      <c r="F38" s="141">
+      <c r="F38" s="107">
         <f t="shared" si="2"/>
         <v>0.54967773616311078</v>
       </c>
-      <c r="G38" s="142">
+      <c r="G38" s="108">
         <f t="shared" si="3"/>
         <v>0.42443274637513528</v>
       </c>
-      <c r="H38" s="142">
+      <c r="H38" s="108">
         <f t="shared" si="4"/>
         <v>1.5237882187013567</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="30">
         <f t="shared" si="5"/>
         <v>1.5287230000000001</v>
       </c>
-      <c r="J38" s="160">
+      <c r="J38" s="126">
         <f t="shared" si="6"/>
         <v>4.5895786326888519</v>
       </c>
-      <c r="K38" s="143" t="s">
+      <c r="K38" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L38" s="144" t="s">
+      <c r="L38" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="87">
+      <c r="M38" s="54">
         <f t="shared" si="16"/>
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="145" t="s">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="164">
+      <c r="B39" s="130">
         <v>2.062049</v>
       </c>
-      <c r="C39" s="129">
+      <c r="C39" s="95">
         <f t="shared" si="15"/>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D39" s="130">
+      <c r="D39" s="96">
         <v>1.96</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="95">
         <v>0.29523424577300489</v>
       </c>
-      <c r="F39" s="129">
+      <c r="F39" s="95">
         <f t="shared" si="2"/>
         <v>0.5786591217150896</v>
       </c>
-      <c r="G39" s="130">
+      <c r="G39" s="96">
         <f t="shared" si="3"/>
         <v>0.14504102693390142</v>
       </c>
-      <c r="H39" s="130">
+      <c r="H39" s="96">
         <f t="shared" si="4"/>
         <v>1.3023592703640805</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="18">
         <f t="shared" si="5"/>
         <v>1.1560870000000001</v>
       </c>
-      <c r="J39" s="161">
+      <c r="J39" s="127">
         <f t="shared" si="6"/>
         <v>3.6779637504798508</v>
       </c>
-      <c r="K39" s="131" t="s">
+      <c r="K39" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="L39" s="132" t="s">
+      <c r="L39" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="88">
+      <c r="M39" s="55">
         <f t="shared" si="16"/>
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="164">
+      <c r="B40" s="130">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C40" s="129">
+      <c r="C40" s="95">
         <f t="shared" si="15"/>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D40" s="130">
+      <c r="D40" s="96">
         <v>1.96</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="95">
         <v>0.3026013838774172</v>
       </c>
-      <c r="F40" s="129">
+      <c r="F40" s="95">
         <f t="shared" si="2"/>
         <v>0.59309871239973766</v>
       </c>
-      <c r="G40" s="130">
+      <c r="G40" s="96">
         <f t="shared" si="3"/>
         <v>0.188201734612507</v>
       </c>
-      <c r="H40" s="130">
+      <c r="H40" s="96">
         <f t="shared" si="4"/>
         <v>1.3743991594119822</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="18">
         <f t="shared" si="5"/>
         <v>1.207077</v>
       </c>
-      <c r="J40" s="161">
+      <c r="J40" s="127">
         <f t="shared" si="6"/>
         <v>3.9527010660637232</v>
       </c>
-      <c r="K40" s="131" t="s">
+      <c r="K40" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="L40" s="132" t="s">
+      <c r="L40" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="88">
+      <c r="M40" s="55">
         <f t="shared" si="16"/>
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="146" t="s">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="165">
+      <c r="B41" s="131">
         <v>0.4974674</v>
       </c>
-      <c r="C41" s="147">
+      <c r="C41" s="113">
         <f t="shared" si="15"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="D41" s="148">
+      <c r="D41" s="114">
         <v>1.96</v>
       </c>
-      <c r="E41" s="147">
+      <c r="E41" s="113">
         <v>1.9144184239579749</v>
       </c>
-      <c r="F41" s="147">
+      <c r="F41" s="113">
         <f t="shared" si="2"/>
         <v>3.7522601109576308</v>
       </c>
-      <c r="G41" s="148">
+      <c r="G41" s="114">
         <f t="shared" si="3"/>
         <v>-4.450485363126341</v>
       </c>
-      <c r="H41" s="148">
+      <c r="H41" s="114">
         <f t="shared" si="4"/>
         <v>3.0540348587889206</v>
       </c>
-      <c r="I41" s="62">
+      <c r="I41" s="31">
         <f t="shared" si="5"/>
         <v>1.1672899999999996E-2</v>
       </c>
-      <c r="J41" s="162">
+      <c r="J41" s="128">
         <f t="shared" si="6"/>
         <v>21.200713966774323</v>
       </c>
-      <c r="K41" s="149" t="s">
+      <c r="K41" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="L41" s="150" t="s">
+      <c r="L41" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="89">
+      <c r="M41" s="56">
         <f t="shared" si="16"/>
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="140" t="s">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="163">
+      <c r="B42" s="129">
         <v>0.68907160000000001</v>
       </c>
-      <c r="C42" s="141">
+      <c r="C42" s="107">
         <f t="shared" si="15"/>
         <v>-0.37241009464486824</v>
       </c>
-      <c r="D42" s="142">
+      <c r="D42" s="108">
         <v>1.96</v>
       </c>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="60">
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="30">
         <v>0.33296150000000002</v>
       </c>
-      <c r="J42" s="160"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="87">
+      <c r="J42" s="126"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="54">
         <f t="shared" si="16"/>
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="145" t="s">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="164">
+      <c r="B43" s="130">
         <v>0.81895549999999995</v>
       </c>
-      <c r="C43" s="129">
+      <c r="C43" s="95">
         <f t="shared" si="15"/>
         <v>-0.19972553115957761</v>
       </c>
-      <c r="D43" s="130">
+      <c r="D43" s="96">
         <v>1.96</v>
       </c>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="26">
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="18">
         <v>0.37910189999999999</v>
       </c>
-      <c r="J43" s="161"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="88">
+      <c r="J43" s="127"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="55">
         <f t="shared" si="16"/>
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="145" t="s">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="164">
+      <c r="B44" s="130">
         <v>0.75462969999999996</v>
       </c>
-      <c r="C44" s="129">
+      <c r="C44" s="95">
         <f t="shared" si="15"/>
         <v>-0.28152811362587332</v>
       </c>
-      <c r="D44" s="130">
+      <c r="D44" s="96">
         <v>1.96</v>
       </c>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="26">
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="18">
         <v>0.34493279999999998</v>
       </c>
-      <c r="J44" s="161"/>
-      <c r="K44" s="131"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="88">
+      <c r="J44" s="127"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="55">
         <f t="shared" si="16"/>
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="146" t="s">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="165">
+      <c r="B45" s="131">
         <v>0.3101293</v>
       </c>
-      <c r="C45" s="147">
+      <c r="C45" s="113">
         <f t="shared" si="15"/>
         <v>-1.1707659716894312</v>
       </c>
-      <c r="D45" s="148">
+      <c r="D45" s="114">
         <v>1.96</v>
       </c>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="62">
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="31">
         <v>1.87324E-2</v>
       </c>
-      <c r="J45" s="162"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="89">
+      <c r="J45" s="128"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="56">
         <f t="shared" si="16"/>
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="140" t="s">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="141"/>
-      <c r="D46" s="142">
+      <c r="C46" s="107"/>
+      <c r="D46" s="108">
         <v>1.96</v>
       </c>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="60" t="s">
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="160"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="87" t="s">
+      <c r="J46" s="126"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="145" t="s">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="129"/>
-      <c r="D47" s="130">
+      <c r="C47" s="95"/>
+      <c r="D47" s="96">
         <v>1.96</v>
       </c>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="26" t="s">
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="161"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="88" t="s">
+      <c r="J47" s="127"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="145" t="s">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="130">
+      <c r="C48" s="95"/>
+      <c r="D48" s="96">
         <v>1.96</v>
       </c>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="26" t="s">
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="161"/>
-      <c r="K48" s="131"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="88" t="s">
+      <c r="J48" s="127"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="146" t="s">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="165" t="s">
+      <c r="B49" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="148">
+      <c r="C49" s="113"/>
+      <c r="D49" s="114">
         <v>1.96</v>
       </c>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="62" t="s">
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J49" s="162"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="89" t="s">
+      <c r="J49" s="128"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="65" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="63">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="53"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="32">
         <v>0.57799120000000004</v>
       </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="153"/>
-    </row>
-    <row r="51" spans="1:13" s="65" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="63">
+      <c r="F50" s="33"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="119"/>
+    </row>
+    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="32">
         <v>0.83279449999999999</v>
       </c>
-      <c r="F51" s="64"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="66"/>
-    </row>
-    <row r="52" spans="1:13" s="65" customFormat="1" ht="4.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="66"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" s="34" customFormat="1" ht="4.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="53"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4528,270 +4433,270 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="20.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>2.6448100000000001</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="7">
         <v>0.97259922908170948</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>0.27967677689110926</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <v>1.5287230000000001</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="6">
         <v>4.5895770000000002</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>0.91228271047661635</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="9">
         <v>0.14066626602299256</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>1.89</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="9">
         <v>3.28</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>2.06</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="13">
         <v>0.72270598280148979</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>9.7998842724142568E-2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="13">
         <v>1.7</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>2.062049</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>0.72370014864899102</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>0.29523424577300489</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <v>1.1560870000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>3.6779639999999998</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>1.7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>0.53062825106217038</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>0.15281455617284881</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>1.26</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>1.6</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="13">
         <v>0.47000362924573563</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>0.10202882246565072</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <v>1.31</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>1.96</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>0.78130044701224466</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>0.3026013838774172</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>1.207077</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>3.952699</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>1.45</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>0.37156355643248301</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>0.15505352446870821</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>1.07</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>1.96</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>1.56</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>0.44468582126144574</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <v>0.10493312285252338</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <v>1.27</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <v>1.92</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -12,14 +17,14 @@
     <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$47</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="136">
   <si>
     <t>camp</t>
   </si>
@@ -376,6 +381,57 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>UK_MOD1_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD1_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD1_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD1_imv</t>
+  </si>
+  <si>
+    <t>UK_MOD2_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD2_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD2_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD2_imv</t>
+  </si>
+  <si>
+    <t>UK_MOD3_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD3_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD3_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD3_imv</t>
+  </si>
+  <si>
+    <t>UK_MOD4_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD4_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD4_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD4_imv</t>
+  </si>
+  <si>
+    <t>imv</t>
   </si>
 </sst>
 </file>
@@ -471,7 +527,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1133,9 +1195,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1236,6 +1295,105 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1515,7 +1673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1523,47 +1681,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="143" customWidth="1"/>
-    <col min="2" max="2" width="14" style="143" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="143" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="143" customWidth="1"/>
     <col min="3" max="3" width="14" style="145" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="146" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="145" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="146" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="145" customWidth="1"/>
     <col min="6" max="6" width="8" style="146" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="146" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="50"/>
+    <col min="7" max="7" width="7.6640625" style="146" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="180" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="34"/>
@@ -1576,14 +1734,14 @@
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="182">
+      <c r="C2" s="181">
         <v>2.06</v>
       </c>
       <c r="D2" s="147">
@@ -1592,10 +1750,10 @@
       <c r="E2" s="54">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="188">
+      <c r="F2" s="187">
         <v>1.7</v>
       </c>
-      <c r="G2" s="189">
+      <c r="G2" s="188">
         <v>2.4900000000000002</v>
       </c>
       <c r="J2" s="34"/>
@@ -1608,28 +1766,28 @@
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="183">
+      <c r="C3" s="182">
         <v>2.4900000000000002</v>
       </c>
       <c r="D3" s="148">
-        <f t="shared" ref="D3:D10" si="0">LN(C3)</f>
+        <f t="shared" ref="D3:D11" si="0">LN(C3)</f>
         <v>0.91228271047661635</v>
       </c>
       <c r="E3" s="55">
-        <f t="shared" ref="E3:E10" si="1">(LN(C3/F3))/1.96</f>
+        <f t="shared" ref="E3:E11" si="1">(LN(C3/F3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="F3" s="192">
+      <c r="F3" s="191">
         <v>1.89</v>
       </c>
-      <c r="G3" s="193">
+      <c r="G3" s="192">
         <v>3.28</v>
       </c>
       <c r="J3" s="34"/>
@@ -1642,14 +1800,14 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="194" t="s">
+    <row r="4" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="183">
+      <c r="C4" s="182">
         <v>1.0820000000000001</v>
       </c>
       <c r="D4" s="148">
@@ -1659,10 +1817,10 @@
         <f t="shared" si="1"/>
         <v>0.28938720751415131</v>
       </c>
-      <c r="F4" s="192">
+      <c r="F4" s="191">
         <v>0.61361489999999996</v>
       </c>
-      <c r="G4" s="193">
+      <c r="G4" s="192">
         <v>1.908401</v>
       </c>
       <c r="J4" s="34"/>
@@ -1675,14 +1833,14 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="195" t="s">
+    <row r="5" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="184">
+      <c r="C5" s="183">
         <v>2.6488100000000001</v>
       </c>
       <c r="D5" s="149">
@@ -1693,10 +1851,10 @@
         <f t="shared" ref="E5" si="2">(LN(C5/F5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="F5" s="197">
+      <c r="F5" s="196">
         <v>1.5287230000000001</v>
       </c>
-      <c r="G5" s="198">
+      <c r="G5" s="197">
         <v>4.5895770000000002</v>
       </c>
       <c r="J5" s="34"/>
@@ -1709,14 +1867,14 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="186" t="s">
+    <row r="6" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A6" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="182">
+      <c r="C6" s="181">
         <v>1.6</v>
       </c>
       <c r="D6" s="147">
@@ -1725,10 +1883,10 @@
       <c r="E6" s="54">
         <v>0.102038</v>
       </c>
-      <c r="F6" s="188">
+      <c r="F6" s="187">
         <v>1.31</v>
       </c>
-      <c r="G6" s="189">
+      <c r="G6" s="188">
         <v>1.96</v>
       </c>
       <c r="J6" s="34"/>
@@ -1741,14 +1899,14 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="190" t="s">
+    <row r="7" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A7" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="182">
         <v>1.7</v>
       </c>
       <c r="D7" s="148">
@@ -1759,10 +1917,10 @@
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="192">
+      <c r="F7" s="191">
         <v>1.26</v>
       </c>
-      <c r="G7" s="193">
+      <c r="G7" s="192">
         <v>2.2799999999999998</v>
       </c>
       <c r="J7" s="34"/>
@@ -1775,14 +1933,14 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="194" t="s">
+    <row r="8" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="182">
         <v>0.57199999999999995</v>
       </c>
       <c r="D8" s="150">
@@ -1792,10 +1950,10 @@
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="F8" s="192">
+      <c r="F8" s="191">
         <v>0.30420320000000001</v>
       </c>
-      <c r="G8" s="193">
+      <c r="G8" s="192">
         <v>1.077283</v>
       </c>
       <c r="J8" s="34"/>
@@ -1808,14 +1966,14 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="195" t="s">
+    <row r="9" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="184">
+      <c r="C9" s="183">
         <v>2.062049</v>
       </c>
       <c r="D9" s="149">
@@ -1826,10 +1984,10 @@
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="F9" s="197">
+      <c r="F9" s="196">
         <v>1.1560870000000001</v>
       </c>
-      <c r="G9" s="198">
+      <c r="G9" s="197">
         <v>3.6779639999999998</v>
       </c>
       <c r="J9" s="34"/>
@@ -1842,30 +2000,18 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="186" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="187" t="s">
+    <row r="10" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="185" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="182">
-        <v>1.45</v>
-      </c>
-      <c r="D10" s="147">
-        <f t="shared" si="0"/>
-        <v>0.37156355643248301</v>
-      </c>
-      <c r="E10" s="54">
-        <f t="shared" si="1"/>
-        <v>0.15505352446870821</v>
-      </c>
-      <c r="F10" s="188">
-        <v>1.07</v>
-      </c>
-      <c r="G10" s="189">
-        <v>1.96</v>
-      </c>
+      <c r="C10" s="181"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -1876,665 +2022,953 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" s="144" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="194" t="s">
+    <row r="11" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="189" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="201" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="182">
+        <v>1.45</v>
+      </c>
+      <c r="D11" s="148">
+        <f t="shared" si="0"/>
+        <v>0.37156355643248301</v>
+      </c>
+      <c r="E11" s="55">
+        <f t="shared" si="1"/>
+        <v>0.15505352446870821</v>
+      </c>
+      <c r="F11" s="191">
+        <v>1.07</v>
+      </c>
+      <c r="G11" s="192">
+        <v>1.96</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" s="144" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A12" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="191" t="s">
+      <c r="B12" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="185">
-        <f>EXP(D11)</f>
+      <c r="C12" s="184">
+        <f>EXP(D12)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="D11" s="151">
+      <c r="D12" s="151">
         <v>-0.45101475000000002</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E12" s="138">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F12" s="198">
         <v>0.33481</v>
       </c>
-      <c r="G11" s="200">
+      <c r="G12" s="199">
         <v>1.2118800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="195" t="s">
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="196" t="s">
+      <c r="B13" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="184">
+      <c r="C13" s="183">
         <v>2.1843110000000001</v>
       </c>
-      <c r="D12" s="149">
-        <f t="shared" ref="D12" si="4">LN(C12)</f>
+      <c r="D13" s="149">
+        <f t="shared" ref="D13" si="4">LN(C13)</f>
         <v>0.78130044701224466</v>
       </c>
-      <c r="E12" s="56">
-        <f t="shared" ref="E12" si="5">(LN(C12/F12))/1.96</f>
+      <c r="E13" s="56">
+        <f t="shared" ref="E13" si="5">(LN(C13/F13))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="F12" s="197">
+      <c r="F13" s="196">
         <v>1.207077</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G13" s="197">
         <v>3.952699</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="186" t="s">
+    <row r="14" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A14" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="187" t="s">
+      <c r="B14" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="182">
+      <c r="C14" s="182">
         <v>1.56</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D14" s="148">
         <v>0.44423099999999999</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E14" s="55">
         <v>0.105994</v>
       </c>
-      <c r="F13" s="188">
+      <c r="F14" s="191">
         <v>1.27</v>
       </c>
-      <c r="G13" s="189">
+      <c r="G14" s="192">
         <v>1.92</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+    <row r="15" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A15" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B15" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="183">
+      <c r="C15" s="182">
         <v>1.47</v>
       </c>
-      <c r="D14" s="148">
-        <f t="shared" ref="D14:D15" si="6">LN(C14)</f>
+      <c r="D15" s="148">
+        <f t="shared" ref="D15:D17" si="6">LN(C15)</f>
         <v>0.38526240079064489</v>
       </c>
-      <c r="E14" s="55">
-        <f>(LN(C14/F14))/1.96</f>
+      <c r="E15" s="55">
+        <f>(LN(C15/F15))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="F14" s="192">
+      <c r="F15" s="191">
         <v>1.08</v>
       </c>
-      <c r="G14" s="193">
+      <c r="G15" s="192">
         <v>1.99</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="195" t="s">
+    <row r="16" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A16" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="190" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="184"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="199"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="196" t="s">
+      <c r="B17" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="184">
+      <c r="C17" s="183">
         <v>0.4974674</v>
       </c>
-      <c r="D15" s="149">
+      <c r="D17" s="149">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="E15" s="56">
-        <f>(LN(C15/F15))/1.96</f>
+      <c r="E17" s="56">
+        <f>(LN(C17/F17))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="F15" s="197">
+      <c r="F17" s="196">
         <v>1.16729E-2</v>
       </c>
-      <c r="G15" s="198">
+      <c r="G17" s="197">
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="139" t="s">
+    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A18" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B18" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="141">
+      <c r="C18" s="141">
         <v>0.28388671819205552</v>
       </c>
-      <c r="D16" s="147">
-        <f>LN(C16)</f>
+      <c r="D18" s="147">
+        <f>LN(C18)</f>
         <v>-1.25918</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E18" s="54">
         <v>0.19653876299053855</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="140"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="136" t="s">
+      <c r="F18" s="153"/>
+      <c r="G18" s="140"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A19" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B19" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="155">
+      <c r="C19" s="155">
         <v>0.51</v>
       </c>
-      <c r="D17" s="148">
-        <f t="shared" ref="D17:D42" si="7">LN(C17)</f>
+      <c r="D19" s="148">
+        <f t="shared" ref="D19:D46" si="7">LN(C19)</f>
         <v>-0.67334455326376563</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E19" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="F17" s="156"/>
-      <c r="G17" s="157"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="158" t="s">
+      <c r="F19" s="156"/>
+      <c r="G19" s="157"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A20" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B20" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="155">
+      <c r="C20" s="155">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="D18" s="148">
+      <c r="D20" s="148">
         <f t="shared" si="7"/>
         <v>-0.26236430000000005</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E20" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="F18" s="156"/>
-      <c r="G18" s="157"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="159" t="s">
+      <c r="F20" s="156"/>
+      <c r="G20" s="157"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B21" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="161">
+      <c r="C21" s="161">
         <v>0.68907160000000001</v>
       </c>
-      <c r="D19" s="149">
+      <c r="D21" s="149">
         <f t="shared" si="7"/>
         <v>-0.37241009464486824</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E21" s="56">
         <v>0.37108077380430665</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="139" t="s">
+      <c r="F21" s="162"/>
+      <c r="G21" s="163"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A22" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B22" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C22" s="141">
         <v>0.45326107273685712</v>
       </c>
-      <c r="D20" s="147">
+      <c r="D22" s="147">
         <f t="shared" si="7"/>
         <v>-0.79128699999999996</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E22" s="54">
         <v>0.30513433399859663</v>
       </c>
-      <c r="F20" s="153"/>
-      <c r="G20" s="140"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="136" t="s">
+      <c r="F22" s="153"/>
+      <c r="G22" s="140"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A23" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B23" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="155">
+      <c r="C23" s="155">
         <v>0.6</v>
       </c>
-      <c r="D21" s="148">
+      <c r="D23" s="148">
         <f t="shared" si="7"/>
         <v>-0.51082562376599072</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E23" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="F21" s="156"/>
-      <c r="G21" s="157"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="158" t="s">
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A24" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B24" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="155">
+      <c r="C24" s="155">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="D22" s="148">
+      <c r="D24" s="148">
         <f t="shared" si="7"/>
         <v>2.1789120000000013E-2</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E24" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="F22" s="156"/>
-      <c r="G22" s="157"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="159" t="s">
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B25" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="161">
+      <c r="C25" s="200">
         <v>0.81895549999999995</v>
       </c>
-      <c r="D23" s="149">
+      <c r="D25" s="148">
         <f t="shared" si="7"/>
         <v>-0.19972553115957761</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E25" s="55">
         <v>0.3929717925727606</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="139" t="s">
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A26" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="141">
+        <v>0.45326107273685712</v>
+      </c>
+      <c r="D26" s="147">
+        <f t="shared" ref="D26" si="8">LN(C26)</f>
+        <v>-0.79128699999999996</v>
+      </c>
+      <c r="E26" s="54">
+        <v>0.30513433399859663</v>
+      </c>
+      <c r="F26" s="153"/>
+      <c r="G26" s="140"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A27" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B27" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="164">
+      <c r="C27" s="155">
         <v>0.59</v>
       </c>
-      <c r="D24" s="147">
+      <c r="D27" s="148">
         <f t="shared" si="7"/>
         <v>-0.52763274208237199</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E27" s="55">
         <v>0.13820150721193863</v>
       </c>
-      <c r="F24" s="153"/>
-      <c r="G24" s="140"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="158" t="s">
+      <c r="F27" s="156"/>
+      <c r="G27" s="157"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A28" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="154" t="s">
+      <c r="B28" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="155">
+      <c r="C28" s="155">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D28" s="148">
         <f t="shared" si="7"/>
         <v>-2.829491E-2</v>
       </c>
-      <c r="E25" s="138">
+      <c r="E28" s="138">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F25" s="165"/>
-      <c r="G25" s="166"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="159" t="s">
+      <c r="F28" s="164"/>
+      <c r="G28" s="165"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="160" t="s">
+      <c r="B29" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="161">
+      <c r="C29" s="161">
         <v>0.75462969999999996</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D29" s="149">
         <f t="shared" si="7"/>
         <v>-0.28152811362587332</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E29" s="56">
         <v>0.39942732138071213</v>
       </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="139" t="s">
+      <c r="F29" s="162"/>
+      <c r="G29" s="163"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A30" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B30" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="141">
+      <c r="C30" s="141">
         <v>0.54056412975266621</v>
       </c>
-      <c r="D27" s="147">
+      <c r="D30" s="147">
         <f t="shared" si="7"/>
         <v>-0.61514199999999986</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E30" s="54">
         <v>0.35642682488003907</v>
       </c>
-      <c r="F27" s="153"/>
-      <c r="G27" s="140"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="136" t="s">
+      <c r="F30" s="153"/>
+      <c r="G30" s="140"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A31" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="154" t="s">
+      <c r="B31" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="155">
+      <c r="C31" s="155">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D28" s="148">
+      <c r="D31" s="148">
         <f t="shared" si="7"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E31" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="157"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="159" t="s">
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A32" s="204" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="155"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="165"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B33" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="161">
+      <c r="C33" s="161">
         <v>0.3101293</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D33" s="149">
         <f t="shared" si="7"/>
         <v>-1.1707659716894312</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E33" s="56">
         <v>1.4320074807991772</v>
       </c>
-      <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="133" t="s">
+      <c r="F33" s="162"/>
+      <c r="G33" s="163"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A34" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B34" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="142">
+      <c r="C34" s="142">
         <v>1.5349994151050002</v>
       </c>
-      <c r="D30" s="147">
+      <c r="D34" s="147">
         <f t="shared" si="7"/>
         <v>0.42853000000000002</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E34" s="54">
         <v>9.461E-2</v>
       </c>
-      <c r="F30" s="167"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+      <c r="F34" s="166"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A35" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B35" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C35" s="99">
         <v>0.96</v>
       </c>
-      <c r="D31" s="148">
+      <c r="D35" s="148">
         <f t="shared" si="7"/>
         <v>-4.0821994520255166E-2</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E35" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="F31" s="168"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="135" t="s">
+      <c r="F35" s="167"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A36" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C36" s="99">
         <v>0.97297297704789509</v>
       </c>
-      <c r="D32" s="148">
+      <c r="D36" s="148">
         <f t="shared" si="7"/>
         <v>-2.739897000000005E-2</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E36" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="F32" s="168"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="169" t="s">
+      <c r="F36" s="167"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="137" t="s">
+      <c r="B37" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="172"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="133" t="s">
+      <c r="C37" s="169"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="171"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A38" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="142">
+      <c r="C38" s="142">
         <v>1.4032682776745637</v>
       </c>
-      <c r="D34" s="147">
+      <c r="D38" s="147">
         <f t="shared" si="7"/>
         <v>0.33880400000000005</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E38" s="54">
         <v>9.8753000000000007E-2</v>
       </c>
-      <c r="F34" s="167"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="134" t="s">
+      <c r="F38" s="166"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A39" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C39" s="99">
         <v>0.89</v>
       </c>
-      <c r="D35" s="148">
+      <c r="D39" s="148">
         <f t="shared" si="7"/>
         <v>-0.11653381625595151</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E39" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="F35" s="168"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="135" t="s">
+      <c r="F39" s="167"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A40" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B40" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C40" s="99">
         <v>0.65410122579434049</v>
       </c>
-      <c r="D36" s="148">
+      <c r="D40" s="148">
         <f t="shared" si="7"/>
         <v>-0.42449315999999992</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E40" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="F36" s="168"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="169" t="s">
+      <c r="F40" s="167"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B41" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="170"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="172"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="133" t="s">
+      <c r="C41" s="169"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="171"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A42" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B42" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="142">
+      <c r="C42" s="142">
         <v>0.83</v>
       </c>
-      <c r="D38" s="147">
+      <c r="D42" s="147">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E42" s="54">
         <v>0.13820150721193863</v>
       </c>
-      <c r="F38" s="167"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="135" t="s">
+      <c r="F42" s="166"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A43" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B43" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="173">
+      <c r="C43" s="172">
         <v>0.64440632009954502</v>
       </c>
-      <c r="D39" s="148">
+      <c r="D43" s="148">
         <f t="shared" si="7"/>
         <v>-0.43942582000000008</v>
       </c>
-      <c r="E39" s="138">
+      <c r="E43" s="138">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F39" s="174"/>
-      <c r="G39" s="175"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="169" t="s">
+      <c r="F43" s="173"/>
+      <c r="G43" s="174"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B44" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="172"/>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
+      <c r="C44" s="169"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="171"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A45" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="142">
+      <c r="C45" s="142">
         <v>1.4313184321023231</v>
       </c>
-      <c r="D41" s="147">
+      <c r="D45" s="147">
         <f t="shared" si="7"/>
         <v>0.35859600000000003</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E45" s="54">
         <v>0.10279799999999999</v>
       </c>
-      <c r="F41" s="167"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="134" t="s">
+      <c r="F45" s="166"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A46" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B46" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="99">
+      <c r="C46" s="99">
         <v>0.83</v>
       </c>
-      <c r="D42" s="148">
+      <c r="D46" s="148">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E46" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="F42" s="168"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="169" t="s">
+      <c r="F46" s="167"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="137" t="s">
+      <c r="B47" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="170"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="172"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="171"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A48" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="210" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="211"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="214"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A49" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="217"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="219"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="221"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A50" s="222" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="217"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="220"/>
+      <c r="G50" s="221"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="223" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="224" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="225"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="225"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A52" s="209" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="210" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="211"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="211"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="214"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A53" s="215" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="217"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="219"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="221"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A54" s="222" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="220"/>
+      <c r="G54" s="221"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="222" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="219"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="219"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="221"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A56" s="210" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="229" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="211"/>
+      <c r="D56" s="212"/>
+      <c r="E56" s="211"/>
+      <c r="F56" s="213"/>
+      <c r="G56" s="214"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A57" s="216" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="230" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="217"/>
+      <c r="D57" s="218"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="220"/>
+      <c r="G57" s="221"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A58" s="231" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="230" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="217"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="232"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="234"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="235" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="236" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="225"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="225"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="228"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A60" s="210" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="210" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="211"/>
+      <c r="D60" s="212"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="213"/>
+      <c r="G60" s="214"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A61" s="216" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="217"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="219"/>
+      <c r="F61" s="220"/>
+      <c r="G61" s="221"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A62" s="231" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="217"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="232"/>
+      <c r="F62" s="233"/>
+      <c r="G62" s="234"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="235" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="224" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="225"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="225"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="228"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B43"/>
+  <autoFilter ref="A1:B47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2546,28 +2980,28 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="120" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="69" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="120" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" style="69" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="72" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="69" customWidth="1"/>
     <col min="11" max="11" width="12" style="73" customWidth="1"/>
     <col min="12" max="12" width="12" style="69" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="120" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="13" width="8.88671875" style="120" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="63" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="117" t="s">
         <v>48</v>
       </c>
@@ -2608,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>51</v>
       </c>
@@ -2654,7 +3088,7 @@
         <v>9.7180000000000016E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>52</v>
       </c>
@@ -2700,7 +3134,7 @@
         <v>0.10203799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>53</v>
       </c>
@@ -2739,7 +3173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
@@ -2785,7 +3219,7 @@
         <v>0.10599400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>73</v>
       </c>
@@ -2831,7 +3265,7 @@
         <v>0.18760999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>74</v>
       </c>
@@ -2877,7 +3311,7 @@
         <v>0.20189599999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>75</v>
       </c>
@@ -2906,7 +3340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>76</v>
       </c>
@@ -2952,7 +3386,7 @@
         <v>0.21249200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>89</v>
       </c>
@@ -2998,7 +3432,7 @@
         <v>9.461E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>90</v>
       </c>
@@ -3044,7 +3478,7 @@
         <v>9.8753000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>91</v>
       </c>
@@ -3073,7 +3507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>92</v>
       </c>
@@ -3119,7 +3553,7 @@
         <v>0.10279799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>55</v>
       </c>
@@ -3165,7 +3599,7 @@
         <v>0.14066626602299256</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>56</v>
       </c>
@@ -3211,7 +3645,7 @@
         <v>0.15281455617284881</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>57</v>
       </c>
@@ -3257,7 +3691,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>58</v>
       </c>
@@ -3303,7 +3737,7 @@
         <v>0.15729661206863085</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>77</v>
       </c>
@@ -3332,7 +3766,7 @@
         <v>0.12395213194407623</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>78</v>
       </c>
@@ -3361,7 +3795,7 @@
         <v>0.13556283965969668</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>79</v>
       </c>
@@ -3390,7 +3824,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>80</v>
       </c>
@@ -3419,7 +3853,7 @@
         <v>0.14094560032048883</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -3448,7 +3882,7 @@
         <v>0.11252182123171039</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -3477,7 +3911,7 @@
         <v>0.12252098351162294</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -3506,7 +3940,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>96</v>
       </c>
@@ -3535,7 +3969,7 @@
         <v>0.12472109076579629</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
         <v>59</v>
       </c>
@@ -3581,7 +4015,7 @@
         <v>0.28945759999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>60</v>
       </c>
@@ -3627,7 +4061,7 @@
         <v>0.32258285999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>61</v>
       </c>
@@ -3675,7 +4109,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="90" t="s">
         <v>62</v>
       </c>
@@ -3714,7 +4148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
         <v>81</v>
       </c>
@@ -3742,7 +4176,7 @@
         <v>0.43945954081632649</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="84" t="s">
         <v>82</v>
       </c>
@@ -3770,7 +4204,7 @@
         <v>0.4697204948979592</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>83</v>
       </c>
@@ -3798,7 +4232,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="90" t="s">
         <v>84</v>
       </c>
@@ -3837,7 +4271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>97</v>
       </c>
@@ -3865,7 +4299,7 @@
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>98</v>
       </c>
@@ -3893,7 +4327,7 @@
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>99</v>
       </c>
@@ -3921,7 +4355,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="90" t="s">
         <v>100</v>
       </c>
@@ -3960,7 +4394,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="106" t="s">
         <v>63</v>
       </c>
@@ -4008,7 +4442,7 @@
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="111" t="s">
         <v>64</v>
       </c>
@@ -4056,7 +4490,7 @@
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="111" t="s">
         <v>65</v>
       </c>
@@ -4104,7 +4538,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="112" t="s">
         <v>66</v>
       </c>
@@ -4152,7 +4586,7 @@
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="106" t="s">
         <v>85</v>
       </c>
@@ -4181,7 +4615,7 @@
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="111" t="s">
         <v>86</v>
       </c>
@@ -4210,7 +4644,7 @@
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="111" t="s">
         <v>87</v>
       </c>
@@ -4239,7 +4673,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="112" t="s">
         <v>88</v>
       </c>
@@ -4268,7 +4702,7 @@
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="106" t="s">
         <v>101</v>
       </c>
@@ -4293,7 +4727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="111" t="s">
         <v>102</v>
       </c>
@@ -4318,7 +4752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="111" t="s">
         <v>103</v>
       </c>
@@ -4343,7 +4777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="112" t="s">
         <v>104</v>
       </c>
@@ -4368,7 +4802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -4385,7 +4819,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="119"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -4402,7 +4836,7 @@
       <c r="L51" s="49"/>
       <c r="M51" s="35"/>
     </row>
-    <row r="52" spans="1:13" s="34" customFormat="1" ht="4.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="34" customFormat="1" ht="4.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="53"/>
       <c r="B52" s="35"/>
       <c r="C52" s="36"/>
@@ -4431,16 +4865,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4492,7 +4926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4518,7 +4952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4544,7 +4978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4570,7 +5004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -4596,7 +5030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +5056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -4648,7 +5082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +5108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -1673,7 +1668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1684,25 +1679,25 @@
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="143" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="143" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="143" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="143" customWidth="1"/>
     <col min="3" max="3" width="14" style="145" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="146" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="145" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="146" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="145" customWidth="1"/>
     <col min="6" max="6" width="8" style="146" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="146" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="50"/>
+    <col min="7" max="7" width="7.7109375" style="146" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1795,7 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="193" t="s">
         <v>59</v>
       </c>
@@ -1833,7 +1828,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="194" t="s">
         <v>63</v>
       </c>
@@ -1867,7 +1862,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="185" t="s">
         <v>52</v>
       </c>
@@ -1899,7 +1894,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="189" t="s">
         <v>68</v>
       </c>
@@ -1933,7 +1928,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="193" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +1961,7 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="194" t="s">
         <v>64</v>
       </c>
@@ -2000,7 +1995,7 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="185" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2017,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="189" t="s">
         <v>69</v>
       </c>
@@ -2056,7 +2051,7 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="144" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="144" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="193" t="s">
         <v>61</v>
       </c>
@@ -2105,7 +2100,7 @@
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="189" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2123,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="189" t="s">
         <v>70</v>
       </c>
@@ -2153,7 +2148,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="193" t="s">
         <v>62</v>
       </c>
@@ -2166,7 +2161,7 @@
       <c r="F16" s="198"/>
       <c r="G16" s="199"/>
     </row>
-    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="194" t="s">
         <v>66</v>
       </c>
@@ -2191,7 +2186,7 @@
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="139" t="s">
         <v>73</v>
       </c>
@@ -2211,7 +2206,7 @@
       <c r="F18" s="153"/>
       <c r="G18" s="140"/>
     </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="136" t="s">
         <v>105</v>
       </c>
@@ -2231,7 +2226,7 @@
       <c r="F19" s="156"/>
       <c r="G19" s="157"/>
     </row>
-    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="158" t="s">
         <v>81</v>
       </c>
@@ -2252,7 +2247,7 @@
       <c r="F20" s="156"/>
       <c r="G20" s="157"/>
     </row>
-    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="159" t="s">
         <v>85</v>
       </c>
@@ -2272,7 +2267,7 @@
       <c r="F21" s="162"/>
       <c r="G21" s="163"/>
     </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="139" t="s">
         <v>74</v>
       </c>
@@ -2292,7 +2287,7 @@
       <c r="F22" s="153"/>
       <c r="G22" s="140"/>
     </row>
-    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="136" t="s">
         <v>106</v>
       </c>
@@ -2312,7 +2307,7 @@
       <c r="F23" s="156"/>
       <c r="G23" s="157"/>
     </row>
-    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="158" t="s">
         <v>82</v>
       </c>
@@ -2333,7 +2328,7 @@
       <c r="F24" s="156"/>
       <c r="G24" s="157"/>
     </row>
-    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="158" t="s">
         <v>86</v>
       </c>
@@ -2353,7 +2348,7 @@
       <c r="F25" s="156"/>
       <c r="G25" s="157"/>
     </row>
-    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="152" t="s">
         <v>75</v>
       </c>
@@ -2373,7 +2368,7 @@
       <c r="F26" s="153"/>
       <c r="G26" s="140"/>
     </row>
-    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="154" t="s">
         <v>107</v>
       </c>
@@ -2393,7 +2388,7 @@
       <c r="F27" s="156"/>
       <c r="G27" s="157"/>
     </row>
-    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="204" t="s">
         <v>83</v>
       </c>
@@ -2414,7 +2409,7 @@
       <c r="F28" s="164"/>
       <c r="G28" s="165"/>
     </row>
-    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="205" t="s">
         <v>87</v>
       </c>
@@ -2434,7 +2429,7 @@
       <c r="F29" s="162"/>
       <c r="G29" s="163"/>
     </row>
-    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="152" t="s">
         <v>76</v>
       </c>
@@ -2454,7 +2449,7 @@
       <c r="F30" s="153"/>
       <c r="G30" s="140"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="154" t="s">
         <v>108</v>
       </c>
@@ -2474,7 +2469,7 @@
       <c r="F31" s="156"/>
       <c r="G31" s="157"/>
     </row>
-    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A32" s="204" t="s">
         <v>84</v>
       </c>
@@ -2487,7 +2482,7 @@
       <c r="F32" s="164"/>
       <c r="G32" s="165"/>
     </row>
-    <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="205" t="s">
         <v>88</v>
       </c>
@@ -2507,7 +2502,7 @@
       <c r="F33" s="162"/>
       <c r="G33" s="163"/>
     </row>
-    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="133" t="s">
         <v>89</v>
       </c>
@@ -2527,7 +2522,7 @@
       <c r="F34" s="166"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="134" t="s">
         <v>117</v>
       </c>
@@ -2547,7 +2542,7 @@
       <c r="F35" s="167"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="135" t="s">
         <v>97</v>
       </c>
@@ -2567,7 +2562,7 @@
       <c r="F36" s="167"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="168" t="s">
         <v>101</v>
       </c>
@@ -2580,7 +2575,7 @@
       <c r="F37" s="170"/>
       <c r="G37" s="171"/>
     </row>
-    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="133" t="s">
         <v>112</v>
       </c>
@@ -2600,7 +2595,7 @@
       <c r="F38" s="166"/>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="134" t="s">
         <v>113</v>
       </c>
@@ -2620,7 +2615,7 @@
       <c r="F39" s="167"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="135" t="s">
         <v>98</v>
       </c>
@@ -2640,7 +2635,7 @@
       <c r="F40" s="167"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="168" t="s">
         <v>102</v>
       </c>
@@ -2653,7 +2648,7 @@
       <c r="F41" s="170"/>
       <c r="G41" s="171"/>
     </row>
-    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A42" s="133" t="s">
         <v>114</v>
       </c>
@@ -2673,7 +2668,7 @@
       <c r="F42" s="166"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A43" s="135" t="s">
         <v>99</v>
       </c>
@@ -2693,7 +2688,7 @@
       <c r="F43" s="173"/>
       <c r="G43" s="174"/>
     </row>
-    <row r="44" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="168" t="s">
         <v>103</v>
       </c>
@@ -2706,7 +2701,7 @@
       <c r="F44" s="170"/>
       <c r="G44" s="171"/>
     </row>
-    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A45" s="133" t="s">
         <v>92</v>
       </c>
@@ -2726,7 +2721,7 @@
       <c r="F45" s="166"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="134" t="s">
         <v>115</v>
       </c>
@@ -2746,7 +2741,7 @@
       <c r="F46" s="167"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="168" t="s">
         <v>104</v>
       </c>
@@ -2759,7 +2754,7 @@
       <c r="F47" s="170"/>
       <c r="G47" s="171"/>
     </row>
-    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="209" t="s">
         <v>119</v>
       </c>
@@ -2772,7 +2767,7 @@
       <c r="F48" s="213"/>
       <c r="G48" s="214"/>
     </row>
-    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A49" s="215" t="s">
         <v>120</v>
       </c>
@@ -2785,7 +2780,7 @@
       <c r="F49" s="220"/>
       <c r="G49" s="221"/>
     </row>
-    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="222" t="s">
         <v>121</v>
       </c>
@@ -2798,7 +2793,7 @@
       <c r="F50" s="220"/>
       <c r="G50" s="221"/>
     </row>
-    <row r="51" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="223" t="s">
         <v>122</v>
       </c>
@@ -2811,7 +2806,7 @@
       <c r="F51" s="227"/>
       <c r="G51" s="228"/>
     </row>
-    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="209" t="s">
         <v>123</v>
       </c>
@@ -2824,7 +2819,7 @@
       <c r="F52" s="213"/>
       <c r="G52" s="214"/>
     </row>
-    <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="215" t="s">
         <v>124</v>
       </c>
@@ -2837,7 +2832,7 @@
       <c r="F53" s="220"/>
       <c r="G53" s="221"/>
     </row>
-    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="222" t="s">
         <v>125</v>
       </c>
@@ -2850,7 +2845,7 @@
       <c r="F54" s="220"/>
       <c r="G54" s="221"/>
     </row>
-    <row r="55" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="222" t="s">
         <v>126</v>
       </c>
@@ -2863,7 +2858,7 @@
       <c r="F55" s="220"/>
       <c r="G55" s="221"/>
     </row>
-    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="210" t="s">
         <v>127</v>
       </c>
@@ -2876,7 +2871,7 @@
       <c r="F56" s="213"/>
       <c r="G56" s="214"/>
     </row>
-    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="216" t="s">
         <v>128</v>
       </c>
@@ -2889,7 +2884,7 @@
       <c r="F57" s="220"/>
       <c r="G57" s="221"/>
     </row>
-    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="231" t="s">
         <v>129</v>
       </c>
@@ -2902,7 +2897,7 @@
       <c r="F58" s="233"/>
       <c r="G58" s="234"/>
     </row>
-    <row r="59" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="235" t="s">
         <v>130</v>
       </c>
@@ -2915,7 +2910,7 @@
       <c r="F59" s="227"/>
       <c r="G59" s="228"/>
     </row>
-    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="210" t="s">
         <v>131</v>
       </c>
@@ -2928,7 +2923,7 @@
       <c r="F60" s="213"/>
       <c r="G60" s="214"/>
     </row>
-    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="216" t="s">
         <v>132</v>
       </c>
@@ -2941,7 +2936,7 @@
       <c r="F61" s="220"/>
       <c r="G61" s="221"/>
     </row>
-    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="231" t="s">
         <v>133</v>
       </c>
@@ -2954,7 +2949,7 @@
       <c r="F62" s="233"/>
       <c r="G62" s="234"/>
     </row>
-    <row r="63" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="235" t="s">
         <v>134</v>
       </c>
@@ -2983,25 +2978,25 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="120" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" style="69" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="72" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="70" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="69" customWidth="1"/>
     <col min="11" max="11" width="12" style="73" customWidth="1"/>
     <col min="12" max="12" width="12" style="69" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="120" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="25"/>
+    <col min="13" max="13" width="8.85546875" style="120" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="63" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="63" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="117" t="s">
         <v>48</v>
       </c>
@@ -3173,7 +3168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
@@ -3340,7 +3335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>76</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>92</v>
       </c>
@@ -3691,7 +3686,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>58</v>
       </c>
@@ -3824,7 +3819,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>80</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>96</v>
       </c>
@@ -4109,7 +4104,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="90" t="s">
         <v>62</v>
       </c>
@@ -4232,7 +4227,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="90" t="s">
         <v>84</v>
       </c>
@@ -4355,7 +4350,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="90" t="s">
         <v>100</v>
       </c>
@@ -4538,7 +4533,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="112" t="s">
         <v>66</v>
       </c>
@@ -4586,7 +4581,7 @@
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="106" t="s">
         <v>85</v>
       </c>
@@ -4615,7 +4610,7 @@
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="111" t="s">
         <v>86</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="111" t="s">
         <v>87</v>
       </c>
@@ -4673,7 +4668,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="112" t="s">
         <v>88</v>
       </c>
@@ -4702,7 +4697,7 @@
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="106" t="s">
         <v>101</v>
       </c>
@@ -4727,7 +4722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="111" t="s">
         <v>102</v>
       </c>
@@ -4752,7 +4747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="111" t="s">
         <v>103</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="112" t="s">
         <v>104</v>
       </c>
@@ -4802,7 +4797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -4819,7 +4814,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="119"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -4865,16 +4860,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4926,7 +4921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +4947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4978,7 +4973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5056,7 +5051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5082,7 +5077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -5108,7 +5103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -12,14 +12,14 @@
     <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
   <si>
     <t>camp</t>
   </si>
@@ -132,9 +132,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>FRANCE_MOD4</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
     <t>dubtes:</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>tipus</t>
   </si>
   <si>
-    <t>motality</t>
-  </si>
-  <si>
     <t>uci</t>
   </si>
   <si>
@@ -427,14 +418,21 @@
   </si>
   <si>
     <t>imv</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Detah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -454,13 +452,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -475,12 +466,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -520,6 +505,21 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -573,7 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -804,19 +804,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,16 +829,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,37 +848,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,33 +901,24 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,71 +937,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1018,108 +988,87 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,109 +1083,54 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,77 +1142,104 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,68 +1248,249 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,102 +1778,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="143" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="143" customWidth="1"/>
-    <col min="3" max="3" width="14" style="145" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="146" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="145" customWidth="1"/>
-    <col min="6" max="6" width="8" style="146" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="146" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="255" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="126" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="255" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="126" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="126" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="177" t="s">
+      <c r="B1" s="250" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="E1" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="180" t="s">
+      <c r="G1" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="185" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="186" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="181">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="145">
         <v>2.06</v>
       </c>
-      <c r="D2" s="147">
+      <c r="D2" s="127">
         <v>0.72208000000000006</v>
       </c>
       <c r="E2" s="54">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="187">
+      <c r="F2" s="174">
         <v>1.7</v>
       </c>
-      <c r="G2" s="188">
+      <c r="G2" s="151">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="189" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="182">
+    </row>
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="146">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D3" s="148">
+      <c r="D3" s="128">
         <f t="shared" ref="D3:D11" si="0">LN(C3)</f>
         <v>0.91228271047661635</v>
       </c>
@@ -1779,66 +1863,48 @@
         <f t="shared" ref="E3:E11" si="1">(LN(C3/F3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="F3" s="191">
+      <c r="F3" s="263">
         <v>1.89</v>
       </c>
-      <c r="G3" s="192">
+      <c r="G3" s="154">
         <v>3.28</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="193" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="182">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="146">
         <v>1.0820000000000001</v>
       </c>
-      <c r="D4" s="148">
+      <c r="D4" s="128">
         <v>7.8938900000000006E-2</v>
       </c>
       <c r="E4" s="55">
         <f t="shared" si="1"/>
         <v>0.28938720751415131</v>
       </c>
-      <c r="F4" s="191">
+      <c r="F4" s="263">
         <v>0.61361489999999996</v>
       </c>
-      <c r="G4" s="192">
+      <c r="G4" s="154">
         <v>1.908401</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="194" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="195" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="183">
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="156" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="147">
         <v>2.6488100000000001</v>
       </c>
-      <c r="D5" s="149">
+      <c r="D5" s="129">
         <f>LN(C5)</f>
         <v>0.97411048253824606</v>
       </c>
@@ -1846,65 +1912,47 @@
         <f t="shared" ref="E5" si="2">(LN(C5/F5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="F5" s="196">
+      <c r="F5" s="264">
         <v>1.5287230000000001</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="158">
         <v>4.5895770000000002</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="185" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="186" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="181">
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="145">
         <v>1.6</v>
       </c>
-      <c r="D6" s="147">
+      <c r="D6" s="127">
         <v>0.47271299999999999</v>
       </c>
       <c r="E6" s="54">
         <v>0.102038</v>
       </c>
-      <c r="F6" s="187">
+      <c r="F6" s="174">
         <v>1.31</v>
       </c>
-      <c r="G6" s="188">
+      <c r="G6" s="151">
         <v>1.96</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="189" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="182">
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="146">
         <v>1.7</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="128">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
@@ -1912,66 +1960,48 @@
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="191">
+      <c r="F7" s="263">
         <v>1.26</v>
       </c>
-      <c r="G7" s="192">
+      <c r="G7" s="154">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="182">
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="155" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="146">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D8" s="150">
+      <c r="D8" s="130">
         <v>-0.55780845999999995</v>
       </c>
       <c r="E8" s="55">
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="F8" s="191">
+      <c r="F8" s="263">
         <v>0.30420320000000001</v>
       </c>
-      <c r="G8" s="192">
+      <c r="G8" s="154">
         <v>1.077283</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="195" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="183">
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="147">
         <v>2.062049</v>
       </c>
-      <c r="D9" s="149">
+      <c r="D9" s="129">
         <f t="shared" ref="D9" si="3">LN(C9)</f>
         <v>0.72370014864899102</v>
       </c>
@@ -1979,55 +2009,37 @@
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="F9" s="196">
+      <c r="F9" s="264">
         <v>1.1560870000000001</v>
       </c>
-      <c r="G9" s="197">
+      <c r="G9" s="158">
         <v>3.6779639999999998</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="185" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="188"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="189" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="182">
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="181" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="177"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="146">
         <v>1.45</v>
       </c>
-      <c r="D11" s="148">
+      <c r="D11" s="128">
         <f t="shared" si="0"/>
         <v>0.37156355643248301</v>
       </c>
@@ -2035,57 +2047,48 @@
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="F11" s="191">
+      <c r="F11" s="263">
         <v>1.07</v>
       </c>
-      <c r="G11" s="192">
+      <c r="G11" s="154">
         <v>1.96</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="1:18" s="144" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="193" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="184">
+    </row>
+    <row r="12" spans="1:7" s="254" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="148">
         <f>EXP(D12)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="131">
         <v>-0.45101475000000002</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="121">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="265">
         <v>0.33481</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="159">
         <v>1.2118800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="194" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="183">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="147">
         <v>2.1843110000000001</v>
       </c>
-      <c r="D13" s="149">
+      <c r="D13" s="129">
         <f t="shared" ref="D13" si="4">LN(C13)</f>
         <v>0.78130044701224466</v>
       </c>
@@ -2093,47 +2096,47 @@
         <f t="shared" ref="E13" si="5">(LN(C13/F13))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="F13" s="196">
+      <c r="F13" s="264">
         <v>1.207077</v>
       </c>
-      <c r="G13" s="197">
+      <c r="G13" s="158">
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="189" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="182">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="149" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="145">
         <v>1.56</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="127">
         <v>0.44423099999999999</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="54">
         <v>0.105994</v>
       </c>
-      <c r="F14" s="191">
+      <c r="F14" s="174">
         <v>1.27</v>
       </c>
-      <c r="G14" s="192">
+      <c r="G14" s="151">
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="189" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="182">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="146">
         <v>1.47</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="128">
         <f t="shared" ref="D15:D17" si="6">LN(C15)</f>
         <v>0.38526240079064489</v>
       </c>
@@ -2141,37 +2144,37 @@
         <f>(LN(C15/F15))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="F15" s="191">
+      <c r="F15" s="263">
         <v>1.08</v>
       </c>
-      <c r="G15" s="192">
+      <c r="G15" s="154">
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="193" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="199"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="194" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="195" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="183">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="182" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="180"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="147">
         <v>0.4974674</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="129">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
@@ -2179,791 +2182,910 @@
         <f>(LN(C17/F17))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="F17" s="196">
+      <c r="F17" s="264">
         <v>1.16729E-2</v>
       </c>
-      <c r="G17" s="197">
+      <c r="G17" s="158">
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="141">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="124">
         <v>0.28388671819205552</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="127">
         <f>LN(C18)</f>
         <v>-1.25918</v>
       </c>
       <c r="E18" s="54">
         <v>0.19653876299053855</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="140"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="155">
+      <c r="F18" s="266">
+        <v>0.19653876299053855</v>
+      </c>
+      <c r="G18" s="123">
+        <v>0.41005482857208825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="134">
         <v>0.51</v>
       </c>
-      <c r="D19" s="148">
-        <f t="shared" ref="D19:D46" si="7">LN(C19)</f>
+      <c r="D19" s="128">
+        <f t="shared" ref="D19:D47" si="7">LN(C19)</f>
         <v>-0.67334455326376563</v>
       </c>
       <c r="E19" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="158" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="155">
+      <c r="F19" s="242">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="135">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="134">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="D20" s="148">
+      <c r="D20" s="128">
         <f t="shared" si="7"/>
         <v>-0.26236430000000005</v>
       </c>
       <c r="E20" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="F20" s="156"/>
-      <c r="G20" s="157"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="160" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="161">
+      <c r="F20" s="242">
+        <v>0.32507316464627944</v>
+      </c>
+      <c r="G20" s="135">
+        <v>1.8202546338296408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="139">
         <v>0.68907160000000001</v>
       </c>
-      <c r="D21" s="149">
+      <c r="D21" s="129">
         <f t="shared" si="7"/>
         <v>-0.37241009464486824</v>
       </c>
       <c r="E21" s="56">
         <v>0.37108077380430665</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="163"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="141">
+      <c r="F21" s="267">
+        <v>0.33296150000000002</v>
+      </c>
+      <c r="G21" s="140">
+        <v>1.4260497682962143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="124">
         <v>0.45326107273685712</v>
       </c>
-      <c r="D22" s="147">
+      <c r="D22" s="127">
         <f t="shared" si="7"/>
         <v>-0.79128699999999996</v>
       </c>
       <c r="E22" s="54">
         <v>0.30513433399859663</v>
       </c>
-      <c r="F22" s="153"/>
-      <c r="G22" s="140"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="155">
+      <c r="F22" s="266">
+        <v>0.30513433399859663</v>
+      </c>
+      <c r="G22" s="123">
+        <v>0.67329558547649826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="134">
         <v>0.6</v>
       </c>
-      <c r="D23" s="148">
+      <c r="D23" s="128">
         <f t="shared" si="7"/>
         <v>-0.51082562376599072</v>
       </c>
       <c r="E23" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="F23" s="156"/>
-      <c r="G23" s="157"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="155">
+      <c r="F23" s="242">
+        <v>0.46</v>
+      </c>
+      <c r="G23" s="135">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="134">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="D24" s="148">
+      <c r="D24" s="128">
         <f t="shared" si="7"/>
         <v>2.1789120000000013E-2</v>
       </c>
       <c r="E24" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="F24" s="156"/>
-      <c r="G24" s="157"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="158" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="200">
+      <c r="F24" s="242">
+        <v>0.40703217199207092</v>
+      </c>
+      <c r="G24" s="135">
+        <v>2.5662387101903139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="160">
         <v>0.81895549999999995</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="128">
         <f t="shared" si="7"/>
         <v>-0.19972553115957761</v>
       </c>
       <c r="E25" s="55">
         <v>0.3929717925727606</v>
       </c>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="141">
-        <v>0.45326107273685712</v>
-      </c>
-      <c r="D26" s="147">
-        <f t="shared" ref="D26" si="8">LN(C26)</f>
-        <v>-0.79128699999999996</v>
-      </c>
-      <c r="E26" s="54">
-        <v>0.30513433399859663</v>
-      </c>
-      <c r="F26" s="153"/>
-      <c r="G26" s="140"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="207" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="155">
+      <c r="F25" s="242">
+        <v>0.37910189999999999</v>
+      </c>
+      <c r="G25" s="135">
+        <v>1.769149959365147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="189" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="185" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="188"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="134">
         <v>0.59</v>
       </c>
-      <c r="D27" s="148">
+      <c r="D27" s="128">
         <f t="shared" si="7"/>
         <v>-0.52763274208237199</v>
       </c>
       <c r="E27" s="55">
         <v>0.13820150721193863</v>
       </c>
-      <c r="F27" s="156"/>
-      <c r="G27" s="157"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="204" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="207" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="155">
+      <c r="F27" s="242">
+        <v>0.45</v>
+      </c>
+      <c r="G27" s="135">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="134">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="D28" s="148">
+      <c r="D28" s="128">
         <f t="shared" si="7"/>
         <v>-2.829491E-2</v>
       </c>
-      <c r="E28" s="138">
+      <c r="E28" s="121">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F28" s="164"/>
-      <c r="G28" s="165"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="205" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="208" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="161">
+      <c r="F28" s="268">
+        <v>0.37193573314376671</v>
+      </c>
+      <c r="G28" s="141">
+        <v>2.5407120591727339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="139">
         <v>0.75462969999999996</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="129">
         <f t="shared" si="7"/>
         <v>-0.28152811362587332</v>
       </c>
       <c r="E29" s="56">
         <v>0.39942732138071213</v>
       </c>
-      <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="152" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="141">
+      <c r="F29" s="267">
+        <v>0.34493279999999998</v>
+      </c>
+      <c r="G29" s="140">
+        <v>1.6509476168172175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="124">
         <v>0.54056412975266621</v>
       </c>
-      <c r="D30" s="147">
+      <c r="D30" s="127">
         <f t="shared" si="7"/>
         <v>-0.61514199999999986</v>
       </c>
       <c r="E30" s="54">
         <v>0.35642682488003907</v>
       </c>
-      <c r="F30" s="153"/>
-      <c r="G30" s="140"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="154" t="s">
+      <c r="F30" s="266">
+        <v>0.44</v>
+      </c>
+      <c r="G30" s="123">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="155">
+      <c r="C31" s="134">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D31" s="148">
+      <c r="D31" s="128">
         <f t="shared" si="7"/>
         <v>-0.54472717544167215</v>
       </c>
       <c r="E31" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="F31" s="156"/>
-      <c r="G31" s="157"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="204" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="165"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="205" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="160" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="161">
+      <c r="F31" s="242">
+        <v>0.44</v>
+      </c>
+      <c r="G31" s="135">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="202" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="204"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="269">
+        <v>0.35642682488003907</v>
+      </c>
+      <c r="G32" s="206">
+        <v>0.81983048967654149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="164" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="139">
         <v>0.3101293</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="129">
         <f t="shared" si="7"/>
         <v>-1.1707659716894312</v>
       </c>
       <c r="E33" s="56">
         <v>1.4320074807991772</v>
       </c>
-      <c r="F33" s="162"/>
-      <c r="G33" s="163"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="133" t="s">
-        <v>89</v>
+      <c r="F33" s="267">
+        <v>1.87324E-2</v>
+      </c>
+      <c r="G33" s="140">
+        <v>5.1344292625872816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="117" t="s">
+        <v>87</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="142">
+        <v>113</v>
+      </c>
+      <c r="C34" s="125">
         <v>1.5349994151050002</v>
       </c>
-      <c r="D34" s="147">
+      <c r="D34" s="127">
         <f t="shared" si="7"/>
         <v>0.42853000000000002</v>
       </c>
       <c r="E34" s="54">
         <v>9.461E-2</v>
       </c>
-      <c r="F34" s="166"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="134" t="s">
-        <v>117</v>
+      <c r="F34" s="270">
+        <v>1.2751889962780529</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1.8477443039815267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="118" t="s">
+        <v>114</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="99">
+        <v>113</v>
+      </c>
+      <c r="C35" s="89">
         <v>0.96</v>
       </c>
-      <c r="D35" s="148">
+      <c r="D35" s="128">
         <f t="shared" si="7"/>
         <v>-4.0821994520255166E-2</v>
       </c>
       <c r="E35" s="55">
-        <v>0.12395213194407623</v>
-      </c>
-      <c r="F35" s="167"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="135" t="s">
-        <v>97</v>
+        <v>0.11252182123171039</v>
+      </c>
+      <c r="F35" s="271">
+        <v>0.77</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="119" t="s">
+        <v>95</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="99">
+        <v>113</v>
+      </c>
+      <c r="C36" s="89">
         <v>0.97297297704789509</v>
       </c>
-      <c r="D36" s="148">
+      <c r="D36" s="128">
         <f t="shared" si="7"/>
         <v>-2.739897000000005E-2</v>
       </c>
       <c r="E36" s="55">
-        <v>0.43945954081632649</v>
-      </c>
-      <c r="F36" s="167"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="168" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="171"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A38" s="133" t="s">
-        <v>112</v>
+        <v>0.26924623979591833</v>
+      </c>
+      <c r="F36" s="271">
+        <v>0.57400245825357943</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1.6492549821924745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="194" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="198"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="117" t="s">
+        <v>109</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="142">
+        <v>113</v>
+      </c>
+      <c r="C38" s="125">
         <v>1.4032682776745637</v>
       </c>
-      <c r="D38" s="147">
+      <c r="D38" s="127">
         <f t="shared" si="7"/>
         <v>0.33880400000000005</v>
       </c>
       <c r="E38" s="54">
         <v>9.8753000000000007E-2</v>
       </c>
-      <c r="F38" s="166"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A39" s="134" t="s">
+      <c r="F38" s="270">
+        <v>1.1563264423940807</v>
+      </c>
+      <c r="G38" s="23">
+        <v>1.7029463194240766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="99">
+      <c r="C39" s="89">
         <v>0.89</v>
       </c>
-      <c r="D39" s="148">
+      <c r="D39" s="128">
         <f t="shared" si="7"/>
         <v>-0.11653381625595151</v>
       </c>
       <c r="E39" s="55">
-        <v>0.13556283965969668</v>
-      </c>
-      <c r="F39" s="167"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A40" s="135" t="s">
-        <v>98</v>
+        <v>0.12252098351162294</v>
+      </c>
+      <c r="F39" s="271">
+        <v>0.7</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="119" t="s">
+        <v>96</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="99">
+        <v>113</v>
+      </c>
+      <c r="C40" s="89">
         <v>0.65410122579434049</v>
       </c>
-      <c r="D40" s="148">
+      <c r="D40" s="128">
         <f t="shared" si="7"/>
         <v>-0.42449315999999992</v>
       </c>
       <c r="E40" s="55">
-        <v>0.4697204948979592</v>
-      </c>
-      <c r="F40" s="167"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="168" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="169"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="171"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A42" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="142">
+        <v>0.29181282142857151</v>
+      </c>
+      <c r="F40" s="271">
+        <v>0.36918910372248526</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1.158886893658885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="190" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="200"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="199"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="192"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="188"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="89">
         <v>0.83</v>
       </c>
-      <c r="D42" s="147">
+      <c r="D43" s="128">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E42" s="54">
-        <v>0.13820150721193863</v>
-      </c>
-      <c r="F42" s="166"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="172">
+      <c r="E43" s="55">
+        <v>0.1169315641684552</v>
+      </c>
+      <c r="F43" s="271">
+        <v>0.66</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="143">
         <v>0.64440632009954502</v>
       </c>
-      <c r="D43" s="148">
+      <c r="D44" s="128">
         <f t="shared" si="7"/>
         <v>-0.43942582000000008</v>
       </c>
-      <c r="E43" s="138">
-        <v>0.49017310714285722</v>
-      </c>
-      <c r="F43" s="173"/>
-      <c r="G43" s="174"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="168" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="171"/>
-    </row>
-    <row r="45" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="142">
+      <c r="E44" s="121">
+        <v>0.29946646938775501</v>
+      </c>
+      <c r="F44" s="272">
+        <v>0.35830163194241782</v>
+      </c>
+      <c r="G44" s="144">
+        <v>1.158966268540393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="190" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="182" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="200"/>
+      <c r="D45" s="201"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="199"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="125">
         <v>1.4313184321023231</v>
       </c>
-      <c r="D45" s="147">
+      <c r="D46" s="127">
         <f t="shared" si="7"/>
         <v>0.35859600000000003</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E46" s="54">
         <v>0.10279799999999999</v>
       </c>
-      <c r="F45" s="166"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A46" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="99">
+      <c r="F46" s="270">
+        <v>1.1701265671380279</v>
+      </c>
+      <c r="G46" s="23">
+        <v>1.7508126997634368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="89">
         <v>0.83</v>
       </c>
-      <c r="D46" s="148">
+      <c r="D47" s="128">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E46" s="55">
-        <v>0.14094560032048883</v>
-      </c>
-      <c r="F46" s="167"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="168" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="137" t="s">
+      <c r="E47" s="55">
+        <v>0.12472109076579629</v>
+      </c>
+      <c r="F47" s="271">
+        <v>0.65</v>
+      </c>
+      <c r="G47" s="24">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="182" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="200"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="199"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="194" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="196"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="198"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="169"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="171"/>
-    </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A48" s="209" t="s">
+      <c r="B50" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="200"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="199"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="243" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="244"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="200"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="199"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="190" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="244"/>
+      <c r="D52" s="201"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="199"/>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="211"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="214"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A49" s="215" t="s">
+      <c r="B53" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="196"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="196"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="198"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="217"/>
-      <c r="D49" s="218"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="221"/>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="222" t="s">
+      <c r="B54" s="189" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="186"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="217"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="220"/>
-      <c r="G50" s="221"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="223" t="s">
+      <c r="B55" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="244"/>
+      <c r="D55" s="201"/>
+      <c r="E55" s="200"/>
+      <c r="F55" s="201"/>
+      <c r="G55" s="199"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="224" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="225"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="225"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="228"/>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="209" t="s">
+      <c r="B56" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="244"/>
+      <c r="D56" s="201"/>
+      <c r="E56" s="200"/>
+      <c r="F56" s="201"/>
+      <c r="G56" s="199"/>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="211"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="214"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="215" t="s">
+      <c r="B57" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="200"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="201"/>
+      <c r="G57" s="199"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="217"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="219"/>
-      <c r="F53" s="220"/>
-      <c r="G53" s="221"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="222" t="s">
+      <c r="B58" s="185" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="186"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="187"/>
+      <c r="G58" s="188"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="220"/>
-      <c r="G54" s="221"/>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="222" t="s">
+      <c r="B59" s="245" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="244"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="201"/>
+      <c r="G59" s="199"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="246" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="219"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="221"/>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="210" t="s">
+      <c r="B60" s="245" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="244"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="178"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="180"/>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="229" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="211"/>
-      <c r="D56" s="212"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="213"/>
-      <c r="G56" s="214"/>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="216" t="s">
+      <c r="B61" s="248" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="196"/>
+      <c r="D61" s="197"/>
+      <c r="E61" s="196"/>
+      <c r="F61" s="197"/>
+      <c r="G61" s="198"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="217"/>
-      <c r="D57" s="218"/>
-      <c r="E57" s="219"/>
-      <c r="F57" s="220"/>
-      <c r="G57" s="221"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="231" t="s">
+      <c r="B62" s="189" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="186"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="188"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="217"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="232"/>
-      <c r="F58" s="233"/>
-      <c r="G58" s="234"/>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="235" t="s">
+      <c r="B63" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="244"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="200"/>
+      <c r="F63" s="201"/>
+      <c r="G63" s="199"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="246" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="236" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="225"/>
-      <c r="D59" s="226"/>
-      <c r="E59" s="225"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="228"/>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="210" t="s">
+      <c r="B64" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="244"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="178"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="180"/>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="211"/>
-      <c r="D60" s="212"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="213"/>
-      <c r="G60" s="214"/>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="216" t="s">
+      <c r="B65" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="217"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="219"/>
-      <c r="F61" s="220"/>
-      <c r="G61" s="221"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="231" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="217"/>
-      <c r="D62" s="218"/>
-      <c r="E62" s="232"/>
-      <c r="F62" s="233"/>
-      <c r="G62" s="234"/>
-    </row>
-    <row r="63" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="235" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="224" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="225"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="225"/>
-      <c r="F63" s="227"/>
-      <c r="G63" s="228"/>
+      <c r="C65" s="196"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="196"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="198"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B47"/>
+  <autoFilter ref="A1:B49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2975,73 +3097,73 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="120" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="69" customWidth="1"/>
-    <col min="11" max="11" width="12" style="73" customWidth="1"/>
-    <col min="12" max="12" width="12" style="69" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="120" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="12" style="70" customWidth="1"/>
+    <col min="12" max="12" width="12" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="63" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="100" t="s">
+      <c r="L1" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="129">
+        <v>50</v>
+      </c>
+      <c r="B2" s="113">
         <f>EXP(C2)</f>
         <v>2.0587108789548285</v>
       </c>
@@ -3074,20 +3196,20 @@
         <f>EXP(H2)</f>
         <v>2.4906726137420994</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="75"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="54">
         <f t="shared" ref="M2:M13" si="0">LN(B2/I2)/1.96</f>
         <v>9.7180000000000016E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="130">
+        <v>51</v>
+      </c>
+      <c r="B3" s="114">
         <f t="shared" ref="B3:B5" si="1">EXP(C3)</f>
         <v>1.6043408710659648</v>
       </c>
@@ -3113,66 +3235,66 @@
         <v>0.67270748000000002</v>
       </c>
       <c r="I3" s="18">
-        <f t="shared" ref="I3:I41" si="5">EXP(G3)</f>
+        <f t="shared" ref="I3:J41" si="5">EXP(G3)</f>
         <v>1.3135304602297513</v>
       </c>
       <c r="J3" s="58">
         <f t="shared" ref="J3:J41" si="6">EXP(H3)</f>
         <v>1.9595355482829784</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="65"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="55">
         <f t="shared" si="0"/>
         <v>0.10203799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="131">
+      <c r="B5" s="115">
         <f t="shared" si="1"/>
         <v>1.5592906401603417</v>
       </c>
@@ -3205,20 +3327,20 @@
         <f t="shared" si="6"/>
         <v>1.919335898482063</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="77"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="56">
         <f t="shared" si="0"/>
         <v>0.10599400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="129">
+        <v>71</v>
+      </c>
+      <c r="B6" s="113">
         <f>EXP(C6)</f>
         <v>0.28388671819205552</v>
       </c>
@@ -3251,20 +3373,20 @@
         <f t="shared" si="6"/>
         <v>0.41005482857208825</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="75"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="54">
         <f t="shared" si="0"/>
         <v>0.18760999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="130">
+        <v>72</v>
+      </c>
+      <c r="B7" s="114">
         <f t="shared" ref="B7:B9" si="7">EXP(C7)</f>
         <v>0.45326107273685712</v>
       </c>
@@ -3297,20 +3419,20 @@
         <f t="shared" ref="J7" si="9">EXP(H7)</f>
         <v>0.67329558547649826</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="65"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="55">
         <f t="shared" si="0"/>
         <v>0.20189599999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="130"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="114"/>
       <c r="C8" s="40"/>
       <c r="D8" s="44">
         <v>1.96</v>
@@ -3319,27 +3441,27 @@
       <c r="F8" s="40"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="65"/>
+        <v>49</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="63"/>
       <c r="M8" s="55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="131">
+        <v>74</v>
+      </c>
+      <c r="B9" s="115">
         <f t="shared" si="7"/>
         <v>0.54056412975266621</v>
       </c>
@@ -3372,20 +3494,20 @@
         <f t="shared" ref="J9:J11" si="11">EXP(H9)</f>
         <v>0.81983048967654149</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="77"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="56">
         <f t="shared" si="0"/>
         <v>0.21249200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="130">
+        <v>87</v>
+      </c>
+      <c r="B10" s="114">
         <f>EXP(C10)</f>
         <v>1.5349994151050002</v>
       </c>
@@ -3418,20 +3540,20 @@
         <f t="shared" si="11"/>
         <v>1.8477443039815267</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="65"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="55">
         <f t="shared" si="0"/>
         <v>9.461E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="130">
+        <v>88</v>
+      </c>
+      <c r="B11" s="114">
         <f t="shared" ref="B11:B13" si="12">EXP(C11)</f>
         <v>1.4032682776745637</v>
       </c>
@@ -3464,20 +3586,20 @@
         <f t="shared" si="11"/>
         <v>1.7029463194240766</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="65"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="55">
         <f t="shared" si="0"/>
         <v>9.8753000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="130"/>
+        <v>89</v>
+      </c>
+      <c r="B12" s="114"/>
       <c r="C12" s="40"/>
       <c r="D12" s="44">
         <v>1.96</v>
@@ -3486,27 +3608,27 @@
       <c r="F12" s="40"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="65"/>
+        <v>49</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="63"/>
       <c r="M12" s="55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="131">
+        <v>90</v>
+      </c>
+      <c r="B13" s="115">
         <f t="shared" si="12"/>
         <v>1.4313184321023231</v>
       </c>
@@ -3539,20 +3661,20 @@
         <f t="shared" ref="J13" si="14">EXP(H13)</f>
         <v>1.7508126997634368</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="77"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="56">
         <f t="shared" si="0"/>
         <v>0.10279799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="129">
+        <v>54</v>
+      </c>
+      <c r="B14" s="113">
         <v>2.4900000000000002</v>
       </c>
       <c r="C14" s="19">
@@ -3585,20 +3707,20 @@
         <f t="shared" si="6"/>
         <v>3.2804761904761914</v>
       </c>
-      <c r="K14" s="101" t="s">
+      <c r="K14" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="102"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="54">
         <f>LN(B14/I14)/1.96</f>
         <v>0.14066626602299256</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="130">
+        <v>55</v>
+      </c>
+      <c r="B15" s="114">
         <v>1.7</v>
       </c>
       <c r="C15" s="20">
@@ -3631,20 +3753,20 @@
         <f t="shared" si="6"/>
         <v>2.2936507936507935</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="67"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="55">
         <f t="shared" ref="M15:M45" si="16">LN(B15/I15)/1.96</f>
         <v>0.15281455617284881</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="130">
+        <v>56</v>
+      </c>
+      <c r="B16" s="114">
         <v>1.45</v>
       </c>
       <c r="C16" s="20">
@@ -3677,20 +3799,20 @@
         <f t="shared" si="6"/>
         <v>1.9649532710280369</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="67"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="55">
         <f t="shared" si="16"/>
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="131">
+        <v>57</v>
+      </c>
+      <c r="B17" s="115">
         <v>1.47</v>
       </c>
       <c r="C17" s="29">
@@ -3715,15 +3837,15 @@
         <f t="shared" si="4"/>
         <v>0.69356376044516144</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="18">
         <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="61">
         <f t="shared" si="6"/>
         <v>2.000833333333333</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="142" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="52"/>
@@ -3732,11 +3854,11 @@
         <v>0.15729661206863085</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="129">
+        <v>75</v>
+      </c>
+      <c r="B18" s="113">
         <v>0.51</v>
       </c>
       <c r="C18" s="19">
@@ -3746,26 +3868,43 @@
       <c r="D18" s="46">
         <v>1.96</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="30">
+      <c r="E18" s="19">
+        <v>0.12395213194407623</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="2"/>
+        <v>0.24294617861038939</v>
+      </c>
+      <c r="G18" s="46">
+        <f t="shared" si="3"/>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="H18" s="46">
+        <f t="shared" si="4"/>
+        <v>-0.43039837465337627</v>
+      </c>
+      <c r="I18" s="233">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
+      <c r="J18" s="30">
+        <f t="shared" si="5"/>
+        <v>0.65024999999999988</v>
+      </c>
+      <c r="K18" s="230" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="91"/>
       <c r="M18" s="54">
         <f t="shared" si="16"/>
         <v>0.12395213194407623</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="130">
+        <v>76</v>
+      </c>
+      <c r="B19" s="114">
         <v>0.6</v>
       </c>
       <c r="C19" s="20">
@@ -3775,26 +3914,43 @@
       <c r="D19" s="47">
         <v>1.96</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="18">
+      <c r="E19" s="20">
+        <v>0.13556283965969668</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="2"/>
+        <v>0.26570316573300551</v>
+      </c>
+      <c r="G19" s="47">
+        <f t="shared" si="3"/>
+        <v>-0.77652878949899629</v>
+      </c>
+      <c r="H19" s="47">
+        <f t="shared" si="4"/>
+        <v>-0.24512245803298521</v>
+      </c>
+      <c r="I19" s="234">
+        <f t="shared" si="5"/>
         <v>0.46</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
+      <c r="J19" s="18">
+        <f t="shared" si="5"/>
+        <v>0.78260869565217372</v>
+      </c>
+      <c r="K19" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="64"/>
       <c r="M19" s="55">
         <f t="shared" si="16"/>
         <v>0.13556283965969668</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="130">
+        <v>77</v>
+      </c>
+      <c r="B20" s="114">
         <v>0.59</v>
       </c>
       <c r="C20" s="20">
@@ -3804,26 +3960,43 @@
       <c r="D20" s="47">
         <v>1.96</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67"/>
+      <c r="E20" s="20">
+        <v>0.13820150721193863</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="2"/>
+        <v>0.27087495413539969</v>
+      </c>
+      <c r="G20" s="47">
+        <f t="shared" si="3"/>
+        <v>-0.79850769621777173</v>
+      </c>
+      <c r="H20" s="47">
+        <f t="shared" si="4"/>
+        <v>-0.25675778794697229</v>
+      </c>
+      <c r="I20" s="234">
+        <f t="shared" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="5"/>
+        <v>0.77355555555555555</v>
+      </c>
+      <c r="K20" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="64"/>
       <c r="M20" s="55">
         <f t="shared" si="16"/>
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="131">
+        <v>78</v>
+      </c>
+      <c r="B21" s="115">
         <v>0.57999999999999996</v>
       </c>
       <c r="C21" s="29">
@@ -3833,55 +4006,89 @@
       <c r="D21" s="48">
         <v>1.96</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="31">
-        <v>0.44</v>
-      </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="103"/>
+      <c r="E21" s="29">
+        <v>0.14094560032048883</v>
+      </c>
+      <c r="F21" s="29">
+        <f t="shared" si="2"/>
+        <v>0.27625337662815813</v>
+      </c>
+      <c r="G21" s="48">
+        <f t="shared" si="3"/>
+        <v>-0.82098055206983034</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="4"/>
+        <v>-0.26847379881351402</v>
+      </c>
+      <c r="I21" s="235">
+        <f t="shared" si="5"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="5"/>
+        <v>0.76454545454545442</v>
+      </c>
+      <c r="K21" s="232" t="s">
+        <v>36</v>
+      </c>
       <c r="L21" s="52"/>
       <c r="M21" s="56">
         <f t="shared" si="16"/>
-        <v>0.14094560032048883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="130">
+        <v>0.14094560032048892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="113">
         <v>0.96</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <f t="shared" si="15"/>
         <v>-4.0821994520255166E-2</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>1.96</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="18">
+      <c r="E22" s="19">
+        <v>0.11252182123171039</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" ref="F22:F25" si="17">D22*E22</f>
+        <v>0.22054276961415237</v>
+      </c>
+      <c r="G22" s="46">
+        <f t="shared" ref="G22:G25" si="18">C22-F22</f>
+        <v>-0.26136476413440751</v>
+      </c>
+      <c r="H22" s="46">
+        <f t="shared" ref="H22:H25" si="19">C22+F22</f>
+        <v>0.17972077509389719</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" ref="I22:I25" si="20">EXP(G22)</f>
         <v>0.77</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="55">
+      <c r="J22" s="30">
+        <f t="shared" ref="J22:J25" si="21">EXP(H22)</f>
+        <v>1.1968831168831169</v>
+      </c>
+      <c r="K22" s="230" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="91"/>
+      <c r="M22" s="54">
         <f t="shared" si="16"/>
         <v>0.11252182123171039</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="130">
+        <v>92</v>
+      </c>
+      <c r="B23" s="114">
         <v>0.89</v>
       </c>
       <c r="C23" s="20">
@@ -3891,26 +4098,43 @@
       <c r="D23" s="47">
         <v>1.96</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="E23" s="20">
+        <v>0.12252098351162294</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="17"/>
+        <v>0.24014112768278095</v>
+      </c>
+      <c r="G23" s="47">
+        <f t="shared" si="18"/>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="H23" s="47">
+        <f t="shared" si="19"/>
+        <v>0.12360731142682944</v>
+      </c>
       <c r="I23" s="18">
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
+      <c r="J23" s="18">
+        <f t="shared" si="21"/>
+        <v>1.1315714285714287</v>
+      </c>
+      <c r="K23" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="64"/>
       <c r="M23" s="55">
         <f t="shared" si="16"/>
         <v>0.12252098351162294</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="130">
+        <v>93</v>
+      </c>
+      <c r="B24" s="114">
         <v>0.83</v>
       </c>
       <c r="C24" s="20">
@@ -3920,501 +4144,649 @@
       <c r="D24" s="47">
         <v>1.96</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="E24" s="20">
+        <v>0.1169315641684552</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="17"/>
+        <v>0.22918586577017219</v>
+      </c>
+      <c r="G24" s="47">
+        <f t="shared" si="18"/>
+        <v>-0.41551544396166568</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="19"/>
+        <v>4.2856287578678709E-2</v>
+      </c>
       <c r="I24" s="18">
-        <v>0.66</v>
-      </c>
-      <c r="J24" s="61"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="67"/>
+        <f t="shared" si="20"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="21"/>
+        <v>1.0437878787878785</v>
+      </c>
+      <c r="K24" s="231" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="64"/>
       <c r="M24" s="55">
         <f t="shared" si="16"/>
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="130">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="115">
         <v>0.83</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="29">
         <f t="shared" si="15"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="48">
         <v>1.96</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="18">
+      <c r="E25" s="29">
+        <v>0.12472109076579629</v>
+      </c>
+      <c r="F25" s="29">
+        <f t="shared" si="17"/>
+        <v>0.24445333790096074</v>
+      </c>
+      <c r="G25" s="48">
+        <f t="shared" si="18"/>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="19"/>
+        <v>5.812375970946726E-2</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" si="20"/>
         <v>0.65</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="55">
+      <c r="J25" s="31">
+        <f t="shared" si="21"/>
+        <v>1.0598461538461537</v>
+      </c>
+      <c r="K25" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56">
         <f t="shared" si="16"/>
         <v>0.12472109076579629</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="129">
+    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="208">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="226">
         <f t="shared" si="15"/>
         <v>7.8811180424289848E-2</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="79">
         <v>1.96</v>
       </c>
       <c r="E26" s="81">
         <v>0.28945759999999998</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="78">
         <f t="shared" si="2"/>
         <v>0.56733689599999992</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="79">
         <f t="shared" si="3"/>
         <v>-0.48852571557571006</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="108">
         <f t="shared" si="4"/>
         <v>0.64614807642428973</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="215">
         <f t="shared" si="5"/>
         <v>0.61353024583876781</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J26" s="108">
         <f t="shared" si="6"/>
         <v>1.9081765046472698</v>
       </c>
-      <c r="K26" s="82" t="s">
+      <c r="K26" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="83"/>
-      <c r="M26" s="54">
+      <c r="L26" s="80"/>
+      <c r="M26" s="55">
         <f t="shared" si="16"/>
         <v>0.28945759999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="130">
+    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="208">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="226">
         <f t="shared" si="15"/>
         <v>-0.55861628760233928</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="79">
         <v>1.96</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="78">
         <v>0.32258286000000003</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="78">
         <f t="shared" si="2"/>
         <v>0.63226240560000002</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="79">
         <f t="shared" si="3"/>
         <v>-1.1908786932023392</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="108">
         <f t="shared" si="4"/>
         <v>7.3646117997660743E-2</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="215">
         <f t="shared" si="5"/>
         <v>0.30395406432045408</v>
       </c>
-      <c r="J27" s="123">
+      <c r="J27" s="108">
         <f t="shared" si="6"/>
         <v>1.0764258103653943</v>
       </c>
-      <c r="K27" s="87" t="s">
+      <c r="K27" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="88"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="55">
         <f t="shared" si="16"/>
         <v>0.32258285999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="130">
+    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="208">
         <f>EXP(C28)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="226">
         <v>-0.45101475000000002</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="79">
         <v>1.96</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="81">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="78">
         <f t="shared" si="2"/>
         <v>0.64319624600000003</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G28" s="79">
         <f t="shared" si="3"/>
         <v>-1.0942109960000002</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="108">
         <f t="shared" si="4"/>
         <v>0.19218149600000001</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="215">
         <f t="shared" si="5"/>
         <v>0.33480366419406132</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="108">
         <f t="shared" si="6"/>
         <v>1.2118904502749519</v>
       </c>
-      <c r="K28" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="88" t="s">
-        <v>42</v>
+      <c r="K28" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>41</v>
       </c>
       <c r="M28" s="55">
         <f t="shared" si="16"/>
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="124" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="105"/>
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="213" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="216" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="168" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="92"/>
       <c r="M29" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="129">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="207">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80">
+      <c r="C30" s="229">
+        <f>LN(B30)</f>
+        <v>-0.26236430000000005</v>
+      </c>
+      <c r="D30" s="75">
         <v>1.96</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="30">
+      <c r="E30" s="74">
+        <v>0.43945954081632649</v>
+      </c>
+      <c r="F30" s="74">
+        <f t="shared" si="2"/>
+        <v>0.86134069999999985</v>
+      </c>
+      <c r="G30" s="75">
+        <f t="shared" si="3"/>
+        <v>-1.123705</v>
+      </c>
+      <c r="H30" s="107">
+        <f t="shared" si="4"/>
+        <v>0.59897639999999974</v>
+      </c>
+      <c r="I30" s="217">
         <f>EXP(-1.123705)</f>
         <v>0.32507316464627944</v>
       </c>
-      <c r="J30" s="122"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
+      <c r="J30" s="221">
+        <f>EXP(H30)</f>
+        <v>1.8202546338296408</v>
+      </c>
+      <c r="K30" s="218" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="76"/>
       <c r="M30" s="54">
         <f t="shared" si="16"/>
         <v>0.43945954081632649</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="130">
+    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="208">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86">
+      <c r="C31" s="227">
+        <f t="shared" ref="C31:C32" si="22">LN(B31)</f>
+        <v>2.1789120000000013E-2</v>
+      </c>
+      <c r="D31" s="79">
         <v>1.96</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="18">
+      <c r="E31" s="78">
+        <v>0.4697204948979592</v>
+      </c>
+      <c r="F31" s="78">
+        <f t="shared" si="2"/>
+        <v>0.92065216999999999</v>
+      </c>
+      <c r="G31" s="79">
+        <f t="shared" si="3"/>
+        <v>-0.89886305</v>
+      </c>
+      <c r="H31" s="108">
+        <f t="shared" si="4"/>
+        <v>0.94244128999999999</v>
+      </c>
+      <c r="I31" s="212">
         <f>EXP(-0.89886305)</f>
         <v>0.40703217199207092</v>
       </c>
-      <c r="J31" s="123"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="J31" s="222">
+        <f t="shared" ref="J31:J32" si="23">EXP(H31)</f>
+        <v>2.5662387101903139</v>
+      </c>
+      <c r="K31" s="219" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="80"/>
       <c r="M31" s="55">
         <f t="shared" si="16"/>
         <v>0.4697204948979592</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="130">
+    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="208">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86">
+      <c r="C32" s="227">
+        <f t="shared" si="22"/>
+        <v>-2.829491E-2</v>
+      </c>
+      <c r="D32" s="79">
         <v>1.96</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="18">
+      <c r="E32" s="78">
+        <v>0.49017310714285722</v>
+      </c>
+      <c r="F32" s="78">
+        <f t="shared" si="2"/>
+        <v>0.96073929000000013</v>
+      </c>
+      <c r="G32" s="79">
+        <f t="shared" si="3"/>
+        <v>-0.98903420000000009</v>
+      </c>
+      <c r="H32" s="108">
+        <f t="shared" si="4"/>
+        <v>0.93244438000000018</v>
+      </c>
+      <c r="I32" s="212">
         <f>EXP(-0.9890342)</f>
         <v>0.37193573314376671</v>
       </c>
-      <c r="J32" s="123"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
+      <c r="J32" s="222">
+        <f t="shared" si="23"/>
+        <v>2.5407120591727339</v>
+      </c>
+      <c r="K32" s="219" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="80"/>
       <c r="M32" s="55">
         <f t="shared" si="16"/>
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="K33" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="L33" s="94"/>
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="213" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="211" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="223" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="220" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="85"/>
       <c r="M33" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="130">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="207">
         <f>EXP(-0.02739897)</f>
         <v>0.97297297704789509</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86">
+      <c r="C34" s="225">
+        <f>LN(B34)</f>
+        <v>-2.739897000000005E-2</v>
+      </c>
+      <c r="D34" s="75">
         <v>1.96</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="18">
+      <c r="E34" s="74">
+        <v>0.26924623979591833</v>
+      </c>
+      <c r="F34" s="74">
+        <f t="shared" si="2"/>
+        <v>0.52772262999999997</v>
+      </c>
+      <c r="G34" s="75">
+        <f t="shared" si="3"/>
+        <v>-0.55512159999999999</v>
+      </c>
+      <c r="H34" s="107">
+        <f t="shared" si="4"/>
+        <v>0.50032365999999995</v>
+      </c>
+      <c r="I34" s="214">
         <f>EXP(-0.5551216)</f>
         <v>0.57400245825357943</v>
       </c>
-      <c r="J34" s="123"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="55">
+      <c r="J34" s="107">
+        <f>EXP(H34)</f>
+        <v>1.6492549821924745</v>
+      </c>
+      <c r="K34" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="76"/>
+      <c r="M34" s="54">
         <f t="shared" si="16"/>
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="130">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="208">
         <f>EXP(-0.42449316)</f>
         <v>0.65410122579434049</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86">
+      <c r="C35" s="226">
+        <f t="shared" ref="C35:C36" si="24">LN(B35)</f>
+        <v>-0.42449315999999992</v>
+      </c>
+      <c r="D35" s="79">
         <v>1.96</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="18">
+      <c r="E35" s="78">
+        <v>0.29181282142857151</v>
+      </c>
+      <c r="F35" s="78">
+        <f t="shared" si="2"/>
+        <v>0.57195313000000014</v>
+      </c>
+      <c r="G35" s="79">
+        <f t="shared" si="3"/>
+        <v>-0.99644629000000007</v>
+      </c>
+      <c r="H35" s="108">
+        <f t="shared" si="4"/>
+        <v>0.14745997000000022</v>
+      </c>
+      <c r="I35" s="215">
         <f>EXP(-0.99644629)</f>
         <v>0.36918910372248526</v>
       </c>
-      <c r="J35" s="123"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88"/>
+      <c r="J35" s="224">
+        <f t="shared" ref="J35:J36" si="25">EXP(H35)</f>
+        <v>1.158886893658885</v>
+      </c>
+      <c r="K35" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="80"/>
       <c r="M35" s="55">
         <f t="shared" si="16"/>
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="130">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="208">
         <f>EXP(-0.43942582)</f>
         <v>0.64440632009954502</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86">
+      <c r="C36" s="226">
+        <f t="shared" si="24"/>
+        <v>-0.43942582000000008</v>
+      </c>
+      <c r="D36" s="79">
         <v>1.96</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="18">
+      <c r="E36" s="78">
+        <v>0.29946646938775501</v>
+      </c>
+      <c r="F36" s="78">
+        <f t="shared" si="2"/>
+        <v>0.58695427999999983</v>
+      </c>
+      <c r="G36" s="79">
+        <f t="shared" si="3"/>
+        <v>-1.0263800999999999</v>
+      </c>
+      <c r="H36" s="108">
+        <f t="shared" si="4"/>
+        <v>0.14752845999999975</v>
+      </c>
+      <c r="I36" s="215">
         <f>EXP(-1.0263801)</f>
         <v>0.35830163194241782</v>
       </c>
-      <c r="J36" s="123"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="88"/>
+      <c r="J36" s="224">
+        <f t="shared" si="25"/>
+        <v>1.158966268540393</v>
+      </c>
+      <c r="K36" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="80"/>
       <c r="M36" s="55">
         <f t="shared" si="16"/>
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="K37" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="L37" s="94"/>
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="213" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="216" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="168" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="85"/>
       <c r="M37" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="129">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="113">
         <v>2.6488100000000001</v>
       </c>
-      <c r="C38" s="107">
+      <c r="C38" s="94">
         <f t="shared" si="15"/>
         <v>0.97411048253824606</v>
       </c>
-      <c r="D38" s="108">
+      <c r="D38" s="95">
         <v>1.96</v>
       </c>
-      <c r="E38" s="107">
+      <c r="E38" s="94">
         <v>0.2804478245730157</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="94">
         <f t="shared" si="2"/>
         <v>0.54967773616311078</v>
       </c>
-      <c r="G38" s="108">
+      <c r="G38" s="95">
         <f t="shared" si="3"/>
         <v>0.42443274637513528</v>
       </c>
-      <c r="H38" s="108">
+      <c r="H38" s="95">
         <f t="shared" si="4"/>
         <v>1.5237882187013567</v>
       </c>
@@ -4422,47 +4794,43 @@
         <f t="shared" si="5"/>
         <v>1.5287230000000001</v>
       </c>
-      <c r="J38" s="126">
+      <c r="J38" s="111">
         <f t="shared" si="6"/>
         <v>4.5895786326888519</v>
       </c>
-      <c r="K38" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="110" t="s">
-        <v>71</v>
-      </c>
+      <c r="K38" s="171"/>
+      <c r="L38" s="96"/>
       <c r="M38" s="54">
         <f t="shared" si="16"/>
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="130">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="114">
         <v>2.062049</v>
       </c>
-      <c r="C39" s="95">
+      <c r="C39" s="86">
         <f t="shared" si="15"/>
         <v>0.72370014864899102</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="87">
         <v>1.96</v>
       </c>
-      <c r="E39" s="95">
+      <c r="E39" s="86">
         <v>0.29523424577300489</v>
       </c>
-      <c r="F39" s="95">
+      <c r="F39" s="86">
         <f t="shared" si="2"/>
         <v>0.5786591217150896</v>
       </c>
-      <c r="G39" s="96">
+      <c r="G39" s="87">
         <f t="shared" si="3"/>
         <v>0.14504102693390142</v>
       </c>
-      <c r="H39" s="96">
+      <c r="H39" s="87">
         <f t="shared" si="4"/>
         <v>1.3023592703640805</v>
       </c>
@@ -4470,47 +4838,43 @@
         <f t="shared" si="5"/>
         <v>1.1560870000000001</v>
       </c>
-      <c r="J39" s="127">
+      <c r="J39" s="112">
         <f t="shared" si="6"/>
         <v>3.6779637504798508</v>
       </c>
-      <c r="K39" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="98" t="s">
-        <v>71</v>
-      </c>
+      <c r="K39" s="172"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="55">
         <f t="shared" si="16"/>
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="130">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="114">
         <v>2.1843110000000001</v>
       </c>
-      <c r="C40" s="95">
+      <c r="C40" s="86">
         <f t="shared" si="15"/>
         <v>0.78130044701224466</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="87">
         <v>1.96</v>
       </c>
-      <c r="E40" s="95">
+      <c r="E40" s="86">
         <v>0.3026013838774172</v>
       </c>
-      <c r="F40" s="95">
+      <c r="F40" s="86">
         <f t="shared" si="2"/>
         <v>0.59309871239973766</v>
       </c>
-      <c r="G40" s="96">
+      <c r="G40" s="87">
         <f t="shared" si="3"/>
         <v>0.188201734612507</v>
       </c>
-      <c r="H40" s="96">
+      <c r="H40" s="87">
         <f t="shared" si="4"/>
         <v>1.3743991594119822</v>
       </c>
@@ -4518,283 +4882,335 @@
         <f t="shared" si="5"/>
         <v>1.207077</v>
       </c>
-      <c r="J40" s="127">
+      <c r="J40" s="112">
         <f t="shared" si="6"/>
         <v>3.9527010660637232</v>
       </c>
-      <c r="K40" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" s="98" t="s">
-        <v>71</v>
-      </c>
+      <c r="K40" s="172"/>
+      <c r="L40" s="88"/>
       <c r="M40" s="55">
         <f t="shared" si="16"/>
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="131">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="114">
         <v>0.4974674</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="86">
         <f t="shared" si="15"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="D41" s="114">
+      <c r="D41" s="87">
         <v>1.96</v>
       </c>
-      <c r="E41" s="113">
+      <c r="E41" s="86">
         <v>1.9144184239579749</v>
       </c>
-      <c r="F41" s="113">
+      <c r="F41" s="86">
         <f t="shared" si="2"/>
         <v>3.7522601109576308</v>
       </c>
-      <c r="G41" s="114">
+      <c r="G41" s="87">
         <f t="shared" si="3"/>
         <v>-4.450485363126341</v>
       </c>
-      <c r="H41" s="114">
+      <c r="H41" s="87">
         <f t="shared" si="4"/>
         <v>3.0540348587889206</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="18">
         <f t="shared" si="5"/>
         <v>1.1672899999999996E-2</v>
       </c>
-      <c r="J41" s="128">
+      <c r="J41" s="112">
         <f t="shared" si="6"/>
         <v>21.200713966774323</v>
       </c>
-      <c r="K41" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="L41" s="116" t="s">
-        <v>71</v>
-      </c>
+      <c r="K41" s="173"/>
+      <c r="L41" s="101"/>
       <c r="M41" s="56">
         <f t="shared" si="16"/>
         <v>1.9144184239579749</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="129">
+      <c r="A42" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="113">
         <v>0.68907160000000001</v>
       </c>
-      <c r="C42" s="107">
+      <c r="C42" s="94">
         <f t="shared" si="15"/>
         <v>-0.37241009464486824</v>
       </c>
-      <c r="D42" s="108">
+      <c r="D42" s="95">
         <v>1.96</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="30">
+      <c r="E42" s="94">
+        <v>0.37108077380430665</v>
+      </c>
+      <c r="F42" s="94">
+        <f t="shared" ref="F42:F45" si="26">D42*E42</f>
+        <v>0.72731831665644098</v>
+      </c>
+      <c r="G42" s="95">
+        <f t="shared" ref="G42:G45" si="27">C42-F42</f>
+        <v>-1.0997284113013093</v>
+      </c>
+      <c r="H42" s="95">
+        <f t="shared" ref="H42:H45" si="28">C42+F42</f>
+        <v>0.35490822201157274</v>
+      </c>
+      <c r="I42" s="233">
+        <f t="shared" ref="I42:I43" si="29">EXP(G42)</f>
         <v>0.33296150000000002</v>
       </c>
-      <c r="J42" s="126"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="110"/>
+      <c r="J42" s="239">
+        <f t="shared" ref="J42:J43" si="30">EXP(H42)</f>
+        <v>1.4260497682962143</v>
+      </c>
+      <c r="K42" s="236"/>
+      <c r="L42" s="96"/>
       <c r="M42" s="54">
         <f t="shared" si="16"/>
         <v>0.37108077380430665</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="130">
+      <c r="A43" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="114">
         <v>0.81895549999999995</v>
       </c>
-      <c r="C43" s="95">
+      <c r="C43" s="86">
         <f t="shared" si="15"/>
         <v>-0.19972553115957761</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="87">
         <v>1.96</v>
       </c>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="18">
+      <c r="E43" s="86">
+        <v>0.3929717925727606</v>
+      </c>
+      <c r="F43" s="86">
+        <f t="shared" si="26"/>
+        <v>0.77022471344261079</v>
+      </c>
+      <c r="G43" s="87">
+        <f t="shared" si="27"/>
+        <v>-0.96995024460218837</v>
+      </c>
+      <c r="H43" s="87">
+        <f t="shared" si="28"/>
+        <v>0.5704991822830332</v>
+      </c>
+      <c r="I43" s="234">
+        <f t="shared" si="29"/>
         <v>0.37910189999999999</v>
       </c>
-      <c r="J43" s="127"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="98"/>
+      <c r="J43" s="240">
+        <f t="shared" si="30"/>
+        <v>1.769149959365147</v>
+      </c>
+      <c r="K43" s="237"/>
+      <c r="L43" s="88"/>
       <c r="M43" s="55">
         <f t="shared" si="16"/>
         <v>0.3929717925727606</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="130">
+      <c r="A44" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="114">
         <v>0.75462969999999996</v>
       </c>
-      <c r="C44" s="95">
+      <c r="C44" s="86">
         <f t="shared" si="15"/>
         <v>-0.28152811362587332</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="87">
         <v>1.96</v>
       </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="18">
+      <c r="E44" s="86">
+        <v>0.39942732138071213</v>
+      </c>
+      <c r="F44" s="86">
+        <f t="shared" si="26"/>
+        <v>0.78287754990619574</v>
+      </c>
+      <c r="G44" s="87">
+        <f t="shared" si="27"/>
+        <v>-1.0644056635320691</v>
+      </c>
+      <c r="H44" s="87">
+        <f t="shared" si="28"/>
+        <v>0.50134943628032236</v>
+      </c>
+      <c r="I44" s="234">
+        <f t="shared" ref="I44:I45" si="31">EXP(G44)</f>
         <v>0.34493279999999998</v>
       </c>
-      <c r="J44" s="127"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="98"/>
+      <c r="J44" s="240">
+        <f t="shared" ref="J44:J45" si="32">EXP(H44)</f>
+        <v>1.6509476168172175</v>
+      </c>
+      <c r="K44" s="237"/>
+      <c r="L44" s="88"/>
       <c r="M44" s="55">
         <f t="shared" si="16"/>
         <v>0.39942732138071213</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="131">
+      <c r="A45" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="115">
         <v>0.3101293</v>
       </c>
-      <c r="C45" s="113">
+      <c r="C45" s="99">
         <f t="shared" si="15"/>
         <v>-1.1707659716894312</v>
       </c>
-      <c r="D45" s="114">
+      <c r="D45" s="100">
         <v>1.96</v>
       </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="31">
+      <c r="E45" s="99">
+        <v>1.4320074807991772</v>
+      </c>
+      <c r="F45" s="99">
+        <f t="shared" si="26"/>
+        <v>2.8067346623663871</v>
+      </c>
+      <c r="G45" s="100">
+        <f t="shared" si="27"/>
+        <v>-3.9775006340558186</v>
+      </c>
+      <c r="H45" s="100">
+        <f t="shared" si="28"/>
+        <v>1.6359686906769559</v>
+      </c>
+      <c r="I45" s="235">
+        <f t="shared" si="31"/>
         <v>1.87324E-2</v>
       </c>
-      <c r="J45" s="128"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="116"/>
+      <c r="J45" s="241">
+        <f t="shared" si="32"/>
+        <v>5.1344292625872816</v>
+      </c>
+      <c r="K45" s="238"/>
+      <c r="L45" s="101"/>
       <c r="M45" s="56">
         <f t="shared" si="16"/>
         <v>1.4320074807991772</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="210"/>
+      <c r="D46" s="87">
+        <v>1.96</v>
+      </c>
+      <c r="E46" s="210"/>
+      <c r="F46" s="210"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="256"/>
+      <c r="I46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="258"/>
+      <c r="K46" s="186"/>
+      <c r="L46" s="259"/>
+      <c r="M46" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="210"/>
+      <c r="D47" s="87">
+        <v>1.96</v>
+      </c>
+      <c r="E47" s="210"/>
+      <c r="F47" s="210"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
+      <c r="I47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="258"/>
+      <c r="K47" s="200"/>
+      <c r="L47" s="260"/>
+      <c r="M47" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="129" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="108">
+      <c r="B48" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="210"/>
+      <c r="D48" s="87">
         <v>1.96</v>
       </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="126"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="111" t="s">
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="256"/>
+      <c r="I48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="258"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="260"/>
+      <c r="M48" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96">
+      <c r="B49" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="209"/>
+      <c r="D49" s="100">
         <v>1.96</v>
       </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="127"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="96">
-        <v>1.96</v>
-      </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" s="127"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114">
-        <v>1.96</v>
-      </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
       <c r="I49" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" s="128"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="116"/>
+        <v>49</v>
+      </c>
+      <c r="J49" s="261"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="262"/>
       <c r="M49" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4812,7 +5228,7 @@
       <c r="J50" s="49"/>
       <c r="K50" s="51"/>
       <c r="L50" s="49"/>
-      <c r="M50" s="119"/>
+      <c r="M50" s="104"/>
     </row>
     <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1781,10 +1781,10 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
     <sheet name="Interval_OR" sheetId="10" r:id="rId2"/>
     <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
+    <sheet name="esquema" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$49</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="161">
   <si>
     <t>camp</t>
   </si>
@@ -424,6 +425,84 @@
   </si>
   <si>
     <t>Detah</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>death/uci</t>
+  </si>
+  <si>
+    <t>Uk1</t>
+  </si>
+  <si>
+    <t>France1</t>
+  </si>
+  <si>
+    <t>HM1</t>
+  </si>
+  <si>
+    <t>Bcn1</t>
+  </si>
+  <si>
+    <t>Uk2</t>
+  </si>
+  <si>
+    <t>France2</t>
+  </si>
+  <si>
+    <t>HM3</t>
+  </si>
+  <si>
+    <t>HM2</t>
+  </si>
+  <si>
+    <t>Bcn2</t>
+  </si>
+  <si>
+    <t>Bcn3</t>
+  </si>
+  <si>
+    <t>France3</t>
+  </si>
+  <si>
+    <t>Bcn4</t>
+  </si>
+  <si>
+    <t>France4</t>
+  </si>
+  <si>
+    <t>HM4</t>
+  </si>
+  <si>
+    <t>MODEL1</t>
+  </si>
+  <si>
+    <t>MODEL2</t>
+  </si>
+  <si>
+    <t>MODEL3</t>
+  </si>
+  <si>
+    <t>MODEL4</t>
+  </si>
+  <si>
+    <t>MODEL5</t>
+  </si>
+  <si>
+    <t>Uk3</t>
+  </si>
+  <si>
+    <t>Uk4</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -522,7 +601,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1493,6 +1578,61 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,7 +1910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1780,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5548,4 +5688,382 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="276"/>
+    <col min="5" max="5" width="12.28515625" style="276" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="290" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="290" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="291" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="291" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="293" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="273" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="277" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="278" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="279" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="294" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="274" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="294" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="274" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="295" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="275" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="283" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="293" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="273" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="277" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="278" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="279" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="294" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="274" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="294" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="274" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="295" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="275" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="283" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="293" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="273" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="284" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="285" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="286" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="294" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="274" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="294" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="274" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="295" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="275" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="283" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="293" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="273" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="277" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="278" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="279" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="294" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="274" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="294" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="274" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="287" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="288" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="289" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="295" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="275" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="283" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="293" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="273" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="277" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="278" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="279" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="294" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="274" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="294" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="274" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="295" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="275" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="283" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="144">
   <si>
     <t>camp</t>
   </si>
@@ -368,57 +368,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>UK_MOD1_imv</t>
-  </si>
-  <si>
-    <t>FRANCE_MOD1_imv</t>
-  </si>
-  <si>
-    <t>HM_MOD1_imv</t>
-  </si>
-  <si>
-    <t>BCN_MOD1_imv</t>
-  </si>
-  <si>
-    <t>UK_MOD2_imv</t>
-  </si>
-  <si>
-    <t>FRANCE_MOD2_imv</t>
-  </si>
-  <si>
-    <t>HM_MOD2_imv</t>
-  </si>
-  <si>
-    <t>BCN_MOD2_imv</t>
-  </si>
-  <si>
-    <t>UK_MOD3_imv</t>
-  </si>
-  <si>
-    <t>FRANCE_MOD3_imv</t>
-  </si>
-  <si>
-    <t>HM_MOD3_imv</t>
-  </si>
-  <si>
-    <t>BCN_MOD3_imv</t>
-  </si>
-  <si>
-    <t>UK_MOD4_imv</t>
-  </si>
-  <si>
-    <t>FRANCE_MOD4_imv</t>
-  </si>
-  <si>
-    <t>HM_MOD4_imv</t>
-  </si>
-  <si>
-    <t>BCN_MOD4_imv</t>
-  </si>
-  <si>
-    <t>imv</t>
   </si>
   <si>
     <t>Death</t>
@@ -844,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1490,20 +1439,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1918,47 +1853,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="255" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="249" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="126" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="255" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="249" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="126" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="126" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="244" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="251" t="s">
+      <c r="C1" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="252" t="s">
+      <c r="D1" s="246" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="251" t="s">
+      <c r="E1" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="252" t="s">
+      <c r="F1" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="253" t="s">
+      <c r="G1" s="247" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1967,7 +1902,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C2" s="145">
         <v>2.06</v>
@@ -1990,7 +1925,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="153" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C3" s="146">
         <v>2.4900000000000002</v>
@@ -2003,7 +1938,7 @@
         <f t="shared" ref="E3:E11" si="1">(LN(C3/F3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="F3" s="263">
+      <c r="F3" s="257">
         <v>1.89</v>
       </c>
       <c r="G3" s="154">
@@ -2015,7 +1950,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C4" s="146">
         <v>1.0820000000000001</v>
@@ -2027,7 +1962,7 @@
         <f t="shared" si="1"/>
         <v>0.28938720751415131</v>
       </c>
-      <c r="F4" s="263">
+      <c r="F4" s="257">
         <v>0.61361489999999996</v>
       </c>
       <c r="G4" s="154">
@@ -2039,7 +1974,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="153" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C5" s="147">
         <v>2.6488100000000001</v>
@@ -2052,7 +1987,7 @@
         <f t="shared" ref="E5" si="2">(LN(C5/F5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="F5" s="264">
+      <c r="F5" s="258">
         <v>1.5287230000000001</v>
       </c>
       <c r="G5" s="158">
@@ -2064,7 +1999,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="150" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C6" s="145">
         <v>1.6</v>
@@ -2087,7 +2022,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="153" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C7" s="146">
         <v>1.7</v>
@@ -2100,7 +2035,7 @@
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="263">
+      <c r="F7" s="257">
         <v>1.26</v>
       </c>
       <c r="G7" s="154">
@@ -2112,7 +2047,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="153" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C8" s="146">
         <v>0.57199999999999995</v>
@@ -2124,7 +2059,7 @@
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="F8" s="263">
+      <c r="F8" s="257">
         <v>0.30420320000000001</v>
       </c>
       <c r="G8" s="154">
@@ -2136,7 +2071,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="153" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C9" s="147">
         <v>2.062049</v>
@@ -2149,7 +2084,7 @@
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="F9" s="264">
+      <c r="F9" s="258">
         <v>1.1560870000000001</v>
       </c>
       <c r="G9" s="158">
@@ -2161,7 +2096,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="181" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C10" s="175"/>
       <c r="D10" s="176"/>
@@ -2174,7 +2109,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C11" s="146">
         <v>1.45</v>
@@ -2187,19 +2122,19 @@
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="F11" s="263">
+      <c r="F11" s="257">
         <v>1.07</v>
       </c>
       <c r="G11" s="154">
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="254" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="248" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="183" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C12" s="148">
         <f>EXP(D12)</f>
@@ -2211,7 +2146,7 @@
       <c r="E12" s="121">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F12" s="265">
+      <c r="F12" s="259">
         <v>0.33481</v>
       </c>
       <c r="G12" s="159">
@@ -2223,7 +2158,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="162" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C13" s="147">
         <v>2.1843110000000001</v>
@@ -2236,7 +2171,7 @@
         <f t="shared" ref="E13" si="5">(LN(C13/F13))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="F13" s="264">
+      <c r="F13" s="258">
         <v>1.207077</v>
       </c>
       <c r="G13" s="158">
@@ -2248,7 +2183,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C14" s="145">
         <v>1.56</v>
@@ -2271,7 +2206,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C15" s="146">
         <v>1.47</v>
@@ -2284,7 +2219,7 @@
         <f>(LN(C15/F15))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="F15" s="263">
+      <c r="F15" s="257">
         <v>1.08</v>
       </c>
       <c r="G15" s="154">
@@ -2296,7 +2231,7 @@
         <v>61</v>
       </c>
       <c r="B16" s="182" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C16" s="178"/>
       <c r="D16" s="179"/>
@@ -2309,7 +2244,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="157" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C17" s="147">
         <v>0.4974674</v>
@@ -2322,7 +2257,7 @@
         <f>(LN(C17/F17))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="F17" s="264">
+      <c r="F17" s="258">
         <v>1.16729E-2</v>
       </c>
       <c r="G17" s="158">
@@ -2346,7 +2281,7 @@
       <c r="E18" s="54">
         <v>0.19653876299053855</v>
       </c>
-      <c r="F18" s="266">
+      <c r="F18" s="260">
         <v>0.19653876299053855</v>
       </c>
       <c r="G18" s="123">
@@ -2419,7 +2354,7 @@
       <c r="E21" s="56">
         <v>0.37108077380430665</v>
       </c>
-      <c r="F21" s="267">
+      <c r="F21" s="261">
         <v>0.33296150000000002</v>
       </c>
       <c r="G21" s="140">
@@ -2443,7 +2378,7 @@
       <c r="E22" s="54">
         <v>0.30513433399859663</v>
       </c>
-      <c r="F22" s="266">
+      <c r="F22" s="260">
         <v>0.30513433399859663</v>
       </c>
       <c r="G22" s="123">
@@ -2578,7 +2513,7 @@
       <c r="E28" s="121">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F28" s="268">
+      <c r="F28" s="262">
         <v>0.37193573314376671</v>
       </c>
       <c r="G28" s="141">
@@ -2602,7 +2537,7 @@
       <c r="E29" s="56">
         <v>0.39942732138071213</v>
       </c>
-      <c r="F29" s="267">
+      <c r="F29" s="261">
         <v>0.34493279999999998</v>
       </c>
       <c r="G29" s="140">
@@ -2626,7 +2561,7 @@
       <c r="E30" s="54">
         <v>0.35642682488003907</v>
       </c>
-      <c r="F30" s="266">
+      <c r="F30" s="260">
         <v>0.44</v>
       </c>
       <c r="G30" s="123">
@@ -2667,7 +2602,7 @@
       <c r="C32" s="204"/>
       <c r="D32" s="193"/>
       <c r="E32" s="205"/>
-      <c r="F32" s="269">
+      <c r="F32" s="263">
         <v>0.35642682488003907</v>
       </c>
       <c r="G32" s="206">
@@ -2691,7 +2626,7 @@
       <c r="E33" s="56">
         <v>1.4320074807991772</v>
       </c>
-      <c r="F33" s="267">
+      <c r="F33" s="261">
         <v>1.87324E-2</v>
       </c>
       <c r="G33" s="140">
@@ -2715,7 +2650,7 @@
       <c r="E34" s="54">
         <v>9.461E-2</v>
       </c>
-      <c r="F34" s="270">
+      <c r="F34" s="264">
         <v>1.2751889962780529</v>
       </c>
       <c r="G34" s="23">
@@ -2739,7 +2674,7 @@
       <c r="E35" s="55">
         <v>0.11252182123171039</v>
       </c>
-      <c r="F35" s="271">
+      <c r="F35" s="265">
         <v>0.77</v>
       </c>
       <c r="G35" s="24">
@@ -2763,7 +2698,7 @@
       <c r="E36" s="55">
         <v>0.26924623979591833</v>
       </c>
-      <c r="F36" s="271">
+      <c r="F36" s="265">
         <v>0.57400245825357943</v>
       </c>
       <c r="G36" s="24">
@@ -2800,7 +2735,7 @@
       <c r="E38" s="54">
         <v>9.8753000000000007E-2</v>
       </c>
-      <c r="F38" s="270">
+      <c r="F38" s="264">
         <v>1.1563264423940807</v>
       </c>
       <c r="G38" s="23">
@@ -2824,7 +2759,7 @@
       <c r="E39" s="55">
         <v>0.12252098351162294</v>
       </c>
-      <c r="F39" s="271">
+      <c r="F39" s="265">
         <v>0.7</v>
       </c>
       <c r="G39" s="24">
@@ -2848,7 +2783,7 @@
       <c r="E40" s="55">
         <v>0.29181282142857151</v>
       </c>
-      <c r="F40" s="271">
+      <c r="F40" s="265">
         <v>0.36918910372248526</v>
       </c>
       <c r="G40" s="24">
@@ -2898,7 +2833,7 @@
       <c r="E43" s="55">
         <v>0.1169315641684552</v>
       </c>
-      <c r="F43" s="271">
+      <c r="F43" s="265">
         <v>0.66</v>
       </c>
       <c r="G43" s="24">
@@ -2922,7 +2857,7 @@
       <c r="E44" s="121">
         <v>0.29946646938775501</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="266">
         <v>0.35830163194241782</v>
       </c>
       <c r="G44" s="144">
@@ -2959,7 +2894,7 @@
       <c r="E46" s="54">
         <v>0.10279799999999999</v>
       </c>
-      <c r="F46" s="270">
+      <c r="F46" s="264">
         <v>1.1701265671380279</v>
       </c>
       <c r="G46" s="23">
@@ -2983,7 +2918,7 @@
       <c r="E47" s="55">
         <v>0.12472109076579629</v>
       </c>
-      <c r="F47" s="271">
+      <c r="F47" s="265">
         <v>0.65</v>
       </c>
       <c r="G47" s="24">
@@ -3015,214 +2950,6 @@
       <c r="E49" s="196"/>
       <c r="F49" s="197"/>
       <c r="G49" s="198"/>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="243" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="200"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="199"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="243" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="244"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="200"/>
-      <c r="F51" s="201"/>
-      <c r="G51" s="199"/>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="190" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="244"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="200"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="199"/>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="194" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="196"/>
-      <c r="F53" s="197"/>
-      <c r="G53" s="198"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="191" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="189" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="186"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="188"/>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="243" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="244"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="199"/>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="244"/>
-      <c r="D56" s="201"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="201"/>
-      <c r="G56" s="199"/>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="190" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="200"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="201"/>
-      <c r="G57" s="199"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="189" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="185" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="186"/>
-      <c r="D58" s="187"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="187"/>
-      <c r="G58" s="188"/>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="182" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="245" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="244"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="201"/>
-      <c r="G59" s="199"/>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="246" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="245" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="244"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="179"/>
-      <c r="G60" s="180"/>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="247" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="248" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="196"/>
-      <c r="D61" s="197"/>
-      <c r="E61" s="196"/>
-      <c r="F61" s="197"/>
-      <c r="G61" s="198"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="189" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="189" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="186"/>
-      <c r="D62" s="187"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="187"/>
-      <c r="G62" s="188"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="244"/>
-      <c r="D63" s="201"/>
-      <c r="E63" s="200"/>
-      <c r="F63" s="201"/>
-      <c r="G63" s="199"/>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="246" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="244"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="179"/>
-      <c r="G64" s="180"/>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="247" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="196"/>
-      <c r="D65" s="197"/>
-      <c r="E65" s="196"/>
-      <c r="F65" s="197"/>
-      <c r="G65" s="198"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B49"/>
@@ -5266,14 +4993,14 @@
       </c>
       <c r="E46" s="210"/>
       <c r="F46" s="210"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
+      <c r="G46" s="250"/>
+      <c r="H46" s="250"/>
       <c r="I46" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="258"/>
+      <c r="J46" s="252"/>
       <c r="K46" s="186"/>
-      <c r="L46" s="259"/>
+      <c r="L46" s="253"/>
       <c r="M46" s="54" t="s">
         <v>49</v>
       </c>
@@ -5291,14 +5018,14 @@
       </c>
       <c r="E47" s="210"/>
       <c r="F47" s="210"/>
-      <c r="G47" s="256"/>
-      <c r="H47" s="256"/>
+      <c r="G47" s="250"/>
+      <c r="H47" s="250"/>
       <c r="I47" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="258"/>
+      <c r="J47" s="252"/>
       <c r="K47" s="200"/>
-      <c r="L47" s="260"/>
+      <c r="L47" s="254"/>
       <c r="M47" s="55" t="s">
         <v>49</v>
       </c>
@@ -5316,14 +5043,14 @@
       </c>
       <c r="E48" s="210"/>
       <c r="F48" s="210"/>
-      <c r="G48" s="256"/>
-      <c r="H48" s="256"/>
+      <c r="G48" s="250"/>
+      <c r="H48" s="250"/>
       <c r="I48" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="258"/>
+      <c r="J48" s="252"/>
       <c r="K48" s="200"/>
-      <c r="L48" s="260"/>
+      <c r="L48" s="254"/>
       <c r="M48" s="55" t="s">
         <v>49</v>
       </c>
@@ -5341,14 +5068,14 @@
       </c>
       <c r="E49" s="209"/>
       <c r="F49" s="209"/>
-      <c r="G49" s="257"/>
-      <c r="H49" s="257"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="251"/>
       <c r="I49" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="261"/>
+      <c r="J49" s="255"/>
       <c r="K49" s="196"/>
-      <c r="L49" s="262"/>
+      <c r="L49" s="256"/>
       <c r="M49" s="56" t="s">
         <v>49</v>
       </c>
@@ -5694,369 +5421,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="276"/>
-    <col min="5" max="5" width="12.28515625" style="276" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="270"/>
+    <col min="5" max="5" width="12.28515625" style="270" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="290" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="291" t="s">
+      <c r="A1" s="284" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="284" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="285" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="286" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="285" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="287" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="267" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="288" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="268" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="288" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="268" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="289" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="269" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="287" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="292" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="291" t="s">
+      <c r="B6" s="267" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="288" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="268" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="288" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="268" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="289" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="269" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="287" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="273" t="s">
+      <c r="B10" s="267" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="278" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="279" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="280" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="288" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="268" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="288" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="289" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="269" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="287" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="277" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="278" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="279" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="294" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="274" t="s">
+      <c r="B14" s="267" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="288" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="268" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="288" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="268" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="281" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="282" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="283" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="289" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="269" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="287" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="294" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="274" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="295" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="275" t="s">
+      <c r="B18" s="267" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="282" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="283" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="293" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="273" t="s">
+      <c r="C18" s="271" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="277" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="278" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="279" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="294" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="274" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="294" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="274" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="295" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="275" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="282" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="283" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="293" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="273" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="284" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="285" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="286" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="294" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="274" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="294" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="274" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="295" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="275" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="282" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="283" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="293" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="273" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="277" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="278" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="279" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="294" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="274" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="280" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="294" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="274" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="287" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="288" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="289" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="295" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="275" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="282" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="283" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="293" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="273" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="277" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="278" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="279" t="s">
-        <v>158</v>
+      <c r="D18" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="273" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="294" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="274" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="280" t="s">
-        <v>158</v>
+      <c r="A19" s="288" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="268" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="274" t="s">
+        <v>141</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="281" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="E19" s="275" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="294" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="274" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="280" t="s">
-        <v>158</v>
+      <c r="A20" s="288" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="274" t="s">
+        <v>141</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="281" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="E20" s="275" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="295" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="275" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="282" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="283" t="s">
-        <v>158</v>
+      <c r="A21" s="289" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="269" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="277" t="s">
+        <v>141</v>
       </c>
       <c r="E21" s="104" t="s">
         <v>49</v>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1845,7 +1850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1856,25 +1861,25 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="249" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="126" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="249" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="126" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="126" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="249" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="126" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="249" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="126" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="126" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="149" t="s">
         <v>50</v>
       </c>
@@ -1920,7 +1925,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="152" t="s">
         <v>66</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="189" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2109,7 @@
       <c r="F10" s="176"/>
       <c r="G10" s="177"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="248" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="248" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A12" s="183" t="s">
         <v>60</v>
       </c>
@@ -2153,7 +2158,7 @@
         <v>1.2118800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="184" t="s">
         <v>64</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
@@ -2201,7 +2206,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A16" s="190" t="s">
         <v>61</v>
       </c>
@@ -2239,7 +2244,7 @@
       <c r="F16" s="179"/>
       <c r="G16" s="180"/>
     </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
@@ -2264,7 +2269,7 @@
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
@@ -2361,7 +2366,7 @@
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A26" s="189" t="s">
         <v>73</v>
       </c>
@@ -2471,7 +2476,7 @@
       <c r="F26" s="187"/>
       <c r="G26" s="188"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
@@ -2592,7 +2597,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="202" t="s">
         <v>82</v>
       </c>
@@ -2609,7 +2614,7 @@
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="194" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2723,7 @@
       <c r="F37" s="197"/>
       <c r="G37" s="198"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
@@ -2790,7 +2795,7 @@
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="190" t="s">
         <v>100</v>
       </c>
@@ -2803,7 +2808,7 @@
       <c r="F41" s="201"/>
       <c r="G41" s="199"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="191" t="s">
         <v>89</v>
       </c>
@@ -2816,7 +2821,7 @@
       <c r="F42" s="187"/>
       <c r="G42" s="188"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="190" t="s">
         <v>101</v>
       </c>
@@ -2877,7 +2882,7 @@
       <c r="F45" s="201"/>
       <c r="G45" s="199"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
@@ -2901,7 +2906,7 @@
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A48" s="190" t="s">
         <v>98</v>
       </c>
@@ -2938,7 +2943,7 @@
       <c r="F48" s="201"/>
       <c r="G48" s="199"/>
     </row>
-    <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="194" t="s">
         <v>102</v>
       </c>
@@ -2964,28 +2969,28 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>50</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>9.7180000000000016E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>51</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>0.10203799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>52</v>
       </c>
@@ -3157,7 +3162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>0.10599400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>0.18760999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>72</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>0.20189599999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>73</v>
       </c>
@@ -3324,7 +3329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>0.21249200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>87</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>9.461E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>88</v>
       </c>
@@ -3462,7 +3467,7 @@
         <v>9.8753000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>89</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>0.10279799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>0.14066626602299256</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>55</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>0.15281455617284881</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>56</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>0.15729661206863085</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>75</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>0.12395213194407623</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>76</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>0.13556283965969668</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>77</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -3905,7 +3910,7 @@
         <v>0.14094560032048892</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>91</v>
       </c>
@@ -3951,7 +3956,7 @@
         <v>0.11252182123171039</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>92</v>
       </c>
@@ -3997,7 +4002,7 @@
         <v>0.12252098351162294</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>93</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -4089,7 +4094,7 @@
         <v>0.12472109076579629</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
         <v>58</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>0.28945759999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>59</v>
       </c>
@@ -4181,7 +4186,7 @@
         <v>0.32258285999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
         <v>60</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
         <v>79</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>0.43945954081632649</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="77" t="s">
         <v>80</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>0.4697204948979592</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="77" t="s">
         <v>81</v>
       </c>
@@ -4409,7 +4414,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
@@ -4448,7 +4453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="73" t="s">
         <v>95</v>
       </c>
@@ -4495,7 +4500,7 @@
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
         <v>96</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
         <v>97</v>
       </c>
@@ -4589,7 +4594,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="s">
         <v>62</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="97" t="s">
         <v>63</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="97" t="s">
         <v>64</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="93" t="s">
         <v>83</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="97" t="s">
         <v>84</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="97" t="s">
         <v>85</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -4980,7 +4985,7 @@
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="97" t="s">
         <v>99</v>
       </c>
@@ -5005,7 +5010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="97" t="s">
         <v>100</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="97" t="s">
         <v>101</v>
       </c>
@@ -5055,7 +5060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -5097,7 +5102,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -5143,16 +5148,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5230,7 +5235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -5308,7 +5313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5360,7 +5365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5425,14 +5430,14 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="270"/>
-    <col min="5" max="5" width="12.28515625" style="270" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="270"/>
+    <col min="5" max="5" width="12.33203125" style="270" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="284" t="s">
         <v>142</v>
       </c>
@@ -5449,7 +5454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="287" t="s">
         <v>134</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="288" t="s">
         <v>134</v>
       </c>
@@ -5483,7 +5488,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="288" t="s">
         <v>134</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="289" t="s">
         <v>134</v>
       </c>
@@ -5517,7 +5522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="287" t="s">
         <v>135</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="288" t="s">
         <v>135</v>
       </c>
@@ -5551,7 +5556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="288" t="s">
         <v>135</v>
       </c>
@@ -5568,7 +5573,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="289" t="s">
         <v>135</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="287" t="s">
         <v>136</v>
       </c>
@@ -5602,7 +5607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="288" t="s">
         <v>136</v>
       </c>
@@ -5619,7 +5624,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="288" t="s">
         <v>136</v>
       </c>
@@ -5636,7 +5641,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="289" t="s">
         <v>136</v>
       </c>
@@ -5653,7 +5658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="287" t="s">
         <v>137</v>
       </c>
@@ -5670,7 +5675,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="288" t="s">
         <v>137</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="288" t="s">
         <v>137</v>
       </c>
@@ -5704,7 +5709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="289" t="s">
         <v>137</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="287" t="s">
         <v>138</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="288" t="s">
         <v>138</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="288" t="s">
         <v>138</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="289" t="s">
         <v>138</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="162">
   <si>
     <t>camp</t>
   </si>
@@ -457,6 +457,60 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>IMV</t>
+  </si>
+  <si>
+    <t>UK_MOD1_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD1_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD1_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD1_imv</t>
+  </si>
+  <si>
+    <t>UK_MOD2_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD2_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD2_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD2_imv</t>
+  </si>
+  <si>
+    <t>UK_MOD3_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD3_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD3_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD3_imv</t>
+  </si>
+  <si>
+    <t>UK_MOD4_imv</t>
+  </si>
+  <si>
+    <t>FRANCE_MOD4_imv</t>
+  </si>
+  <si>
+    <t>HM_MOD4_imv</t>
+  </si>
+  <si>
+    <t>BCN_MOD4_imv</t>
+  </si>
+  <si>
+    <t>imv</t>
   </si>
 </sst>
 </file>
@@ -798,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1564,15 +1618,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1858,13 +1936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1873,7 +1951,7 @@
     <col min="2" max="2" width="19.33203125" style="126" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="249" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="126" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="249" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="249" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="126" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="126" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="53"/>
@@ -1940,7 +2018,7 @@
         <v>0.91228271047661635</v>
       </c>
       <c r="E3" s="55">
-        <f t="shared" ref="E3:E11" si="1">(LN(C3/F3))/1.96</f>
+        <f>(LN(C3/F3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
       <c r="F3" s="257">
@@ -1964,7 +2042,7 @@
         <v>7.8938900000000006E-2</v>
       </c>
       <c r="E4" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E11" si="1">(LN(C4/F4))/1.96</f>
         <v>0.28938720751415131</v>
       </c>
       <c r="F4" s="257">
@@ -2955,6 +3033,262 @@
       <c r="E49" s="196"/>
       <c r="F49" s="197"/>
       <c r="G49" s="198"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A50" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="124"/>
+      <c r="D50" s="260"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="260"/>
+      <c r="G50" s="123"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A51" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="160">
+        <v>0.49</v>
+      </c>
+      <c r="D51" s="242">
+        <f>LN(C51)</f>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="E51" s="160">
+        <f>(LN(C51/F51))/1.96</f>
+        <v>0.14331754360530724</v>
+      </c>
+      <c r="F51" s="242">
+        <v>0.37</v>
+      </c>
+      <c r="G51" s="135">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A52" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="160"/>
+      <c r="D52" s="242"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="135"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="139"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="261"/>
+      <c r="G53" s="140"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A54" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="124"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="260"/>
+      <c r="G54" s="123"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A55" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="160">
+        <v>0.59</v>
+      </c>
+      <c r="D55" s="242">
+        <f>LN(C55)</f>
+        <v>-0.52763274208237199</v>
+      </c>
+      <c r="E55" s="160">
+        <f>(LN(C55/F55))/1.96</f>
+        <v>0.16139659602661074</v>
+      </c>
+      <c r="F55" s="242">
+        <v>0.43</v>
+      </c>
+      <c r="G55" s="135">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A56" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="160"/>
+      <c r="D56" s="288"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="242"/>
+      <c r="G56" s="135"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="139"/>
+      <c r="D57" s="261"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="261"/>
+      <c r="G57" s="140"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A58" s="132" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="289"/>
+      <c r="D58" s="290"/>
+      <c r="E58" s="289"/>
+      <c r="F58" s="290"/>
+      <c r="G58" s="291"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A59" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="160">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D59" s="242">
+        <f>LN(C59)</f>
+        <v>-0.56211891815354131</v>
+      </c>
+      <c r="E59" s="160">
+        <f>(LN(C59/F59))/1.96</f>
+        <v>0.16810163322971544</v>
+      </c>
+      <c r="F59" s="242">
+        <v>0.41</v>
+      </c>
+      <c r="G59" s="135">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A60" s="163" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="292"/>
+      <c r="D60" s="262"/>
+      <c r="E60" s="292"/>
+      <c r="F60" s="262"/>
+      <c r="G60" s="141"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="164" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="139"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="261"/>
+      <c r="G61" s="140"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A62" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="124"/>
+      <c r="D62" s="260"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="260"/>
+      <c r="G62" s="135"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A63" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="160">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D63" s="242">
+        <f>LN(C63)</f>
+        <v>-0.59783700075562041</v>
+      </c>
+      <c r="E63" s="160">
+        <f>(LN(C63/F63))/1.96</f>
+        <v>0.16247639342782377</v>
+      </c>
+      <c r="F63" s="242">
+        <v>0.4</v>
+      </c>
+      <c r="G63" s="135">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A64" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="292"/>
+      <c r="D64" s="262"/>
+      <c r="E64" s="292"/>
+      <c r="F64" s="262"/>
+      <c r="G64" s="141"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="139"/>
+      <c r="D65" s="261"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="261"/>
+      <c r="G65" s="140"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B49"/>
@@ -2968,8 +3302,8 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5424,10 +5758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5435,27 +5769,31 @@
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="3" max="4" width="9.109375" style="270"/>
     <col min="5" max="5" width="12.33203125" style="270" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="297"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="284" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="285" t="s">
+      <c r="C1" s="294" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="286" t="s">
+      <c r="D1" s="295" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="285" t="s">
+      <c r="E1" s="294" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="287" t="s">
+      <c r="F1" s="293" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="285" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="267" t="s">
@@ -5470,9 +5808,12 @@
       <c r="E2" s="273" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="288" t="s">
+      <c r="F2" s="278" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="286" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="268" t="s">
@@ -5487,9 +5828,12 @@
       <c r="E3" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="288" t="s">
+      <c r="F3" s="274" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="286" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="268" t="s">
@@ -5504,9 +5848,12 @@
       <c r="E4" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="289" t="s">
+      <c r="F4" s="281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="287" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="269" t="s">
@@ -5521,9 +5868,12 @@
       <c r="E5" s="104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="287" t="s">
+      <c r="F5" s="296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="285" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="267" t="s">
@@ -5538,9 +5888,12 @@
       <c r="E6" s="273" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="288" t="s">
+      <c r="F6" s="278" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="286" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="268" t="s">
@@ -5555,9 +5908,12 @@
       <c r="E7" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="288" t="s">
+      <c r="F7" s="274" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="286" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="268" t="s">
@@ -5572,9 +5928,12 @@
       <c r="E8" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="289" t="s">
+      <c r="F8" s="281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="287" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="269" t="s">
@@ -5589,9 +5948,12 @@
       <c r="E9" s="104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="287" t="s">
+      <c r="F9" s="296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="285" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="267" t="s">
@@ -5606,9 +5968,12 @@
       <c r="E10" s="280" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="288" t="s">
+      <c r="F10" s="278" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="286" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="268" t="s">
@@ -5623,9 +5988,12 @@
       <c r="E11" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="288" t="s">
+      <c r="F11" s="274" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="286" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="268" t="s">
@@ -5640,9 +6008,12 @@
       <c r="E12" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="289" t="s">
+      <c r="F12" s="281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="287" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="269" t="s">
@@ -5657,9 +6028,12 @@
       <c r="E13" s="104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="287" t="s">
+      <c r="F13" s="296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="285" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="267" t="s">
@@ -5674,9 +6048,12 @@
       <c r="E14" s="273" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="288" t="s">
+      <c r="F14" s="278" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="286" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="268" t="s">
@@ -5691,9 +6068,12 @@
       <c r="E15" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="288" t="s">
+      <c r="F15" s="274" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="286" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="268" t="s">
@@ -5708,9 +6088,12 @@
       <c r="E16" s="283" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="289" t="s">
+      <c r="F16" s="281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="287" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="269" t="s">
@@ -5725,26 +6108,32 @@
       <c r="E17" s="104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="287" t="s">
+      <c r="F17" s="296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="286" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="267" t="s">
+      <c r="B18" s="268" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="271" t="s">
+      <c r="C18" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="272" t="s">
+      <c r="D18" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="273" t="s">
+      <c r="E18" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="288" t="s">
+      <c r="F18" s="281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="286" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="268" t="s">
@@ -5759,9 +6148,12 @@
       <c r="E19" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="288" t="s">
+      <c r="F19" s="274" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="286" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="268" t="s">
@@ -5776,9 +6168,12 @@
       <c r="E20" s="275" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="289" t="s">
+      <c r="F20" s="281" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="287" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="269" t="s">
@@ -5793,9 +6188,12 @@
       <c r="E21" s="104" t="s">
         <v>49</v>
       </c>
+      <c r="F21" s="296" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -20,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="166">
   <si>
     <t>camp</t>
   </si>
@@ -511,6 +506,18 @@
   </si>
   <si>
     <t>imv</t>
+  </si>
+  <si>
+    <t>Uk5</t>
+  </si>
+  <si>
+    <t>France5</t>
+  </si>
+  <si>
+    <t>HM5</t>
+  </si>
+  <si>
+    <t>Bcn5</t>
   </si>
 </sst>
 </file>
@@ -609,7 +616,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,9 +1634,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1649,6 +1659,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1928,7 +1941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1939,25 +1952,25 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="249" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="126" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="249" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="126" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="126" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="53"/>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="249" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="126" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="249" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="126" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="126" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
@@ -2042,7 +2055,7 @@
         <v>7.8938900000000006E-2</v>
       </c>
       <c r="E4" s="55">
-        <f t="shared" ref="E3:E11" si="1">(LN(C4/F4))/1.96</f>
+        <f t="shared" ref="E4:E11" si="1">(LN(C4/F4))/1.96</f>
         <v>0.28938720751415131</v>
       </c>
       <c r="F4" s="257">
@@ -2052,7 +2065,7 @@
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
@@ -2077,7 +2090,7 @@
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
@@ -2100,7 +2113,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
@@ -2125,7 +2138,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2162,7 @@
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="189" t="s">
         <v>52</v>
       </c>
@@ -2187,7 +2200,7 @@
       <c r="F10" s="176"/>
       <c r="G10" s="177"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="248" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="248" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="183" t="s">
         <v>60</v>
       </c>
@@ -2261,7 +2274,7 @@
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
@@ -2284,7 +2297,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
@@ -2309,7 +2322,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="190" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2335,7 @@
       <c r="F16" s="179"/>
       <c r="G16" s="180"/>
     </row>
-    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
@@ -2347,7 +2360,7 @@
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
@@ -2371,7 +2384,7 @@
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
@@ -2395,7 +2408,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
@@ -2420,7 +2433,7 @@
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
@@ -2444,7 +2457,7 @@
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
@@ -2541,7 +2554,7 @@
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="189" t="s">
         <v>73</v>
       </c>
@@ -2554,7 +2567,7 @@
       <c r="F26" s="187"/>
       <c r="G26" s="188"/>
     </row>
-    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
@@ -2578,7 +2591,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
@@ -2603,7 +2616,7 @@
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
@@ -2651,7 +2664,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="202" t="s">
         <v>82</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
@@ -2740,7 +2753,7 @@
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
@@ -2788,7 +2801,7 @@
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="194" t="s">
         <v>99</v>
       </c>
@@ -2801,7 +2814,7 @@
       <c r="F37" s="197"/>
       <c r="G37" s="198"/>
     </row>
-    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
@@ -2825,7 +2838,7 @@
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
@@ -2873,7 +2886,7 @@
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="190" t="s">
         <v>100</v>
       </c>
@@ -2886,7 +2899,7 @@
       <c r="F41" s="201"/>
       <c r="G41" s="199"/>
     </row>
-    <row r="42" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="191" t="s">
         <v>89</v>
       </c>
@@ -2899,7 +2912,7 @@
       <c r="F42" s="187"/>
       <c r="G42" s="188"/>
     </row>
-    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
@@ -2923,7 +2936,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
@@ -2947,7 +2960,7 @@
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="190" t="s">
         <v>101</v>
       </c>
@@ -2960,7 +2973,7 @@
       <c r="F45" s="201"/>
       <c r="G45" s="199"/>
     </row>
-    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="190" t="s">
         <v>98</v>
       </c>
@@ -3021,7 +3034,7 @@
       <c r="F48" s="201"/>
       <c r="G48" s="199"/>
     </row>
-    <row r="49" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="194" t="s">
         <v>102</v>
       </c>
@@ -3034,7 +3047,7 @@
       <c r="F49" s="197"/>
       <c r="G49" s="198"/>
     </row>
-    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
@@ -3047,7 +3060,7 @@
       <c r="F50" s="260"/>
       <c r="G50" s="123"/>
     </row>
-    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A51" s="120" t="s">
         <v>146</v>
       </c>
@@ -3072,20 +3085,32 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A52" s="136" t="s">
         <v>147</v>
       </c>
       <c r="B52" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="160"/>
-      <c r="D52" s="242"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="242"/>
-      <c r="G52" s="135"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="160">
+        <v>0.85516999999999999</v>
+      </c>
+      <c r="D52" s="242">
+        <f>LN(C52)</f>
+        <v>-0.15645499940016622</v>
+      </c>
+      <c r="E52" s="160">
+        <f>(LN(C52/F52))/1.96</f>
+        <v>0.41733068873124585</v>
+      </c>
+      <c r="F52" s="242">
+        <v>0.37741000000000002</v>
+      </c>
+      <c r="G52" s="135">
+        <v>1.9377599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="137" t="s">
         <v>148</v>
       </c>
@@ -3098,7 +3123,7 @@
       <c r="F53" s="261"/>
       <c r="G53" s="140"/>
     </row>
-    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="122" t="s">
         <v>149</v>
       </c>
@@ -3111,7 +3136,7 @@
       <c r="F54" s="260"/>
       <c r="G54" s="123"/>
     </row>
-    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="120" t="s">
         <v>150</v>
       </c>
@@ -3136,20 +3161,32 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="136" t="s">
         <v>151</v>
       </c>
       <c r="B56" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="160"/>
-      <c r="D56" s="288"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="242"/>
-      <c r="G56" s="135"/>
-    </row>
-    <row r="57" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="160">
+        <v>1.10043</v>
+      </c>
+      <c r="D56" s="242">
+        <f>LN(C56)</f>
+        <v>9.5701012510181052E-2</v>
+      </c>
+      <c r="E56" s="160">
+        <f>(LN(C56/F56))/1.96</f>
+        <v>0.4451372250205109</v>
+      </c>
+      <c r="F56" s="242">
+        <v>0.45989000000000002</v>
+      </c>
+      <c r="G56" s="135">
+        <v>2.63314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="137" t="s">
         <v>152</v>
       </c>
@@ -3162,20 +3199,20 @@
       <c r="F57" s="261"/>
       <c r="G57" s="140"/>
     </row>
-    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A58" s="132" t="s">
         <v>153</v>
       </c>
       <c r="B58" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="289"/>
-      <c r="D58" s="290"/>
-      <c r="E58" s="289"/>
-      <c r="F58" s="290"/>
-      <c r="G58" s="291"/>
-    </row>
-    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="C58" s="288"/>
+      <c r="D58" s="289"/>
+      <c r="E58" s="288"/>
+      <c r="F58" s="289"/>
+      <c r="G58" s="290"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="133" t="s">
         <v>154</v>
       </c>
@@ -3200,20 +3237,32 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="163" t="s">
         <v>155</v>
       </c>
       <c r="B60" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="292"/>
-      <c r="D60" s="262"/>
-      <c r="E60" s="292"/>
-      <c r="F60" s="262"/>
-      <c r="G60" s="141"/>
-    </row>
-    <row r="61" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C60" s="291">
+        <v>1.0528500000000001</v>
+      </c>
+      <c r="D60" s="242">
+        <f>LN(C60)</f>
+        <v>5.1500772862403191E-2</v>
+      </c>
+      <c r="E60" s="160">
+        <f>(LN(C60/F60))/1.96</f>
+        <v>0.47104512346218713</v>
+      </c>
+      <c r="F60" s="262">
+        <v>0.41821999999999998</v>
+      </c>
+      <c r="G60" s="141">
+        <v>2.65049</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="164" t="s">
         <v>156</v>
       </c>
@@ -3226,7 +3275,7 @@
       <c r="F61" s="261"/>
       <c r="G61" s="140"/>
     </row>
-    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="133" t="s">
         <v>157</v>
       </c>
@@ -3239,7 +3288,7 @@
       <c r="F62" s="260"/>
       <c r="G62" s="135"/>
     </row>
-    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="133" t="s">
         <v>158</v>
       </c>
@@ -3264,20 +3313,20 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="163" t="s">
         <v>159</v>
       </c>
       <c r="B64" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="292"/>
-      <c r="D64" s="262"/>
-      <c r="E64" s="292"/>
+      <c r="C64" s="291"/>
+      <c r="D64" s="242"/>
+      <c r="E64" s="160"/>
       <c r="F64" s="262"/>
       <c r="G64" s="141"/>
     </row>
-    <row r="65" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="164" t="s">
         <v>160</v>
       </c>
@@ -3302,29 +3351,29 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="25"/>
+    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -3663,7 +3712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -3830,7 +3879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -4014,7 +4063,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -4198,7 +4247,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -4382,7 +4431,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -4568,7 +4617,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
@@ -4748,7 +4797,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
@@ -4928,7 +4977,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
@@ -5099,7 +5148,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -5275,7 +5324,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -5394,7 +5443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
@@ -5436,7 +5485,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -5482,16 +5531,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5517,7 +5566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5543,7 +5592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5569,7 +5618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5595,7 +5644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5621,7 +5670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -5647,7 +5696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5673,7 +5722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5699,7 +5748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -5725,7 +5774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5761,38 +5810,38 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="270"/>
-    <col min="5" max="5" width="12.33203125" style="270" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="297"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="270"/>
+    <col min="5" max="5" width="12.28515625" style="270" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="296"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="284" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="294" t="s">
+      <c r="C1" s="293" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="295" t="s">
+      <c r="D1" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="294" t="s">
+      <c r="E1" s="293" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="293" t="s">
+      <c r="F1" s="292" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="285" t="s">
         <v>134</v>
       </c>
@@ -5812,7 +5861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="286" t="s">
         <v>134</v>
       </c>
@@ -5832,7 +5881,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="286" t="s">
         <v>134</v>
       </c>
@@ -5852,7 +5901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="287" t="s">
         <v>134</v>
       </c>
@@ -5868,11 +5917,11 @@
       <c r="E5" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="296" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="295" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="285" t="s">
         <v>135</v>
       </c>
@@ -5892,7 +5941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="286" t="s">
         <v>135</v>
       </c>
@@ -5912,7 +5961,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="286" t="s">
         <v>135</v>
       </c>
@@ -5932,7 +5981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="287" t="s">
         <v>135</v>
       </c>
@@ -5948,11 +5997,11 @@
       <c r="E9" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="296" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="295" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="285" t="s">
         <v>136</v>
       </c>
@@ -5972,7 +6021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="286" t="s">
         <v>136</v>
       </c>
@@ -5992,7 +6041,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="286" t="s">
         <v>136</v>
       </c>
@@ -6012,7 +6061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="287" t="s">
         <v>136</v>
       </c>
@@ -6028,11 +6077,11 @@
       <c r="E13" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="296" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="295" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="285" t="s">
         <v>137</v>
       </c>
@@ -6052,7 +6101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="286" t="s">
         <v>137</v>
       </c>
@@ -6072,7 +6121,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="286" t="s">
         <v>137</v>
       </c>
@@ -6092,7 +6141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="287" t="s">
         <v>137</v>
       </c>
@@ -6108,16 +6157,16 @@
       <c r="E17" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="296" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="295" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="286" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="268" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C18" s="274" t="s">
         <v>141</v>
@@ -6132,12 +6181,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="286" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="268" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C19" s="274" t="s">
         <v>141</v>
@@ -6152,12 +6201,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="286" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="268" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C20" s="274" t="s">
         <v>141</v>
@@ -6168,16 +6217,16 @@
       <c r="E20" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="281" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="297" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="287" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="269" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C21" s="276" t="s">
         <v>141</v>
@@ -6188,7 +6237,7 @@
       <c r="E21" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="296" t="s">
+      <c r="F21" s="295" t="s">
         <v>49</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -865,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1585,31 +1585,7 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1661,9 +1637,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1951,11 +1954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,11 +3209,11 @@
       <c r="B58" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="288"/>
-      <c r="D58" s="289"/>
-      <c r="E58" s="288"/>
-      <c r="F58" s="289"/>
-      <c r="G58" s="290"/>
+      <c r="C58" s="278"/>
+      <c r="D58" s="279"/>
+      <c r="E58" s="278"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="280"/>
     </row>
     <row r="59" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="133" t="s">
@@ -3244,7 +3247,7 @@
       <c r="B60" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="291">
+      <c r="C60" s="281">
         <v>1.0528500000000001</v>
       </c>
       <c r="D60" s="242">
@@ -3320,7 +3323,7 @@
       <c r="B64" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="291"/>
+      <c r="C64" s="281"/>
       <c r="D64" s="242"/>
       <c r="E64" s="160"/>
       <c r="F64" s="262"/>
@@ -5809,435 +5812,435 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="270"/>
-    <col min="5" max="5" width="12.28515625" style="270" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="296"/>
+    <col min="3" max="4" width="9.140625" style="267"/>
+    <col min="5" max="5" width="12.28515625" style="267" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="286"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="274" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="284" t="s">
+      <c r="B1" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="293" t="s">
+      <c r="C1" s="283" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="294" t="s">
+      <c r="D1" s="284" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="293" t="s">
+      <c r="E1" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="292" t="s">
+      <c r="F1" s="282" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="285" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="275" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="287" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="272" t="s">
+      <c r="D2" s="288" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="273" t="s">
+      <c r="E2" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="278" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="286" t="s">
+      <c r="F2" s="268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="276" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="297" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="275" t="s">
+      <c r="E3" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="274" t="s">
+      <c r="F3" s="289" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="286" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="276" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="274" t="s">
+      <c r="C4" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="281" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="287" t="s">
+      <c r="F4" s="289" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="277" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="269" t="s">
+      <c r="B5" s="298" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="291" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="277" t="s">
+      <c r="D5" s="292" t="s">
         <v>141</v>
       </c>
       <c r="E5" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="295" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="285" t="s">
+      <c r="F5" s="285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="275" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="267" t="s">
+      <c r="B6" s="296" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="271" t="s">
+      <c r="C6" s="287" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="272" t="s">
+      <c r="D6" s="288" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="273" t="s">
+      <c r="E6" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="278" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="286" t="s">
+      <c r="F6" s="268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="276" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="297" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="274" t="s">
+      <c r="C7" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="275" t="s">
+      <c r="E7" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="274" t="s">
+      <c r="F7" s="289" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="286" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="276" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="274" t="s">
+      <c r="C8" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="275" t="s">
+      <c r="E8" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="281" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="287" t="s">
+      <c r="F8" s="289" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="277" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="269" t="s">
+      <c r="B9" s="298" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="291" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="277" t="s">
+      <c r="D9" s="292" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="295" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="285" t="s">
+      <c r="F9" s="285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="275" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="267" t="s">
+      <c r="B10" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="278" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="279" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="280" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="278" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="286" t="s">
+      <c r="C10" s="268" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="269" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="270" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="276" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="297" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="274" t="s">
+      <c r="C11" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="275" t="s">
+      <c r="E11" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="274" t="s">
+      <c r="F11" s="289" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="286" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="276" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="297" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="274" t="s">
+      <c r="C12" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="275" t="s">
+      <c r="E12" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="281" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="287" t="s">
+      <c r="F12" s="289" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="277" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="298" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="276" t="s">
+      <c r="C13" s="291" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="277" t="s">
+      <c r="D13" s="292" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="295" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="285" t="s">
+      <c r="E13" s="295" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="275" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="267" t="s">
+      <c r="B14" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="271" t="s">
+      <c r="C14" s="287" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="272" t="s">
+      <c r="D14" s="288" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="273" t="s">
+      <c r="E14" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="278" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="286" t="s">
+      <c r="F14" s="268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="276" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="268" t="s">
+      <c r="B15" s="297" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="274" t="s">
+      <c r="C15" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="275" t="s">
+      <c r="E15" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="274" t="s">
+      <c r="F15" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="276" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="271" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="273" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="277" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="298" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="291" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="286" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="268" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="281" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="282" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="283" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="281" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="287" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="269" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="276" t="s">
+      <c r="D17" s="292" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="277" t="s">
+      <c r="E17" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="276" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="297" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="295" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="286" t="s">
+      <c r="D18" s="290" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="294" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="268" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="274" t="s">
+      <c r="B19" s="297" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D19" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="275" t="s">
+      <c r="E19" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="281" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="286" t="s">
+      <c r="F19" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="268" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="274" t="s">
+      <c r="B20" s="297" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D20" s="290" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="275" t="s">
+      <c r="E20" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="274" t="s">
+      <c r="F20" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="277" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="298" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="291" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="286" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="268" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="274" t="s">
+      <c r="D21" s="292" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="297" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="287" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="269" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="277" t="s">
-        <v>141</v>
-      </c>
       <c r="E21" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="295" t="s">
+      <c r="F21" s="285" t="s">
         <v>49</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -13,14 +18,14 @@
     <sheet name="esquema" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$B$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="171">
   <si>
     <t>camp</t>
   </si>
@@ -518,6 +523,21 @@
   </si>
   <si>
     <t>Bcn5</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain(HM)</t>
+  </si>
+  <si>
+    <t>Spain(BCN)</t>
+  </si>
+  <si>
+    <t>camp2</t>
   </si>
 </sst>
 </file>
@@ -616,7 +636,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1667,6 +1693,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,7 +1977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1952,1398 +1985,1594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="249" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="126" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="249" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="126" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="126" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="249" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="249" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="243" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="244" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="D1" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="246" t="s">
+      <c r="E1" s="246" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="245" t="s">
+      <c r="F1" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="G1" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="247" t="s">
+      <c r="H1" s="247" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="145">
+      <c r="D2" s="145">
         <v>2.06</v>
       </c>
-      <c r="D2" s="127">
+      <c r="E2" s="127">
         <v>0.72208000000000006</v>
       </c>
-      <c r="E2" s="54">
+      <c r="F2" s="54">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="F2" s="174">
+      <c r="G2" s="174">
         <v>1.7</v>
       </c>
-      <c r="G2" s="151">
+      <c r="H2" s="151">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="146">
+      <c r="D3" s="146">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D3" s="128">
-        <f t="shared" ref="D3:D11" si="0">LN(C3)</f>
+      <c r="E3" s="128">
+        <f t="shared" ref="E3:E11" si="0">LN(D3)</f>
         <v>0.91228271047661635</v>
       </c>
-      <c r="E3" s="55">
-        <f>(LN(C3/F3))/1.96</f>
+      <c r="F3" s="55">
+        <f>(LN(D3/G3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="F3" s="257">
+      <c r="G3" s="257">
         <v>1.89</v>
       </c>
-      <c r="G3" s="154">
+      <c r="H3" s="154">
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="146">
+      <c r="D4" s="146">
         <v>1.0820000000000001</v>
       </c>
-      <c r="D4" s="128">
+      <c r="E4" s="128">
         <v>7.8938900000000006E-2</v>
       </c>
-      <c r="E4" s="55">
-        <f t="shared" ref="E4:E11" si="1">(LN(C4/F4))/1.96</f>
+      <c r="F4" s="55">
+        <f t="shared" ref="F4:F11" si="1">(LN(D4/G4))/1.96</f>
         <v>0.28938720751415131</v>
       </c>
-      <c r="F4" s="257">
+      <c r="G4" s="257">
         <v>0.61361489999999996</v>
       </c>
-      <c r="G4" s="154">
+      <c r="H4" s="154">
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="147">
+      <c r="D5" s="147">
         <v>2.6488100000000001</v>
       </c>
-      <c r="D5" s="129">
-        <f>LN(C5)</f>
+      <c r="E5" s="129">
+        <f>LN(D5)</f>
         <v>0.97411048253824606</v>
       </c>
-      <c r="E5" s="56">
-        <f t="shared" ref="E5" si="2">(LN(C5/F5))/1.96</f>
+      <c r="F5" s="56">
+        <f t="shared" ref="F5" si="2">(LN(D5/G5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="F5" s="258">
+      <c r="G5" s="258">
         <v>1.5287230000000001</v>
       </c>
-      <c r="G5" s="158">
+      <c r="H5" s="158">
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="145">
+      <c r="D6" s="145">
         <v>1.6</v>
       </c>
-      <c r="D6" s="127">
+      <c r="E6" s="127">
         <v>0.47271299999999999</v>
       </c>
-      <c r="E6" s="54">
+      <c r="F6" s="54">
         <v>0.102038</v>
       </c>
-      <c r="F6" s="174">
+      <c r="G6" s="174">
         <v>1.31</v>
       </c>
-      <c r="G6" s="151">
+      <c r="H6" s="151">
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="146">
+      <c r="D7" s="146">
         <v>1.7</v>
       </c>
-      <c r="D7" s="128">
+      <c r="E7" s="128">
         <f t="shared" si="0"/>
         <v>0.53062825106217038</v>
       </c>
-      <c r="E7" s="55">
+      <c r="F7" s="55">
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="F7" s="257">
+      <c r="G7" s="257">
         <v>1.26</v>
       </c>
-      <c r="G7" s="154">
+      <c r="H7" s="154">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="146">
+      <c r="D8" s="146">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D8" s="130">
+      <c r="E8" s="130">
         <v>-0.55780845999999995</v>
       </c>
-      <c r="E8" s="55">
+      <c r="F8" s="55">
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="F8" s="257">
+      <c r="G8" s="257">
         <v>0.30420320000000001</v>
       </c>
-      <c r="G8" s="154">
+      <c r="H8" s="154">
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="147">
+      <c r="D9" s="147">
         <v>2.062049</v>
       </c>
-      <c r="D9" s="129">
-        <f t="shared" ref="D9" si="3">LN(C9)</f>
+      <c r="E9" s="129">
+        <f t="shared" ref="E9" si="3">LN(D9)</f>
         <v>0.72370014864899102</v>
       </c>
-      <c r="E9" s="56">
+      <c r="F9" s="56">
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="F9" s="258">
+      <c r="G9" s="258">
         <v>1.1560870000000001</v>
       </c>
-      <c r="G9" s="158">
+      <c r="H9" s="158">
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="177"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="146">
+      <c r="D11" s="146">
         <v>1.45</v>
       </c>
-      <c r="D11" s="128">
+      <c r="E11" s="128">
         <f t="shared" si="0"/>
         <v>0.37156355643248301</v>
       </c>
-      <c r="E11" s="55">
+      <c r="F11" s="55">
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="F11" s="257">
+      <c r="G11" s="257">
         <v>1.07</v>
       </c>
-      <c r="G11" s="154">
+      <c r="H11" s="154">
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="248" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="248" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A12" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="148">
-        <f>EXP(D12)</f>
+      <c r="D12" s="148">
+        <f>EXP(E12)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="D12" s="131">
+      <c r="E12" s="131">
         <v>-0.45101475000000002</v>
       </c>
-      <c r="E12" s="121">
+      <c r="F12" s="121">
         <v>0.32816135000000002</v>
       </c>
-      <c r="F12" s="259">
+      <c r="G12" s="259">
         <v>0.33481</v>
       </c>
-      <c r="G12" s="159">
+      <c r="H12" s="159">
         <v>1.2118800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="147">
+      <c r="D13" s="147">
         <v>2.1843110000000001</v>
       </c>
-      <c r="D13" s="129">
-        <f t="shared" ref="D13" si="4">LN(C13)</f>
+      <c r="E13" s="129">
+        <f t="shared" ref="E13" si="4">LN(D13)</f>
         <v>0.78130044701224466</v>
       </c>
-      <c r="E13" s="56">
-        <f t="shared" ref="E13" si="5">(LN(C13/F13))/1.96</f>
+      <c r="F13" s="56">
+        <f t="shared" ref="F13" si="5">(LN(D13/G13))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="F13" s="258">
+      <c r="G13" s="258">
         <v>1.207077</v>
       </c>
-      <c r="G13" s="158">
+      <c r="H13" s="158">
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="145">
+      <c r="D14" s="145">
         <v>1.56</v>
       </c>
-      <c r="D14" s="127">
+      <c r="E14" s="127">
         <v>0.44423099999999999</v>
       </c>
-      <c r="E14" s="54">
+      <c r="F14" s="54">
         <v>0.105994</v>
       </c>
-      <c r="F14" s="174">
+      <c r="G14" s="174">
         <v>1.27</v>
       </c>
-      <c r="G14" s="151">
+      <c r="H14" s="151">
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="146">
+      <c r="D15" s="146">
         <v>1.47</v>
       </c>
-      <c r="D15" s="128">
-        <f t="shared" ref="D15:D17" si="6">LN(C15)</f>
+      <c r="E15" s="128">
+        <f t="shared" ref="E15:E17" si="6">LN(D15)</f>
         <v>0.38526240079064489</v>
       </c>
-      <c r="E15" s="55">
-        <f>(LN(C15/F15))/1.96</f>
+      <c r="F15" s="55">
+        <f>(LN(D15/G15))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="F15" s="257">
+      <c r="G15" s="257">
         <v>1.08</v>
       </c>
-      <c r="G15" s="154">
+      <c r="H15" s="154">
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A16" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="182" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="147">
+      <c r="D17" s="147">
         <v>0.4974674</v>
       </c>
-      <c r="D17" s="129">
+      <c r="E17" s="129">
         <f t="shared" si="6"/>
         <v>-0.69822525216871001</v>
       </c>
-      <c r="E17" s="56">
-        <f>(LN(C17/F17))/1.96</f>
+      <c r="F17" s="56">
+        <f>(LN(D17/G17))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="F17" s="258">
+      <c r="G17" s="258">
         <v>1.16729E-2</v>
       </c>
-      <c r="G17" s="158">
+      <c r="H17" s="158">
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="124">
+      <c r="D18" s="124">
         <v>0.28388671819205552</v>
       </c>
-      <c r="D18" s="127">
-        <f>LN(C18)</f>
+      <c r="E18" s="127">
+        <f>LN(D18)</f>
         <v>-1.25918</v>
       </c>
-      <c r="E18" s="54">
+      <c r="F18" s="54">
         <v>0.19653876299053855</v>
       </c>
-      <c r="F18" s="260">
+      <c r="G18" s="260">
         <v>0.19653876299053855</v>
       </c>
-      <c r="G18" s="123">
+      <c r="H18" s="123">
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="134">
+      <c r="D19" s="134">
         <v>0.51</v>
       </c>
-      <c r="D19" s="128">
-        <f t="shared" ref="D19:D47" si="7">LN(C19)</f>
+      <c r="E19" s="128">
+        <f t="shared" ref="E19:E47" si="7">LN(D19)</f>
         <v>-0.67334455326376563</v>
       </c>
-      <c r="E19" s="55">
+      <c r="F19" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="F19" s="242">
+      <c r="G19" s="242">
         <v>0.4</v>
       </c>
-      <c r="G19" s="135">
+      <c r="H19" s="135">
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="134">
+      <c r="D20" s="134">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="D20" s="128">
+      <c r="E20" s="128">
         <f t="shared" si="7"/>
         <v>-0.26236430000000005</v>
       </c>
-      <c r="E20" s="55">
+      <c r="F20" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="F20" s="242">
+      <c r="G20" s="242">
         <v>0.32507316464627944</v>
       </c>
-      <c r="G20" s="135">
+      <c r="H20" s="135">
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="139">
+      <c r="D21" s="139">
         <v>0.68907160000000001</v>
       </c>
-      <c r="D21" s="129">
+      <c r="E21" s="129">
         <f t="shared" si="7"/>
         <v>-0.37241009464486824</v>
       </c>
-      <c r="E21" s="56">
+      <c r="F21" s="56">
         <v>0.37108077380430665</v>
       </c>
-      <c r="F21" s="261">
+      <c r="G21" s="261">
         <v>0.33296150000000002</v>
       </c>
-      <c r="G21" s="140">
+      <c r="H21" s="140">
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="124">
+      <c r="D22" s="124">
         <v>0.45326107273685712</v>
       </c>
-      <c r="D22" s="127">
+      <c r="E22" s="127">
         <f t="shared" si="7"/>
         <v>-0.79128699999999996</v>
       </c>
-      <c r="E22" s="54">
+      <c r="F22" s="54">
         <v>0.30513433399859663</v>
       </c>
-      <c r="F22" s="260">
+      <c r="G22" s="260">
         <v>0.30513433399859663</v>
       </c>
-      <c r="G22" s="123">
+      <c r="H22" s="123">
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="134">
+      <c r="D23" s="134">
         <v>0.6</v>
       </c>
-      <c r="D23" s="128">
+      <c r="E23" s="128">
         <f t="shared" si="7"/>
         <v>-0.51082562376599072</v>
       </c>
-      <c r="E23" s="55">
+      <c r="F23" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="F23" s="242">
+      <c r="G23" s="242">
         <v>0.46</v>
       </c>
-      <c r="G23" s="135">
+      <c r="H23" s="135">
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="134">
+      <c r="D24" s="134">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="D24" s="128">
+      <c r="E24" s="128">
         <f t="shared" si="7"/>
         <v>2.1789120000000013E-2</v>
       </c>
-      <c r="E24" s="55">
+      <c r="F24" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="F24" s="242">
+      <c r="G24" s="242">
         <v>0.40703217199207092</v>
       </c>
-      <c r="G24" s="135">
+      <c r="H24" s="135">
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="160">
+      <c r="D25" s="160">
         <v>0.81895549999999995</v>
       </c>
-      <c r="D25" s="128">
+      <c r="E25" s="128">
         <f t="shared" si="7"/>
         <v>-0.19972553115957761</v>
       </c>
-      <c r="E25" s="55">
+      <c r="F25" s="55">
         <v>0.3929717925727606</v>
       </c>
-      <c r="F25" s="242">
+      <c r="G25" s="242">
         <v>0.37910189999999999</v>
       </c>
-      <c r="G25" s="135">
+      <c r="H25" s="135">
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A26" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="185" t="s">
+      <c r="B26" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="186"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="188"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D26" s="186"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="188"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="134">
+      <c r="D27" s="134">
         <v>0.59</v>
       </c>
-      <c r="D27" s="128">
+      <c r="E27" s="128">
         <f t="shared" si="7"/>
         <v>-0.52763274208237199</v>
       </c>
-      <c r="E27" s="55">
+      <c r="F27" s="55">
         <v>0.13820150721193863</v>
       </c>
-      <c r="F27" s="242">
+      <c r="G27" s="242">
         <v>0.45</v>
       </c>
-      <c r="G27" s="135">
+      <c r="H27" s="135">
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="134">
+      <c r="D28" s="134">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="D28" s="128">
+      <c r="E28" s="128">
         <f t="shared" si="7"/>
         <v>-2.829491E-2</v>
       </c>
-      <c r="E28" s="121">
+      <c r="F28" s="121">
         <v>0.49017310714285722</v>
       </c>
-      <c r="F28" s="262">
+      <c r="G28" s="262">
         <v>0.37193573314376671</v>
       </c>
-      <c r="G28" s="141">
+      <c r="H28" s="141">
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="139">
+      <c r="D29" s="139">
         <v>0.75462969999999996</v>
       </c>
-      <c r="D29" s="129">
+      <c r="E29" s="129">
         <f t="shared" si="7"/>
         <v>-0.28152811362587332</v>
       </c>
-      <c r="E29" s="56">
+      <c r="F29" s="56">
         <v>0.39942732138071213</v>
       </c>
-      <c r="F29" s="261">
+      <c r="G29" s="261">
         <v>0.34493279999999998</v>
       </c>
-      <c r="G29" s="140">
+      <c r="H29" s="140">
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="124">
+      <c r="D30" s="124">
         <v>0.54056412975266621</v>
       </c>
-      <c r="D30" s="127">
+      <c r="E30" s="127">
         <f t="shared" si="7"/>
         <v>-0.61514199999999986</v>
       </c>
-      <c r="E30" s="54">
+      <c r="F30" s="54">
         <v>0.35642682488003907</v>
       </c>
-      <c r="F30" s="260">
+      <c r="G30" s="260">
         <v>0.44</v>
       </c>
-      <c r="G30" s="123">
+      <c r="H30" s="123">
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="134">
+      <c r="D31" s="134">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D31" s="128">
+      <c r="E31" s="128">
         <f t="shared" si="7"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="E31" s="55">
+      <c r="F31" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="F31" s="242">
+      <c r="G31" s="242">
         <v>0.44</v>
       </c>
-      <c r="G31" s="135">
+      <c r="H31" s="135">
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="203" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="263">
+      <c r="D32" s="204"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="263">
         <v>0.35642682488003907</v>
       </c>
-      <c r="G32" s="206">
+      <c r="H32" s="206">
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="139">
+      <c r="D33" s="139">
         <v>0.3101293</v>
       </c>
-      <c r="D33" s="129">
+      <c r="E33" s="129">
         <f t="shared" si="7"/>
         <v>-1.1707659716894312</v>
       </c>
-      <c r="E33" s="56">
+      <c r="F33" s="56">
         <v>1.4320074807991772</v>
       </c>
-      <c r="F33" s="261">
+      <c r="G33" s="261">
         <v>1.87324E-2</v>
       </c>
-      <c r="G33" s="140">
+      <c r="H33" s="140">
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="125">
+      <c r="D34" s="125">
         <v>1.5349994151050002</v>
       </c>
-      <c r="D34" s="127">
+      <c r="E34" s="127">
         <f t="shared" si="7"/>
         <v>0.42853000000000002</v>
       </c>
-      <c r="E34" s="54">
+      <c r="F34" s="54">
         <v>9.461E-2</v>
       </c>
-      <c r="F34" s="264">
+      <c r="G34" s="264">
         <v>1.2751889962780529</v>
       </c>
-      <c r="G34" s="23">
+      <c r="H34" s="23">
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="89">
+      <c r="D35" s="89">
         <v>0.96</v>
       </c>
-      <c r="D35" s="128">
+      <c r="E35" s="128">
         <f t="shared" si="7"/>
         <v>-4.0821994520255166E-2</v>
       </c>
-      <c r="E35" s="55">
+      <c r="F35" s="55">
         <v>0.11252182123171039</v>
       </c>
-      <c r="F35" s="265">
+      <c r="G35" s="265">
         <v>0.77</v>
       </c>
-      <c r="G35" s="24">
+      <c r="H35" s="24">
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="89">
+      <c r="D36" s="89">
         <v>0.97297297704789509</v>
       </c>
-      <c r="D36" s="128">
+      <c r="E36" s="128">
         <f t="shared" si="7"/>
         <v>-2.739897000000005E-2</v>
       </c>
-      <c r="E36" s="55">
+      <c r="F36" s="55">
         <v>0.26924623979591833</v>
       </c>
-      <c r="F36" s="265">
+      <c r="G36" s="265">
         <v>0.57400245825357943</v>
       </c>
-      <c r="G36" s="24">
+      <c r="H36" s="24">
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="198"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D37" s="196"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="198"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="125">
+      <c r="D38" s="125">
         <v>1.4032682776745637</v>
       </c>
-      <c r="D38" s="127">
+      <c r="E38" s="127">
         <f t="shared" si="7"/>
         <v>0.33880400000000005</v>
       </c>
-      <c r="E38" s="54">
+      <c r="F38" s="54">
         <v>9.8753000000000007E-2</v>
       </c>
-      <c r="F38" s="264">
+      <c r="G38" s="264">
         <v>1.1563264423940807</v>
       </c>
-      <c r="G38" s="23">
+      <c r="H38" s="23">
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="89">
+      <c r="D39" s="89">
         <v>0.89</v>
       </c>
-      <c r="D39" s="128">
+      <c r="E39" s="128">
         <f t="shared" si="7"/>
         <v>-0.11653381625595151</v>
       </c>
-      <c r="E39" s="55">
+      <c r="F39" s="55">
         <v>0.12252098351162294</v>
       </c>
-      <c r="F39" s="265">
+      <c r="G39" s="265">
         <v>0.7</v>
       </c>
-      <c r="G39" s="24">
+      <c r="H39" s="24">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="89">
+      <c r="D40" s="89">
         <v>0.65410122579434049</v>
       </c>
-      <c r="D40" s="128">
+      <c r="E40" s="128">
         <f t="shared" si="7"/>
         <v>-0.42449315999999992</v>
       </c>
-      <c r="E40" s="55">
+      <c r="F40" s="55">
         <v>0.29181282142857151</v>
       </c>
-      <c r="F40" s="265">
+      <c r="G40" s="265">
         <v>0.36918910372248526</v>
       </c>
-      <c r="G40" s="24">
+      <c r="H40" s="24">
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="200"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="199"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="200"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="199"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="188"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D42" s="192"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="188"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="89">
+      <c r="D43" s="89">
         <v>0.83</v>
       </c>
-      <c r="D43" s="128">
+      <c r="E43" s="128">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E43" s="55">
+      <c r="F43" s="55">
         <v>0.1169315641684552</v>
       </c>
-      <c r="F43" s="265">
+      <c r="G43" s="265">
         <v>0.66</v>
       </c>
-      <c r="G43" s="24">
+      <c r="H43" s="24">
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="143">
+      <c r="D44" s="143">
         <v>0.64440632009954502</v>
       </c>
-      <c r="D44" s="128">
+      <c r="E44" s="128">
         <f t="shared" si="7"/>
         <v>-0.43942582000000008</v>
       </c>
-      <c r="E44" s="121">
+      <c r="F44" s="121">
         <v>0.29946646938775501</v>
       </c>
-      <c r="F44" s="266">
+      <c r="G44" s="266">
         <v>0.35830163194241782</v>
       </c>
-      <c r="G44" s="144">
+      <c r="H44" s="144">
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="182" t="s">
+      <c r="B45" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="200"/>
-      <c r="D45" s="201"/>
-      <c r="E45" s="200"/>
-      <c r="F45" s="201"/>
-      <c r="G45" s="199"/>
-    </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="201"/>
+      <c r="H45" s="199"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="125">
+      <c r="D46" s="125">
         <v>1.4313184321023231</v>
       </c>
-      <c r="D46" s="127">
+      <c r="E46" s="127">
         <f t="shared" si="7"/>
         <v>0.35859600000000003</v>
       </c>
-      <c r="E46" s="54">
+      <c r="F46" s="54">
         <v>0.10279799999999999</v>
       </c>
-      <c r="F46" s="264">
+      <c r="G46" s="264">
         <v>1.1701265671380279</v>
       </c>
-      <c r="G46" s="23">
+      <c r="H46" s="23">
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="89">
+      <c r="D47" s="89">
         <v>0.83</v>
       </c>
-      <c r="D47" s="128">
+      <c r="E47" s="128">
         <f t="shared" si="7"/>
         <v>-0.18632957819149348</v>
       </c>
-      <c r="E47" s="55">
+      <c r="F47" s="55">
         <v>0.12472109076579629</v>
       </c>
-      <c r="F47" s="265">
+      <c r="G47" s="265">
         <v>0.65</v>
       </c>
-      <c r="G47" s="24">
+      <c r="H47" s="24">
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A48" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="182" t="s">
+      <c r="B48" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="201"/>
-      <c r="G48" s="199"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="200"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="199"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="195" t="s">
+      <c r="B49" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="196"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="197"/>
-      <c r="G49" s="198"/>
-    </row>
-    <row r="50" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="197"/>
+      <c r="H49" s="198"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="124"/>
-      <c r="D50" s="260"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="260"/>
-      <c r="G50" s="123"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D50" s="124"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="260"/>
+      <c r="H50" s="123"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A51" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="160">
+      <c r="D51" s="160">
         <v>0.49</v>
       </c>
-      <c r="D51" s="242">
-        <f>LN(C51)</f>
+      <c r="E51" s="242">
+        <f>LN(D51)</f>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="E51" s="160">
-        <f>(LN(C51/F51))/1.96</f>
+      <c r="F51" s="160">
+        <f>(LN(D51/G51))/1.96</f>
         <v>0.14331754360530724</v>
       </c>
-      <c r="F51" s="242">
+      <c r="G51" s="242">
         <v>0.37</v>
       </c>
-      <c r="G51" s="135">
+      <c r="H51" s="135">
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A52" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="160">
+      <c r="D52" s="160">
         <v>0.85516999999999999</v>
       </c>
-      <c r="D52" s="242">
-        <f>LN(C52)</f>
+      <c r="E52" s="242">
+        <f>LN(D52)</f>
         <v>-0.15645499940016622</v>
       </c>
-      <c r="E52" s="160">
-        <f>(LN(C52/F52))/1.96</f>
+      <c r="F52" s="160">
+        <f>(LN(D52/G52))/1.96</f>
         <v>0.41733068873124585</v>
       </c>
-      <c r="F52" s="242">
+      <c r="G52" s="242">
         <v>0.37741000000000002</v>
       </c>
-      <c r="G52" s="135">
+      <c r="H52" s="135">
         <v>1.9377599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="139"/>
-      <c r="D53" s="261"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="261"/>
-      <c r="G53" s="140"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D53" s="139"/>
+      <c r="E53" s="261"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="261"/>
+      <c r="H53" s="140"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A54" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="132" t="s">
+      <c r="B54" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="124"/>
-      <c r="D54" s="260"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="260"/>
-      <c r="G54" s="123"/>
-    </row>
-    <row r="55" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D54" s="124"/>
+      <c r="E54" s="260"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="260"/>
+      <c r="H54" s="123"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A55" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="160">
+      <c r="D55" s="160">
         <v>0.59</v>
       </c>
-      <c r="D55" s="242">
-        <f>LN(C55)</f>
+      <c r="E55" s="242">
+        <f>LN(D55)</f>
         <v>-0.52763274208237199</v>
       </c>
-      <c r="E55" s="160">
-        <f>(LN(C55/F55))/1.96</f>
+      <c r="F55" s="160">
+        <f>(LN(D55/G55))/1.96</f>
         <v>0.16139659602661074</v>
       </c>
-      <c r="F55" s="242">
+      <c r="G55" s="242">
         <v>0.43</v>
       </c>
-      <c r="G55" s="135">
+      <c r="H55" s="135">
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A56" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="160">
+      <c r="D56" s="160">
         <v>1.10043</v>
       </c>
-      <c r="D56" s="242">
-        <f>LN(C56)</f>
+      <c r="E56" s="242">
+        <f>LN(D56)</f>
         <v>9.5701012510181052E-2</v>
       </c>
-      <c r="E56" s="160">
-        <f>(LN(C56/F56))/1.96</f>
+      <c r="F56" s="160">
+        <f>(LN(D56/G56))/1.96</f>
         <v>0.4451372250205109</v>
       </c>
-      <c r="F56" s="242">
+      <c r="G56" s="242">
         <v>0.45989000000000002</v>
       </c>
-      <c r="G56" s="135">
+      <c r="H56" s="135">
         <v>2.63314</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="139"/>
-      <c r="D57" s="261"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="261"/>
-      <c r="G57" s="140"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D57" s="139"/>
+      <c r="E57" s="261"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="261"/>
+      <c r="H57" s="140"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A58" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="278"/>
-      <c r="D58" s="279"/>
-      <c r="E58" s="278"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="280"/>
-    </row>
-    <row r="59" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="D58" s="278"/>
+      <c r="E58" s="279"/>
+      <c r="F58" s="278"/>
+      <c r="G58" s="279"/>
+      <c r="H58" s="280"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A59" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="160">
+      <c r="D59" s="160">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D59" s="242">
-        <f>LN(C59)</f>
+      <c r="E59" s="242">
+        <f>LN(D59)</f>
         <v>-0.56211891815354131</v>
       </c>
-      <c r="E59" s="160">
-        <f>(LN(C59/F59))/1.96</f>
+      <c r="F59" s="160">
+        <f>(LN(D59/G59))/1.96</f>
         <v>0.16810163322971544</v>
       </c>
-      <c r="F59" s="242">
+      <c r="G59" s="242">
         <v>0.41</v>
       </c>
-      <c r="G59" s="135">
+      <c r="H59" s="135">
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A60" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="281">
+      <c r="D60" s="281">
         <v>1.0528500000000001</v>
       </c>
-      <c r="D60" s="242">
-        <f>LN(C60)</f>
+      <c r="E60" s="242">
+        <f>LN(D60)</f>
         <v>5.1500772862403191E-2</v>
       </c>
-      <c r="E60" s="160">
-        <f>(LN(C60/F60))/1.96</f>
+      <c r="F60" s="160">
+        <f>(LN(D60/G60))/1.96</f>
         <v>0.47104512346218713</v>
       </c>
-      <c r="F60" s="262">
+      <c r="G60" s="262">
         <v>0.41821999999999998</v>
       </c>
-      <c r="G60" s="141">
+      <c r="H60" s="141">
         <v>2.65049</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="138" t="s">
+      <c r="B61" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="139"/>
-      <c r="D61" s="261"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="261"/>
-      <c r="G61" s="140"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D61" s="139"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="261"/>
+      <c r="H61" s="140"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A62" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="132" t="s">
+      <c r="B62" s="299" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="260"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="260"/>
-      <c r="G62" s="135"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D62" s="124"/>
+      <c r="E62" s="260"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="260"/>
+      <c r="H62" s="135"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A63" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="160">
+      <c r="D63" s="160">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D63" s="242">
-        <f>LN(C63)</f>
+      <c r="E63" s="242">
+        <f>LN(D63)</f>
         <v>-0.59783700075562041</v>
       </c>
-      <c r="E63" s="160">
-        <f>(LN(C63/F63))/1.96</f>
+      <c r="F63" s="160">
+        <f>(LN(D63/G63))/1.96</f>
         <v>0.16247639342782377</v>
       </c>
-      <c r="F63" s="242">
+      <c r="G63" s="242">
         <v>0.4</v>
       </c>
-      <c r="G63" s="135">
+      <c r="H63" s="135">
         <v>0.76</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A64" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="281"/>
-      <c r="D64" s="242"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="262"/>
-      <c r="G64" s="141"/>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="281"/>
+      <c r="E64" s="242"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="262"/>
+      <c r="H64" s="141"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="138" t="s">
+      <c r="B65" s="301" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="139"/>
-      <c r="D65" s="261"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="261"/>
-      <c r="G65" s="140"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="261"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="261"/>
+      <c r="H65" s="140"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B49"/>
+  <autoFilter ref="A1:C49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3358,25 +3587,25 @@
       <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -3548,7 +3777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -3882,7 +4111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -4066,7 +4295,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -4250,7 +4479,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -4434,7 +4663,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -4620,7 +4849,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
@@ -4800,7 +5029,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
@@ -4980,7 +5209,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
@@ -5151,7 +5380,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -5327,7 +5556,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -5446,7 +5675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
@@ -5488,7 +5717,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -5534,16 +5763,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5569,7 +5798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5595,7 +5824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5621,7 +5850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5647,7 +5876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -5699,7 +5928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5725,7 +5954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5751,7 +5980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -5777,7 +6006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5812,19 +6041,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="267"/>
-    <col min="5" max="5" width="12.28515625" style="267" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="286"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="267"/>
+    <col min="5" max="5" width="12.33203125" style="267" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="286"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="274" t="s">
         <v>142</v>
       </c>
@@ -5844,7 +6073,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="275" t="s">
         <v>134</v>
       </c>
@@ -5864,7 +6093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="276" t="s">
         <v>134</v>
       </c>
@@ -5884,7 +6113,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="276" t="s">
         <v>134</v>
       </c>
@@ -5904,7 +6133,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="277" t="s">
         <v>134</v>
       </c>
@@ -5924,7 +6153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="275" t="s">
         <v>135</v>
       </c>
@@ -5944,7 +6173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="276" t="s">
         <v>135</v>
       </c>
@@ -5964,7 +6193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="276" t="s">
         <v>135</v>
       </c>
@@ -5984,7 +6213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="277" t="s">
         <v>135</v>
       </c>
@@ -6004,7 +6233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="275" t="s">
         <v>136</v>
       </c>
@@ -6024,7 +6253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="276" t="s">
         <v>136</v>
       </c>
@@ -6044,7 +6273,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="276" t="s">
         <v>136</v>
       </c>
@@ -6064,7 +6293,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="277" t="s">
         <v>136</v>
       </c>
@@ -6084,7 +6313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="275" t="s">
         <v>137</v>
       </c>
@@ -6104,7 +6333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="276" t="s">
         <v>137</v>
       </c>
@@ -6124,7 +6353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="276" t="s">
         <v>137</v>
       </c>
@@ -6144,7 +6373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="277" t="s">
         <v>137</v>
       </c>
@@ -6164,7 +6393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="276" t="s">
         <v>138</v>
       </c>
@@ -6184,7 +6413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="276" t="s">
         <v>138</v>
       </c>
@@ -6204,7 +6433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="276" t="s">
         <v>138</v>
       </c>
@@ -6224,7 +6453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="277" t="s">
         <v>138</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -548,7 +543,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +627,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -891,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1317,12 +1318,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1345,15 +1340,6 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,9 +1347,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,28 +1354,10 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1615,12 +1580,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1659,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1977,7 +1970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1988,48 +1981,48 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="249" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="249" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="53"/>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="244" t="s">
+      <c r="C1" s="232" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="245" t="s">
+      <c r="D1" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="246" t="s">
+      <c r="E1" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="246" t="s">
+      <c r="G1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="247" t="s">
+      <c r="H1" s="235" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2037,7 +2030,7 @@
       <c r="A2" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="299" t="s">
+      <c r="B2" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="150" t="s">
@@ -2052,7 +2045,7 @@
       <c r="F2" s="54">
         <v>9.7180000000000002E-2</v>
       </c>
-      <c r="G2" s="174">
+      <c r="G2" s="172">
         <v>1.7</v>
       </c>
       <c r="H2" s="151">
@@ -2063,7 +2056,7 @@
       <c r="A3" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="300" t="s">
+      <c r="B3" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="153" t="s">
@@ -2080,18 +2073,18 @@
         <f>(LN(D3/G3))/1.96</f>
         <v>0.14066626602299256</v>
       </c>
-      <c r="G3" s="257">
+      <c r="G3" s="245">
         <v>1.89</v>
       </c>
       <c r="H3" s="154">
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -2107,18 +2100,18 @@
         <f t="shared" ref="F4:F11" si="1">(LN(D4/G4))/1.96</f>
         <v>0.28938720751415131</v>
       </c>
-      <c r="G4" s="257">
+      <c r="G4" s="245">
         <v>0.61361489999999996</v>
       </c>
       <c r="H4" s="154">
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="301" t="s">
+      <c r="B5" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="153" t="s">
@@ -2135,18 +2128,18 @@
         <f t="shared" ref="F5" si="2">(LN(D5/G5))/1.96</f>
         <v>0.2804478245730157</v>
       </c>
-      <c r="G5" s="258">
+      <c r="G5" s="246">
         <v>1.5287230000000001</v>
       </c>
       <c r="H5" s="158">
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="299" t="s">
+      <c r="B6" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="150" t="s">
@@ -2161,18 +2154,18 @@
       <c r="F6" s="54">
         <v>0.102038</v>
       </c>
-      <c r="G6" s="174">
+      <c r="G6" s="172">
         <v>1.31</v>
       </c>
       <c r="H6" s="151">
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="300" t="s">
+      <c r="B7" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C7" s="153" t="s">
@@ -2189,18 +2182,18 @@
         <f t="shared" si="1"/>
         <v>0.15281455617284881</v>
       </c>
-      <c r="G7" s="257">
+      <c r="G7" s="245">
         <v>1.26</v>
       </c>
       <c r="H7" s="154">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="301" t="s">
+      <c r="B8" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="153" t="s">
@@ -2216,18 +2209,18 @@
         <f t="shared" si="1"/>
         <v>0.3221648429667342</v>
       </c>
-      <c r="G8" s="257">
+      <c r="G8" s="245">
         <v>0.30420320000000001</v>
       </c>
       <c r="H8" s="154">
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="301" t="s">
+      <c r="B9" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="153" t="s">
@@ -2237,41 +2230,53 @@
         <v>2.062049</v>
       </c>
       <c r="E9" s="129">
-        <f t="shared" ref="E9" si="3">LN(D9)</f>
+        <f t="shared" ref="E9:E10" si="3">LN(D9)</f>
         <v>0.72370014864899102</v>
       </c>
       <c r="F9" s="56">
         <f t="shared" si="1"/>
         <v>0.29523424577300489</v>
       </c>
-      <c r="G9" s="258">
+      <c r="G9" s="246">
         <v>1.1560870000000001</v>
       </c>
       <c r="H9" s="158">
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A10" s="189" t="s">
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="289" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="289" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="290" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D10" s="291">
+        <v>1.53</v>
+      </c>
+      <c r="E10" s="129">
+        <f t="shared" si="3"/>
+        <v>0.42526773540434409</v>
+      </c>
+      <c r="F10" s="291">
+        <f>(LN(D10/G10))/1.96</f>
+        <v>0.10312458371945629</v>
+      </c>
+      <c r="G10" s="292">
+        <v>1.25</v>
+      </c>
+      <c r="H10" s="293">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="300" t="s">
+      <c r="B11" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="161" t="s">
@@ -2288,18 +2293,18 @@
         <f t="shared" si="1"/>
         <v>0.15505352446870821</v>
       </c>
-      <c r="G11" s="257">
+      <c r="G11" s="245">
         <v>1.07</v>
       </c>
       <c r="H11" s="154">
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="248" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A12" s="183" t="s">
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="301" t="s">
+      <c r="B12" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C12" s="161" t="s">
@@ -2315,7 +2320,7 @@
       <c r="F12" s="121">
         <v>0.32816135000000002</v>
       </c>
-      <c r="G12" s="259">
+      <c r="G12" s="247">
         <v>0.33481</v>
       </c>
       <c r="H12" s="159">
@@ -2323,10 +2328,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="301" t="s">
+      <c r="B13" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C13" s="162" t="s">
@@ -2343,18 +2348,18 @@
         <f t="shared" ref="F13" si="5">(LN(D13/G13))/1.96</f>
         <v>0.3026013838774172</v>
       </c>
-      <c r="G13" s="258">
+      <c r="G13" s="246">
         <v>1.207077</v>
       </c>
       <c r="H13" s="158">
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="299" t="s">
+      <c r="B14" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="150" t="s">
@@ -2369,18 +2374,18 @@
       <c r="F14" s="54">
         <v>0.105994</v>
       </c>
-      <c r="G14" s="174">
+      <c r="G14" s="172">
         <v>1.27</v>
       </c>
       <c r="H14" s="151">
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="300" t="s">
+      <c r="B15" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C15" s="153" t="s">
@@ -2397,34 +2402,34 @@
         <f>(LN(D15/G15))/1.96</f>
         <v>0.15729661206863085</v>
       </c>
-      <c r="G15" s="257">
+      <c r="G15" s="245">
         <v>1.08</v>
       </c>
       <c r="H15" s="154">
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="190" t="s">
+    <row r="16" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="301" t="s">
+      <c r="B16" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="175"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="301" t="s">
+      <c r="B17" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C17" s="157" t="s">
@@ -2441,18 +2446,18 @@
         <f>(LN(D17/G17))/1.96</f>
         <v>1.9144184239579749</v>
       </c>
-      <c r="G17" s="258">
+      <c r="G17" s="246">
         <v>1.16729E-2</v>
       </c>
       <c r="H17" s="158">
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="299" t="s">
+      <c r="B18" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -2468,18 +2473,18 @@
       <c r="F18" s="54">
         <v>0.19653876299053855</v>
       </c>
-      <c r="G18" s="260">
+      <c r="G18" s="248">
         <v>0.19653876299053855</v>
       </c>
       <c r="H18" s="123">
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="300" t="s">
+      <c r="B19" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="133" t="s">
@@ -2495,18 +2500,18 @@
       <c r="F19" s="55">
         <v>0.12395213194407623</v>
       </c>
-      <c r="G19" s="242">
+      <c r="G19" s="230">
         <v>0.4</v>
       </c>
       <c r="H19" s="135">
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="301" t="s">
+      <c r="B20" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="133" t="s">
@@ -2523,18 +2528,18 @@
       <c r="F20" s="55">
         <v>0.43945954081632649</v>
       </c>
-      <c r="G20" s="242">
+      <c r="G20" s="230">
         <v>0.32507316464627944</v>
       </c>
       <c r="H20" s="135">
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="301" t="s">
+      <c r="B21" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C21" s="138" t="s">
@@ -2550,18 +2555,18 @@
       <c r="F21" s="56">
         <v>0.37108077380430665</v>
       </c>
-      <c r="G21" s="261">
+      <c r="G21" s="249">
         <v>0.33296150000000002</v>
       </c>
       <c r="H21" s="140">
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="299" t="s">
+      <c r="B22" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="132" t="s">
@@ -2577,18 +2582,18 @@
       <c r="F22" s="54">
         <v>0.30513433399859663</v>
       </c>
-      <c r="G22" s="260">
+      <c r="G22" s="248">
         <v>0.30513433399859663</v>
       </c>
       <c r="H22" s="123">
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="300" t="s">
+      <c r="B23" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C23" s="133" t="s">
@@ -2604,18 +2609,18 @@
       <c r="F23" s="55">
         <v>0.13556283965969668</v>
       </c>
-      <c r="G23" s="242">
+      <c r="G23" s="230">
         <v>0.46</v>
       </c>
       <c r="H23" s="135">
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C24" s="133" t="s">
@@ -2632,18 +2637,18 @@
       <c r="F24" s="55">
         <v>0.4697204948979592</v>
       </c>
-      <c r="G24" s="242">
+      <c r="G24" s="230">
         <v>0.40703217199207092</v>
       </c>
       <c r="H24" s="135">
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C25" s="133" t="s">
@@ -2659,37 +2664,49 @@
       <c r="F25" s="55">
         <v>0.3929717925727606</v>
       </c>
-      <c r="G25" s="242">
+      <c r="G25" s="230">
         <v>0.37910189999999999</v>
       </c>
       <c r="H25" s="135">
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A26" s="189" t="s">
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="294" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="299" t="s">
+      <c r="B26" s="294" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="295" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="186"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D26" s="296">
+        <v>0.49</v>
+      </c>
+      <c r="E26" s="297">
+        <f t="shared" si="7"/>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="F26" s="291">
+        <f>(LN(D26/G26))/1.96</f>
+        <v>0.20169017175721757</v>
+      </c>
+      <c r="G26" s="297">
+        <v>0.33</v>
+      </c>
+      <c r="H26" s="298">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="286" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="132" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="134">
@@ -2702,21 +2719,21 @@
       <c r="F27" s="55">
         <v>0.13820150721193863</v>
       </c>
-      <c r="G27" s="242">
+      <c r="G27" s="230">
         <v>0.45</v>
       </c>
       <c r="H27" s="135">
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="165" t="s">
+      <c r="C28" s="133" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="134">
@@ -2730,21 +2747,21 @@
       <c r="F28" s="121">
         <v>0.49017310714285722</v>
       </c>
-      <c r="G28" s="262">
+      <c r="G28" s="250">
         <v>0.37193573314376671</v>
       </c>
       <c r="H28" s="141">
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="287" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="138" t="s">
         <v>108</v>
       </c>
       <c r="D29" s="139">
@@ -2757,18 +2774,18 @@
       <c r="F29" s="56">
         <v>0.39942732138071213</v>
       </c>
-      <c r="G29" s="261">
+      <c r="G29" s="249">
         <v>0.34493279999999998</v>
       </c>
       <c r="H29" s="140">
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="299" t="s">
+      <c r="B30" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C30" s="132" t="s">
@@ -2784,18 +2801,18 @@
       <c r="F30" s="54">
         <v>0.35642682488003907</v>
       </c>
-      <c r="G30" s="260">
+      <c r="G30" s="248">
         <v>0.44</v>
       </c>
       <c r="H30" s="123">
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="300" t="s">
+      <c r="B31" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="133" t="s">
@@ -2811,38 +2828,38 @@
       <c r="F31" s="55">
         <v>0.14094560032048883</v>
       </c>
-      <c r="G31" s="242">
+      <c r="G31" s="230">
         <v>0.44</v>
       </c>
       <c r="H31" s="135">
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="202" t="s">
+    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="301" t="s">
+      <c r="B32" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="203" t="s">
+      <c r="C32" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="204"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="263">
+      <c r="D32" s="192"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="251">
         <v>0.35642682488003907</v>
       </c>
-      <c r="H32" s="206">
+      <c r="H32" s="194">
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="301" t="s">
+      <c r="B33" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="138" t="s">
@@ -2858,18 +2875,18 @@
       <c r="F33" s="56">
         <v>1.4320074807991772</v>
       </c>
-      <c r="G33" s="261">
+      <c r="G33" s="249">
         <v>1.87324E-2</v>
       </c>
       <c r="H33" s="140">
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="299" t="s">
+      <c r="B34" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -2885,18 +2902,18 @@
       <c r="F34" s="54">
         <v>9.461E-2</v>
       </c>
-      <c r="G34" s="264">
+      <c r="G34" s="252">
         <v>1.2751889962780529</v>
       </c>
       <c r="H34" s="23">
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="300" t="s">
+      <c r="B35" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -2912,18 +2929,18 @@
       <c r="F35" s="55">
         <v>0.11252182123171039</v>
       </c>
-      <c r="G35" s="265">
+      <c r="G35" s="253">
         <v>0.77</v>
       </c>
       <c r="H35" s="24">
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="301" t="s">
+      <c r="B36" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -2939,34 +2956,34 @@
       <c r="F36" s="55">
         <v>0.26924623979591833</v>
       </c>
-      <c r="G36" s="265">
+      <c r="G36" s="253">
         <v>0.57400245825357943</v>
       </c>
       <c r="H36" s="24">
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="194" t="s">
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="301" t="s">
+      <c r="B37" s="287" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="195" t="s">
+      <c r="C37" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="196"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="198"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D37" s="184"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="186"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="299" t="s">
+      <c r="B38" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -2982,18 +2999,18 @@
       <c r="F38" s="54">
         <v>9.8753000000000007E-2</v>
       </c>
-      <c r="G38" s="264">
+      <c r="G38" s="252">
         <v>1.1563264423940807</v>
       </c>
       <c r="H38" s="23">
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="22" t="s">
@@ -3009,18 +3026,18 @@
       <c r="F39" s="55">
         <v>0.12252098351162294</v>
       </c>
-      <c r="G39" s="265">
+      <c r="G39" s="253">
         <v>0.7</v>
       </c>
       <c r="H39" s="24">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="301" t="s">
+      <c r="B40" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -3036,50 +3053,50 @@
       <c r="F40" s="55">
         <v>0.29181282142857151</v>
       </c>
-      <c r="G40" s="265">
+      <c r="G40" s="253">
         <v>0.36918910372248526</v>
       </c>
       <c r="H40" s="24">
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="190" t="s">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="301" t="s">
+      <c r="B41" s="287" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="200"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="199"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="191" t="s">
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="187"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="299" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="299" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="294" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="192"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="188"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D42" s="296"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="291"/>
+      <c r="G42" s="297"/>
+      <c r="H42" s="298"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -3095,18 +3112,18 @@
       <c r="F43" s="55">
         <v>0.1169315641684552</v>
       </c>
-      <c r="G43" s="265">
+      <c r="G43" s="253">
         <v>0.66</v>
       </c>
       <c r="H43" s="24">
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="301" t="s">
+      <c r="B44" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -3122,34 +3139,34 @@
       <c r="F44" s="121">
         <v>0.29946646938775501</v>
       </c>
-      <c r="G44" s="266">
+      <c r="G44" s="254">
         <v>0.35830163194241782</v>
       </c>
       <c r="H44" s="144">
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="190" t="s">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="301" t="s">
+      <c r="B45" s="287" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="200"/>
-      <c r="G45" s="201"/>
-      <c r="H45" s="199"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D45" s="188"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="189"/>
+      <c r="H45" s="187"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="299" t="s">
+      <c r="B46" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -3165,18 +3182,18 @@
       <c r="F46" s="54">
         <v>0.10279799999999999</v>
       </c>
-      <c r="G46" s="264">
+      <c r="G46" s="252">
         <v>1.1701265671380279</v>
       </c>
       <c r="H46" s="23">
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="300" t="s">
+      <c r="B47" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3192,66 +3209,66 @@
       <c r="F47" s="55">
         <v>0.12472109076579629</v>
       </c>
-      <c r="G47" s="265">
+      <c r="G47" s="253">
         <v>0.65</v>
       </c>
       <c r="H47" s="24">
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="190" t="s">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="301" t="s">
+      <c r="B48" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="182" t="s">
+      <c r="C48" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="200"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="201"/>
-      <c r="H48" s="199"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="194" t="s">
+      <c r="D48" s="188"/>
+      <c r="E48" s="189"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="187"/>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="301" t="s">
+      <c r="B49" s="287" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="195" t="s">
+      <c r="C49" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="196"/>
-      <c r="E49" s="197"/>
-      <c r="F49" s="196"/>
-      <c r="G49" s="197"/>
-      <c r="H49" s="198"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D49" s="184"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="186"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="299" t="s">
+      <c r="B50" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="132" t="s">
         <v>144</v>
       </c>
       <c r="D50" s="124"/>
-      <c r="E50" s="260"/>
+      <c r="E50" s="248"/>
       <c r="F50" s="124"/>
-      <c r="G50" s="260"/>
+      <c r="G50" s="248"/>
       <c r="H50" s="123"/>
     </row>
-    <row r="51" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="300" t="s">
+      <c r="B51" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="133" t="s">
@@ -3260,7 +3277,7 @@
       <c r="D51" s="160">
         <v>0.49</v>
       </c>
-      <c r="E51" s="242">
+      <c r="E51" s="230">
         <f>LN(D51)</f>
         <v>-0.71334988787746478</v>
       </c>
@@ -3268,18 +3285,18 @@
         <f>(LN(D51/G51))/1.96</f>
         <v>0.14331754360530724</v>
       </c>
-      <c r="G51" s="242">
+      <c r="G51" s="230">
         <v>0.37</v>
       </c>
       <c r="H51" s="135">
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="301" t="s">
+      <c r="B52" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C52" s="133" t="s">
@@ -3288,7 +3305,7 @@
       <c r="D52" s="160">
         <v>0.85516999999999999</v>
       </c>
-      <c r="E52" s="242">
+      <c r="E52" s="230">
         <f>LN(D52)</f>
         <v>-0.15645499940016622</v>
       </c>
@@ -3296,50 +3313,50 @@
         <f>(LN(D52/G52))/1.96</f>
         <v>0.41733068873124585</v>
       </c>
-      <c r="G52" s="242">
+      <c r="G52" s="230">
         <v>0.37741000000000002</v>
       </c>
       <c r="H52" s="135">
         <v>1.9377599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="301" t="s">
+      <c r="B53" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C53" s="133" t="s">
         <v>144</v>
       </c>
       <c r="D53" s="139"/>
-      <c r="E53" s="261"/>
+      <c r="E53" s="249"/>
       <c r="F53" s="139"/>
-      <c r="G53" s="261"/>
+      <c r="G53" s="249"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="299" t="s">
+      <c r="B54" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C54" s="132" t="s">
         <v>144</v>
       </c>
       <c r="D54" s="124"/>
-      <c r="E54" s="260"/>
+      <c r="E54" s="248"/>
       <c r="F54" s="124"/>
-      <c r="G54" s="260"/>
+      <c r="G54" s="248"/>
       <c r="H54" s="123"/>
     </row>
-    <row r="55" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="300" t="s">
+      <c r="B55" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C55" s="133" t="s">
@@ -3348,7 +3365,7 @@
       <c r="D55" s="160">
         <v>0.59</v>
       </c>
-      <c r="E55" s="242">
+      <c r="E55" s="230">
         <f>LN(D55)</f>
         <v>-0.52763274208237199</v>
       </c>
@@ -3356,18 +3373,18 @@
         <f>(LN(D55/G55))/1.96</f>
         <v>0.16139659602661074</v>
       </c>
-      <c r="G55" s="242">
+      <c r="G55" s="230">
         <v>0.43</v>
       </c>
       <c r="H55" s="135">
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="301" t="s">
+      <c r="B56" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C56" s="133" t="s">
@@ -3376,7 +3393,7 @@
       <c r="D56" s="160">
         <v>1.10043</v>
       </c>
-      <c r="E56" s="242">
+      <c r="E56" s="230">
         <f>LN(D56)</f>
         <v>9.5701012510181052E-2</v>
       </c>
@@ -3384,50 +3401,50 @@
         <f>(LN(D56/G56))/1.96</f>
         <v>0.4451372250205109</v>
       </c>
-      <c r="G56" s="242">
+      <c r="G56" s="230">
         <v>0.45989000000000002</v>
       </c>
       <c r="H56" s="135">
         <v>2.63314</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="301" t="s">
+      <c r="B57" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C57" s="133" t="s">
         <v>144</v>
       </c>
       <c r="D57" s="139"/>
-      <c r="E57" s="261"/>
+      <c r="E57" s="249"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="261"/>
+      <c r="G57" s="249"/>
       <c r="H57" s="140"/>
     </row>
-    <row r="58" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="299" t="s">
+      <c r="B58" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="278"/>
-      <c r="E58" s="279"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="279"/>
-      <c r="H58" s="280"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D58" s="264"/>
+      <c r="E58" s="265"/>
+      <c r="F58" s="264"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="266"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="300" t="s">
+      <c r="B59" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C59" s="133" t="s">
@@ -3436,7 +3453,7 @@
       <c r="D59" s="160">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E59" s="242">
+      <c r="E59" s="230">
         <f>LN(D59)</f>
         <v>-0.56211891815354131</v>
       </c>
@@ -3444,27 +3461,27 @@
         <f>(LN(D59/G59))/1.96</f>
         <v>0.16810163322971544</v>
       </c>
-      <c r="G59" s="242">
+      <c r="G59" s="230">
         <v>0.41</v>
       </c>
       <c r="H59" s="135">
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="301" t="s">
+      <c r="B60" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C60" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="281">
+      <c r="D60" s="267">
         <v>1.0528500000000001</v>
       </c>
-      <c r="E60" s="242">
+      <c r="E60" s="230">
         <f>LN(D60)</f>
         <v>5.1500772862403191E-2</v>
       </c>
@@ -3472,50 +3489,50 @@
         <f>(LN(D60/G60))/1.96</f>
         <v>0.47104512346218713</v>
       </c>
-      <c r="G60" s="262">
+      <c r="G60" s="250">
         <v>0.41821999999999998</v>
       </c>
       <c r="H60" s="141">
         <v>2.65049</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="301" t="s">
+      <c r="B61" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C61" s="138" t="s">
         <v>144</v>
       </c>
       <c r="D61" s="139"/>
-      <c r="E61" s="261"/>
+      <c r="E61" s="249"/>
       <c r="F61" s="139"/>
-      <c r="G61" s="261"/>
+      <c r="G61" s="249"/>
       <c r="H61" s="140"/>
     </row>
-    <row r="62" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="299" t="s">
+      <c r="B62" s="285" t="s">
         <v>166</v>
       </c>
       <c r="C62" s="132" t="s">
         <v>144</v>
       </c>
       <c r="D62" s="124"/>
-      <c r="E62" s="260"/>
+      <c r="E62" s="248"/>
       <c r="F62" s="124"/>
-      <c r="G62" s="260"/>
+      <c r="G62" s="248"/>
       <c r="H62" s="135"/>
     </row>
-    <row r="63" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="300" t="s">
+      <c r="B63" s="286" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="133" t="s">
@@ -3524,7 +3541,7 @@
       <c r="D63" s="160">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E63" s="242">
+      <c r="E63" s="230">
         <f>LN(D63)</f>
         <v>-0.59783700075562041</v>
       </c>
@@ -3532,43 +3549,43 @@
         <f>(LN(D63/G63))/1.96</f>
         <v>0.16247639342782377</v>
       </c>
-      <c r="G63" s="242">
+      <c r="G63" s="230">
         <v>0.4</v>
       </c>
       <c r="H63" s="135">
         <v>0.76</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="301" t="s">
+      <c r="B64" s="287" t="s">
         <v>168</v>
       </c>
       <c r="C64" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="281"/>
-      <c r="E64" s="242"/>
+      <c r="D64" s="267"/>
+      <c r="E64" s="230"/>
       <c r="F64" s="160"/>
-      <c r="G64" s="262"/>
+      <c r="G64" s="250"/>
       <c r="H64" s="141"/>
     </row>
-    <row r="65" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="301" t="s">
+      <c r="B65" s="287" t="s">
         <v>169</v>
       </c>
       <c r="C65" s="138" t="s">
         <v>144</v>
       </c>
       <c r="D65" s="139"/>
-      <c r="E65" s="261"/>
+      <c r="E65" s="249"/>
       <c r="F65" s="139"/>
-      <c r="G65" s="261"/>
+      <c r="G65" s="249"/>
       <c r="H65" s="140"/>
     </row>
   </sheetData>
@@ -3583,29 +3600,29 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="25"/>
+    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3653,7 @@
       <c r="J1" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="165" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="103" t="s">
@@ -3777,7 +3794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -3944,7 +3961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -4111,7 +4128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -4295,7 +4312,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4387,7 @@
         <f t="shared" si="4"/>
         <v>-0.43039837465337627</v>
       </c>
-      <c r="I18" s="233">
+      <c r="I18" s="221">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
@@ -4378,7 +4395,7 @@
         <f t="shared" si="5"/>
         <v>0.65024999999999988</v>
       </c>
-      <c r="K18" s="230" t="s">
+      <c r="K18" s="218" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="91"/>
@@ -4416,7 +4433,7 @@
         <f t="shared" si="4"/>
         <v>-0.24512245803298521</v>
       </c>
-      <c r="I19" s="234">
+      <c r="I19" s="222">
         <f t="shared" si="5"/>
         <v>0.46</v>
       </c>
@@ -4424,7 +4441,7 @@
         <f t="shared" si="5"/>
         <v>0.78260869565217372</v>
       </c>
-      <c r="K19" s="231" t="s">
+      <c r="K19" s="219" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="64"/>
@@ -4462,7 +4479,7 @@
         <f t="shared" si="4"/>
         <v>-0.25675778794697229</v>
       </c>
-      <c r="I20" s="234">
+      <c r="I20" s="222">
         <f t="shared" si="5"/>
         <v>0.44999999999999996</v>
       </c>
@@ -4470,7 +4487,7 @@
         <f t="shared" si="5"/>
         <v>0.77355555555555555</v>
       </c>
-      <c r="K20" s="231" t="s">
+      <c r="K20" s="219" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="64"/>
@@ -4479,7 +4496,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -4508,7 +4525,7 @@
         <f t="shared" si="4"/>
         <v>-0.26847379881351402</v>
       </c>
-      <c r="I21" s="235">
+      <c r="I21" s="223">
         <f t="shared" si="5"/>
         <v>0.43999999999999995</v>
       </c>
@@ -4516,7 +4533,7 @@
         <f t="shared" si="5"/>
         <v>0.76454545454545442</v>
       </c>
-      <c r="K21" s="232" t="s">
+      <c r="K21" s="220" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="52"/>
@@ -4562,7 +4579,7 @@
         <f t="shared" ref="J22:J25" si="21">EXP(H22)</f>
         <v>1.1968831168831169</v>
       </c>
-      <c r="K22" s="230" t="s">
+      <c r="K22" s="218" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="91"/>
@@ -4608,7 +4625,7 @@
         <f t="shared" si="21"/>
         <v>1.1315714285714287</v>
       </c>
-      <c r="K23" s="231" t="s">
+      <c r="K23" s="219" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="64"/>
@@ -4654,7 +4671,7 @@
         <f t="shared" si="21"/>
         <v>1.0437878787878785</v>
       </c>
-      <c r="K24" s="231" t="s">
+      <c r="K24" s="219" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="64"/>
@@ -4663,7 +4680,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -4700,7 +4717,7 @@
         <f t="shared" si="21"/>
         <v>1.0598461538461537</v>
       </c>
-      <c r="K25" s="232" t="s">
+      <c r="K25" s="220" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="52"/>
@@ -4713,10 +4730,10 @@
       <c r="A26" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="208">
+      <c r="B26" s="196">
         <v>1.0820000000000001</v>
       </c>
-      <c r="C26" s="226">
+      <c r="C26" s="214">
         <f t="shared" si="15"/>
         <v>7.8811180424289848E-2</v>
       </c>
@@ -4738,7 +4755,7 @@
         <f t="shared" si="4"/>
         <v>0.64614807642428973</v>
       </c>
-      <c r="I26" s="215">
+      <c r="I26" s="203">
         <f t="shared" si="5"/>
         <v>0.61353024583876781</v>
       </c>
@@ -4746,7 +4763,7 @@
         <f t="shared" si="6"/>
         <v>1.9081765046472698</v>
       </c>
-      <c r="K26" s="170" t="s">
+      <c r="K26" s="168" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="80"/>
@@ -4759,10 +4776,10 @@
       <c r="A27" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="208">
+      <c r="B27" s="196">
         <v>0.57199999999999995</v>
       </c>
-      <c r="C27" s="226">
+      <c r="C27" s="214">
         <f t="shared" si="15"/>
         <v>-0.55861628760233928</v>
       </c>
@@ -4784,7 +4801,7 @@
         <f t="shared" si="4"/>
         <v>7.3646117997660743E-2</v>
       </c>
-      <c r="I27" s="215">
+      <c r="I27" s="203">
         <f t="shared" si="5"/>
         <v>0.30395406432045408</v>
       </c>
@@ -4792,7 +4809,7 @@
         <f t="shared" si="6"/>
         <v>1.0764258103653943</v>
       </c>
-      <c r="K27" s="170" t="s">
+      <c r="K27" s="168" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="80"/>
@@ -4805,11 +4822,11 @@
       <c r="A28" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="208">
+      <c r="B28" s="196">
         <f>EXP(C28)</f>
         <v>0.63698144663235268</v>
       </c>
-      <c r="C28" s="226">
+      <c r="C28" s="214">
         <v>-0.45101475000000002</v>
       </c>
       <c r="D28" s="79">
@@ -4830,7 +4847,7 @@
         <f t="shared" si="4"/>
         <v>0.19218149600000001</v>
       </c>
-      <c r="I28" s="215">
+      <c r="I28" s="203">
         <f t="shared" si="5"/>
         <v>0.33480366419406132</v>
       </c>
@@ -4838,7 +4855,7 @@
         <f t="shared" si="6"/>
         <v>1.2118904502749519</v>
       </c>
-      <c r="K28" s="170" t="s">
+      <c r="K28" s="168" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="80" t="s">
@@ -4849,14 +4866,14 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="213" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="228" t="s">
+      <c r="B29" s="201" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="216" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="83" t="s">
@@ -4874,13 +4891,13 @@
       <c r="H29" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="216" t="s">
+      <c r="I29" s="204" t="s">
         <v>49</v>
       </c>
       <c r="J29" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="168" t="s">
+      <c r="K29" s="166" t="s">
         <v>49</v>
       </c>
       <c r="L29" s="92"/>
@@ -4892,11 +4909,11 @@
       <c r="A30" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="207">
+      <c r="B30" s="195">
         <f>EXP(-0.2623643)</f>
         <v>0.7692307418980705</v>
       </c>
-      <c r="C30" s="229">
+      <c r="C30" s="217">
         <f>LN(B30)</f>
         <v>-0.26236430000000005</v>
       </c>
@@ -4918,15 +4935,15 @@
         <f t="shared" si="4"/>
         <v>0.59897639999999974</v>
       </c>
-      <c r="I30" s="217">
+      <c r="I30" s="205">
         <f>EXP(-1.123705)</f>
         <v>0.32507316464627944</v>
       </c>
-      <c r="J30" s="221">
+      <c r="J30" s="209">
         <f>EXP(H30)</f>
         <v>1.8202546338296408</v>
       </c>
-      <c r="K30" s="218" t="s">
+      <c r="K30" s="206" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="76"/>
@@ -4939,11 +4956,11 @@
       <c r="A31" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="208">
+      <c r="B31" s="196">
         <f>EXP(0.02178912)</f>
         <v>1.0220282364293534</v>
       </c>
-      <c r="C31" s="227">
+      <c r="C31" s="215">
         <f t="shared" ref="C31:C32" si="22">LN(B31)</f>
         <v>2.1789120000000013E-2</v>
       </c>
@@ -4965,15 +4982,15 @@
         <f t="shared" si="4"/>
         <v>0.94244128999999999</v>
       </c>
-      <c r="I31" s="212">
+      <c r="I31" s="200">
         <f>EXP(-0.89886305)</f>
         <v>0.40703217199207092</v>
       </c>
-      <c r="J31" s="222">
+      <c r="J31" s="210">
         <f t="shared" ref="J31:J32" si="23">EXP(H31)</f>
         <v>2.5662387101903139</v>
       </c>
-      <c r="K31" s="219" t="s">
+      <c r="K31" s="207" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="80"/>
@@ -4986,11 +5003,11 @@
       <c r="A32" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="208">
+      <c r="B32" s="196">
         <f>EXP(-0.02829491)</f>
         <v>0.9721016420290729</v>
       </c>
-      <c r="C32" s="227">
+      <c r="C32" s="215">
         <f t="shared" si="22"/>
         <v>-2.829491E-2</v>
       </c>
@@ -5012,15 +5029,15 @@
         <f t="shared" si="4"/>
         <v>0.93244438000000018</v>
       </c>
-      <c r="I32" s="212">
+      <c r="I32" s="200">
         <f>EXP(-0.9890342)</f>
         <v>0.37193573314376671</v>
       </c>
-      <c r="J32" s="222">
+      <c r="J32" s="210">
         <f t="shared" si="23"/>
         <v>2.5407120591727339</v>
       </c>
-      <c r="K32" s="219" t="s">
+      <c r="K32" s="207" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="80"/>
@@ -5029,14 +5046,14 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="228" t="s">
+      <c r="C33" s="216" t="s">
         <v>115</v>
       </c>
       <c r="D33" s="84" t="s">
@@ -5054,13 +5071,13 @@
       <c r="H33" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="211" t="s">
+      <c r="I33" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="223" t="s">
+      <c r="J33" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="K33" s="220" t="s">
+      <c r="K33" s="208" t="s">
         <v>115</v>
       </c>
       <c r="L33" s="85"/>
@@ -5072,11 +5089,11 @@
       <c r="A34" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="207">
+      <c r="B34" s="195">
         <f>EXP(-0.02739897)</f>
         <v>0.97297297704789509</v>
       </c>
-      <c r="C34" s="225">
+      <c r="C34" s="213">
         <f>LN(B34)</f>
         <v>-2.739897000000005E-2</v>
       </c>
@@ -5098,7 +5115,7 @@
         <f t="shared" si="4"/>
         <v>0.50032365999999995</v>
       </c>
-      <c r="I34" s="214">
+      <c r="I34" s="202">
         <f>EXP(-0.5551216)</f>
         <v>0.57400245825357943</v>
       </c>
@@ -5106,7 +5123,7 @@
         <f>EXP(H34)</f>
         <v>1.6492549821924745</v>
       </c>
-      <c r="K34" s="169" t="s">
+      <c r="K34" s="167" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="76"/>
@@ -5119,11 +5136,11 @@
       <c r="A35" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="208">
+      <c r="B35" s="196">
         <f>EXP(-0.42449316)</f>
         <v>0.65410122579434049</v>
       </c>
-      <c r="C35" s="226">
+      <c r="C35" s="214">
         <f t="shared" ref="C35:C36" si="24">LN(B35)</f>
         <v>-0.42449315999999992</v>
       </c>
@@ -5145,15 +5162,15 @@
         <f t="shared" si="4"/>
         <v>0.14745997000000022</v>
       </c>
-      <c r="I35" s="215">
+      <c r="I35" s="203">
         <f>EXP(-0.99644629)</f>
         <v>0.36918910372248526</v>
       </c>
-      <c r="J35" s="224">
+      <c r="J35" s="212">
         <f t="shared" ref="J35:J36" si="25">EXP(H35)</f>
         <v>1.158886893658885</v>
       </c>
-      <c r="K35" s="170" t="s">
+      <c r="K35" s="168" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="80"/>
@@ -5166,11 +5183,11 @@
       <c r="A36" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="208">
+      <c r="B36" s="196">
         <f>EXP(-0.43942582)</f>
         <v>0.64440632009954502</v>
       </c>
-      <c r="C36" s="226">
+      <c r="C36" s="214">
         <f t="shared" si="24"/>
         <v>-0.43942582000000008</v>
       </c>
@@ -5192,15 +5209,15 @@
         <f t="shared" si="4"/>
         <v>0.14752845999999975</v>
       </c>
-      <c r="I36" s="215">
+      <c r="I36" s="203">
         <f>EXP(-1.0263801)</f>
         <v>0.35830163194241782</v>
       </c>
-      <c r="J36" s="224">
+      <c r="J36" s="212">
         <f t="shared" si="25"/>
         <v>1.158966268540393</v>
       </c>
-      <c r="K36" s="170" t="s">
+      <c r="K36" s="168" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="80"/>
@@ -5209,14 +5226,14 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="228" t="s">
+      <c r="C37" s="216" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="84" t="s">
@@ -5234,13 +5251,13 @@
       <c r="H37" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="216" t="s">
+      <c r="I37" s="204" t="s">
         <v>115</v>
       </c>
       <c r="J37" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="168" t="s">
+      <c r="K37" s="166" t="s">
         <v>115</v>
       </c>
       <c r="L37" s="85"/>
@@ -5248,7 +5265,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="s">
         <v>62</v>
       </c>
@@ -5285,14 +5302,14 @@
         <f t="shared" si="6"/>
         <v>4.5895786326888519</v>
       </c>
-      <c r="K38" s="171"/>
+      <c r="K38" s="169"/>
       <c r="L38" s="96"/>
       <c r="M38" s="54">
         <f t="shared" si="16"/>
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="97" t="s">
         <v>63</v>
       </c>
@@ -5329,14 +5346,14 @@
         <f t="shared" si="6"/>
         <v>3.6779637504798508</v>
       </c>
-      <c r="K39" s="172"/>
+      <c r="K39" s="170"/>
       <c r="L39" s="88"/>
       <c r="M39" s="55">
         <f t="shared" si="16"/>
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>64</v>
       </c>
@@ -5373,14 +5390,14 @@
         <f t="shared" si="6"/>
         <v>3.9527010660637232</v>
       </c>
-      <c r="K40" s="172"/>
+      <c r="K40" s="170"/>
       <c r="L40" s="88"/>
       <c r="M40" s="55">
         <f t="shared" si="16"/>
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -5417,14 +5434,14 @@
         <f t="shared" si="6"/>
         <v>21.200713966774323</v>
       </c>
-      <c r="K41" s="173"/>
+      <c r="K41" s="171"/>
       <c r="L41" s="101"/>
       <c r="M41" s="56">
         <f t="shared" si="16"/>
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="s">
         <v>83</v>
       </c>
@@ -5453,22 +5470,22 @@
         <f t="shared" ref="H42:H45" si="28">C42+F42</f>
         <v>0.35490822201157274</v>
       </c>
-      <c r="I42" s="233">
+      <c r="I42" s="221">
         <f t="shared" ref="I42:I43" si="29">EXP(G42)</f>
         <v>0.33296150000000002</v>
       </c>
-      <c r="J42" s="239">
+      <c r="J42" s="227">
         <f t="shared" ref="J42:J43" si="30">EXP(H42)</f>
         <v>1.4260497682962143</v>
       </c>
-      <c r="K42" s="236"/>
+      <c r="K42" s="224"/>
       <c r="L42" s="96"/>
       <c r="M42" s="54">
         <f t="shared" si="16"/>
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="97" t="s">
         <v>84</v>
       </c>
@@ -5497,22 +5514,22 @@
         <f t="shared" si="28"/>
         <v>0.5704991822830332</v>
       </c>
-      <c r="I43" s="234">
+      <c r="I43" s="222">
         <f t="shared" si="29"/>
         <v>0.37910189999999999</v>
       </c>
-      <c r="J43" s="240">
+      <c r="J43" s="228">
         <f t="shared" si="30"/>
         <v>1.769149959365147</v>
       </c>
-      <c r="K43" s="237"/>
+      <c r="K43" s="225"/>
       <c r="L43" s="88"/>
       <c r="M43" s="55">
         <f t="shared" si="16"/>
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="97" t="s">
         <v>85</v>
       </c>
@@ -5541,22 +5558,22 @@
         <f t="shared" si="28"/>
         <v>0.50134943628032236</v>
       </c>
-      <c r="I44" s="234">
+      <c r="I44" s="222">
         <f t="shared" ref="I44:I45" si="31">EXP(G44)</f>
         <v>0.34493279999999998</v>
       </c>
-      <c r="J44" s="240">
+      <c r="J44" s="228">
         <f t="shared" ref="J44:J45" si="32">EXP(H44)</f>
         <v>1.6509476168172175</v>
       </c>
-      <c r="K44" s="237"/>
+      <c r="K44" s="225"/>
       <c r="L44" s="88"/>
       <c r="M44" s="55">
         <f t="shared" si="16"/>
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -5585,122 +5602,122 @@
         <f t="shared" si="28"/>
         <v>1.6359686906769559</v>
       </c>
-      <c r="I45" s="235">
+      <c r="I45" s="223">
         <f t="shared" si="31"/>
         <v>1.87324E-2</v>
       </c>
-      <c r="J45" s="241">
+      <c r="J45" s="229">
         <f t="shared" si="32"/>
         <v>5.1344292625872816</v>
       </c>
-      <c r="K45" s="238"/>
+      <c r="K45" s="226"/>
       <c r="L45" s="101"/>
       <c r="M45" s="56">
         <f t="shared" si="16"/>
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="97" t="s">
         <v>99</v>
       </c>
       <c r="B46" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="210"/>
+      <c r="C46" s="198"/>
       <c r="D46" s="87">
         <v>1.96</v>
       </c>
-      <c r="E46" s="210"/>
-      <c r="F46" s="210"/>
-      <c r="G46" s="250"/>
-      <c r="H46" s="250"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="238"/>
+      <c r="H46" s="238"/>
       <c r="I46" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="252"/>
-      <c r="K46" s="186"/>
-      <c r="L46" s="253"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="241"/>
       <c r="M46" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="97" t="s">
         <v>100</v>
       </c>
       <c r="B47" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="210"/>
+      <c r="C47" s="198"/>
       <c r="D47" s="87">
         <v>1.96</v>
       </c>
-      <c r="E47" s="210"/>
-      <c r="F47" s="210"/>
-      <c r="G47" s="250"/>
-      <c r="H47" s="250"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="238"/>
+      <c r="H47" s="238"/>
       <c r="I47" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="252"/>
-      <c r="K47" s="200"/>
-      <c r="L47" s="254"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="188"/>
+      <c r="L47" s="242"/>
       <c r="M47" s="55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>101</v>
       </c>
       <c r="B48" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="210"/>
+      <c r="C48" s="198"/>
       <c r="D48" s="87">
         <v>1.96</v>
       </c>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="250"/>
-      <c r="H48" s="250"/>
+      <c r="E48" s="198"/>
+      <c r="F48" s="198"/>
+      <c r="G48" s="238"/>
+      <c r="H48" s="238"/>
       <c r="I48" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="252"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="254"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="242"/>
       <c r="M48" s="55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="209"/>
+      <c r="C49" s="197"/>
       <c r="D49" s="100">
         <v>1.96</v>
       </c>
-      <c r="E49" s="209"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="251"/>
-      <c r="H49" s="251"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="239"/>
+      <c r="H49" s="239"/>
       <c r="I49" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="255"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="256"/>
+      <c r="J49" s="243"/>
+      <c r="K49" s="184"/>
+      <c r="L49" s="244"/>
       <c r="M49" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -5717,7 +5734,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -5763,16 +5780,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +5815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5824,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5850,7 +5867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5876,7 +5893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5902,7 +5919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -5928,7 +5945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5954,7 +5971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5980,7 +5997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -6006,7 +6023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6042,434 +6059,434 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="267"/>
-    <col min="5" max="5" width="12.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="286"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="255"/>
+    <col min="5" max="5" width="12.28515625" style="255" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="272"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="274" t="s">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="274" t="s">
+      <c r="B1" s="260" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="284" t="s">
+      <c r="D1" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="283" t="s">
+      <c r="E1" s="269" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="282" t="s">
+      <c r="F1" s="268" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="275" t="s">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="261" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="282" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="287" t="s">
+      <c r="C2" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="288" t="s">
+      <c r="D2" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="293" t="s">
+      <c r="E2" s="279" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="268" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="276" t="s">
+      <c r="F2" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="283" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="289" t="s">
+      <c r="C3" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="290" t="s">
+      <c r="D3" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="289" t="s">
+      <c r="F3" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="276" t="s">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="283" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="290" t="s">
+      <c r="D4" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="289" t="s">
+      <c r="F4" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="277" t="s">
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="298" t="s">
+      <c r="B5" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="277" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="278" t="s">
         <v>141</v>
       </c>
       <c r="E5" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="285" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="275" t="s">
+      <c r="F5" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="261" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="287" t="s">
+      <c r="C6" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="288" t="s">
+      <c r="D6" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="293" t="s">
+      <c r="E6" s="279" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="268" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="276" t="s">
+      <c r="F6" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="297" t="s">
+      <c r="B7" s="283" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="289" t="s">
+      <c r="C7" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="290" t="s">
+      <c r="D7" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="294" t="s">
+      <c r="E7" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="289" t="s">
+      <c r="F7" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="276" t="s">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" s="283" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="289" t="s">
+      <c r="C8" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="290" t="s">
+      <c r="D8" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="294" t="s">
+      <c r="E8" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="289" t="s">
+      <c r="F8" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="277" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="263" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="298" t="s">
+      <c r="B9" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="277" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="292" t="s">
+      <c r="D9" s="278" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="285" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="F9" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="261" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="296" t="s">
+      <c r="B10" s="282" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="268" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="269" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="270" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="268" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="276" t="s">
+      <c r="C10" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="259" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="262" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="297" t="s">
+      <c r="B11" s="283" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="289" t="s">
+      <c r="C11" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="290" t="s">
+      <c r="D11" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="294" t="s">
+      <c r="E11" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="289" t="s">
+      <c r="F11" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="276" t="s">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="262" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="297" t="s">
+      <c r="B12" s="283" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="289" t="s">
+      <c r="C12" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="290" t="s">
+      <c r="D12" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="294" t="s">
+      <c r="E12" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="289" t="s">
+      <c r="F12" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="277" t="s">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="263" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="284" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="291" t="s">
+      <c r="C13" s="277" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="292" t="s">
+      <c r="D13" s="278" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="295" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="285" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="275" t="s">
+      <c r="E13" s="281" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="261" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="282" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="287" t="s">
+      <c r="C14" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="288" t="s">
+      <c r="D14" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="293" t="s">
+      <c r="E14" s="279" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="268" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="F14" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="262" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="297" t="s">
+      <c r="B15" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="289" t="s">
+      <c r="C15" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="290" t="s">
+      <c r="D15" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="294" t="s">
+      <c r="E15" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="276" t="s">
+      <c r="F15" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="262" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="297" t="s">
+      <c r="B16" s="283" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="271" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="272" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="273" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="277" t="s">
+      <c r="C16" s="257" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="258" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="259" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="263" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="298" t="s">
+      <c r="B17" s="284" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="291" t="s">
+      <c r="C17" s="277" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="292" t="s">
+      <c r="D17" s="278" t="s">
         <v>141</v>
       </c>
       <c r="E17" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="285" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="276" t="s">
+      <c r="F17" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="297" t="s">
+      <c r="B18" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="289" t="s">
+      <c r="C18" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="290" t="s">
+      <c r="D18" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="294" t="s">
+      <c r="E18" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="276" t="s">
+      <c r="F18" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="297" t="s">
+      <c r="B19" s="283" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="289" t="s">
+      <c r="C19" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="290" t="s">
+      <c r="D19" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="294" t="s">
+      <c r="E19" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="276" t="s">
+      <c r="F19" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="297" t="s">
+      <c r="B20" s="283" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="289" t="s">
+      <c r="C20" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="290" t="s">
+      <c r="D20" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="294" t="s">
+      <c r="E20" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="277" t="s">
+      <c r="F20" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="298" t="s">
+      <c r="B21" s="284" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="291" t="s">
+      <c r="C21" s="277" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="292" t="s">
+      <c r="D21" s="278" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="285" t="s">
+      <c r="F21" s="271" t="s">
         <v>49</v>
       </c>
     </row>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
     <sheet name="Interval_OR" sheetId="10" r:id="rId2"/>
-    <sheet name="base_Antiga" sheetId="9" r:id="rId3"/>
-    <sheet name="esquema" sheetId="11" r:id="rId4"/>
+    <sheet name="base_dades_PVD" sheetId="12" r:id="rId3"/>
+    <sheet name="base_dades_IHD" sheetId="15" r:id="rId4"/>
+    <sheet name="base_dades_TIA" sheetId="17" r:id="rId5"/>
+    <sheet name="esquema" sheetId="11" r:id="rId6"/>
+    <sheet name="base_Antiga" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$C$49</definedName>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="172">
   <si>
     <t>camp</t>
   </si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>camp2</t>
+  </si>
+  <si>
+    <t>0.26</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1691,6 +1697,124 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1970,7 +2094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1980,11 +2104,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,7 +3725,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5774,6 +5898,2505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="318" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="318" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="320" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="319" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="300" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="300" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="325">
+        <v>1.47</v>
+      </c>
+      <c r="E2" s="303">
+        <f t="shared" ref="E2" si="0">LN(D2)</f>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="F2" s="302">
+        <f>(LN(D2/G2))/1.96</f>
+        <v>0.13874169157328653</v>
+      </c>
+      <c r="G2" s="326">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H2" s="303">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="305" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="305" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="327">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E3" s="308">
+        <f t="shared" ref="E3:E5" si="1">LN(D3)</f>
+        <v>0.77932487680099771</v>
+      </c>
+      <c r="F3" s="307">
+        <f t="shared" ref="F3:F5" si="2">(LN(D3/G3))/1.96</f>
+        <v>0.17073421200997554</v>
+      </c>
+      <c r="G3" s="126">
+        <v>1.56</v>
+      </c>
+      <c r="H3" s="308">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="310" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="305" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="327">
+        <v>0.45299</v>
+      </c>
+      <c r="E4" s="308">
+        <f t="shared" si="1"/>
+        <v>-0.79188522879794832</v>
+      </c>
+      <c r="F4" s="307">
+        <f t="shared" si="2"/>
+        <v>1.0616045140928874</v>
+      </c>
+      <c r="G4" s="126">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="H4" s="308">
+        <v>3.6287600000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="311" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="324" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="336"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="129"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="300" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="300" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="325">
+        <v>1.26</v>
+      </c>
+      <c r="E6" s="303">
+        <f t="shared" ref="E6" si="3">LN(D6)</f>
+        <v>0.23111172096338664</v>
+      </c>
+      <c r="F6" s="302">
+        <f t="shared" ref="F6" si="4">(LN(D6/G6))/1.96</f>
+        <v>0.14408419150558024</v>
+      </c>
+      <c r="G6" s="326">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="303">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="305" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="327">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="308">
+        <f t="shared" ref="E7:E9" si="5">LN(D7)</f>
+        <v>0.47000362924573563</v>
+      </c>
+      <c r="F7" s="307">
+        <f t="shared" ref="F7:F9" si="6">(LN(D7/G7))/1.96</f>
+        <v>0.17744183495994209</v>
+      </c>
+      <c r="G7" s="126">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H7" s="308">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="310" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="327">
+        <v>0.24113000000000001</v>
+      </c>
+      <c r="E8" s="308">
+        <f t="shared" si="5"/>
+        <v>-1.4224190718385232</v>
+      </c>
+      <c r="F8" s="307">
+        <f t="shared" si="6"/>
+        <v>1.0827484148566267</v>
+      </c>
+      <c r="G8" s="126">
+        <v>2.8879999999999999E-2</v>
+      </c>
+      <c r="H8" s="308">
+        <v>2.0135800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="311" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="324" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="336"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="129"/>
+    </row>
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="321" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="322" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="321" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="325">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E10" s="303">
+        <f t="shared" ref="E10" si="7">LN(D10)</f>
+        <v>0.131028262406404</v>
+      </c>
+      <c r="F10" s="302">
+        <f t="shared" ref="F10" si="8">(LN(D10/G10))/1.96</f>
+        <v>0.14976897546131579</v>
+      </c>
+      <c r="G10" s="326">
+        <v>0.85</v>
+      </c>
+      <c r="H10" s="303">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="305" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="327">
+        <v>1.39</v>
+      </c>
+      <c r="E11" s="308">
+        <f t="shared" ref="E11:E13" si="9">LN(D11)</f>
+        <v>0.3293037471426003</v>
+      </c>
+      <c r="F11" s="307">
+        <f t="shared" ref="F11:F13" si="10">(LN(D11/G11))/1.96</f>
+        <v>0.18355252787107601</v>
+      </c>
+      <c r="G11" s="126">
+        <v>0.97</v>
+      </c>
+      <c r="H11" s="308">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="310" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="327">
+        <v>0.27688000000000001</v>
+      </c>
+      <c r="E12" s="308">
+        <f t="shared" si="9"/>
+        <v>-1.2841710796550483</v>
+      </c>
+      <c r="F12" s="307">
+        <f t="shared" si="10"/>
+        <v>1.0925619687968515</v>
+      </c>
+      <c r="G12" s="126">
+        <v>3.2530000000000003E-2</v>
+      </c>
+      <c r="H12" s="308">
+        <v>2.3532899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="311" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="324" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="336"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="337"/>
+      <c r="H13" s="129"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="300" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="330">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="303">
+        <f t="shared" ref="E14" si="11">LN(D14)</f>
+        <v>-1.5141277326297755</v>
+      </c>
+      <c r="F14" s="302">
+        <v>0.12395213194407623</v>
+      </c>
+      <c r="G14" s="326">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="303">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="305" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="331">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E15" s="308">
+        <f t="shared" ref="E15:E17" si="12">LN(D15)</f>
+        <v>-0.59783700075562041</v>
+      </c>
+      <c r="F15" s="307">
+        <v>0.12395213194407623</v>
+      </c>
+      <c r="G15" s="126">
+        <v>0.38</v>
+      </c>
+      <c r="H15" s="308">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="310" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="196"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="340"/>
+      <c r="H16" s="128"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="311" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="201"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="337"/>
+      <c r="H17" s="129"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="300" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="330" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="303" t="e">
+        <f t="shared" ref="E18" si="13">LN(D18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="302">
+        <v>0.13556283965969668</v>
+      </c>
+      <c r="G18" s="326">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="303">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="305" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="331">
+        <v>0.64</v>
+      </c>
+      <c r="E19" s="308">
+        <f t="shared" ref="E19:E21" si="14">LN(D19)</f>
+        <v>-0.44628710262841947</v>
+      </c>
+      <c r="F19" s="307">
+        <v>0.13556283965969668</v>
+      </c>
+      <c r="G19" s="126">
+        <v>0.43</v>
+      </c>
+      <c r="H19" s="308">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="310" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="331">
+        <v>1.1830099999999999</v>
+      </c>
+      <c r="E20" s="308">
+        <f t="shared" si="14"/>
+        <v>0.16806203804589867</v>
+      </c>
+      <c r="F20" s="307">
+        <v>0.13556283965969668</v>
+      </c>
+      <c r="G20" s="126">
+        <v>0.14549000000000001</v>
+      </c>
+      <c r="H20" s="308">
+        <v>9.6190099999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="311" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="201"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="337"/>
+      <c r="H21" s="129"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="300" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="330">
+        <v>0.32</v>
+      </c>
+      <c r="E22" s="303">
+        <f t="shared" ref="E22" si="15">LN(D22)</f>
+        <v>-1.1394342831883648</v>
+      </c>
+      <c r="F22" s="302">
+        <v>0.13820150721193863</v>
+      </c>
+      <c r="G22" s="326">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H22" s="303">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="305" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="331">
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="308">
+        <f t="shared" ref="E23:E25" si="16">LN(D23)</f>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="F23" s="307">
+        <v>0.13820150721193863</v>
+      </c>
+      <c r="G23" s="126">
+        <v>0.43</v>
+      </c>
+      <c r="H23" s="308">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="310" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="331">
+        <v>1.7105399999999999</v>
+      </c>
+      <c r="E24" s="308">
+        <f t="shared" si="16"/>
+        <v>0.53680911013725152</v>
+      </c>
+      <c r="F24" s="307">
+        <v>0.13820150721193863</v>
+      </c>
+      <c r="G24" s="126">
+        <v>0.19423000000000001</v>
+      </c>
+      <c r="H24" s="308">
+        <v>15.063940000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="311" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="201"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="337"/>
+      <c r="H25" s="129"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="300" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="333"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="334"/>
+      <c r="H26" s="127"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="305" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="327">
+        <v>0.42</v>
+      </c>
+      <c r="E27" s="308">
+        <f t="shared" ref="E27:E29" si="17">LN(D27)</f>
+        <v>-0.86750056770472306</v>
+      </c>
+      <c r="F27" s="307">
+        <f t="shared" ref="F27:F29" si="18">(LN(D27/G27))/1.96</f>
+        <v>0.24468014299075824</v>
+      </c>
+      <c r="G27" s="126">
+        <v>0.26</v>
+      </c>
+      <c r="H27" s="308">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="310" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="339"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="340"/>
+      <c r="H28" s="128"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="311" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="324" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="336"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="337"/>
+      <c r="H29" s="129"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="300" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="333"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="334"/>
+      <c r="H30" s="335"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="305" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="327">
+        <v>0.49</v>
+      </c>
+      <c r="E31" s="308">
+        <f t="shared" ref="E31:E33" si="19">LN(D31)</f>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="F31" s="307">
+        <f t="shared" ref="F31:F33" si="20">(LN(D31/G31))/1.96</f>
+        <v>0.26761452455313911</v>
+      </c>
+      <c r="G31" s="126">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H31" s="309">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="310" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="339"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="340"/>
+      <c r="H32" s="341"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="311" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="324" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="336"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="337"/>
+      <c r="H33" s="338"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="300" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="333"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="335"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="327">
+        <v>0.49</v>
+      </c>
+      <c r="E35" s="308">
+        <f t="shared" ref="E35:E37" si="21">LN(D35)</f>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="F35" s="307">
+        <f t="shared" ref="F35:F37" si="22">(LN(D35/G35))/1.96</f>
+        <v>0.26761452455313911</v>
+      </c>
+      <c r="G35" s="126">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H35" s="309">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="310" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="339"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="340"/>
+      <c r="H36" s="341"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="311" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="324" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="336"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="337"/>
+      <c r="H37" s="338"/>
+    </row>
+    <row r="49" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="318" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="318" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="320" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="319" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="300" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="300" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="325">
+        <v>1.47</v>
+      </c>
+      <c r="E2" s="303">
+        <f t="shared" ref="E2:E4" si="0">LN(D2)</f>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="F2" s="302">
+        <f>(LN(D2/G2))/1.96</f>
+        <v>0.13874169157328653</v>
+      </c>
+      <c r="G2" s="326">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H2" s="303">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="305" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="305" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="327"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="307"/>
+      <c r="H3" s="308"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="310" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="305" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="327"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="307"/>
+      <c r="H4" s="308"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="311" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="324" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="328"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="313"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="300" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="300" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="325"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="303"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="305" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="327"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="307"/>
+      <c r="H7" s="308"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="310" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="327"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="307"/>
+      <c r="H8" s="308"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="311" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="324" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="328"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="313"/>
+    </row>
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="321" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="322" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="321" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="325"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="326"/>
+      <c r="H10" s="303"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="305" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="327"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="307"/>
+      <c r="H11" s="308"/>
+    </row>
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="310" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="327"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="308"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="311" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="324" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="328"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="313"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="300" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="330"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="303"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="305" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="331"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="307"/>
+      <c r="H15" s="308"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="310" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="331"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="307"/>
+      <c r="H16" s="308"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="311" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="332"/>
+      <c r="E17" s="313"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="313"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="300" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="330"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="326"/>
+      <c r="H18" s="303"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="305" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="331"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="307"/>
+      <c r="H19" s="308"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="310" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="331"/>
+      <c r="E20" s="308"/>
+      <c r="F20" s="307"/>
+      <c r="H20" s="308"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="311" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="332"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="312"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="313"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="300" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="330"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="326"/>
+      <c r="H22" s="303"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="305" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="331"/>
+      <c r="E23" s="308"/>
+      <c r="F23" s="307"/>
+      <c r="H23" s="308"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="310" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="331"/>
+      <c r="E24" s="308"/>
+      <c r="F24" s="307"/>
+      <c r="H24" s="308"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="311" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="332"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="312"/>
+      <c r="G25" s="329"/>
+      <c r="H25" s="313"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="300" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="325"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="326"/>
+      <c r="H26" s="303"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="305" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="327"/>
+      <c r="E27" s="308"/>
+      <c r="F27" s="307"/>
+      <c r="H27" s="308"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="310" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="327"/>
+      <c r="E28" s="308"/>
+      <c r="F28" s="307"/>
+      <c r="H28" s="308"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="311" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="324" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="328"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="329"/>
+      <c r="H29" s="313"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="300" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="325"/>
+      <c r="E30" s="303"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="326"/>
+      <c r="H30" s="304"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="305" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="327"/>
+      <c r="E31" s="308"/>
+      <c r="F31" s="307"/>
+      <c r="H31" s="309"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="310" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="327"/>
+      <c r="E32" s="308"/>
+      <c r="F32" s="307"/>
+      <c r="H32" s="309"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="311" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="324" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="328"/>
+      <c r="E33" s="313"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="329"/>
+      <c r="H33" s="314"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="300" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="325"/>
+      <c r="E34" s="303"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="326"/>
+      <c r="H34" s="304"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="327"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="307"/>
+      <c r="H35" s="309"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="310" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="327"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="307"/>
+      <c r="H36" s="309"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="311" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="324" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="328"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="329"/>
+      <c r="H37" s="314"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="318" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="318" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="320" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="319" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="300" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="300" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="325">
+        <v>1.47</v>
+      </c>
+      <c r="E2" s="303">
+        <f t="shared" ref="E2:E4" si="0">LN(D2)</f>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="F2" s="302">
+        <f>(LN(D2/G2))/1.96</f>
+        <v>0.13874169157328653</v>
+      </c>
+      <c r="G2" s="326">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H2" s="303">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="305" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="305"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="307"/>
+      <c r="H3" s="308"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="310" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="305"/>
+      <c r="D4" s="327"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="307"/>
+      <c r="H4" s="308"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="311" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="324"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="313"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="300" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="300"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="303"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="305" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="305"/>
+      <c r="D7" s="327"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="307"/>
+      <c r="H7" s="308"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="310" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="305"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="307"/>
+      <c r="H8" s="308"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="311" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="324"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="313"/>
+    </row>
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="321" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="322" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="321"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="326"/>
+      <c r="H10" s="303"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="305" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="305"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="307"/>
+      <c r="H11" s="308"/>
+    </row>
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="310" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="305"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="308"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="311" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="324"/>
+      <c r="D13" s="328"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="313"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="300" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="300"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="303"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="305" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="305"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="307"/>
+      <c r="H15" s="308"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="310" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="305"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="307"/>
+      <c r="H16" s="308"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="311" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="324"/>
+      <c r="D17" s="332"/>
+      <c r="E17" s="313"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="313"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="300" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="300"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="326"/>
+      <c r="H18" s="303"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="305" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="305"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="307"/>
+      <c r="H19" s="308"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="310" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="305"/>
+      <c r="D20" s="331"/>
+      <c r="E20" s="308"/>
+      <c r="F20" s="307"/>
+      <c r="H20" s="308"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="311" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="324"/>
+      <c r="D21" s="332"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="312"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="313"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="300" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="300"/>
+      <c r="D22" s="330"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="326"/>
+      <c r="H22" s="303"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="305" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="305"/>
+      <c r="D23" s="331"/>
+      <c r="E23" s="308"/>
+      <c r="F23" s="307"/>
+      <c r="H23" s="308"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="310" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="305"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="308"/>
+      <c r="F24" s="307"/>
+      <c r="H24" s="308"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="311" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="324"/>
+      <c r="D25" s="332"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="312"/>
+      <c r="G25" s="329"/>
+      <c r="H25" s="313"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="300" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="300"/>
+      <c r="D26" s="325"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="326"/>
+      <c r="H26" s="303"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="305" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="305"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="308"/>
+      <c r="F27" s="307"/>
+      <c r="H27" s="308"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="310" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="305"/>
+      <c r="D28" s="327"/>
+      <c r="E28" s="308"/>
+      <c r="F28" s="307"/>
+      <c r="H28" s="308"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="311" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="324"/>
+      <c r="D29" s="328"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="329"/>
+      <c r="H29" s="313"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="300" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="300"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="303"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="326"/>
+      <c r="H30" s="304"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="305" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="305"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="308"/>
+      <c r="F31" s="307"/>
+      <c r="H31" s="309"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="310" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="305"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="308"/>
+      <c r="F32" s="307"/>
+      <c r="H32" s="309"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="311" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="324"/>
+      <c r="D33" s="328"/>
+      <c r="E33" s="313"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="329"/>
+      <c r="H33" s="314"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="300" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="301" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="300"/>
+      <c r="D34" s="325"/>
+      <c r="E34" s="303"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="326"/>
+      <c r="H34" s="304"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="305"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="307"/>
+      <c r="H35" s="309"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="310" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="305"/>
+      <c r="D36" s="327"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="307"/>
+      <c r="H36" s="309"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="311" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="316" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="324"/>
+      <c r="D37" s="328"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="329"/>
+      <c r="H37" s="314"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="255"/>
+    <col min="5" max="5" width="12.28515625" style="255" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="272"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="260" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="260" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="269" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="270" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="269" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="268" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="261" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="282" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="273" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="279" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="283" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="283" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="263" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="284" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="282" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="273" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="279" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="262" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="283" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="262" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="283" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="263" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="284" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="261" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="282" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="259" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="262" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="283" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="262" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="283" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="263" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="284" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="281" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="261" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="282" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="273" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="279" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="256" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="262" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="283" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="262" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="283" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="257" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="258" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="259" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="263" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="284" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="262" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="283" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="262" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="283" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="262" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="283" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="257" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="263" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="284" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6052,446 +8675,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="255"/>
-    <col min="5" max="5" width="12.28515625" style="255" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="272"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="260" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="260" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="269" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="270" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="269" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="268" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="282" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="273" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="274" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="279" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="256" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="262" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="283" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="262" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="283" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="263" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="284" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="278" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="261" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="282" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="273" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="274" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="279" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="256" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="262" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="283" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="262" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="283" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="263" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="284" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="278" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="261" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="282" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="259" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="256" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="262" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="283" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="262" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="283" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="263" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="284" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="278" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="281" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="261" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="282" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="273" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="274" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="279" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="256" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="262" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="283" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="257" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="262" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="283" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="257" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="258" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="259" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="257" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="263" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="284" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="278" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="262" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="283" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="257" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="262" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="283" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="257" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="262" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="283" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="257" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="263" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="284" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="278" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="172">
   <si>
     <t>camp</t>
   </si>
@@ -538,7 +538,7 @@
     <t>camp2</t>
   </si>
   <si>
-    <t>0.26</t>
+    <t>CORRECCIO</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +639,26 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -898,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1699,124 +1719,324 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,7 +2314,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2108,7 +2328,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD15"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2560,7 @@
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
@@ -2368,7 +2588,7 @@
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="289" t="s">
         <v>52</v>
       </c>
@@ -2396,7 +2616,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
@@ -2713,7 +2933,7 @@
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
@@ -2740,7 +2960,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
@@ -2768,7 +2988,7 @@
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
@@ -2795,7 +3015,7 @@
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="294" t="s">
         <v>73</v>
       </c>
@@ -2823,7 +3043,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
@@ -5209,7 +5429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
         <v>95</v>
       </c>
@@ -5256,7 +5476,7 @@
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>96</v>
       </c>
@@ -5303,7 +5523,7 @@
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>97</v>
       </c>
@@ -5898,1492 +6118,2140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="1" max="1" width="42" style="126" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" style="126" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="5" max="5" width="8.85546875" style="308" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="317" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="318" t="s">
+      <c r="B1" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="318" t="s">
+      <c r="C1" s="313" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="323" t="s">
+      <c r="D1" s="375" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="320" t="s">
+      <c r="E1" s="379" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="319" t="s">
+      <c r="F1" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="320" t="s">
+      <c r="H1" s="380" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300" t="s">
+      <c r="I1" s="376" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="333" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="325">
+      <c r="D2" s="334">
         <v>1.47</v>
       </c>
-      <c r="E2" s="303">
-        <f t="shared" ref="E2" si="0">LN(D2)</f>
+      <c r="E2" s="339">
+        <f t="shared" ref="E2:E35" si="0">LN(D2)</f>
         <v>0.38526240079064489</v>
       </c>
-      <c r="F2" s="302">
+      <c r="F2" s="339">
         <f>(LN(D2/G2))/1.96</f>
         <v>0.13874169157328653</v>
       </c>
-      <c r="G2" s="326">
+      <c r="G2" s="381">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H2" s="303">
+      <c r="H2" s="382">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="305" t="s">
+      <c r="I2" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="336" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="305" t="s">
+      <c r="C3" s="337" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="327">
+      <c r="D3" s="338">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E3" s="308">
-        <f t="shared" ref="E3:E5" si="1">LN(D3)</f>
+      <c r="E3" s="339">
+        <f t="shared" si="0"/>
         <v>0.77932487680099771</v>
       </c>
-      <c r="F3" s="307">
-        <f t="shared" ref="F3:F5" si="2">(LN(D3/G3))/1.96</f>
+      <c r="F3" s="339">
+        <f t="shared" ref="F3:F35" si="1">(LN(D3/G3))/1.96</f>
         <v>0.17073421200997554</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="381">
         <v>1.56</v>
       </c>
-      <c r="H3" s="308">
+      <c r="H3" s="382">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="310" t="s">
+      <c r="I3" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="340" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="B4" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="337" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="327">
+      <c r="D4" s="338">
         <v>0.45299</v>
       </c>
-      <c r="E4" s="308">
+      <c r="E4" s="339">
+        <f t="shared" si="0"/>
+        <v>-0.79188522879794832</v>
+      </c>
+      <c r="F4" s="339">
         <f t="shared" si="1"/>
-        <v>-0.79188522879794832</v>
-      </c>
-      <c r="F4" s="307">
-        <f t="shared" si="2"/>
         <v>1.0616045140928874</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="381">
         <v>5.6550000000000003E-2</v>
       </c>
-      <c r="H4" s="308">
+      <c r="H4" s="382">
         <v>3.6287600000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="311" t="s">
+      <c r="I4" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="316" t="s">
+      <c r="B5" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="344" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="336"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="337"/>
-      <c r="H5" s="129"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="300" t="s">
+      <c r="D5" s="345">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="346">
+        <f t="shared" si="0"/>
+        <v>0.91629073187415511</v>
+      </c>
+      <c r="F5" s="346">
+        <f t="shared" si="1"/>
+        <v>1.6234409532128793</v>
+      </c>
+      <c r="G5" s="383">
+        <v>0.1037622</v>
+      </c>
+      <c r="H5" s="384">
+        <v>0.38549679999999997</v>
+      </c>
+      <c r="I5" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="301" t="s">
+      <c r="B6" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="300" t="s">
+      <c r="C6" s="333" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="325">
+      <c r="D6" s="334">
         <v>1.26</v>
       </c>
-      <c r="E6" s="303">
-        <f t="shared" ref="E6" si="3">LN(D6)</f>
+      <c r="E6" s="335">
+        <f t="shared" si="0"/>
         <v>0.23111172096338664</v>
       </c>
-      <c r="F6" s="302">
-        <f t="shared" ref="F6" si="4">(LN(D6/G6))/1.96</f>
+      <c r="F6" s="335">
+        <f t="shared" si="1"/>
         <v>0.14408419150558024</v>
       </c>
-      <c r="G6" s="326">
+      <c r="G6" s="385">
         <v>0.95</v>
       </c>
-      <c r="H6" s="303">
+      <c r="H6" s="386">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="305" t="s">
+      <c r="I6" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="306" t="s">
+      <c r="B7" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="337" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="327">
+      <c r="D7" s="338">
         <v>1.6</v>
       </c>
-      <c r="E7" s="308">
-        <f t="shared" ref="E7:E9" si="5">LN(D7)</f>
+      <c r="E7" s="339">
+        <f t="shared" si="0"/>
         <v>0.47000362924573563</v>
       </c>
-      <c r="F7" s="307">
-        <f t="shared" ref="F7:F9" si="6">(LN(D7/G7))/1.96</f>
+      <c r="F7" s="339">
+        <f t="shared" si="1"/>
         <v>0.17744183495994209</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="381">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H7" s="308">
+      <c r="H7" s="382">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="310" t="s">
+      <c r="I7" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="340" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="305" t="s">
+      <c r="C8" s="337" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="327">
+      <c r="D8" s="338">
         <v>0.24113000000000001</v>
       </c>
-      <c r="E8" s="308">
-        <f t="shared" si="5"/>
+      <c r="E8" s="339">
+        <f t="shared" si="0"/>
         <v>-1.4224190718385232</v>
       </c>
-      <c r="F8" s="307">
-        <f t="shared" si="6"/>
+      <c r="F8" s="339">
+        <f t="shared" si="1"/>
         <v>1.0827484148566267</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="381">
         <v>2.8879999999999999E-2</v>
       </c>
-      <c r="H8" s="308">
+      <c r="H8" s="382">
         <v>2.0135800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="311" t="s">
+      <c r="I8" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="316" t="s">
+      <c r="B9" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="324" t="s">
+      <c r="C9" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="336"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="337"/>
-      <c r="H9" s="129"/>
-    </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="321" t="s">
+      <c r="D9" s="345">
+        <v>1.6018749999999999</v>
+      </c>
+      <c r="E9" s="346">
+        <f t="shared" si="0"/>
+        <v>0.47117481813619849</v>
+      </c>
+      <c r="F9" s="346">
+        <f t="shared" si="1"/>
+        <v>0.27978179960646449</v>
+      </c>
+      <c r="G9" s="383">
+        <v>0.92570699999999995</v>
+      </c>
+      <c r="H9" s="384">
+        <v>27.7194</v>
+      </c>
+      <c r="I9" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="348" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="321" t="s">
+      <c r="C10" s="348" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="325">
+      <c r="D10" s="334">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E10" s="303">
-        <f t="shared" ref="E10" si="7">LN(D10)</f>
+      <c r="E10" s="335">
+        <f t="shared" si="0"/>
         <v>0.131028262406404</v>
       </c>
-      <c r="F10" s="302">
-        <f t="shared" ref="F10" si="8">(LN(D10/G10))/1.96</f>
+      <c r="F10" s="335">
+        <f t="shared" si="1"/>
         <v>0.14976897546131579</v>
       </c>
-      <c r="G10" s="326">
+      <c r="G10" s="385">
         <v>0.85</v>
       </c>
-      <c r="H10" s="303">
+      <c r="H10" s="386">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="305" t="s">
+      <c r="I10" s="349" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="306" t="s">
+      <c r="B11" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="305" t="s">
+      <c r="C11" s="337" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="327">
+      <c r="D11" s="338">
         <v>1.39</v>
       </c>
-      <c r="E11" s="308">
-        <f t="shared" ref="E11:E13" si="9">LN(D11)</f>
+      <c r="E11" s="339">
+        <f t="shared" si="0"/>
         <v>0.3293037471426003</v>
       </c>
-      <c r="F11" s="307">
-        <f t="shared" ref="F11:F13" si="10">(LN(D11/G11))/1.96</f>
+      <c r="F11" s="339">
+        <f t="shared" si="1"/>
         <v>0.18355252787107601</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="381">
         <v>0.97</v>
       </c>
-      <c r="H11" s="308">
+      <c r="H11" s="382">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="310" t="s">
+      <c r="I11" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="236" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="340" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="305" t="s">
+      <c r="C12" s="337" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="327">
+      <c r="D12" s="338">
         <v>0.27688000000000001</v>
       </c>
-      <c r="E12" s="308">
-        <f t="shared" si="9"/>
+      <c r="E12" s="339">
+        <f t="shared" si="0"/>
         <v>-1.2841710796550483</v>
       </c>
-      <c r="F12" s="307">
-        <f t="shared" si="10"/>
+      <c r="F12" s="339">
+        <f t="shared" si="1"/>
         <v>1.0925619687968515</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="381">
         <v>3.2530000000000003E-2</v>
       </c>
-      <c r="H12" s="308">
+      <c r="H12" s="382">
         <v>2.3532899999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="311" t="s">
+      <c r="I12" s="350" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="342" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="316" t="s">
+      <c r="B13" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="324" t="s">
+      <c r="C13" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="336"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="337"/>
-      <c r="H13" s="129"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="300" t="s">
+      <c r="D13" s="345">
+        <v>4.2919409999999996</v>
+      </c>
+      <c r="E13" s="346">
+        <f t="shared" si="0"/>
+        <v>1.4567390781688421</v>
+      </c>
+      <c r="F13" s="346">
+        <f t="shared" si="1"/>
+        <v>1.7179024789860668</v>
+      </c>
+      <c r="G13" s="383">
+        <v>0.14802860000000001</v>
+      </c>
+      <c r="H13" s="384">
+        <v>124.4405</v>
+      </c>
+      <c r="I13" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="301" t="s">
+      <c r="B14" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="300" t="s">
+      <c r="C14" s="333" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="330">
+      <c r="D14" s="351">
         <v>0.22</v>
       </c>
-      <c r="E14" s="303">
-        <f t="shared" ref="E14" si="11">LN(D14)</f>
+      <c r="E14" s="335">
+        <f t="shared" si="0"/>
         <v>-1.5141277326297755</v>
       </c>
-      <c r="F14" s="302">
-        <v>0.12395213194407623</v>
-      </c>
-      <c r="G14" s="326">
+      <c r="F14" s="335">
+        <f t="shared" si="1"/>
+        <v>0.40227416345115818</v>
+      </c>
+      <c r="G14" s="385">
         <v>0.1</v>
       </c>
-      <c r="H14" s="303">
+      <c r="H14" s="386">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="305" t="s">
+      <c r="I14" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="336" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="306" t="s">
+      <c r="B15" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="305" t="s">
+      <c r="C15" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="331">
+      <c r="D15" s="352">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E15" s="308">
-        <f t="shared" ref="E15:E17" si="12">LN(D15)</f>
+      <c r="E15" s="339">
+        <f t="shared" si="0"/>
         <v>-0.59783700075562041</v>
       </c>
-      <c r="F15" s="307">
-        <v>0.12395213194407623</v>
-      </c>
-      <c r="G15" s="126">
+      <c r="F15" s="339">
+        <f t="shared" si="1"/>
+        <v>0.18864644158473734</v>
+      </c>
+      <c r="G15" s="381">
         <v>0.38</v>
       </c>
-      <c r="H15" s="308">
+      <c r="H15" s="382">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="310" t="s">
+      <c r="I15" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="340" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="305" t="s">
+      <c r="C16" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="340"/>
-      <c r="H16" s="128"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="311" t="s">
+      <c r="D16" s="352">
+        <v>1.1831</v>
+      </c>
+      <c r="E16" s="339">
+        <f t="shared" si="0"/>
+        <v>0.1681381122774801</v>
+      </c>
+      <c r="F16" s="339">
+        <f t="shared" si="1"/>
+        <v>1.069278589557306</v>
+      </c>
+      <c r="G16" s="381">
+        <v>0.14549000000000001</v>
+      </c>
+      <c r="H16" s="382">
+        <v>9.6190099999999994</v>
+      </c>
+      <c r="I16" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="365" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="324" t="s">
+      <c r="C17" s="362" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="201"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="337"/>
-      <c r="H17" s="129"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="300" t="s">
+      <c r="D17" s="366"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="387"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="332" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="301" t="s">
+      <c r="B18" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="300" t="s">
+      <c r="C18" s="333" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="330" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="303" t="e">
-        <f t="shared" ref="E18" si="13">LN(D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="302">
-        <v>0.13556283965969668</v>
-      </c>
-      <c r="G18" s="326">
+      <c r="D18" s="351">
+        <v>0.26</v>
+      </c>
+      <c r="E18" s="335">
+        <f t="shared" si="0"/>
+        <v>-1.3470736479666092</v>
+      </c>
+      <c r="F18" s="335">
+        <f t="shared" si="1"/>
+        <v>0.39448463685381729</v>
+      </c>
+      <c r="G18" s="385">
         <v>0.12</v>
       </c>
-      <c r="H18" s="303">
+      <c r="H18" s="386">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="305" t="s">
+      <c r="I18" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="305" t="s">
+      <c r="C19" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="331">
+      <c r="D19" s="352">
         <v>0.64</v>
       </c>
-      <c r="E19" s="308">
-        <f t="shared" ref="E19:E21" si="14">LN(D19)</f>
+      <c r="E19" s="339">
+        <f t="shared" si="0"/>
         <v>-0.44628710262841947</v>
       </c>
-      <c r="F19" s="307">
-        <v>0.13556283965969668</v>
-      </c>
-      <c r="G19" s="126">
+      <c r="F19" s="339">
+        <f t="shared" si="1"/>
+        <v>0.20289947329903543</v>
+      </c>
+      <c r="G19" s="381">
         <v>0.43</v>
       </c>
-      <c r="H19" s="308">
+      <c r="H19" s="382">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="310" t="s">
+      <c r="I19" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="340" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="315" t="s">
+      <c r="B20" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="305" t="s">
+      <c r="C20" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="331">
-        <v>1.1830099999999999</v>
-      </c>
-      <c r="E20" s="308">
-        <f t="shared" si="14"/>
-        <v>0.16806203804589867</v>
-      </c>
-      <c r="F20" s="307">
-        <v>0.13556283965969668</v>
-      </c>
-      <c r="G20" s="126">
-        <v>0.14549000000000001</v>
-      </c>
-      <c r="H20" s="308">
-        <v>9.6190099999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="311" t="s">
+      <c r="D20" s="352">
+        <v>1.90327</v>
+      </c>
+      <c r="E20" s="339">
+        <f t="shared" si="0"/>
+        <v>0.64357345948996836</v>
+      </c>
+      <c r="F20" s="339">
+        <f t="shared" si="1"/>
+        <v>1.0986002748913657</v>
+      </c>
+      <c r="G20" s="381">
+        <v>0.22098000000000001</v>
+      </c>
+      <c r="H20" s="382">
+        <v>16.392299999999999</v>
+      </c>
+      <c r="I20" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="365" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="316" t="s">
+      <c r="B21" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="324" t="s">
+      <c r="C21" s="362" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="337"/>
-      <c r="H21" s="129"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="300" t="s">
+      <c r="D21" s="366"/>
+      <c r="E21" s="363"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="387"/>
+      <c r="H21" s="388"/>
+      <c r="I21" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="332" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="301" t="s">
+      <c r="B22" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="300" t="s">
+      <c r="C22" s="333" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="330">
+      <c r="D22" s="351">
         <v>0.32</v>
       </c>
-      <c r="E22" s="303">
-        <f t="shared" ref="E22" si="15">LN(D22)</f>
+      <c r="E22" s="335">
+        <f t="shared" si="0"/>
         <v>-1.1394342831883648</v>
       </c>
-      <c r="F22" s="302">
-        <v>0.13820150721193863</v>
-      </c>
-      <c r="G22" s="326">
+      <c r="F22" s="335">
+        <f t="shared" si="1"/>
+        <v>0.42177478223697346</v>
+      </c>
+      <c r="G22" s="385">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22" s="303">
+      <c r="H22" s="386">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="305" t="s">
+      <c r="I22" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="305" t="s">
+      <c r="C23" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="331">
+      <c r="D23" s="352">
         <v>0.65</v>
       </c>
-      <c r="E23" s="308">
-        <f t="shared" ref="E23:E25" si="16">LN(D23)</f>
+      <c r="E23" s="339">
+        <f t="shared" si="0"/>
         <v>-0.43078291609245423</v>
       </c>
-      <c r="F23" s="307">
-        <v>0.13820150721193863</v>
-      </c>
-      <c r="G23" s="126">
+      <c r="F23" s="339">
+        <f t="shared" si="1"/>
+        <v>0.21080977255207892</v>
+      </c>
+      <c r="G23" s="381">
         <v>0.43</v>
       </c>
-      <c r="H23" s="308">
+      <c r="H23" s="382">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="310" t="s">
+      <c r="I23" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="340" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="305" t="s">
+      <c r="C24" s="337" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="331">
+      <c r="D24" s="352">
         <v>1.7105399999999999</v>
       </c>
-      <c r="E24" s="308">
-        <f t="shared" si="16"/>
+      <c r="E24" s="339">
+        <f t="shared" si="0"/>
         <v>0.53680911013725152</v>
       </c>
-      <c r="F24" s="307">
-        <v>0.13820150721193863</v>
-      </c>
-      <c r="G24" s="126">
+      <c r="F24" s="339">
+        <f t="shared" si="1"/>
+        <v>1.1099598802425241</v>
+      </c>
+      <c r="G24" s="381">
         <v>0.19423000000000001</v>
       </c>
-      <c r="H24" s="308">
+      <c r="H24" s="382">
         <v>15.063940000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="311" t="s">
+      <c r="I24" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="405" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="324" t="s">
+      <c r="C25" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="337"/>
-      <c r="H25" s="129"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="300" t="s">
+      <c r="D25" s="406"/>
+      <c r="E25" s="407"/>
+      <c r="F25" s="407"/>
+      <c r="G25" s="304"/>
+      <c r="H25" s="324"/>
+      <c r="I25" s="408" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="367" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="300" t="s">
+      <c r="C26" s="358" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="333"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="334"/>
-      <c r="H26" s="127"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="305" t="s">
+      <c r="D26" s="368"/>
+      <c r="E26" s="359"/>
+      <c r="F26" s="359"/>
+      <c r="G26" s="389"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="336" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="305" t="s">
+      <c r="C27" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="327">
+      <c r="D27" s="338">
         <v>0.42</v>
       </c>
-      <c r="E27" s="308">
-        <f t="shared" ref="E27:E29" si="17">LN(D27)</f>
+      <c r="E27" s="339">
+        <f t="shared" si="0"/>
         <v>-0.86750056770472306</v>
       </c>
-      <c r="F27" s="307">
-        <f t="shared" ref="F27:F29" si="18">(LN(D27/G27))/1.96</f>
+      <c r="F27" s="339">
+        <f t="shared" si="1"/>
         <v>0.24468014299075824</v>
       </c>
-      <c r="G27" s="126">
+      <c r="G27" s="381">
         <v>0.26</v>
       </c>
-      <c r="H27" s="308">
+      <c r="H27" s="382">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="310" t="s">
+      <c r="I27" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="413" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="316" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="339"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="340"/>
-      <c r="H28" s="128"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="311" t="s">
+      <c r="D28" s="300"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="311"/>
+      <c r="I28" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="365" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="324" t="s">
+      <c r="C29" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="336"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="337"/>
-      <c r="H29" s="129"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="300" t="s">
+      <c r="D29" s="307"/>
+      <c r="E29" s="363"/>
+      <c r="F29" s="363"/>
+      <c r="G29" s="387"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="367" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="301" t="s">
+      <c r="B30" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="300" t="s">
+      <c r="C30" s="358" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="333"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="334"/>
-      <c r="H30" s="335"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="305" t="s">
+      <c r="D30" s="368"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="389"/>
+      <c r="H30" s="390"/>
+      <c r="I30" s="360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="336" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="305" t="s">
+      <c r="C31" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="327">
+      <c r="D31" s="338">
         <v>0.49</v>
       </c>
-      <c r="E31" s="308">
-        <f t="shared" ref="E31:E33" si="19">LN(D31)</f>
+      <c r="E31" s="339">
+        <f t="shared" si="0"/>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="F31" s="307">
-        <f t="shared" ref="F31:F33" si="20">(LN(D31/G31))/1.96</f>
+      <c r="F31" s="339">
+        <f t="shared" si="1"/>
         <v>0.26761452455313911</v>
       </c>
-      <c r="G31" s="126">
+      <c r="G31" s="381">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H31" s="309">
+      <c r="H31" s="382">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="310" t="s">
+      <c r="I31" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="369" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="315" t="s">
+      <c r="B32" s="370" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="305" t="s">
+      <c r="C32" s="371" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="339"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="340"/>
-      <c r="H32" s="341"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="311" t="s">
+      <c r="D32" s="372"/>
+      <c r="E32" s="373"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="391"/>
+      <c r="H32" s="392"/>
+      <c r="I32" s="374" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="365" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="316" t="s">
+      <c r="B33" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="324" t="s">
+      <c r="C33" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="336"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="337"/>
-      <c r="H33" s="338"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="300" t="s">
+      <c r="D33" s="307"/>
+      <c r="E33" s="363"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="387"/>
+      <c r="H33" s="388"/>
+      <c r="I33" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="315" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="301" t="s">
+      <c r="B34" s="316" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="300" t="s">
+      <c r="C34" s="316" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="333"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="334"/>
-      <c r="H34" s="335"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="305" t="s">
+      <c r="D34" s="300"/>
+      <c r="G34" s="303"/>
+      <c r="H34" s="311"/>
+      <c r="I34" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="336" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="306" t="s">
+      <c r="B35" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="327">
+      <c r="D35" s="338">
         <v>0.49</v>
       </c>
-      <c r="E35" s="308">
-        <f t="shared" ref="E35:E37" si="21">LN(D35)</f>
+      <c r="E35" s="339">
+        <f t="shared" si="0"/>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="F35" s="307">
-        <f t="shared" ref="F35:F37" si="22">(LN(D35/G35))/1.96</f>
+      <c r="F35" s="339">
+        <f t="shared" si="1"/>
         <v>0.26761452455313911</v>
       </c>
-      <c r="G35" s="126">
+      <c r="G35" s="381">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H35" s="309">
+      <c r="H35" s="382">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="310" t="s">
+      <c r="I35" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="315" t="s">
+      <c r="B36" s="370" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="305" t="s">
+      <c r="C36" s="371" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="339"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="340"/>
-      <c r="H36" s="341"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="311" t="s">
+      <c r="D36" s="372"/>
+      <c r="E36" s="373"/>
+      <c r="F36" s="373"/>
+      <c r="G36" s="391"/>
+      <c r="H36" s="392"/>
+      <c r="I36" s="374" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="316" t="s">
+      <c r="B37" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="324" t="s">
+      <c r="C37" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="336"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="337"/>
-      <c r="H37" s="338"/>
-    </row>
-    <row r="49" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D37" s="307"/>
+      <c r="E37" s="363"/>
+      <c r="F37" s="363"/>
+      <c r="G37" s="387"/>
+      <c r="H37" s="388"/>
+      <c r="I37" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="35"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="126" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="5" max="5" width="11.140625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="317" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="313" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="318" t="s">
+      <c r="B1" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="318" t="s">
+      <c r="C1" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="323" t="s">
+      <c r="D1" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="320" t="s">
+      <c r="E1" s="354" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="319" t="s">
+      <c r="F1" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="320" t="s">
+      <c r="H1" s="380" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300" t="s">
+      <c r="I1" s="376" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="333" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="325">
-        <v>1.47</v>
-      </c>
-      <c r="E2" s="303">
-        <f t="shared" ref="E2:E4" si="0">LN(D2)</f>
-        <v>0.38526240079064489</v>
-      </c>
-      <c r="F2" s="302">
+      <c r="D2" s="338">
+        <v>1.44</v>
+      </c>
+      <c r="E2" s="339">
+        <f t="shared" ref="E2" si="0">LN(D2)</f>
+        <v>0.36464311358790924</v>
+      </c>
+      <c r="F2" s="339">
         <f>(LN(D2/G2))/1.96</f>
-        <v>0.13874169157328653</v>
-      </c>
-      <c r="G2" s="326">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H2" s="303">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="305" t="s">
+        <v>0.11031791248450816</v>
+      </c>
+      <c r="G2" s="381">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H2" s="382">
+        <v>1.78</v>
+      </c>
+      <c r="I2" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="337" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="305" t="s">
+      <c r="C3" s="336" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="327"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="307"/>
-      <c r="H3" s="308"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="310" t="s">
+      <c r="D3" s="338">
+        <v>2.234</v>
+      </c>
+      <c r="E3" s="339">
+        <f t="shared" ref="E3:E36" si="1">LN(D3)</f>
+        <v>0.80379370064700895</v>
+      </c>
+      <c r="F3" s="339">
+        <f t="shared" ref="F3:F36" si="2">(LN(D3/G3))/1.96</f>
+        <v>0.11020767129841322</v>
+      </c>
+      <c r="G3" s="381">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="382">
+        <v>3.04</v>
+      </c>
+      <c r="I3" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="341" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="B4" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="336" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="327"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="307"/>
-      <c r="H4" s="308"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="311" t="s">
+      <c r="D4" s="338">
+        <v>1.02369</v>
+      </c>
+      <c r="E4" s="339">
+        <f t="shared" si="1"/>
+        <v>2.3413746409014682E-2</v>
+      </c>
+      <c r="F4" s="339">
+        <f t="shared" si="2"/>
+        <v>0.3123657899643198</v>
+      </c>
+      <c r="G4" s="381">
+        <v>0.55498000000000003</v>
+      </c>
+      <c r="H4" s="382">
+        <v>1.8882399999999999</v>
+      </c>
+      <c r="I4" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="343" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="316" t="s">
+      <c r="B5" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="377" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="328"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="313"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="300" t="s">
+      <c r="D5" s="345">
+        <v>2.7517450000000001</v>
+      </c>
+      <c r="E5" s="346">
+        <f t="shared" si="1"/>
+        <v>1.0122352558941841</v>
+      </c>
+      <c r="F5" s="346">
+        <f t="shared" si="2"/>
+        <v>0.2897868472340609</v>
+      </c>
+      <c r="G5" s="383">
+        <v>1.5593250000000001</v>
+      </c>
+      <c r="H5" s="384">
+        <v>4.8560109999999996</v>
+      </c>
+      <c r="I5" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="333" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="301" t="s">
+      <c r="B6" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="300" t="s">
+      <c r="C6" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="325"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="303"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="305" t="s">
+      <c r="D6" s="334">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E6" s="335">
+        <f t="shared" si="1"/>
+        <v>0.12221763272424911</v>
+      </c>
+      <c r="F6" s="335">
+        <f t="shared" si="2"/>
+        <v>0.11611130019493637</v>
+      </c>
+      <c r="G6" s="385">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="386">
+        <v>1.43</v>
+      </c>
+      <c r="I6" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="337" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="306" t="s">
+      <c r="B7" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="C7" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="327"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="307"/>
-      <c r="H7" s="308"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="310" t="s">
+      <c r="D7" s="338">
+        <v>1.55</v>
+      </c>
+      <c r="E7" s="339">
+        <f t="shared" si="1"/>
+        <v>0.43825493093115531</v>
+      </c>
+      <c r="F7" s="339">
+        <f t="shared" si="2"/>
+        <v>0.14349550108239317</v>
+      </c>
+      <c r="G7" s="381">
+        <v>1.17</v>
+      </c>
+      <c r="H7" s="382">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I7" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="341" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="305" t="s">
+      <c r="C8" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="327"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="307"/>
-      <c r="H8" s="308"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="311" t="s">
+      <c r="D8" s="338">
+        <v>0.62636000000000003</v>
+      </c>
+      <c r="E8" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.46782999330489483</v>
+      </c>
+      <c r="F8" s="339">
+        <f t="shared" si="2"/>
+        <v>0.33761012353731651</v>
+      </c>
+      <c r="G8" s="381">
+        <v>0.32318000000000002</v>
+      </c>
+      <c r="H8" s="382">
+        <v>1.2139899999999999</v>
+      </c>
+      <c r="I8" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="343" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="316" t="s">
+      <c r="B9" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="324" t="s">
+      <c r="C9" s="377" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="328"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="313"/>
-    </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="321" t="s">
+      <c r="D9" s="345">
+        <v>2.3734570000000001</v>
+      </c>
+      <c r="E9" s="346">
+        <f t="shared" si="1"/>
+        <v>0.86434754213983866</v>
+      </c>
+      <c r="F9" s="346">
+        <f t="shared" si="2"/>
+        <v>0.30369695103045019</v>
+      </c>
+      <c r="G9" s="383">
+        <v>1.3087880000000001</v>
+      </c>
+      <c r="H9" s="384">
+        <v>4.3042129999999998</v>
+      </c>
+      <c r="I9" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="348" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="348" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="321" t="s">
+      <c r="C10" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="325"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="303"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="305" t="s">
+      <c r="D10" s="334">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E10" s="335">
+        <f t="shared" si="1"/>
+        <v>0.131028262406404</v>
+      </c>
+      <c r="F10" s="335">
+        <f t="shared" si="2"/>
+        <v>0.12060651942052568</v>
+      </c>
+      <c r="G10" s="385">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="386">
+        <v>1.43</v>
+      </c>
+      <c r="I10" s="349" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="337" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="306" t="s">
+      <c r="B11" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="305" t="s">
+      <c r="C11" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="327"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="307"/>
-      <c r="H11" s="308"/>
-    </row>
-    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="310" t="s">
+      <c r="D11" s="338">
+        <v>1.34</v>
+      </c>
+      <c r="E11" s="339">
+        <f t="shared" si="1"/>
+        <v>0.29266961396282004</v>
+      </c>
+      <c r="F11" s="339">
+        <f t="shared" si="2"/>
+        <v>0.14424453219880201</v>
+      </c>
+      <c r="G11" s="381">
+        <v>1.01</v>
+      </c>
+      <c r="H11" s="382">
+        <v>1.79</v>
+      </c>
+      <c r="I11" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="236" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="341" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="305" t="s">
+      <c r="C12" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="327"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="308"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="311" t="s">
+      <c r="D12" s="338">
+        <v>0.70374000000000003</v>
+      </c>
+      <c r="E12" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.35134630922066834</v>
+      </c>
+      <c r="F12" s="339">
+        <f t="shared" si="2"/>
+        <v>0.34272980967923261</v>
+      </c>
+      <c r="G12" s="381">
+        <v>0.35948000000000002</v>
+      </c>
+      <c r="H12" s="382">
+        <v>1.37768</v>
+      </c>
+      <c r="I12" s="350" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="316" t="s">
+      <c r="B13" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="324" t="s">
+      <c r="C13" s="377" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="328"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="329"/>
-      <c r="H13" s="313"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="300" t="s">
+      <c r="D13" s="345">
+        <v>1.9817419999999999</v>
+      </c>
+      <c r="E13" s="346">
+        <f t="shared" si="1"/>
+        <v>0.68397625589085043</v>
+      </c>
+      <c r="F13" s="346">
+        <f t="shared" si="2"/>
+        <v>0.32922238285317329</v>
+      </c>
+      <c r="G13" s="383">
+        <v>1.0394589999999999</v>
+      </c>
+      <c r="H13" s="384">
+        <v>3.7782170000000002</v>
+      </c>
+      <c r="I13" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="333" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="301" t="s">
+      <c r="B14" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="300" t="s">
+      <c r="C14" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="330"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="303"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="305" t="s">
+      <c r="D14" s="351">
+        <v>0.41</v>
+      </c>
+      <c r="E14" s="335">
+        <f t="shared" si="1"/>
+        <v>-0.89159811928378363</v>
+      </c>
+      <c r="F14" s="335">
+        <f t="shared" si="2"/>
+        <v>0.21313020443876463</v>
+      </c>
+      <c r="G14" s="385">
+        <v>0.27</v>
+      </c>
+      <c r="H14" s="386">
+        <v>0.63</v>
+      </c>
+      <c r="I14" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="337" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="306" t="s">
+      <c r="B15" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="305" t="s">
+      <c r="C15" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="331"/>
-      <c r="E15" s="308"/>
-      <c r="F15" s="307"/>
-      <c r="H15" s="308"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="310" t="s">
+      <c r="D15" s="352">
+        <v>0.53</v>
+      </c>
+      <c r="E15" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.6348782724359695</v>
+      </c>
+      <c r="F15" s="339">
+        <f t="shared" si="2"/>
+        <v>0.11868484452487432</v>
+      </c>
+      <c r="G15" s="381">
+        <v>0.42</v>
+      </c>
+      <c r="H15" s="382">
+        <v>0.68</v>
+      </c>
+      <c r="I15" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="341" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="305" t="s">
+      <c r="C16" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="331"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="307"/>
-      <c r="H16" s="308"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="311" t="s">
+      <c r="D16" s="352">
+        <v>0.81655</v>
+      </c>
+      <c r="E16" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.20266713145938478</v>
+      </c>
+      <c r="F16" s="339">
+        <f t="shared" si="2"/>
+        <v>0.46674602702980306</v>
+      </c>
+      <c r="G16" s="381">
+        <v>0.3271</v>
+      </c>
+      <c r="H16" s="382">
+        <v>2.0383900000000001</v>
+      </c>
+      <c r="I16" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="343" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="324" t="s">
+      <c r="C17" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="332"/>
-      <c r="E17" s="313"/>
-      <c r="F17" s="312"/>
-      <c r="G17" s="329"/>
-      <c r="H17" s="313"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="300" t="s">
+      <c r="D17" s="353">
+        <v>0.83754209999999996</v>
+      </c>
+      <c r="E17" s="346">
+        <f t="shared" si="1"/>
+        <v>-0.17728374788962578</v>
+      </c>
+      <c r="F17" s="346">
+        <f t="shared" si="2"/>
+        <v>0.37366098001101861</v>
+      </c>
+      <c r="G17" s="383">
+        <v>0.4026614</v>
+      </c>
+      <c r="H17" s="384">
+        <v>1.7421009999999999</v>
+      </c>
+      <c r="I17" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="333" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="301" t="s">
+      <c r="B18" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="300" t="s">
+      <c r="C18" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="330"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="326"/>
-      <c r="H18" s="303"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="305" t="s">
+      <c r="D18" s="351">
+        <v>0.62</v>
+      </c>
+      <c r="E18" s="335">
+        <f t="shared" si="1"/>
+        <v>-0.4780358009429998</v>
+      </c>
+      <c r="F18" s="335">
+        <f t="shared" si="2"/>
+        <v>0.23651670352828832</v>
+      </c>
+      <c r="G18" s="385">
+        <v>0.39</v>
+      </c>
+      <c r="H18" s="386">
+        <v>0.98</v>
+      </c>
+      <c r="I18" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="337" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="305" t="s">
+      <c r="C19" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="331"/>
-      <c r="E19" s="308"/>
-      <c r="F19" s="307"/>
-      <c r="H19" s="308"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="310" t="s">
+      <c r="D19" s="352">
+        <v>0.63</v>
+      </c>
+      <c r="E19" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.46203545959655867</v>
+      </c>
+      <c r="F19" s="339">
+        <f t="shared" si="2"/>
+        <v>0.12822164708209499</v>
+      </c>
+      <c r="G19" s="381">
+        <v>0.49</v>
+      </c>
+      <c r="H19" s="382">
+        <v>0.81</v>
+      </c>
+      <c r="I19" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="341" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="315" t="s">
+      <c r="B20" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="305" t="s">
+      <c r="C20" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="331"/>
-      <c r="E20" s="308"/>
-      <c r="F20" s="307"/>
-      <c r="H20" s="308"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="311" t="s">
+      <c r="D20" s="352">
+        <v>1.0624199999999999</v>
+      </c>
+      <c r="E20" s="339">
+        <f t="shared" si="1"/>
+        <v>6.0549324864043338E-2</v>
+      </c>
+      <c r="F20" s="339">
+        <f t="shared" si="2"/>
+        <v>0.48956151003068227</v>
+      </c>
+      <c r="G20" s="381">
+        <v>0.40698000000000001</v>
+      </c>
+      <c r="H20" s="382">
+        <v>2.77345</v>
+      </c>
+      <c r="I20" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="343" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="316" t="s">
+      <c r="B21" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="324" t="s">
+      <c r="C21" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="332"/>
-      <c r="E21" s="313"/>
-      <c r="F21" s="312"/>
-      <c r="G21" s="329"/>
-      <c r="H21" s="313"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="300" t="s">
+      <c r="D21" s="345">
+        <v>0.93279719999999999</v>
+      </c>
+      <c r="E21" s="346">
+        <f t="shared" si="1"/>
+        <v>-6.9567465105680154E-2</v>
+      </c>
+      <c r="F21" s="346">
+        <f t="shared" si="2"/>
+        <v>0.39500489824470753</v>
+      </c>
+      <c r="G21" s="383">
+        <v>0.43008299999999999</v>
+      </c>
+      <c r="H21" s="384">
+        <v>2.0230929999999998</v>
+      </c>
+      <c r="I21" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="333" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="301" t="s">
+      <c r="B22" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="300" t="s">
+      <c r="C22" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="330"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="326"/>
-      <c r="H22" s="303"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="305" t="s">
+      <c r="D22" s="351">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E22" s="335">
+        <f t="shared" si="1"/>
+        <v>-0.54472717544167215</v>
+      </c>
+      <c r="F22" s="335">
+        <f t="shared" si="2"/>
+        <v>0.24332860820934152</v>
+      </c>
+      <c r="G22" s="385">
+        <v>0.36</v>
+      </c>
+      <c r="H22" s="386">
+        <v>0.93</v>
+      </c>
+      <c r="I22" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="337" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="305" t="s">
+      <c r="C23" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="331"/>
-      <c r="E23" s="308"/>
-      <c r="F23" s="307"/>
-      <c r="H23" s="308"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="310" t="s">
+      <c r="D23" s="352">
+        <v>0.61</v>
+      </c>
+      <c r="E23" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.49429632181478012</v>
+      </c>
+      <c r="F23" s="339">
+        <f t="shared" si="2"/>
+        <v>0.13302360329757787</v>
+      </c>
+      <c r="G23" s="381">
+        <v>0.47</v>
+      </c>
+      <c r="H23" s="382">
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="341" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="305" t="s">
+      <c r="C24" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="331"/>
-      <c r="E24" s="308"/>
-      <c r="F24" s="307"/>
-      <c r="H24" s="308"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="311" t="s">
+      <c r="D24" s="352">
+        <v>0.97092999999999996</v>
+      </c>
+      <c r="E24" s="339">
+        <f t="shared" si="1"/>
+        <v>-2.9500903917684746E-2</v>
+      </c>
+      <c r="F24" s="339">
+        <f t="shared" si="2"/>
+        <v>0.5029358041372749</v>
+      </c>
+      <c r="G24" s="381">
+        <v>0.36231000000000002</v>
+      </c>
+      <c r="H24" s="382">
+        <v>2.6019100000000002</v>
+      </c>
+      <c r="I24" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="343" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="324" t="s">
+      <c r="C25" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="332"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="312"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="313"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="300" t="s">
+      <c r="D25" s="353">
+        <v>0.99697309999999995</v>
+      </c>
+      <c r="E25" s="346">
+        <f t="shared" si="1"/>
+        <v>-3.0314903271194474E-3</v>
+      </c>
+      <c r="F25" s="346">
+        <f t="shared" si="2"/>
+        <v>0.42063432931470246</v>
+      </c>
+      <c r="G25" s="383">
+        <v>0.43715179999999998</v>
+      </c>
+      <c r="H25" s="384">
+        <v>2.2737080000000001</v>
+      </c>
+      <c r="I25" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="358" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="300" t="s">
+      <c r="C26" s="367" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="325"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="326"/>
-      <c r="H26" s="303"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="305" t="s">
+      <c r="D26" s="368"/>
+      <c r="E26" s="359"/>
+      <c r="F26" s="359"/>
+      <c r="G26" s="389"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="305" t="s">
+      <c r="C27" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="327"/>
-      <c r="E27" s="308"/>
-      <c r="F27" s="307"/>
-      <c r="H27" s="308"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="310" t="s">
+      <c r="D27" s="338">
+        <v>0.51</v>
+      </c>
+      <c r="E27" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.67334455326376563</v>
+      </c>
+      <c r="F27" s="339">
+        <f t="shared" si="2"/>
+        <v>0.13686938091565273</v>
+      </c>
+      <c r="G27" s="381">
+        <v>0.39</v>
+      </c>
+      <c r="H27" s="382">
+        <v>0.68</v>
+      </c>
+      <c r="I27" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="341" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="327"/>
-      <c r="E28" s="308"/>
-      <c r="F28" s="307"/>
-      <c r="H28" s="308"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="311" t="s">
+      <c r="D28" s="338">
+        <v>1.1185</v>
+      </c>
+      <c r="E28" s="339">
+        <f t="shared" si="1"/>
+        <v>0.1119885019480473</v>
+      </c>
+      <c r="F28" s="339">
+        <f t="shared" si="2"/>
+        <v>0.42015476523784562</v>
+      </c>
+      <c r="G28" s="381">
+        <v>0.4909</v>
+      </c>
+      <c r="H28" s="382">
+        <v>2.5487500000000001</v>
+      </c>
+      <c r="I28" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="361" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="324" t="s">
+      <c r="C29" s="378" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="328"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="329"/>
-      <c r="H29" s="313"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="300" t="s">
+      <c r="D29" s="307"/>
+      <c r="E29" s="363"/>
+      <c r="F29" s="363"/>
+      <c r="G29" s="387"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="358" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="301" t="s">
+      <c r="B30" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="300" t="s">
+      <c r="C30" s="367" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="325"/>
-      <c r="E30" s="303"/>
-      <c r="F30" s="302"/>
-      <c r="G30" s="326"/>
-      <c r="H30" s="304"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="305" t="s">
+      <c r="D30" s="368"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="389"/>
+      <c r="H30" s="390"/>
+      <c r="I30" s="360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="337" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="305" t="s">
+      <c r="C31" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="327"/>
-      <c r="E31" s="308"/>
-      <c r="F31" s="307"/>
-      <c r="H31" s="309"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="310" t="s">
+      <c r="D31" s="338">
+        <v>0.61</v>
+      </c>
+      <c r="E31" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.49429632181478012</v>
+      </c>
+      <c r="F31" s="339">
+        <f t="shared" si="2"/>
+        <v>0.15520988489948542</v>
+      </c>
+      <c r="G31" s="381">
+        <v>0.45</v>
+      </c>
+      <c r="H31" s="382">
+        <v>0.83</v>
+      </c>
+      <c r="I31" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="341" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="315" t="s">
+      <c r="B32" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="305" t="s">
+      <c r="C32" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="327"/>
-      <c r="E32" s="308"/>
-      <c r="F32" s="307"/>
-      <c r="H32" s="309"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="311" t="s">
+      <c r="D32" s="338">
+        <v>1.4371100000000001</v>
+      </c>
+      <c r="E32" s="339">
+        <f t="shared" si="1"/>
+        <v>0.36263415253185999</v>
+      </c>
+      <c r="F32" s="339">
+        <f t="shared" si="2"/>
+        <v>0.44284430921800055</v>
+      </c>
+      <c r="G32" s="381">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="H32" s="382">
+        <v>3.42327</v>
+      </c>
+      <c r="I32" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="361" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="316" t="s">
+      <c r="B33" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="324" t="s">
+      <c r="C33" s="378" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="328"/>
-      <c r="E33" s="313"/>
-      <c r="F33" s="312"/>
-      <c r="G33" s="329"/>
-      <c r="H33" s="314"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="300" t="s">
+      <c r="D33" s="307"/>
+      <c r="E33" s="363"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="387"/>
+      <c r="H33" s="388"/>
+      <c r="I33" s="364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="358" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="301" t="s">
+      <c r="B34" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="300" t="s">
+      <c r="C34" s="367" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="325"/>
-      <c r="E34" s="303"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="326"/>
-      <c r="H34" s="304"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="305" t="s">
+      <c r="D34" s="368"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="389"/>
+      <c r="H34" s="390"/>
+      <c r="I34" s="360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="337" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="306" t="s">
+      <c r="B35" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="327"/>
-      <c r="E35" s="308"/>
-      <c r="F35" s="307"/>
-      <c r="H35" s="309"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="310" t="s">
+      <c r="D35" s="338">
+        <v>0.59</v>
+      </c>
+      <c r="E35" s="339">
+        <f t="shared" si="1"/>
+        <v>-0.52763274208237199</v>
+      </c>
+      <c r="F35" s="339">
+        <f t="shared" si="2"/>
+        <v>0.16139659602661074</v>
+      </c>
+      <c r="G35" s="381">
+        <v>0.43</v>
+      </c>
+      <c r="H35" s="382">
+        <v>0.81</v>
+      </c>
+      <c r="I35" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="341" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="315" t="s">
+      <c r="B36" s="341" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="305" t="s">
+      <c r="C36" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="327"/>
-      <c r="E36" s="308"/>
-      <c r="F36" s="307"/>
-      <c r="H36" s="309"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="311" t="s">
+      <c r="D36" s="338">
+        <v>1.2930600000000001</v>
+      </c>
+      <c r="E36" s="339">
+        <f t="shared" si="1"/>
+        <v>0.25701150242539855</v>
+      </c>
+      <c r="F36" s="339">
+        <f t="shared" si="2"/>
+        <v>0.45822279028485141</v>
+      </c>
+      <c r="G36" s="381">
+        <v>0.52671000000000001</v>
+      </c>
+      <c r="H36" s="382">
+        <v>3.1744599999999998</v>
+      </c>
+      <c r="I36" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="361" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="316" t="s">
+      <c r="B37" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="324" t="s">
+      <c r="C37" s="378" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="328"/>
-      <c r="E37" s="313"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="329"/>
-      <c r="H37" s="314"/>
+      <c r="D37" s="307"/>
+      <c r="E37" s="363"/>
+      <c r="F37" s="363"/>
+      <c r="G37" s="387"/>
+      <c r="H37" s="388"/>
+      <c r="I37" s="364" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7392,561 +8260,956 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="126" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="5" max="5" width="7.42578125" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="317" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="313" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="318" t="s">
+      <c r="B1" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="318" t="s">
+      <c r="C1" s="313" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="323" t="s">
+      <c r="D1" s="375" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="320" t="s">
+      <c r="E1" s="375" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="319" t="s">
+      <c r="F1" s="329" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="320" t="s">
+      <c r="H1" s="329" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300" t="s">
+      <c r="I1" s="393" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="333" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="333" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="325">
-        <v>1.47</v>
-      </c>
-      <c r="E2" s="303">
-        <f t="shared" ref="E2:E4" si="0">LN(D2)</f>
-        <v>0.38526240079064489</v>
-      </c>
-      <c r="F2" s="302">
+      <c r="D2" s="385">
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="396">
+        <f t="shared" ref="E2" si="0">LN(D2)</f>
+        <v>0.58778666490211906</v>
+      </c>
+      <c r="F2" s="397">
         <f>(LN(D2/G2))/1.96</f>
-        <v>0.13874169157328653</v>
-      </c>
-      <c r="G2" s="326">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H2" s="303">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="305" t="s">
+        <v>0.12822164708209499</v>
+      </c>
+      <c r="G2" s="355">
+        <v>1.4</v>
+      </c>
+      <c r="H2" s="386">
+        <v>2.31</v>
+      </c>
+      <c r="I2" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="337" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="307"/>
-      <c r="H3" s="308"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="310" t="s">
+      <c r="C3" s="337" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="381">
+        <v>2.11</v>
+      </c>
+      <c r="E3" s="398">
+        <f t="shared" ref="E3:E35" si="1">LN(D3)</f>
+        <v>0.74668794748797507</v>
+      </c>
+      <c r="F3" s="399">
+        <f t="shared" ref="F3:F35" si="2">(LN(D3/G3))/1.96</f>
+        <v>0.17409328539786256</v>
+      </c>
+      <c r="G3" s="356">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="382">
+        <v>2.96</v>
+      </c>
+      <c r="I3" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="317" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="B4" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="305"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="307"/>
-      <c r="H4" s="308"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="311" t="s">
+      <c r="C4" s="316" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="303"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="326"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="343" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="316" t="s">
+      <c r="B5" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="313"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="300" t="s">
+      <c r="C5" s="344" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="383">
+        <v>2.5769229999999999</v>
+      </c>
+      <c r="E5" s="400">
+        <f t="shared" si="1"/>
+        <v>0.94659605151873727</v>
+      </c>
+      <c r="F5" s="401">
+        <f t="shared" si="2"/>
+        <v>0.78136104559202568</v>
+      </c>
+      <c r="G5" s="357">
+        <v>0.55717740000000004</v>
+      </c>
+      <c r="H5" s="384">
+        <v>11.91817</v>
+      </c>
+      <c r="I5" s="277" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="333" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="301" t="s">
+      <c r="B6" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="300"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="303"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="305" t="s">
+      <c r="C6" s="333" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="385">
+        <v>1.39</v>
+      </c>
+      <c r="E6" s="396">
+        <f t="shared" si="1"/>
+        <v>0.3293037471426003</v>
+      </c>
+      <c r="F6" s="397">
+        <f t="shared" si="2"/>
+        <v>0.13349239727999257</v>
+      </c>
+      <c r="G6" s="355">
+        <v>1.07</v>
+      </c>
+      <c r="H6" s="386">
+        <v>1.8</v>
+      </c>
+      <c r="I6" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="337" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="306" t="s">
+      <c r="B7" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="305"/>
-      <c r="D7" s="327"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="307"/>
-      <c r="H7" s="308"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="310" t="s">
+      <c r="C7" s="337" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="381">
+        <v>1.58</v>
+      </c>
+      <c r="E7" s="398">
+        <f t="shared" si="1"/>
+        <v>0.45742484703887548</v>
+      </c>
+      <c r="F7" s="399">
+        <f t="shared" si="2"/>
+        <v>0.18475238124211762</v>
+      </c>
+      <c r="G7" s="356">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="382">
+        <v>2.25</v>
+      </c>
+      <c r="I7" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="370" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="370" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="305"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="307"/>
-      <c r="H8" s="308"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="311" t="s">
+      <c r="C8" s="371" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="391"/>
+      <c r="E8" s="409"/>
+      <c r="F8" s="410"/>
+      <c r="G8" s="411"/>
+      <c r="H8" s="392"/>
+      <c r="I8" s="412" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="343" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="316" t="s">
+      <c r="B9" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="328"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="313"/>
-    </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="321" t="s">
+      <c r="C9" s="344" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="383">
+        <v>1.1779310000000001</v>
+      </c>
+      <c r="E9" s="400">
+        <f t="shared" si="1"/>
+        <v>0.16375950965989003</v>
+      </c>
+      <c r="F9" s="401">
+        <f t="shared" si="2"/>
+        <v>0.89043769965826924</v>
+      </c>
+      <c r="G9" s="357">
+        <v>0.20566670000000001</v>
+      </c>
+      <c r="H9" s="384">
+        <v>6.7464529999999998</v>
+      </c>
+      <c r="I9" s="277" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="348" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="348" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="321"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="303"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="305" t="s">
+      <c r="C10" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="385">
+        <v>1.35</v>
+      </c>
+      <c r="E10" s="396">
+        <f t="shared" si="1"/>
+        <v>0.30010459245033816</v>
+      </c>
+      <c r="F10" s="397">
+        <f t="shared" si="2"/>
+        <v>0.1331040200495188</v>
+      </c>
+      <c r="G10" s="355">
+        <v>1.04</v>
+      </c>
+      <c r="H10" s="386">
+        <v>1.76</v>
+      </c>
+      <c r="I10" s="402" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="337" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="306" t="s">
+      <c r="B11" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="305"/>
-      <c r="D11" s="327"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="307"/>
-      <c r="H11" s="308"/>
-    </row>
-    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="310" t="s">
+      <c r="C11" s="337" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="381">
+        <v>1.52</v>
+      </c>
+      <c r="E11" s="398">
+        <f t="shared" si="1"/>
+        <v>0.41871033485818504</v>
+      </c>
+      <c r="F11" s="399">
+        <f t="shared" si="2"/>
+        <v>0.18389868710929042</v>
+      </c>
+      <c r="G11" s="356">
+        <v>1.06</v>
+      </c>
+      <c r="H11" s="382">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I11" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="236" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="317" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="305"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="308"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="311" t="s">
+      <c r="C12" s="316" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="303"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="326"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="330" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="316" t="s">
+      <c r="B13" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="324"/>
-      <c r="D13" s="328"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="329"/>
-      <c r="H13" s="313"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="300" t="s">
+      <c r="C13" s="344" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="383">
+        <v>1.733668</v>
+      </c>
+      <c r="E13" s="400">
+        <f t="shared" si="1"/>
+        <v>0.55023939520539866</v>
+      </c>
+      <c r="F13" s="401">
+        <f t="shared" si="2"/>
+        <v>1.1313544574281467</v>
+      </c>
+      <c r="G13" s="357">
+        <v>0.188772</v>
+      </c>
+      <c r="H13" s="384">
+        <v>15.92188</v>
+      </c>
+      <c r="I13" s="277" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="333" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="301" t="s">
+      <c r="B14" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="300"/>
-      <c r="D14" s="330"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="303"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="305" t="s">
+      <c r="C14" s="333" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="403">
+        <v>0.18</v>
+      </c>
+      <c r="E14" s="396">
+        <f t="shared" si="1"/>
+        <v>-1.7147984280919266</v>
+      </c>
+      <c r="F14" s="397">
+        <f t="shared" si="2"/>
+        <v>0.41373990623282081</v>
+      </c>
+      <c r="G14" s="355">
+        <v>0.08</v>
+      </c>
+      <c r="H14" s="386">
+        <v>0.38</v>
+      </c>
+      <c r="I14" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="337" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="306" t="s">
+      <c r="B15" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="305"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="308"/>
-      <c r="F15" s="307"/>
-      <c r="H15" s="308"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="310" t="s">
+      <c r="C15" s="337" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="404">
+        <v>0.49</v>
+      </c>
+      <c r="E15" s="398">
+        <f t="shared" si="1"/>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="F15" s="399">
+        <f t="shared" si="2"/>
+        <v>0.20169017175721757</v>
+      </c>
+      <c r="G15" s="356">
+        <v>0.33</v>
+      </c>
+      <c r="H15" s="382">
+        <v>0.73</v>
+      </c>
+      <c r="I15" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="317" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="305"/>
-      <c r="D16" s="331"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="307"/>
-      <c r="H16" s="308"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="311" t="s">
+      <c r="C16" s="316" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="305"/>
+      <c r="E16" s="320"/>
+      <c r="F16" s="326"/>
+      <c r="H16" s="311"/>
+      <c r="I16" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="318" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="324"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="313"/>
-      <c r="F17" s="312"/>
-      <c r="G17" s="329"/>
-      <c r="H17" s="313"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="300" t="s">
+      <c r="C17" s="331" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="306"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="395"/>
+      <c r="G17" s="310"/>
+      <c r="H17" s="324"/>
+      <c r="I17" s="328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="333" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="301" t="s">
+      <c r="B18" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="300"/>
-      <c r="D18" s="330"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="326"/>
-      <c r="H18" s="303"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="305" t="s">
+      <c r="C18" s="333" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="403">
+        <v>0.33</v>
+      </c>
+      <c r="E18" s="396">
+        <f t="shared" si="1"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="F18" s="397">
+        <f t="shared" si="2"/>
+        <v>0.4022741634511583</v>
+      </c>
+      <c r="G18" s="355">
+        <v>0.15</v>
+      </c>
+      <c r="H18" s="386">
+        <v>0.73</v>
+      </c>
+      <c r="I18" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="337" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="305"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="308"/>
-      <c r="F19" s="307"/>
-      <c r="H19" s="308"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="310" t="s">
+      <c r="C19" s="337" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="404">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E19" s="398">
+        <f t="shared" si="1"/>
+        <v>-0.54472717544167215</v>
+      </c>
+      <c r="F19" s="399">
+        <f t="shared" si="2"/>
+        <v>0.21574329123471098</v>
+      </c>
+      <c r="G19" s="356">
+        <v>0.38</v>
+      </c>
+      <c r="H19" s="382">
+        <v>0.87</v>
+      </c>
+      <c r="I19" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="317" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="315" t="s">
+      <c r="B20" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="305"/>
-      <c r="D20" s="331"/>
-      <c r="E20" s="308"/>
-      <c r="F20" s="307"/>
-      <c r="H20" s="308"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="311" t="s">
+      <c r="C20" s="316" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="305"/>
+      <c r="E20" s="320"/>
+      <c r="F20" s="326"/>
+      <c r="H20" s="311"/>
+      <c r="I20" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="318" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="316" t="s">
+      <c r="B21" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="324"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="313"/>
-      <c r="F21" s="312"/>
-      <c r="G21" s="329"/>
-      <c r="H21" s="313"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="300" t="s">
+      <c r="C21" s="331" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="306"/>
+      <c r="E21" s="394"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="310"/>
+      <c r="H21" s="324"/>
+      <c r="I21" s="328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="333" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="301" t="s">
+      <c r="B22" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="300"/>
-      <c r="D22" s="330"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="326"/>
-      <c r="H22" s="303"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="305" t="s">
+      <c r="C22" s="333" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="403">
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="396">
+        <f t="shared" si="1"/>
+        <v>-1.0498221244986778</v>
+      </c>
+      <c r="F22" s="397">
+        <f t="shared" si="2"/>
+        <v>0.39936700982124107</v>
+      </c>
+      <c r="G22" s="355">
+        <v>0.16</v>
+      </c>
+      <c r="H22" s="386">
+        <v>0.77</v>
+      </c>
+      <c r="I22" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="337" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="305"/>
-      <c r="D23" s="331"/>
-      <c r="E23" s="308"/>
-      <c r="F23" s="307"/>
-      <c r="H23" s="308"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="310" t="s">
+      <c r="C23" s="337" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="404">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E23" s="398">
+        <f t="shared" si="1"/>
+        <v>-0.57981849525294205</v>
+      </c>
+      <c r="F23" s="399">
+        <f t="shared" si="2"/>
+        <v>0.21144580514843106</v>
+      </c>
+      <c r="G23" s="356">
+        <v>0.37</v>
+      </c>
+      <c r="H23" s="382">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="305"/>
-      <c r="D24" s="331"/>
-      <c r="E24" s="308"/>
-      <c r="F24" s="307"/>
-      <c r="H24" s="308"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="311" t="s">
+      <c r="C24" s="316" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="305"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="326"/>
+      <c r="H24" s="311"/>
+      <c r="I24" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="318" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="324"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="312"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="313"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="300" t="s">
+      <c r="C25" s="331" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="306"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="310"/>
+      <c r="H25" s="324"/>
+      <c r="I25" s="328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="314" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="314" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="300"/>
-      <c r="D26" s="325"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="326"/>
-      <c r="H26" s="303"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="305" t="s">
+      <c r="C26" s="314" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="302"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="309"/>
+      <c r="H26" s="323"/>
+      <c r="I26" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="327"/>
-      <c r="E27" s="308"/>
-      <c r="F27" s="307"/>
-      <c r="H27" s="308"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="310" t="s">
+      <c r="C27" s="337" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="381">
+        <v>0.45</v>
+      </c>
+      <c r="E27" s="398">
+        <f t="shared" si="1"/>
+        <v>-0.79850769621777162</v>
+      </c>
+      <c r="F27" s="399">
+        <f t="shared" si="2"/>
+        <v>0.26062531824795437</v>
+      </c>
+      <c r="G27" s="356">
+        <v>0.27</v>
+      </c>
+      <c r="H27" s="382">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="317" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="327"/>
-      <c r="E28" s="308"/>
-      <c r="F28" s="307"/>
-      <c r="H28" s="308"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="311" t="s">
+      <c r="C28" s="316" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="303"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="326"/>
+      <c r="H28" s="311"/>
+      <c r="I28" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="318" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="324"/>
-      <c r="D29" s="328"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="329"/>
-      <c r="H29" s="313"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="300" t="s">
+      <c r="C29" s="331" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="304"/>
+      <c r="E29" s="394"/>
+      <c r="F29" s="395"/>
+      <c r="G29" s="310"/>
+      <c r="H29" s="324"/>
+      <c r="I29" s="328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="314" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="301" t="s">
+      <c r="B30" s="314" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="300"/>
-      <c r="D30" s="325"/>
-      <c r="E30" s="303"/>
-      <c r="F30" s="302"/>
-      <c r="G30" s="326"/>
-      <c r="H30" s="304"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="305" t="s">
+      <c r="C30" s="314" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="302"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="309"/>
+      <c r="H30" s="323"/>
+      <c r="I30" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="337" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="305"/>
-      <c r="D31" s="327"/>
-      <c r="E31" s="308"/>
-      <c r="F31" s="307"/>
-      <c r="H31" s="309"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="310" t="s">
+      <c r="C31" s="337" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="381">
+        <v>0.54</v>
+      </c>
+      <c r="E31" s="398">
+        <f t="shared" si="1"/>
+        <v>-0.61618613942381695</v>
+      </c>
+      <c r="F31" s="399">
+        <f t="shared" si="2"/>
+        <v>0.26696333865538158</v>
+      </c>
+      <c r="G31" s="356">
+        <v>0.32</v>
+      </c>
+      <c r="H31" s="382">
+        <v>0.9</v>
+      </c>
+      <c r="I31" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="317" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="315" t="s">
+      <c r="B32" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="305"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="308"/>
-      <c r="F32" s="307"/>
-      <c r="H32" s="309"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="311" t="s">
+      <c r="C32" s="316" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="303"/>
+      <c r="E32" s="320"/>
+      <c r="F32" s="326"/>
+      <c r="H32" s="311"/>
+      <c r="I32" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="318" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="316" t="s">
+      <c r="B33" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="324"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="313"/>
-      <c r="F33" s="312"/>
-      <c r="G33" s="329"/>
-      <c r="H33" s="314"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="300" t="s">
+      <c r="C33" s="331" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="304"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="310"/>
+      <c r="H33" s="324"/>
+      <c r="I33" s="328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="316" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="301" t="s">
+      <c r="B34" s="316" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="300"/>
-      <c r="D34" s="325"/>
-      <c r="E34" s="303"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="326"/>
-      <c r="H34" s="304"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="305" t="s">
+      <c r="C34" s="316" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="303"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="326"/>
+      <c r="H34" s="311"/>
+      <c r="I34" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="337" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="306" t="s">
+      <c r="B35" s="337" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="305"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="308"/>
-      <c r="F35" s="307"/>
-      <c r="H35" s="309"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="310" t="s">
+      <c r="C35" s="337" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="381">
+        <v>0.52</v>
+      </c>
+      <c r="E35" s="398">
+        <f t="shared" si="1"/>
+        <v>-0.65392646740666394</v>
+      </c>
+      <c r="F35" s="399">
+        <f t="shared" si="2"/>
+        <v>0.2639063847430006</v>
+      </c>
+      <c r="G35" s="356">
+        <v>0.31</v>
+      </c>
+      <c r="H35" s="382">
+        <v>0.88</v>
+      </c>
+      <c r="I35" s="275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="317" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="315" t="s">
+      <c r="B36" s="317" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="305"/>
-      <c r="D36" s="327"/>
-      <c r="E36" s="308"/>
-      <c r="F36" s="307"/>
-      <c r="H36" s="309"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="311" t="s">
+      <c r="C36" s="316" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="303"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="326"/>
+      <c r="H36" s="311"/>
+      <c r="I36" s="322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="318" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="316" t="s">
+      <c r="B37" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="324"/>
-      <c r="D37" s="328"/>
-      <c r="E37" s="313"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="329"/>
-      <c r="H37" s="314"/>
+      <c r="C37" s="331" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="304"/>
+      <c r="E37" s="394"/>
+      <c r="F37" s="395"/>
+      <c r="G37" s="310"/>
+      <c r="H37" s="324"/>
+      <c r="I37" s="328" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7958,7 +9221,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8129,7 +9392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="263" t="s">
         <v>135</v>
       </c>
@@ -8149,7 +9412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="261" t="s">
         <v>136</v>
       </c>
@@ -8169,7 +9432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="262" t="s">
         <v>136</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -18,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -545,11 +550,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +667,13 @@
       <sz val="11"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -918,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1746,9 +1759,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2037,6 +2047,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2314,7 +2347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2325,26 +2358,26 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
@@ -2424,7 +2457,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
@@ -2451,7 +2484,7 @@
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
@@ -2479,7 +2512,7 @@
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
@@ -2505,7 +2538,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
@@ -2533,7 +2566,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
@@ -2560,7 +2593,7 @@
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
@@ -2588,7 +2621,7 @@
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="289" t="s">
         <v>52</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
@@ -2644,7 +2677,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A12" s="177" t="s">
         <v>60</v>
       </c>
@@ -2699,7 +2732,7 @@
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
@@ -2725,7 +2758,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
@@ -2753,7 +2786,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A16" s="180" t="s">
         <v>61</v>
       </c>
@@ -2769,7 +2802,7 @@
       <c r="G16" s="174"/>
       <c r="H16" s="175"/>
     </row>
-    <row r="17" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
@@ -2797,7 +2830,7 @@
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
@@ -2824,7 +2857,7 @@
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
@@ -2851,7 +2884,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
@@ -2879,7 +2912,7 @@
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
@@ -2906,7 +2939,7 @@
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
@@ -2933,7 +2966,7 @@
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
@@ -2960,7 +2993,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
@@ -2988,7 +3021,7 @@
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
@@ -3015,7 +3048,7 @@
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="294" t="s">
         <v>73</v>
       </c>
@@ -3043,7 +3076,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
@@ -3070,7 +3103,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
@@ -3098,7 +3131,7 @@
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
@@ -3152,7 +3185,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
@@ -3179,7 +3212,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="190" t="s">
         <v>82</v>
       </c>
@@ -3199,7 +3232,7 @@
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
@@ -3226,7 +3259,7 @@
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
@@ -3253,7 +3286,7 @@
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
@@ -3280,7 +3313,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
@@ -3307,7 +3340,7 @@
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="182" t="s">
         <v>99</v>
       </c>
@@ -3323,7 +3356,7 @@
       <c r="G37" s="185"/>
       <c r="H37" s="186"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
@@ -3377,7 +3410,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
@@ -3404,7 +3437,7 @@
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="180" t="s">
         <v>100</v>
       </c>
@@ -3420,7 +3453,7 @@
       <c r="G41" s="189"/>
       <c r="H41" s="187"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="299" t="s">
         <v>89</v>
       </c>
@@ -3436,7 +3469,7 @@
       <c r="G42" s="297"/>
       <c r="H42" s="298"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
@@ -3463,7 +3496,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
@@ -3490,7 +3523,7 @@
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="180" t="s">
         <v>101</v>
       </c>
@@ -3506,7 +3539,7 @@
       <c r="G45" s="189"/>
       <c r="H45" s="187"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
@@ -3533,7 +3566,7 @@
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
@@ -3560,7 +3593,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A48" s="180" t="s">
         <v>98</v>
       </c>
@@ -3576,7 +3609,7 @@
       <c r="G48" s="189"/>
       <c r="H48" s="187"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="182" t="s">
         <v>102</v>
       </c>
@@ -3592,7 +3625,7 @@
       <c r="G49" s="185"/>
       <c r="H49" s="186"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
@@ -3608,7 +3641,7 @@
       <c r="G50" s="248"/>
       <c r="H50" s="123"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A51" s="120" t="s">
         <v>146</v>
       </c>
@@ -3636,7 +3669,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A52" s="136" t="s">
         <v>147</v>
       </c>
@@ -3664,7 +3697,7 @@
         <v>1.9377599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="137" t="s">
         <v>148</v>
       </c>
@@ -3680,7 +3713,7 @@
       <c r="G53" s="249"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A54" s="122" t="s">
         <v>149</v>
       </c>
@@ -3696,7 +3729,7 @@
       <c r="G54" s="248"/>
       <c r="H54" s="123"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A55" s="120" t="s">
         <v>150</v>
       </c>
@@ -3724,7 +3757,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A56" s="136" t="s">
         <v>151</v>
       </c>
@@ -3752,7 +3785,7 @@
         <v>2.63314</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="137" t="s">
         <v>152</v>
       </c>
@@ -3768,7 +3801,7 @@
       <c r="G57" s="249"/>
       <c r="H57" s="140"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A58" s="132" t="s">
         <v>153</v>
       </c>
@@ -3784,7 +3817,7 @@
       <c r="G58" s="265"/>
       <c r="H58" s="266"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A59" s="133" t="s">
         <v>154</v>
       </c>
@@ -3812,7 +3845,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A60" s="163" t="s">
         <v>155</v>
       </c>
@@ -3840,7 +3873,7 @@
         <v>2.65049</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="164" t="s">
         <v>156</v>
       </c>
@@ -3856,7 +3889,7 @@
       <c r="G61" s="249"/>
       <c r="H61" s="140"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A62" s="133" t="s">
         <v>157</v>
       </c>
@@ -3872,7 +3905,7 @@
       <c r="G62" s="248"/>
       <c r="H62" s="135"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A63" s="133" t="s">
         <v>158</v>
       </c>
@@ -3900,7 +3933,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A64" s="163" t="s">
         <v>159</v>
       </c>
@@ -3916,7 +3949,7 @@
       <c r="G64" s="250"/>
       <c r="H64" s="141"/>
     </row>
-    <row r="65" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="164" t="s">
         <v>160</v>
       </c>
@@ -3945,28 +3978,28 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -4138,7 +4171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -4305,7 +4338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -4472,7 +4505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -4656,7 +4689,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -4840,7 +4873,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -5024,7 +5057,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -5210,7 +5243,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
@@ -5390,7 +5423,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
@@ -5429,7 +5462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="73" t="s">
         <v>95</v>
       </c>
@@ -5476,7 +5509,7 @@
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
         <v>96</v>
       </c>
@@ -5523,7 +5556,7 @@
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
         <v>97</v>
       </c>
@@ -5570,7 +5603,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
@@ -5609,7 +5642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="s">
         <v>62</v>
       </c>
@@ -5653,7 +5686,7 @@
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="97" t="s">
         <v>63</v>
       </c>
@@ -5697,7 +5730,7 @@
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="97" t="s">
         <v>64</v>
       </c>
@@ -5741,7 +5774,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -5785,7 +5818,7 @@
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="93" t="s">
         <v>83</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="97" t="s">
         <v>84</v>
       </c>
@@ -5873,7 +5906,7 @@
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="97" t="s">
         <v>85</v>
       </c>
@@ -5917,7 +5950,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -5961,7 +5994,7 @@
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="97" t="s">
         <v>99</v>
       </c>
@@ -5986,7 +6019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="97" t="s">
         <v>100</v>
       </c>
@@ -6011,7 +6044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="97" t="s">
         <v>101</v>
       </c>
@@ -6036,7 +6069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
@@ -6061,7 +6094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -6078,7 +6111,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -6120,1021 +6153,1019 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="126" customWidth="1"/>
-    <col min="2" max="3" width="13.42578125" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="308" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="2" max="3" width="13.44140625" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="308" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="312" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313" t="s">
+      <c r="B1" s="312" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="313" t="s">
+      <c r="C1" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="375" t="s">
+      <c r="D1" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="378" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="354" t="s">
+      <c r="F1" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="379" t="s">
+      <c r="G1" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="380" t="s">
+      <c r="H1" s="379" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="376" t="s">
+      <c r="I1" s="375" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="331" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="334">
+      <c r="D2" s="333">
         <v>1.47</v>
       </c>
-      <c r="E2" s="339">
+      <c r="E2" s="334">
         <f t="shared" ref="E2:E35" si="0">LN(D2)</f>
         <v>0.38526240079064489</v>
       </c>
-      <c r="F2" s="339">
+      <c r="F2" s="334">
         <f>(LN(D2/G2))/1.96</f>
         <v>0.13874169157328653</v>
       </c>
-      <c r="G2" s="381">
+      <c r="G2" s="384">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H2" s="382">
+      <c r="H2" s="385">
         <v>1.93</v>
       </c>
       <c r="I2" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="336" t="s">
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="335" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="337" t="s">
+      <c r="B3" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="337" t="s">
+      <c r="C3" s="336" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="338">
+      <c r="D3" s="337">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E3" s="339">
+      <c r="E3" s="338">
         <f t="shared" si="0"/>
         <v>0.77932487680099771</v>
       </c>
-      <c r="F3" s="339">
+      <c r="F3" s="338">
         <f t="shared" ref="F3:F35" si="1">(LN(D3/G3))/1.96</f>
         <v>0.17073421200997554</v>
       </c>
-      <c r="G3" s="381">
+      <c r="G3" s="380">
         <v>1.56</v>
       </c>
-      <c r="H3" s="382">
+      <c r="H3" s="381">
         <v>3.04</v>
       </c>
       <c r="I3" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="340" t="s">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="420" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="413" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="337" t="s">
+      <c r="C4" s="414" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="338">
+      <c r="D4" s="419">
         <v>0.45299</v>
       </c>
-      <c r="E4" s="339">
+      <c r="E4" s="415">
         <f t="shared" si="0"/>
         <v>-0.79188522879794832</v>
       </c>
-      <c r="F4" s="339">
+      <c r="F4" s="415">
         <f t="shared" si="1"/>
         <v>1.0616045140928874</v>
       </c>
-      <c r="G4" s="381">
+      <c r="G4" s="421">
         <v>5.6550000000000003E-2</v>
       </c>
-      <c r="H4" s="382">
+      <c r="H4" s="422">
         <v>3.6287600000000002</v>
       </c>
-      <c r="I4" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="342" t="s">
+      <c r="I4" s="423" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="341" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="344" t="s">
+      <c r="C5" s="343" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="345">
+      <c r="D5" s="344">
         <v>2.5</v>
       </c>
-      <c r="E5" s="346">
+      <c r="E5" s="345">
         <f t="shared" si="0"/>
         <v>0.91629073187415511</v>
       </c>
-      <c r="F5" s="346">
+      <c r="F5" s="345">
         <f t="shared" si="1"/>
         <v>1.6234409532128793</v>
       </c>
-      <c r="G5" s="383">
+      <c r="G5" s="382">
         <v>0.1037622</v>
       </c>
-      <c r="H5" s="384">
+      <c r="H5" s="383">
         <v>0.38549679999999997</v>
       </c>
       <c r="I5" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="332" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="333" t="s">
+      <c r="C6" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="334">
+      <c r="D6" s="333">
         <v>1.26</v>
       </c>
-      <c r="E6" s="335">
+      <c r="E6" s="334">
         <f t="shared" si="0"/>
         <v>0.23111172096338664</v>
       </c>
-      <c r="F6" s="335">
+      <c r="F6" s="334">
         <f t="shared" si="1"/>
         <v>0.14408419150558024</v>
       </c>
-      <c r="G6" s="385">
+      <c r="G6" s="384">
         <v>0.95</v>
       </c>
-      <c r="H6" s="386">
+      <c r="H6" s="385">
         <v>1.67</v>
       </c>
       <c r="I6" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="336" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="337" t="s">
+      <c r="C7" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="338">
+      <c r="D7" s="337">
         <v>1.6</v>
       </c>
-      <c r="E7" s="339">
+      <c r="E7" s="338">
         <f t="shared" si="0"/>
         <v>0.47000362924573563</v>
       </c>
-      <c r="F7" s="339">
+      <c r="F7" s="338">
         <f t="shared" si="1"/>
         <v>0.17744183495994209</v>
       </c>
-      <c r="G7" s="381">
+      <c r="G7" s="380">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H7" s="382">
+      <c r="H7" s="381">
         <v>2.27</v>
       </c>
       <c r="I7" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="340" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="339" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="341" t="s">
+      <c r="B8" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="337" t="s">
+      <c r="C8" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="338">
+      <c r="D8" s="337">
         <v>0.24113000000000001</v>
       </c>
-      <c r="E8" s="339">
-        <f t="shared" si="0"/>
+      <c r="E8" s="338">
+        <f>LN(D8)</f>
         <v>-1.4224190718385232</v>
       </c>
-      <c r="F8" s="339">
+      <c r="F8" s="338">
         <f t="shared" si="1"/>
         <v>1.0827484148566267</v>
       </c>
-      <c r="G8" s="381">
+      <c r="G8" s="380">
         <v>2.8879999999999999E-2</v>
       </c>
-      <c r="H8" s="382">
+      <c r="H8" s="381">
         <v>2.0135800000000001</v>
       </c>
       <c r="I8" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="342" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="341" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="343" t="s">
+      <c r="B9" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="344" t="s">
+      <c r="C9" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="345">
+      <c r="D9" s="344">
         <v>1.6018749999999999</v>
       </c>
-      <c r="E9" s="346">
+      <c r="E9" s="345">
         <f t="shared" si="0"/>
         <v>0.47117481813619849</v>
       </c>
-      <c r="F9" s="346">
+      <c r="F9" s="345">
         <f t="shared" si="1"/>
         <v>0.27978179960646449</v>
       </c>
-      <c r="G9" s="383">
+      <c r="G9" s="382">
         <v>0.92570699999999995</v>
       </c>
-      <c r="H9" s="384">
+      <c r="H9" s="383">
         <v>27.7194</v>
       </c>
       <c r="I9" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="347" t="s">
+    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="346" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="348" t="s">
+      <c r="B10" s="347" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="348" t="s">
+      <c r="C10" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="334">
+      <c r="D10" s="333">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E10" s="335">
+      <c r="E10" s="334">
         <f t="shared" si="0"/>
         <v>0.131028262406404</v>
       </c>
-      <c r="F10" s="335">
+      <c r="F10" s="334">
         <f t="shared" si="1"/>
         <v>0.14976897546131579</v>
       </c>
-      <c r="G10" s="385">
+      <c r="G10" s="384">
         <v>0.85</v>
       </c>
-      <c r="H10" s="386">
+      <c r="H10" s="385">
         <v>1.52</v>
       </c>
-      <c r="I10" s="349" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="336" t="s">
+      <c r="I10" s="348" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="335" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="337" t="s">
+      <c r="C11" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="338">
+      <c r="D11" s="337">
         <v>1.39</v>
       </c>
-      <c r="E11" s="339">
+      <c r="E11" s="338">
         <f t="shared" si="0"/>
         <v>0.3293037471426003</v>
       </c>
-      <c r="F11" s="339">
+      <c r="F11" s="338">
         <f t="shared" si="1"/>
         <v>0.18355252787107601</v>
       </c>
-      <c r="G11" s="381">
+      <c r="G11" s="380">
         <v>0.97</v>
       </c>
-      <c r="H11" s="382">
+      <c r="H11" s="381">
         <v>1.98</v>
       </c>
       <c r="I11" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="340" t="s">
+    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="339" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="337" t="s">
+      <c r="C12" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="338">
+      <c r="D12" s="337">
         <v>0.27688000000000001</v>
       </c>
-      <c r="E12" s="339">
+      <c r="E12" s="338">
         <f t="shared" si="0"/>
         <v>-1.2841710796550483</v>
       </c>
-      <c r="F12" s="339">
+      <c r="F12" s="338">
         <f t="shared" si="1"/>
         <v>1.0925619687968515</v>
       </c>
-      <c r="G12" s="381">
+      <c r="G12" s="380">
         <v>3.2530000000000003E-2</v>
       </c>
-      <c r="H12" s="382">
+      <c r="H12" s="381">
         <v>2.3532899999999999</v>
       </c>
-      <c r="I12" s="350" t="s">
+      <c r="I12" s="349" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="342" t="s">
+      <c r="A13" s="341" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="343" t="s">
+      <c r="B13" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="344" t="s">
+      <c r="C13" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="345">
+      <c r="D13" s="344">
         <v>4.2919409999999996</v>
       </c>
-      <c r="E13" s="346">
+      <c r="E13" s="345">
         <f t="shared" si="0"/>
         <v>1.4567390781688421</v>
       </c>
-      <c r="F13" s="346">
+      <c r="F13" s="345">
         <f t="shared" si="1"/>
         <v>1.7179024789860668</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G13" s="382">
         <v>0.14802860000000001</v>
       </c>
-      <c r="H13" s="384">
+      <c r="H13" s="383">
         <v>124.4405</v>
       </c>
       <c r="I13" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="332" t="s">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="333" t="s">
+      <c r="C14" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="351">
+      <c r="D14" s="350">
         <v>0.22</v>
       </c>
-      <c r="E14" s="335">
+      <c r="E14" s="334">
         <f t="shared" si="0"/>
         <v>-1.5141277326297755</v>
       </c>
-      <c r="F14" s="335">
+      <c r="F14" s="334">
         <f t="shared" si="1"/>
         <v>0.40227416345115818</v>
       </c>
-      <c r="G14" s="385">
+      <c r="G14" s="384">
         <v>0.1</v>
       </c>
-      <c r="H14" s="386">
+      <c r="H14" s="385">
         <v>0.47</v>
       </c>
       <c r="I14" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="336" t="s">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="335" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="337" t="s">
+      <c r="B15" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="337" t="s">
+      <c r="C15" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="352">
+      <c r="D15" s="351">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E15" s="339">
+      <c r="E15" s="338">
         <f t="shared" si="0"/>
         <v>-0.59783700075562041</v>
       </c>
-      <c r="F15" s="339">
+      <c r="F15" s="338">
         <f t="shared" si="1"/>
         <v>0.18864644158473734</v>
       </c>
-      <c r="G15" s="381">
+      <c r="G15" s="380">
         <v>0.38</v>
       </c>
-      <c r="H15" s="382">
+      <c r="H15" s="381">
         <v>0.81</v>
       </c>
       <c r="I15" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="340" t="s">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="339" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="341" t="s">
+      <c r="B16" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="337" t="s">
+      <c r="C16" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="352">
+      <c r="D16" s="351">
         <v>1.1831</v>
       </c>
-      <c r="E16" s="339">
+      <c r="E16" s="338">
         <f t="shared" si="0"/>
         <v>0.1681381122774801</v>
       </c>
-      <c r="F16" s="339">
+      <c r="F16" s="338">
         <f t="shared" si="1"/>
         <v>1.069278589557306</v>
       </c>
-      <c r="G16" s="381">
+      <c r="G16" s="380">
         <v>0.14549000000000001</v>
       </c>
-      <c r="H16" s="382">
+      <c r="H16" s="381">
         <v>9.6190099999999994</v>
       </c>
       <c r="I16" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="365" t="s">
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="364" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="361" t="s">
+      <c r="B17" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="362" t="s">
+      <c r="C17" s="361" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="366"/>
-      <c r="E17" s="363"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="387"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="332" t="s">
+      <c r="D17" s="365"/>
+      <c r="E17" s="362"/>
+      <c r="F17" s="362"/>
+      <c r="G17" s="386"/>
+      <c r="H17" s="387"/>
+      <c r="I17" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="331" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="333" t="s">
+      <c r="C18" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="351">
+      <c r="D18" s="350">
         <v>0.26</v>
       </c>
-      <c r="E18" s="335">
+      <c r="E18" s="334">
         <f t="shared" si="0"/>
         <v>-1.3470736479666092</v>
       </c>
-      <c r="F18" s="335">
+      <c r="F18" s="334">
         <f t="shared" si="1"/>
         <v>0.39448463685381729</v>
       </c>
-      <c r="G18" s="385">
+      <c r="G18" s="384">
         <v>0.12</v>
       </c>
-      <c r="H18" s="386">
+      <c r="H18" s="385">
         <v>0.59</v>
       </c>
       <c r="I18" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="336" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="335" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="337" t="s">
+      <c r="B19" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="337" t="s">
+      <c r="C19" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="352">
+      <c r="D19" s="351">
         <v>0.64</v>
       </c>
-      <c r="E19" s="339">
+      <c r="E19" s="338">
         <f t="shared" si="0"/>
         <v>-0.44628710262841947</v>
       </c>
-      <c r="F19" s="339">
+      <c r="F19" s="338">
         <f t="shared" si="1"/>
         <v>0.20289947329903543</v>
       </c>
-      <c r="G19" s="381">
+      <c r="G19" s="380">
         <v>0.43</v>
       </c>
-      <c r="H19" s="382">
+      <c r="H19" s="381">
         <v>0.95</v>
       </c>
       <c r="I19" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="340" t="s">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="339" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="337" t="s">
+      <c r="C20" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="352">
+      <c r="D20" s="351">
         <v>1.90327</v>
       </c>
-      <c r="E20" s="339">
+      <c r="E20" s="338">
         <f t="shared" si="0"/>
         <v>0.64357345948996836</v>
       </c>
-      <c r="F20" s="339">
+      <c r="F20" s="338">
         <f t="shared" si="1"/>
         <v>1.0986002748913657</v>
       </c>
-      <c r="G20" s="381">
+      <c r="G20" s="380">
         <v>0.22098000000000001</v>
       </c>
-      <c r="H20" s="382">
+      <c r="H20" s="381">
         <v>16.392299999999999</v>
       </c>
       <c r="I20" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="365" t="s">
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="364" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="361" t="s">
+      <c r="B21" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="362" t="s">
+      <c r="C21" s="361" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="366"/>
-      <c r="E21" s="363"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="388"/>
-      <c r="I21" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="332" t="s">
+      <c r="D21" s="365"/>
+      <c r="E21" s="362"/>
+      <c r="F21" s="362"/>
+      <c r="G21" s="386"/>
+      <c r="H21" s="387"/>
+      <c r="I21" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="331" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="333" t="s">
+      <c r="C22" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="351">
+      <c r="D22" s="350">
         <v>0.32</v>
       </c>
-      <c r="E22" s="335">
+      <c r="E22" s="334">
         <f t="shared" si="0"/>
         <v>-1.1394342831883648</v>
       </c>
-      <c r="F22" s="335">
+      <c r="F22" s="334">
         <f t="shared" si="1"/>
         <v>0.42177478223697346</v>
       </c>
-      <c r="G22" s="385">
+      <c r="G22" s="384">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22" s="386">
+      <c r="H22" s="385">
         <v>0.72</v>
       </c>
       <c r="I22" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="336" t="s">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="335" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="337" t="s">
+      <c r="C23" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="352">
+      <c r="D23" s="351">
         <v>0.65</v>
       </c>
-      <c r="E23" s="339">
+      <c r="E23" s="338">
         <f t="shared" si="0"/>
         <v>-0.43078291609245423</v>
       </c>
-      <c r="F23" s="339">
+      <c r="F23" s="338">
         <f t="shared" si="1"/>
         <v>0.21080977255207892</v>
       </c>
-      <c r="G23" s="381">
+      <c r="G23" s="380">
         <v>0.43</v>
       </c>
-      <c r="H23" s="382">
+      <c r="H23" s="381">
         <v>0.97</v>
       </c>
       <c r="I23" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="340" t="s">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="341" t="s">
+      <c r="B24" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="337" t="s">
+      <c r="C24" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="352">
+      <c r="D24" s="351">
         <v>1.7105399999999999</v>
       </c>
-      <c r="E24" s="339">
+      <c r="E24" s="338">
         <f t="shared" si="0"/>
         <v>0.53680911013725152</v>
       </c>
-      <c r="F24" s="339">
+      <c r="F24" s="338">
         <f t="shared" si="1"/>
         <v>1.1099598802425241</v>
       </c>
-      <c r="G24" s="381">
+      <c r="G24" s="380">
         <v>0.19423000000000001</v>
       </c>
-      <c r="H24" s="382">
+      <c r="H24" s="381">
         <v>15.063940000000001</v>
       </c>
       <c r="I24" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="405" t="s">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="318" t="s">
+      <c r="B25" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="331" t="s">
+      <c r="C25" s="330" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="406"/>
-      <c r="E25" s="407"/>
-      <c r="F25" s="407"/>
+      <c r="D25" s="405"/>
+      <c r="E25" s="406"/>
+      <c r="F25" s="406"/>
       <c r="G25" s="304"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="408" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="367" t="s">
+      <c r="H25" s="323"/>
+      <c r="I25" s="407" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="366" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="358" t="s">
+      <c r="B26" s="357" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="358" t="s">
+      <c r="C26" s="357" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="368"/>
-      <c r="E26" s="359"/>
-      <c r="F26" s="359"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="390"/>
-      <c r="I26" s="360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="336" t="s">
+      <c r="D26" s="367"/>
+      <c r="E26" s="358"/>
+      <c r="F26" s="358"/>
+      <c r="G26" s="388"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="335" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="337" t="s">
+      <c r="C27" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="338">
+      <c r="D27" s="337">
         <v>0.42</v>
       </c>
-      <c r="E27" s="339">
+      <c r="E27" s="338">
         <f t="shared" si="0"/>
         <v>-0.86750056770472306</v>
       </c>
-      <c r="F27" s="339">
+      <c r="F27" s="338">
         <f t="shared" si="1"/>
         <v>0.24468014299075824</v>
       </c>
-      <c r="G27" s="381">
+      <c r="G27" s="380">
         <v>0.26</v>
       </c>
-      <c r="H27" s="382">
+      <c r="H27" s="381">
         <v>0.7</v>
       </c>
       <c r="I27" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="413" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="412" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="317" t="s">
+      <c r="B28" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="316" t="s">
+      <c r="C28" s="315" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="300"/>
       <c r="G28" s="303"/>
-      <c r="H28" s="311"/>
-      <c r="I28" s="321" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="365" t="s">
+      <c r="H28" s="310"/>
+      <c r="I28" s="320" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="364" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="361" t="s">
+      <c r="B29" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="362" t="s">
+      <c r="C29" s="361" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="307"/>
-      <c r="E29" s="363"/>
-      <c r="F29" s="363"/>
-      <c r="G29" s="387"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="367" t="s">
+      <c r="E29" s="362"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="366" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="358" t="s">
+      <c r="B30" s="357" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="358" t="s">
+      <c r="C30" s="357" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="368"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="389"/>
-      <c r="H30" s="390"/>
-      <c r="I30" s="360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="336" t="s">
+      <c r="D30" s="367"/>
+      <c r="E30" s="358"/>
+      <c r="F30" s="358"/>
+      <c r="G30" s="388"/>
+      <c r="H30" s="389"/>
+      <c r="I30" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="335" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="337" t="s">
+      <c r="B31" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="337" t="s">
+      <c r="C31" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="338">
+      <c r="D31" s="337">
         <v>0.49</v>
       </c>
-      <c r="E31" s="339">
+      <c r="E31" s="338">
         <f t="shared" si="0"/>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="F31" s="339">
+      <c r="F31" s="338">
         <f t="shared" si="1"/>
         <v>0.26761452455313911</v>
       </c>
-      <c r="G31" s="381">
+      <c r="G31" s="380">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H31" s="382">
+      <c r="H31" s="381">
         <v>0.82</v>
       </c>
       <c r="I31" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="369" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="368" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="370" t="s">
+      <c r="B32" s="369" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="371" t="s">
+      <c r="C32" s="370" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="372"/>
-      <c r="E32" s="373"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="391"/>
-      <c r="H32" s="392"/>
-      <c r="I32" s="374" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="365" t="s">
+      <c r="D32" s="371"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="372"/>
+      <c r="G32" s="390"/>
+      <c r="H32" s="391"/>
+      <c r="I32" s="373" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="364" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="361" t="s">
+      <c r="B33" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="362" t="s">
+      <c r="C33" s="361" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="307"/>
-      <c r="E33" s="363"/>
-      <c r="F33" s="363"/>
-      <c r="G33" s="387"/>
-      <c r="H33" s="388"/>
-      <c r="I33" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="315" t="s">
+      <c r="E33" s="362"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="386"/>
+      <c r="H33" s="387"/>
+      <c r="I33" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="314" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="316" t="s">
+      <c r="B34" s="315" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="316" t="s">
+      <c r="C34" s="315" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="300"/>
       <c r="G34" s="303"/>
-      <c r="H34" s="311"/>
-      <c r="I34" s="321" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="336" t="s">
+      <c r="H34" s="310"/>
+      <c r="I34" s="320" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="337" t="s">
+      <c r="B35" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="337" t="s">
+      <c r="C35" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="338">
+      <c r="D35" s="337">
         <v>0.49</v>
       </c>
-      <c r="E35" s="339">
+      <c r="E35" s="338">
         <f t="shared" si="0"/>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="F35" s="339">
+      <c r="F35" s="338">
         <f t="shared" si="1"/>
         <v>0.26761452455313911</v>
       </c>
-      <c r="G35" s="381">
+      <c r="G35" s="380">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H35" s="382">
+      <c r="H35" s="381">
         <v>0.82</v>
       </c>
       <c r="I35" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="369" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="368" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="370" t="s">
+      <c r="B36" s="369" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="371" t="s">
+      <c r="C36" s="370" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="372"/>
-      <c r="E36" s="373"/>
-      <c r="F36" s="373"/>
-      <c r="G36" s="391"/>
-      <c r="H36" s="392"/>
-      <c r="I36" s="374" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="365" t="s">
+      <c r="D36" s="371"/>
+      <c r="E36" s="372"/>
+      <c r="F36" s="372"/>
+      <c r="G36" s="390"/>
+      <c r="H36" s="391"/>
+      <c r="I36" s="373" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="364" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="361" t="s">
+      <c r="B37" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="362" t="s">
+      <c r="C37" s="361" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="307"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="363"/>
-      <c r="G37" s="387"/>
-      <c r="H37" s="388"/>
-      <c r="I37" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="362"/>
+      <c r="F37" s="362"/>
+      <c r="G37" s="386"/>
+      <c r="H37" s="387"/>
+      <c r="I37" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="35"/>
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
@@ -7152,78 +7183,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="308" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="21.109375" style="126" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="313" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313" t="s">
+      <c r="B1" s="312" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="312" t="s">
+      <c r="C1" s="311" t="s">
         <v>107</v>
       </c>
       <c r="D1" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="354" t="s">
+      <c r="E1" s="353" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="354" t="s">
+      <c r="F1" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="379" t="s">
+      <c r="G1" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="380" t="s">
+      <c r="H1" s="379" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="376" t="s">
+      <c r="I1" s="375" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="332" t="s">
+      <c r="C2" s="331" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="338">
+      <c r="D2" s="333">
         <v>1.44</v>
       </c>
-      <c r="E2" s="339">
+      <c r="E2" s="334">
         <f t="shared" ref="E2" si="0">LN(D2)</f>
         <v>0.36464311358790924</v>
       </c>
-      <c r="F2" s="339">
+      <c r="F2" s="334">
         <f>(LN(D2/G2))/1.96</f>
         <v>0.11031791248450816</v>
       </c>
-      <c r="G2" s="381">
+      <c r="G2" s="384">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H2" s="382">
+      <c r="H2" s="385">
         <v>1.78</v>
       </c>
       <c r="I2" s="279" t="s">
@@ -7231,1019 +7262,1019 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="336" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="337" t="s">
+      <c r="B3" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="335" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="338">
-        <v>2.234</v>
-      </c>
-      <c r="E3" s="339">
+      <c r="D3" s="337">
+        <v>2.34</v>
+      </c>
+      <c r="E3" s="338">
         <f t="shared" ref="E3:E36" si="1">LN(D3)</f>
-        <v>0.80379370064700895</v>
-      </c>
-      <c r="F3" s="339">
+        <v>0.85015092936961001</v>
+      </c>
+      <c r="F3" s="338">
         <f t="shared" ref="F3:F36" si="2">(LN(D3/G3))/1.96</f>
-        <v>0.11020767129841322</v>
-      </c>
-      <c r="G3" s="381">
+        <v>0.1338593186058627</v>
+      </c>
+      <c r="G3" s="380">
         <v>1.8</v>
       </c>
-      <c r="H3" s="382">
+      <c r="H3" s="381">
         <v>3.04</v>
       </c>
       <c r="I3" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="341" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="340" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="336" t="s">
+      <c r="C4" s="335" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="338">
+      <c r="D4" s="337">
         <v>1.02369</v>
       </c>
-      <c r="E4" s="339">
+      <c r="E4" s="338">
         <f t="shared" si="1"/>
         <v>2.3413746409014682E-2</v>
       </c>
-      <c r="F4" s="339">
+      <c r="F4" s="338">
         <f t="shared" si="2"/>
         <v>0.3123657899643198</v>
       </c>
-      <c r="G4" s="381">
+      <c r="G4" s="380">
         <v>0.55498000000000003</v>
       </c>
-      <c r="H4" s="382">
+      <c r="H4" s="381">
         <v>1.8882399999999999</v>
       </c>
       <c r="I4" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="343" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="377" t="s">
+      <c r="C5" s="376" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="345">
+      <c r="D5" s="344">
         <v>2.7517450000000001</v>
       </c>
-      <c r="E5" s="346">
+      <c r="E5" s="345">
         <f t="shared" si="1"/>
         <v>1.0122352558941841</v>
       </c>
-      <c r="F5" s="346">
+      <c r="F5" s="345">
         <f t="shared" si="2"/>
         <v>0.2897868472340609</v>
       </c>
-      <c r="G5" s="383">
+      <c r="G5" s="382">
         <v>1.5593250000000001</v>
       </c>
-      <c r="H5" s="384">
+      <c r="H5" s="383">
         <v>4.8560109999999996</v>
       </c>
       <c r="I5" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="333" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="331" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="334">
+      <c r="D6" s="333">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E6" s="335">
+      <c r="E6" s="334">
         <f t="shared" si="1"/>
         <v>0.12221763272424911</v>
       </c>
-      <c r="F6" s="335">
+      <c r="F6" s="334">
         <f t="shared" si="2"/>
         <v>0.11611130019493637</v>
       </c>
-      <c r="G6" s="385">
+      <c r="G6" s="384">
         <v>0.9</v>
       </c>
-      <c r="H6" s="386">
+      <c r="H6" s="385">
         <v>1.43</v>
       </c>
       <c r="I6" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="337" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="336" t="s">
+      <c r="C7" s="335" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="338">
+      <c r="D7" s="337">
         <v>1.55</v>
       </c>
-      <c r="E7" s="339">
+      <c r="E7" s="338">
         <f t="shared" si="1"/>
         <v>0.43825493093115531</v>
       </c>
-      <c r="F7" s="339">
+      <c r="F7" s="338">
         <f t="shared" si="2"/>
         <v>0.14349550108239317</v>
       </c>
-      <c r="G7" s="381">
+      <c r="G7" s="380">
         <v>1.17</v>
       </c>
-      <c r="H7" s="382">
+      <c r="H7" s="381">
         <v>2.0499999999999998</v>
       </c>
       <c r="I7" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="341" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="340" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="341" t="s">
+      <c r="B8" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="336" t="s">
+      <c r="C8" s="335" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="338">
+      <c r="D8" s="337">
         <v>0.62636000000000003</v>
       </c>
-      <c r="E8" s="339">
+      <c r="E8" s="338">
         <f t="shared" si="1"/>
         <v>-0.46782999330489483</v>
       </c>
-      <c r="F8" s="339">
+      <c r="F8" s="338">
         <f t="shared" si="2"/>
         <v>0.33761012353731651</v>
       </c>
-      <c r="G8" s="381">
+      <c r="G8" s="380">
         <v>0.32318000000000002</v>
       </c>
-      <c r="H8" s="382">
+      <c r="H8" s="381">
         <v>1.2139899999999999</v>
       </c>
       <c r="I8" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="343" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="343" t="s">
+      <c r="B9" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="377" t="s">
+      <c r="C9" s="376" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="345">
+      <c r="D9" s="344">
         <v>2.3734570000000001</v>
       </c>
-      <c r="E9" s="346">
+      <c r="E9" s="345">
         <f t="shared" si="1"/>
         <v>0.86434754213983866</v>
       </c>
-      <c r="F9" s="346">
+      <c r="F9" s="345">
         <f t="shared" si="2"/>
         <v>0.30369695103045019</v>
       </c>
-      <c r="G9" s="383">
+      <c r="G9" s="382">
         <v>1.3087880000000001</v>
       </c>
-      <c r="H9" s="384">
+      <c r="H9" s="383">
         <v>4.3042129999999998</v>
       </c>
       <c r="I9" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="348" t="s">
+    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="348" t="s">
+      <c r="B10" s="347" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="347" t="s">
+      <c r="C10" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="334">
+      <c r="D10" s="333">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E10" s="335">
+      <c r="E10" s="334">
         <f t="shared" si="1"/>
         <v>0.131028262406404</v>
       </c>
-      <c r="F10" s="335">
+      <c r="F10" s="334">
         <f t="shared" si="2"/>
         <v>0.12060651942052568</v>
       </c>
-      <c r="G10" s="385">
+      <c r="G10" s="384">
         <v>0.9</v>
       </c>
-      <c r="H10" s="386">
+      <c r="H10" s="385">
         <v>1.43</v>
       </c>
-      <c r="I10" s="349" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="337" t="s">
+      <c r="I10" s="348" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="336" t="s">
+      <c r="C11" s="335" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="338">
+      <c r="D11" s="337">
         <v>1.34</v>
       </c>
-      <c r="E11" s="339">
+      <c r="E11" s="338">
         <f t="shared" si="1"/>
         <v>0.29266961396282004</v>
       </c>
-      <c r="F11" s="339">
+      <c r="F11" s="338">
         <f t="shared" si="2"/>
         <v>0.14424453219880201</v>
       </c>
-      <c r="G11" s="381">
+      <c r="G11" s="380">
         <v>1.01</v>
       </c>
-      <c r="H11" s="382">
+      <c r="H11" s="381">
         <v>1.79</v>
       </c>
       <c r="I11" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="341" t="s">
+    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="340" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="336" t="s">
+      <c r="C12" s="335" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="338">
+      <c r="D12" s="337">
         <v>0.70374000000000003</v>
       </c>
-      <c r="E12" s="339">
+      <c r="E12" s="338">
         <f t="shared" si="1"/>
         <v>-0.35134630922066834</v>
       </c>
-      <c r="F12" s="339">
+      <c r="F12" s="338">
         <f t="shared" si="2"/>
         <v>0.34272980967923261</v>
       </c>
-      <c r="G12" s="381">
+      <c r="G12" s="380">
         <v>0.35948000000000002</v>
       </c>
-      <c r="H12" s="382">
+      <c r="H12" s="381">
         <v>1.37768</v>
       </c>
-      <c r="I12" s="350" t="s">
+      <c r="I12" s="349" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="343" t="s">
+      <c r="A13" s="342" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="343" t="s">
+      <c r="B13" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="377" t="s">
+      <c r="C13" s="376" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="345">
+      <c r="D13" s="344">
         <v>1.9817419999999999</v>
       </c>
-      <c r="E13" s="346">
+      <c r="E13" s="345">
         <f t="shared" si="1"/>
         <v>0.68397625589085043</v>
       </c>
-      <c r="F13" s="346">
+      <c r="F13" s="345">
         <f t="shared" si="2"/>
         <v>0.32922238285317329</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G13" s="382">
         <v>1.0394589999999999</v>
       </c>
-      <c r="H13" s="384">
+      <c r="H13" s="383">
         <v>3.7782170000000002</v>
       </c>
       <c r="I13" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="333" t="s">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="332" t="s">
+      <c r="C14" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="351">
+      <c r="D14" s="350">
         <v>0.41</v>
       </c>
-      <c r="E14" s="335">
+      <c r="E14" s="334">
         <f t="shared" si="1"/>
         <v>-0.89159811928378363</v>
       </c>
-      <c r="F14" s="335">
+      <c r="F14" s="334">
         <f t="shared" si="2"/>
         <v>0.21313020443876463</v>
       </c>
-      <c r="G14" s="385">
+      <c r="G14" s="384">
         <v>0.27</v>
       </c>
-      <c r="H14" s="386">
+      <c r="H14" s="385">
         <v>0.63</v>
       </c>
       <c r="I14" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="337" t="s">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="336" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="337" t="s">
+      <c r="B15" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="336" t="s">
+      <c r="C15" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="352">
+      <c r="D15" s="351">
         <v>0.53</v>
       </c>
-      <c r="E15" s="339">
+      <c r="E15" s="338">
         <f t="shared" si="1"/>
         <v>-0.6348782724359695</v>
       </c>
-      <c r="F15" s="339">
+      <c r="F15" s="338">
         <f t="shared" si="2"/>
         <v>0.11868484452487432</v>
       </c>
-      <c r="G15" s="381">
+      <c r="G15" s="380">
         <v>0.42</v>
       </c>
-      <c r="H15" s="382">
+      <c r="H15" s="381">
         <v>0.68</v>
       </c>
       <c r="I15" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="341" t="s">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="340" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="341" t="s">
+      <c r="B16" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="336" t="s">
+      <c r="C16" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="352">
+      <c r="D16" s="351">
         <v>0.81655</v>
       </c>
-      <c r="E16" s="339">
+      <c r="E16" s="338">
         <f t="shared" si="1"/>
         <v>-0.20266713145938478</v>
       </c>
-      <c r="F16" s="339">
+      <c r="F16" s="338">
         <f t="shared" si="2"/>
         <v>0.46674602702980306</v>
       </c>
-      <c r="G16" s="381">
+      <c r="G16" s="380">
         <v>0.3271</v>
       </c>
-      <c r="H16" s="382">
+      <c r="H16" s="381">
         <v>2.0383900000000001</v>
       </c>
       <c r="I16" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="343" t="s">
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="343" t="s">
+      <c r="B17" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="377" t="s">
+      <c r="C17" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="353">
+      <c r="D17" s="352">
         <v>0.83754209999999996</v>
       </c>
-      <c r="E17" s="346">
+      <c r="E17" s="345">
         <f t="shared" si="1"/>
         <v>-0.17728374788962578</v>
       </c>
-      <c r="F17" s="346">
+      <c r="F17" s="345">
         <f t="shared" si="2"/>
         <v>0.37366098001101861</v>
       </c>
-      <c r="G17" s="383">
+      <c r="G17" s="382">
         <v>0.4026614</v>
       </c>
-      <c r="H17" s="384">
+      <c r="H17" s="383">
         <v>1.7421009999999999</v>
       </c>
       <c r="I17" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="333" t="s">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="332" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="332" t="s">
+      <c r="C18" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="351">
+      <c r="D18" s="350">
         <v>0.62</v>
       </c>
-      <c r="E18" s="335">
+      <c r="E18" s="334">
         <f t="shared" si="1"/>
         <v>-0.4780358009429998</v>
       </c>
-      <c r="F18" s="335">
+      <c r="F18" s="334">
         <f t="shared" si="2"/>
         <v>0.23651670352828832</v>
       </c>
-      <c r="G18" s="385">
+      <c r="G18" s="384">
         <v>0.39</v>
       </c>
-      <c r="H18" s="386">
+      <c r="H18" s="385">
         <v>0.98</v>
       </c>
       <c r="I18" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="337" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="337" t="s">
+      <c r="B19" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="336" t="s">
+      <c r="C19" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="352">
+      <c r="D19" s="351">
         <v>0.63</v>
       </c>
-      <c r="E19" s="339">
+      <c r="E19" s="338">
         <f t="shared" si="1"/>
         <v>-0.46203545959655867</v>
       </c>
-      <c r="F19" s="339">
+      <c r="F19" s="338">
         <f t="shared" si="2"/>
         <v>0.12822164708209499</v>
       </c>
-      <c r="G19" s="381">
+      <c r="G19" s="380">
         <v>0.49</v>
       </c>
-      <c r="H19" s="382">
+      <c r="H19" s="381">
         <v>0.81</v>
       </c>
       <c r="I19" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="341" t="s">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="340" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="336" t="s">
+      <c r="C20" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="352">
+      <c r="D20" s="351">
         <v>1.0624199999999999</v>
       </c>
-      <c r="E20" s="339">
+      <c r="E20" s="338">
         <f t="shared" si="1"/>
         <v>6.0549324864043338E-2</v>
       </c>
-      <c r="F20" s="339">
+      <c r="F20" s="338">
         <f t="shared" si="2"/>
         <v>0.48956151003068227</v>
       </c>
-      <c r="G20" s="381">
+      <c r="G20" s="380">
         <v>0.40698000000000001</v>
       </c>
-      <c r="H20" s="382">
+      <c r="H20" s="381">
         <v>2.77345</v>
       </c>
       <c r="I20" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="343" t="s">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="342" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="343" t="s">
+      <c r="B21" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="377" t="s">
+      <c r="C21" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="345">
+      <c r="D21" s="344">
         <v>0.93279719999999999</v>
       </c>
-      <c r="E21" s="346">
+      <c r="E21" s="345">
         <f t="shared" si="1"/>
         <v>-6.9567465105680154E-2</v>
       </c>
-      <c r="F21" s="346">
+      <c r="F21" s="345">
         <f t="shared" si="2"/>
         <v>0.39500489824470753</v>
       </c>
-      <c r="G21" s="383">
+      <c r="G21" s="382">
         <v>0.43008299999999999</v>
       </c>
-      <c r="H21" s="384">
+      <c r="H21" s="383">
         <v>2.0230929999999998</v>
       </c>
       <c r="I21" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="333" t="s">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="332" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="332" t="s">
+      <c r="C22" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="351">
+      <c r="D22" s="350">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E22" s="335">
+      <c r="E22" s="334">
         <f t="shared" si="1"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="F22" s="335">
+      <c r="F22" s="334">
         <f t="shared" si="2"/>
         <v>0.24332860820934152</v>
       </c>
-      <c r="G22" s="385">
+      <c r="G22" s="384">
         <v>0.36</v>
       </c>
-      <c r="H22" s="386">
+      <c r="H22" s="385">
         <v>0.93</v>
       </c>
       <c r="I22" s="279" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="337" t="s">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="336" t="s">
+      <c r="C23" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="352">
+      <c r="D23" s="351">
         <v>0.61</v>
       </c>
-      <c r="E23" s="339">
+      <c r="E23" s="338">
         <f t="shared" si="1"/>
         <v>-0.49429632181478012</v>
       </c>
-      <c r="F23" s="339">
+      <c r="F23" s="338">
         <f t="shared" si="2"/>
         <v>0.13302360329757787</v>
       </c>
-      <c r="G23" s="381">
+      <c r="G23" s="380">
         <v>0.47</v>
       </c>
-      <c r="H23" s="382">
+      <c r="H23" s="381">
         <v>0.8</v>
       </c>
       <c r="I23" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="341" t="s">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="340" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="341" t="s">
+      <c r="B24" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="336" t="s">
+      <c r="C24" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="352">
+      <c r="D24" s="351">
         <v>0.97092999999999996</v>
       </c>
-      <c r="E24" s="339">
+      <c r="E24" s="338">
         <f t="shared" si="1"/>
         <v>-2.9500903917684746E-2</v>
       </c>
-      <c r="F24" s="339">
+      <c r="F24" s="338">
         <f t="shared" si="2"/>
         <v>0.5029358041372749</v>
       </c>
-      <c r="G24" s="381">
+      <c r="G24" s="380">
         <v>0.36231000000000002</v>
       </c>
-      <c r="H24" s="382">
+      <c r="H24" s="381">
         <v>2.6019100000000002</v>
       </c>
       <c r="I24" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="343" t="s">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="342" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="343" t="s">
+      <c r="B25" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="377" t="s">
+      <c r="C25" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="353">
+      <c r="D25" s="352">
         <v>0.99697309999999995</v>
       </c>
-      <c r="E25" s="346">
+      <c r="E25" s="345">
         <f t="shared" si="1"/>
         <v>-3.0314903271194474E-3</v>
       </c>
-      <c r="F25" s="346">
+      <c r="F25" s="345">
         <f t="shared" si="2"/>
         <v>0.42063432931470246</v>
       </c>
-      <c r="G25" s="383">
+      <c r="G25" s="382">
         <v>0.43715179999999998</v>
       </c>
-      <c r="H25" s="384">
+      <c r="H25" s="383">
         <v>2.2737080000000001</v>
       </c>
       <c r="I25" s="281" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="358" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="357" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="358" t="s">
+      <c r="B26" s="357" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="367" t="s">
+      <c r="C26" s="366" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="368"/>
-      <c r="E26" s="359"/>
-      <c r="F26" s="359"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="390"/>
-      <c r="I26" s="360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="337" t="s">
+      <c r="D26" s="367"/>
+      <c r="E26" s="358"/>
+      <c r="F26" s="358"/>
+      <c r="G26" s="388"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="336" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="336" t="s">
+      <c r="C27" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="338">
+      <c r="D27" s="337">
         <v>0.51</v>
       </c>
-      <c r="E27" s="339">
+      <c r="E27" s="338">
         <f t="shared" si="1"/>
         <v>-0.67334455326376563</v>
       </c>
-      <c r="F27" s="339">
+      <c r="F27" s="338">
         <f t="shared" si="2"/>
         <v>0.13686938091565273</v>
       </c>
-      <c r="G27" s="381">
+      <c r="G27" s="380">
         <v>0.39</v>
       </c>
-      <c r="H27" s="382">
+      <c r="H27" s="381">
         <v>0.68</v>
       </c>
       <c r="I27" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="341" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="340" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="341" t="s">
+      <c r="B28" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="336" t="s">
+      <c r="C28" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="338">
+      <c r="D28" s="337">
         <v>1.1185</v>
       </c>
-      <c r="E28" s="339">
+      <c r="E28" s="338">
         <f t="shared" si="1"/>
         <v>0.1119885019480473</v>
       </c>
-      <c r="F28" s="339">
+      <c r="F28" s="338">
         <f t="shared" si="2"/>
         <v>0.42015476523784562</v>
       </c>
-      <c r="G28" s="381">
+      <c r="G28" s="380">
         <v>0.4909</v>
       </c>
-      <c r="H28" s="382">
+      <c r="H28" s="381">
         <v>2.5487500000000001</v>
       </c>
       <c r="I28" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="361" t="s">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="361" t="s">
+      <c r="B29" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="378" t="s">
+      <c r="C29" s="377" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="307"/>
-      <c r="E29" s="363"/>
-      <c r="F29" s="363"/>
-      <c r="G29" s="387"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="358" t="s">
+      <c r="E29" s="362"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="357" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="358" t="s">
+      <c r="B30" s="357" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="367" t="s">
+      <c r="C30" s="366" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="368"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="389"/>
-      <c r="H30" s="390"/>
-      <c r="I30" s="360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="337" t="s">
+      <c r="D30" s="367"/>
+      <c r="E30" s="358"/>
+      <c r="F30" s="358"/>
+      <c r="G30" s="388"/>
+      <c r="H30" s="389"/>
+      <c r="I30" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="336" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="337" t="s">
+      <c r="B31" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="336" t="s">
+      <c r="C31" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="338">
+      <c r="D31" s="337">
         <v>0.61</v>
       </c>
-      <c r="E31" s="339">
+      <c r="E31" s="338">
         <f t="shared" si="1"/>
         <v>-0.49429632181478012</v>
       </c>
-      <c r="F31" s="339">
+      <c r="F31" s="338">
         <f t="shared" si="2"/>
         <v>0.15520988489948542</v>
       </c>
-      <c r="G31" s="381">
+      <c r="G31" s="380">
         <v>0.45</v>
       </c>
-      <c r="H31" s="382">
+      <c r="H31" s="381">
         <v>0.83</v>
       </c>
       <c r="I31" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="341" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="340" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="341" t="s">
+      <c r="B32" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="336" t="s">
+      <c r="C32" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="338">
+      <c r="D32" s="337">
         <v>1.4371100000000001</v>
       </c>
-      <c r="E32" s="339">
+      <c r="E32" s="338">
         <f t="shared" si="1"/>
         <v>0.36263415253185999</v>
       </c>
-      <c r="F32" s="339">
+      <c r="F32" s="338">
         <f t="shared" si="2"/>
         <v>0.44284430921800055</v>
       </c>
-      <c r="G32" s="381">
+      <c r="G32" s="380">
         <v>0.60329999999999995</v>
       </c>
-      <c r="H32" s="382">
+      <c r="H32" s="381">
         <v>3.42327</v>
       </c>
       <c r="I32" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="361" t="s">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="360" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="361" t="s">
+      <c r="B33" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="378" t="s">
+      <c r="C33" s="377" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="307"/>
-      <c r="E33" s="363"/>
-      <c r="F33" s="363"/>
-      <c r="G33" s="387"/>
-      <c r="H33" s="388"/>
-      <c r="I33" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="358" t="s">
+      <c r="E33" s="362"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="386"/>
+      <c r="H33" s="387"/>
+      <c r="I33" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="357" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="358" t="s">
+      <c r="B34" s="357" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="367" t="s">
+      <c r="C34" s="366" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="368"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="389"/>
-      <c r="H34" s="390"/>
-      <c r="I34" s="360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="337" t="s">
+      <c r="D34" s="367"/>
+      <c r="E34" s="358"/>
+      <c r="F34" s="358"/>
+      <c r="G34" s="388"/>
+      <c r="H34" s="389"/>
+      <c r="I34" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="336" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="337" t="s">
+      <c r="B35" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="336" t="s">
+      <c r="C35" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="338">
+      <c r="D35" s="337">
         <v>0.59</v>
       </c>
-      <c r="E35" s="339">
+      <c r="E35" s="338">
         <f t="shared" si="1"/>
         <v>-0.52763274208237199</v>
       </c>
-      <c r="F35" s="339">
+      <c r="F35" s="338">
         <f t="shared" si="2"/>
         <v>0.16139659602661074</v>
       </c>
-      <c r="G35" s="381">
+      <c r="G35" s="380">
         <v>0.43</v>
       </c>
-      <c r="H35" s="382">
+      <c r="H35" s="381">
         <v>0.81</v>
       </c>
       <c r="I35" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="341" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="340" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="341" t="s">
+      <c r="B36" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="336" t="s">
+      <c r="C36" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="338">
+      <c r="D36" s="337">
         <v>1.2930600000000001</v>
       </c>
-      <c r="E36" s="339">
+      <c r="E36" s="338">
         <f t="shared" si="1"/>
         <v>0.25701150242539855</v>
       </c>
-      <c r="F36" s="339">
+      <c r="F36" s="338">
         <f t="shared" si="2"/>
         <v>0.45822279028485141</v>
       </c>
-      <c r="G36" s="381">
+      <c r="G36" s="380">
         <v>0.52671000000000001</v>
       </c>
-      <c r="H36" s="382">
+      <c r="H36" s="381">
         <v>3.1744599999999998</v>
       </c>
       <c r="I36" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="361" t="s">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="360" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="361" t="s">
+      <c r="B37" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="378" t="s">
+      <c r="C37" s="377" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="307"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="363"/>
-      <c r="G37" s="387"/>
-      <c r="H37" s="388"/>
-      <c r="I37" s="364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="362"/>
+      <c r="F37" s="362"/>
+      <c r="G37" s="386"/>
+      <c r="H37" s="387"/>
+      <c r="I37" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -8262,78 +8293,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="308" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="22.5546875" style="126" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="313" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313" t="s">
+      <c r="B1" s="312" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="313" t="s">
+      <c r="C1" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="375" t="s">
+      <c r="D1" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="375" t="s">
+      <c r="E1" s="374" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="329" t="s">
+      <c r="F1" s="328" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="329" t="s">
+      <c r="H1" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="393" t="s">
+      <c r="I1" s="392" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="385">
+      <c r="D2" s="384">
         <v>1.8</v>
       </c>
-      <c r="E2" s="396">
+      <c r="E2" s="395">
         <f t="shared" ref="E2" si="0">LN(D2)</f>
         <v>0.58778666490211906</v>
       </c>
-      <c r="F2" s="397">
+      <c r="F2" s="396">
         <f>(LN(D2/G2))/1.96</f>
         <v>0.12822164708209499</v>
       </c>
-      <c r="G2" s="355">
+      <c r="G2" s="354">
         <v>1.4</v>
       </c>
-      <c r="H2" s="386">
+      <c r="H2" s="385">
         <v>2.31</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -8341,867 +8372,871 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="336" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="337" t="s">
+      <c r="B3" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="337" t="s">
+      <c r="C3" s="336" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="381">
+      <c r="D3" s="380">
         <v>2.11</v>
       </c>
-      <c r="E3" s="398">
+      <c r="E3" s="397">
         <f t="shared" ref="E3:E35" si="1">LN(D3)</f>
         <v>0.74668794748797507</v>
       </c>
-      <c r="F3" s="399">
+      <c r="F3" s="398">
         <f t="shared" ref="F3:F35" si="2">(LN(D3/G3))/1.96</f>
         <v>0.17409328539786256</v>
       </c>
-      <c r="G3" s="356">
+      <c r="G3" s="355">
         <v>1.5</v>
       </c>
-      <c r="H3" s="382">
+      <c r="H3" s="381">
         <v>2.96</v>
       </c>
       <c r="I3" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="317" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="316" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="317" t="s">
+      <c r="B4" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="316" t="s">
+      <c r="C4" s="315" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="303"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="326"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="343" t="s">
+      <c r="E4" s="319"/>
+      <c r="F4" s="325"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="344" t="s">
+      <c r="C5" s="343" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="383">
+      <c r="D5" s="382">
         <v>2.5769229999999999</v>
       </c>
-      <c r="E5" s="400">
+      <c r="E5" s="399">
         <f t="shared" si="1"/>
         <v>0.94659605151873727</v>
       </c>
-      <c r="F5" s="401">
+      <c r="F5" s="400">
         <f t="shared" si="2"/>
         <v>0.78136104559202568</v>
       </c>
-      <c r="G5" s="357">
+      <c r="G5" s="356">
         <v>0.55717740000000004</v>
       </c>
-      <c r="H5" s="384">
+      <c r="H5" s="383">
         <v>11.91817</v>
       </c>
       <c r="I5" s="277" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="333" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="333" t="s">
+      <c r="C6" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="385">
+      <c r="D6" s="384">
         <v>1.39</v>
       </c>
-      <c r="E6" s="396">
+      <c r="E6" s="395">
         <f t="shared" si="1"/>
         <v>0.3293037471426003</v>
       </c>
-      <c r="F6" s="397">
+      <c r="F6" s="396">
         <f t="shared" si="2"/>
         <v>0.13349239727999257</v>
       </c>
-      <c r="G6" s="355">
+      <c r="G6" s="354">
         <v>1.07</v>
       </c>
-      <c r="H6" s="386">
+      <c r="H6" s="385">
         <v>1.8</v>
       </c>
       <c r="I6" s="273" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="337" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="337" t="s">
+      <c r="C7" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="381">
+      <c r="D7" s="380">
         <v>1.58</v>
       </c>
-      <c r="E7" s="398">
+      <c r="E7" s="397">
         <f t="shared" si="1"/>
         <v>0.45742484703887548</v>
       </c>
-      <c r="F7" s="399">
+      <c r="F7" s="398">
         <f t="shared" si="2"/>
         <v>0.18475238124211762</v>
       </c>
-      <c r="G7" s="356">
+      <c r="G7" s="355">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="382">
+      <c r="H7" s="381">
         <v>2.25</v>
       </c>
       <c r="I7" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="370" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="369" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="370" t="s">
+      <c r="B8" s="369" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="371" t="s">
+      <c r="C8" s="370" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="391"/>
-      <c r="E8" s="409"/>
-      <c r="F8" s="410"/>
-      <c r="G8" s="411"/>
-      <c r="H8" s="392"/>
-      <c r="I8" s="412" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="343" t="s">
+      <c r="D8" s="390"/>
+      <c r="E8" s="408"/>
+      <c r="F8" s="409"/>
+      <c r="G8" s="410"/>
+      <c r="H8" s="391"/>
+      <c r="I8" s="411" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="343" t="s">
+      <c r="B9" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="344" t="s">
+      <c r="C9" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="383">
+      <c r="D9" s="382">
         <v>1.1779310000000001</v>
       </c>
-      <c r="E9" s="400">
+      <c r="E9" s="399">
         <f t="shared" si="1"/>
         <v>0.16375950965989003</v>
       </c>
-      <c r="F9" s="401">
+      <c r="F9" s="400">
         <f t="shared" si="2"/>
         <v>0.89043769965826924</v>
       </c>
-      <c r="G9" s="357">
+      <c r="G9" s="356">
         <v>0.20566670000000001</v>
       </c>
-      <c r="H9" s="384">
+      <c r="H9" s="383">
         <v>6.7464529999999998</v>
       </c>
       <c r="I9" s="277" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="348" t="s">
+    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="348" t="s">
+      <c r="B10" s="347" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="348" t="s">
+      <c r="C10" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="385">
+      <c r="D10" s="384">
         <v>1.35</v>
       </c>
-      <c r="E10" s="396">
+      <c r="E10" s="395">
         <f t="shared" si="1"/>
         <v>0.30010459245033816</v>
       </c>
-      <c r="F10" s="397">
+      <c r="F10" s="396">
         <f t="shared" si="2"/>
         <v>0.1331040200495188</v>
       </c>
-      <c r="G10" s="355">
+      <c r="G10" s="354">
         <v>1.04</v>
       </c>
-      <c r="H10" s="386">
+      <c r="H10" s="385">
         <v>1.76</v>
       </c>
-      <c r="I10" s="402" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="337" t="s">
+      <c r="I10" s="401" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="337" t="s">
+      <c r="C11" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="381">
+      <c r="D11" s="380">
         <v>1.52</v>
       </c>
-      <c r="E11" s="398">
+      <c r="E11" s="397">
         <f t="shared" si="1"/>
         <v>0.41871033485818504</v>
       </c>
-      <c r="F11" s="399">
+      <c r="F11" s="398">
         <f t="shared" si="2"/>
         <v>0.18389868710929042</v>
       </c>
-      <c r="G11" s="356">
+      <c r="G11" s="355">
         <v>1.06</v>
       </c>
-      <c r="H11" s="382">
+      <c r="H11" s="381">
         <v>2.1800000000000002</v>
       </c>
       <c r="I11" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="317" t="s">
+    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="316" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="317" t="s">
+      <c r="B12" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="316" t="s">
+      <c r="C12" s="315" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="303"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="326"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="325"/>
       <c r="G12" s="237"/>
-      <c r="H12" s="311"/>
-      <c r="I12" s="330" t="s">
+      <c r="H12" s="310"/>
+      <c r="I12" s="329" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="343" t="s">
+      <c r="A13" s="342" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="343" t="s">
+      <c r="B13" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="344" t="s">
+      <c r="C13" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="383">
+      <c r="D13" s="382">
         <v>1.733668</v>
       </c>
-      <c r="E13" s="400">
+      <c r="E13" s="399">
         <f t="shared" si="1"/>
         <v>0.55023939520539866</v>
       </c>
-      <c r="F13" s="401">
+      <c r="F13" s="400">
         <f t="shared" si="2"/>
         <v>1.1313544574281467</v>
       </c>
-      <c r="G13" s="357">
+      <c r="G13" s="356">
         <v>0.188772</v>
       </c>
-      <c r="H13" s="384">
+      <c r="H13" s="383">
         <v>15.92188</v>
       </c>
       <c r="I13" s="277" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="333" t="s">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="333" t="s">
+      <c r="C14" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="403">
+      <c r="D14" s="402">
         <v>0.18</v>
       </c>
-      <c r="E14" s="396">
+      <c r="E14" s="395">
         <f t="shared" si="1"/>
         <v>-1.7147984280919266</v>
       </c>
-      <c r="F14" s="397">
+      <c r="F14" s="396">
         <f t="shared" si="2"/>
         <v>0.41373990623282081</v>
       </c>
-      <c r="G14" s="355">
+      <c r="G14" s="354">
         <v>0.08</v>
       </c>
-      <c r="H14" s="386">
+      <c r="H14" s="385">
         <v>0.38</v>
       </c>
       <c r="I14" s="273" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="337" t="s">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="336" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="337" t="s">
+      <c r="B15" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="337" t="s">
+      <c r="C15" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="404">
+      <c r="D15" s="403">
         <v>0.49</v>
       </c>
-      <c r="E15" s="398">
+      <c r="E15" s="397">
         <f t="shared" si="1"/>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="F15" s="399">
+      <c r="F15" s="398">
         <f t="shared" si="2"/>
         <v>0.20169017175721757</v>
       </c>
-      <c r="G15" s="356">
+      <c r="G15" s="355">
         <v>0.33</v>
       </c>
-      <c r="H15" s="382">
+      <c r="H15" s="381">
         <v>0.73</v>
       </c>
       <c r="I15" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="317" t="s">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="316" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="317" t="s">
+      <c r="B16" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="316" t="s">
+      <c r="C16" s="315" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="305"/>
-      <c r="E16" s="320"/>
-      <c r="F16" s="326"/>
-      <c r="H16" s="311"/>
-      <c r="I16" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="318" t="s">
+      <c r="E16" s="319"/>
+      <c r="F16" s="325"/>
+      <c r="H16" s="310"/>
+      <c r="I16" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="317" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="318" t="s">
+      <c r="B17" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="331" t="s">
+      <c r="C17" s="330" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="306"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="395"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="333" t="s">
+      <c r="E17" s="393"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="332" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="333" t="s">
+      <c r="C18" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="403">
+      <c r="D18" s="402">
         <v>0.33</v>
       </c>
-      <c r="E18" s="396">
+      <c r="E18" s="395">
         <f t="shared" si="1"/>
         <v>-1.1086626245216111</v>
       </c>
-      <c r="F18" s="397">
+      <c r="F18" s="396">
         <f t="shared" si="2"/>
         <v>0.4022741634511583</v>
       </c>
-      <c r="G18" s="355">
+      <c r="G18" s="354">
         <v>0.15</v>
       </c>
-      <c r="H18" s="386">
+      <c r="H18" s="385">
         <v>0.73</v>
       </c>
       <c r="I18" s="273" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="337" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="337" t="s">
+      <c r="B19" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="337" t="s">
+      <c r="C19" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="404">
+      <c r="D19" s="403">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E19" s="398">
+      <c r="E19" s="397">
         <f t="shared" si="1"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="F19" s="399">
+      <c r="F19" s="398">
         <f t="shared" si="2"/>
         <v>0.21574329123471098</v>
       </c>
-      <c r="G19" s="356">
+      <c r="G19" s="355">
         <v>0.38</v>
       </c>
-      <c r="H19" s="382">
+      <c r="H19" s="381">
         <v>0.87</v>
       </c>
       <c r="I19" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="317" t="s">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="316" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="317" t="s">
+      <c r="B20" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="316" t="s">
+      <c r="C20" s="315" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="305"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="326"/>
-      <c r="H20" s="311"/>
-      <c r="I20" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="318" t="s">
+      <c r="E20" s="319"/>
+      <c r="F20" s="325"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="317" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="318" t="s">
+      <c r="B21" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="331" t="s">
+      <c r="C21" s="330" t="s">
         <v>108</v>
       </c>
       <c r="D21" s="306"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="310"/>
-      <c r="H21" s="324"/>
-      <c r="I21" s="328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="333" t="s">
+      <c r="E21" s="393"/>
+      <c r="F21" s="394"/>
+      <c r="G21" s="309"/>
+      <c r="H21" s="323"/>
+      <c r="I21" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="332" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="333" t="s">
+      <c r="C22" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="403">
+      <c r="D22" s="402">
         <v>0.35</v>
       </c>
-      <c r="E22" s="396">
+      <c r="E22" s="395">
         <f t="shared" si="1"/>
         <v>-1.0498221244986778</v>
       </c>
-      <c r="F22" s="397">
+      <c r="F22" s="396">
         <f t="shared" si="2"/>
         <v>0.39936700982124107</v>
       </c>
-      <c r="G22" s="355">
+      <c r="G22" s="354">
         <v>0.16</v>
       </c>
-      <c r="H22" s="386">
+      <c r="H22" s="385">
         <v>0.77</v>
       </c>
       <c r="I22" s="273" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="337" t="s">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="337" t="s">
+      <c r="C23" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="404">
+      <c r="D23" s="403">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E23" s="398">
+      <c r="E23" s="397">
         <f t="shared" si="1"/>
         <v>-0.57981849525294205</v>
       </c>
-      <c r="F23" s="399">
+      <c r="F23" s="398">
         <f t="shared" si="2"/>
         <v>0.21144580514843106</v>
       </c>
-      <c r="G23" s="356">
+      <c r="G23" s="355">
         <v>0.37</v>
       </c>
-      <c r="H23" s="382">
+      <c r="H23" s="381">
         <v>0.86</v>
       </c>
       <c r="I23" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="317" t="s">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="316" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="317" t="s">
+      <c r="B24" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="316" t="s">
+      <c r="C24" s="315" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="305"/>
-      <c r="E24" s="320"/>
-      <c r="F24" s="326"/>
-      <c r="H24" s="311"/>
-      <c r="I24" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="318" t="s">
+      <c r="E24" s="319"/>
+      <c r="F24" s="325"/>
+      <c r="H24" s="310"/>
+      <c r="I24" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="318" t="s">
+      <c r="B25" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="331" t="s">
+      <c r="C25" s="330" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="306"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="314" t="s">
+      <c r="E25" s="393"/>
+      <c r="F25" s="394"/>
+      <c r="G25" s="309"/>
+      <c r="H25" s="323"/>
+      <c r="I25" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="416" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="314" t="s">
+      <c r="B26" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="314" t="s">
+      <c r="C26" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="302"/>
-      <c r="E26" s="319"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="309"/>
-      <c r="H26" s="323"/>
-      <c r="I26" s="327" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="337" t="s">
+      <c r="D26" s="417"/>
+      <c r="E26" s="318"/>
+      <c r="F26" s="324"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="322"/>
+      <c r="I26" s="326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="335" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="337" t="s">
+      <c r="C27" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="381">
+      <c r="D27" s="337">
         <v>0.45</v>
       </c>
-      <c r="E27" s="398">
+      <c r="E27" s="397">
         <f t="shared" si="1"/>
         <v>-0.79850769621777162</v>
       </c>
-      <c r="F27" s="399">
+      <c r="F27" s="398">
         <f t="shared" si="2"/>
         <v>0.26062531824795437</v>
       </c>
-      <c r="G27" s="356">
+      <c r="G27" s="380">
         <v>0.27</v>
       </c>
-      <c r="H27" s="382">
+      <c r="H27" s="381">
         <v>0.75</v>
       </c>
       <c r="I27" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="317" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="412" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="317" t="s">
+      <c r="B28" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="316" t="s">
+      <c r="C28" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="303"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="326"/>
-      <c r="H28" s="311"/>
-      <c r="I28" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="318" t="s">
+      <c r="D28" s="300"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="310"/>
+      <c r="I28" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="404" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="318" t="s">
+      <c r="B29" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="331" t="s">
+      <c r="C29" s="330" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="304"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="324"/>
-      <c r="I29" s="328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="314" t="s">
+      <c r="D29" s="418"/>
+      <c r="E29" s="393"/>
+      <c r="F29" s="394"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="323"/>
+      <c r="I29" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="416" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="314" t="s">
+      <c r="B30" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="314" t="s">
+      <c r="C30" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="302"/>
-      <c r="E30" s="319"/>
-      <c r="F30" s="325"/>
-      <c r="G30" s="309"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="327" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="337" t="s">
+      <c r="D30" s="417"/>
+      <c r="E30" s="318"/>
+      <c r="F30" s="324"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="335" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="337" t="s">
+      <c r="B31" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="337" t="s">
+      <c r="C31" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="381">
+      <c r="D31" s="337">
         <v>0.54</v>
       </c>
-      <c r="E31" s="398">
+      <c r="E31" s="397">
         <f t="shared" si="1"/>
         <v>-0.61618613942381695</v>
       </c>
-      <c r="F31" s="399">
+      <c r="F31" s="398">
         <f t="shared" si="2"/>
         <v>0.26696333865538158</v>
       </c>
-      <c r="G31" s="356">
+      <c r="G31" s="380">
         <v>0.32</v>
       </c>
-      <c r="H31" s="382">
+      <c r="H31" s="381">
         <v>0.9</v>
       </c>
       <c r="I31" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="317" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="412" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="317" t="s">
+      <c r="B32" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="316" t="s">
+      <c r="C32" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="303"/>
-      <c r="E32" s="320"/>
-      <c r="F32" s="326"/>
-      <c r="H32" s="311"/>
-      <c r="I32" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="318" t="s">
+      <c r="D32" s="300"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="325"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="310"/>
+      <c r="I32" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="404" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="318" t="s">
+      <c r="B33" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="331" t="s">
+      <c r="C33" s="330" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="304"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="310"/>
-      <c r="H33" s="324"/>
-      <c r="I33" s="328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="316" t="s">
+      <c r="D33" s="418"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="394"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="323"/>
+      <c r="I33" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="416" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="316" t="s">
+      <c r="B34" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="316" t="s">
+      <c r="C34" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="303"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="326"/>
-      <c r="H34" s="311"/>
-      <c r="I34" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="337" t="s">
+      <c r="D34" s="417"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="324"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="337" t="s">
+      <c r="B35" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="337" t="s">
+      <c r="C35" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="381">
+      <c r="D35" s="337">
         <v>0.52</v>
       </c>
-      <c r="E35" s="398">
+      <c r="E35" s="397">
         <f t="shared" si="1"/>
         <v>-0.65392646740666394</v>
       </c>
-      <c r="F35" s="399">
+      <c r="F35" s="398">
         <f t="shared" si="2"/>
         <v>0.2639063847430006</v>
       </c>
-      <c r="G35" s="356">
+      <c r="G35" s="380">
         <v>0.31</v>
       </c>
-      <c r="H35" s="382">
+      <c r="H35" s="381">
         <v>0.88</v>
       </c>
       <c r="I35" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="317" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="412" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="317" t="s">
+      <c r="B36" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="316" t="s">
+      <c r="C36" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="303"/>
-      <c r="E36" s="320"/>
-      <c r="F36" s="326"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="322" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="318" t="s">
+      <c r="D36" s="300"/>
+      <c r="E36" s="319"/>
+      <c r="F36" s="325"/>
+      <c r="G36" s="303"/>
+      <c r="H36" s="310"/>
+      <c r="I36" s="321" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="404" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="318" t="s">
+      <c r="B37" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="331" t="s">
+      <c r="C37" s="330" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="304"/>
-      <c r="E37" s="394"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="324"/>
-      <c r="I37" s="328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="418"/>
+      <c r="E37" s="393"/>
+      <c r="F37" s="394"/>
+      <c r="G37" s="304"/>
+      <c r="H37" s="323"/>
+      <c r="I37" s="327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -9224,15 +9259,15 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="255"/>
-    <col min="5" max="5" width="12.28515625" style="255" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="272"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="255"/>
+    <col min="5" max="5" width="12.33203125" style="255" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="272"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="260" t="s">
         <v>142</v>
       </c>
@@ -9252,7 +9287,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="261" t="s">
         <v>134</v>
       </c>
@@ -9272,7 +9307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="262" t="s">
         <v>134</v>
       </c>
@@ -9292,7 +9327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="262" t="s">
         <v>134</v>
       </c>
@@ -9312,7 +9347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="263" t="s">
         <v>134</v>
       </c>
@@ -9332,7 +9367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="261" t="s">
         <v>135</v>
       </c>
@@ -9352,7 +9387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="262" t="s">
         <v>135</v>
       </c>
@@ -9372,7 +9407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="262" t="s">
         <v>135</v>
       </c>
@@ -9392,7 +9427,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="263" t="s">
         <v>135</v>
       </c>
@@ -9412,7 +9447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="261" t="s">
         <v>136</v>
       </c>
@@ -9432,7 +9467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="262" t="s">
         <v>136</v>
       </c>
@@ -9452,7 +9487,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="262" t="s">
         <v>136</v>
       </c>
@@ -9472,7 +9507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="263" t="s">
         <v>136</v>
       </c>
@@ -9492,7 +9527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="261" t="s">
         <v>137</v>
       </c>
@@ -9512,7 +9547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="262" t="s">
         <v>137</v>
       </c>
@@ -9532,7 +9567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="262" t="s">
         <v>137</v>
       </c>
@@ -9552,7 +9587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="263" t="s">
         <v>137</v>
       </c>
@@ -9572,7 +9607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="262" t="s">
         <v>138</v>
       </c>
@@ -9592,7 +9627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="262" t="s">
         <v>138</v>
       </c>
@@ -9612,7 +9647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="262" t="s">
         <v>138</v>
       </c>
@@ -9632,7 +9667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="263" t="s">
         <v>138</v>
       </c>
@@ -9666,16 +9701,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -9727,7 +9762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9753,7 +9788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -9779,7 +9814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -9805,7 +9840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -9831,7 +9866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -9857,7 +9892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -9883,7 +9918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -9909,7 +9944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -23,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="172">
   <si>
     <t>camp</t>
   </si>
@@ -931,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2069,6 +2064,67 @@
     <xf numFmtId="166" fontId="16" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2347,7 +2403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2364,20 +2420,20 @@
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="237" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="53"/>
+    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2513,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
@@ -2484,7 +2540,7 @@
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
@@ -2512,7 +2568,7 @@
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
@@ -2538,7 +2594,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
@@ -2566,7 +2622,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
@@ -2593,7 +2649,7 @@
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
@@ -2621,7 +2677,7 @@
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="289" t="s">
         <v>52</v>
       </c>
@@ -2649,7 +2705,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
@@ -2677,7 +2733,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="177" t="s">
         <v>60</v>
       </c>
@@ -2732,7 +2788,7 @@
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
@@ -2758,7 +2814,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
@@ -2786,7 +2842,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="180" t="s">
         <v>61</v>
       </c>
@@ -2802,7 +2858,7 @@
       <c r="G16" s="174"/>
       <c r="H16" s="175"/>
     </row>
-    <row r="17" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
@@ -2830,7 +2886,7 @@
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
@@ -2857,7 +2913,7 @@
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
@@ -2884,7 +2940,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
@@ -2912,7 +2968,7 @@
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
@@ -2939,7 +2995,7 @@
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
@@ -2966,7 +3022,7 @@
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
@@ -2993,7 +3049,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
@@ -3021,7 +3077,7 @@
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
@@ -3048,7 +3104,7 @@
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="294" t="s">
         <v>73</v>
       </c>
@@ -3076,7 +3132,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
@@ -3103,7 +3159,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
@@ -3131,7 +3187,7 @@
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
@@ -3158,7 +3214,7 @@
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
@@ -3185,7 +3241,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3268,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="190" t="s">
         <v>82</v>
       </c>
@@ -3232,7 +3288,7 @@
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
@@ -3259,7 +3315,7 @@
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
@@ -3286,7 +3342,7 @@
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
@@ -3313,7 +3369,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
@@ -3340,7 +3396,7 @@
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="182" t="s">
         <v>99</v>
       </c>
@@ -3356,7 +3412,7 @@
       <c r="G37" s="185"/>
       <c r="H37" s="186"/>
     </row>
-    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
@@ -3383,7 +3439,7 @@
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
@@ -3410,7 +3466,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
@@ -3437,7 +3493,7 @@
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="180" t="s">
         <v>100</v>
       </c>
@@ -3453,7 +3509,7 @@
       <c r="G41" s="189"/>
       <c r="H41" s="187"/>
     </row>
-    <row r="42" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="299" t="s">
         <v>89</v>
       </c>
@@ -3469,7 +3525,7 @@
       <c r="G42" s="297"/>
       <c r="H42" s="298"/>
     </row>
-    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
@@ -3496,7 +3552,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
@@ -3523,7 +3579,7 @@
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="180" t="s">
         <v>101</v>
       </c>
@@ -3539,7 +3595,7 @@
       <c r="G45" s="189"/>
       <c r="H45" s="187"/>
     </row>
-    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
@@ -3566,7 +3622,7 @@
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
@@ -3593,7 +3649,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="180" t="s">
         <v>98</v>
       </c>
@@ -3609,7 +3665,7 @@
       <c r="G48" s="189"/>
       <c r="H48" s="187"/>
     </row>
-    <row r="49" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="182" t="s">
         <v>102</v>
       </c>
@@ -3625,7 +3681,7 @@
       <c r="G49" s="185"/>
       <c r="H49" s="186"/>
     </row>
-    <row r="50" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
@@ -3641,7 +3697,7 @@
       <c r="G50" s="248"/>
       <c r="H50" s="123"/>
     </row>
-    <row r="51" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="120" t="s">
         <v>146</v>
       </c>
@@ -3669,7 +3725,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="136" t="s">
         <v>147</v>
       </c>
@@ -3697,7 +3753,7 @@
         <v>1.9377599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="137" t="s">
         <v>148</v>
       </c>
@@ -3713,7 +3769,7 @@
       <c r="G53" s="249"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="122" t="s">
         <v>149</v>
       </c>
@@ -3729,7 +3785,7 @@
       <c r="G54" s="248"/>
       <c r="H54" s="123"/>
     </row>
-    <row r="55" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="120" t="s">
         <v>150</v>
       </c>
@@ -3757,7 +3813,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="136" t="s">
         <v>151</v>
       </c>
@@ -3785,7 +3841,7 @@
         <v>2.63314</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="137" t="s">
         <v>152</v>
       </c>
@@ -3801,7 +3857,7 @@
       <c r="G57" s="249"/>
       <c r="H57" s="140"/>
     </row>
-    <row r="58" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="132" t="s">
         <v>153</v>
       </c>
@@ -3817,7 +3873,7 @@
       <c r="G58" s="265"/>
       <c r="H58" s="266"/>
     </row>
-    <row r="59" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="133" t="s">
         <v>154</v>
       </c>
@@ -3845,7 +3901,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="163" t="s">
         <v>155</v>
       </c>
@@ -3873,7 +3929,7 @@
         <v>2.65049</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="164" t="s">
         <v>156</v>
       </c>
@@ -3889,7 +3945,7 @@
       <c r="G61" s="249"/>
       <c r="H61" s="140"/>
     </row>
-    <row r="62" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="133" t="s">
         <v>157</v>
       </c>
@@ -3905,7 +3961,7 @@
       <c r="G62" s="248"/>
       <c r="H62" s="135"/>
     </row>
-    <row r="63" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="133" t="s">
         <v>158</v>
       </c>
@@ -3933,7 +3989,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="163" t="s">
         <v>159</v>
       </c>
@@ -3949,7 +4005,7 @@
       <c r="G64" s="250"/>
       <c r="H64" s="141"/>
     </row>
-    <row r="65" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="164" t="s">
         <v>160</v>
       </c>
@@ -3981,25 +4037,25 @@
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="25"/>
+    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -4171,7 +4227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -4338,7 +4394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -4505,7 +4561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -4689,7 +4745,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -4873,7 +4929,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -5057,7 +5113,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -5243,7 +5299,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
@@ -5423,7 +5479,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
@@ -5462,7 +5518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
         <v>95</v>
       </c>
@@ -5509,7 +5565,7 @@
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>96</v>
       </c>
@@ -5556,7 +5612,7 @@
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>97</v>
       </c>
@@ -5603,7 +5659,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
@@ -5642,7 +5698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="s">
         <v>62</v>
       </c>
@@ -5686,7 +5742,7 @@
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="97" t="s">
         <v>63</v>
       </c>
@@ -5730,7 +5786,7 @@
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>64</v>
       </c>
@@ -5774,7 +5830,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -5818,7 +5874,7 @@
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="s">
         <v>83</v>
       </c>
@@ -5862,7 +5918,7 @@
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="97" t="s">
         <v>84</v>
       </c>
@@ -5906,7 +5962,7 @@
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="97" t="s">
         <v>85</v>
       </c>
@@ -5950,7 +6006,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -5994,7 +6050,7 @@
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="97" t="s">
         <v>99</v>
       </c>
@@ -6019,7 +6075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="97" t="s">
         <v>100</v>
       </c>
@@ -6044,7 +6100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>101</v>
       </c>
@@ -6069,7 +6125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
@@ -6094,7 +6150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -6111,7 +6167,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -6151,24 +6207,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" style="126" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="308" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="53"/>
+    <col min="1" max="1" width="19" style="126" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="311" t="s">
         <v>0</v>
       </c>
@@ -6211,7 +6270,7 @@
         <v>1.47</v>
       </c>
       <c r="E2" s="334">
-        <f t="shared" ref="E2:E35" si="0">LN(D2)</f>
+        <f t="shared" ref="E2:E43" si="0">LN(D2)</f>
         <v>0.38526240079064489</v>
       </c>
       <c r="F2" s="334">
@@ -6246,7 +6305,7 @@
         <v>0.77932487680099771</v>
       </c>
       <c r="F3" s="338">
-        <f t="shared" ref="F3:F35" si="1">(LN(D3/G3))/1.96</f>
+        <f t="shared" ref="F3:F43" si="1">(LN(D3/G3))/1.96</f>
         <v>0.17073421200997554</v>
       </c>
       <c r="G3" s="380">
@@ -6259,7 +6318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="420" t="s">
         <v>58</v>
       </c>
@@ -6290,7 +6349,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="341" t="s">
         <v>62</v>
       </c>
@@ -6321,7 +6380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="331" t="s">
         <v>51</v>
       </c>
@@ -6352,7 +6411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="335" t="s">
         <v>67</v>
       </c>
@@ -6383,7 +6442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="339" t="s">
         <v>59</v>
       </c>
@@ -6414,7 +6473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="341" t="s">
         <v>63</v>
       </c>
@@ -6445,7 +6504,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="346" t="s">
         <v>52</v>
       </c>
@@ -6476,7 +6535,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="335" t="s">
         <v>68</v>
       </c>
@@ -6507,7 +6566,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="236" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="339" t="s">
         <v>60</v>
       </c>
@@ -6569,214 +6628,170 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="331" t="s">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="439" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="440" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="440" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="427"/>
+      <c r="F14" s="427"/>
+      <c r="G14" s="428"/>
+      <c r="H14" s="429"/>
+      <c r="I14" s="430"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="441" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="431"/>
+      <c r="G15" s="432"/>
+      <c r="H15" s="433"/>
+      <c r="I15" s="259"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="443" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="431"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
+      <c r="I16" s="434"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="424" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="426" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="435"/>
+      <c r="F17" s="435"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="437"/>
+      <c r="I17" s="104"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="332" t="s">
+      <c r="B18" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="332" t="s">
+      <c r="C18" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="350">
+      <c r="D18" s="350">
         <v>0.22</v>
       </c>
-      <c r="E14" s="334">
+      <c r="E18" s="334">
         <f t="shared" si="0"/>
         <v>-1.5141277326297755</v>
       </c>
-      <c r="F14" s="334">
+      <c r="F18" s="334">
         <f t="shared" si="1"/>
         <v>0.40227416345115818</v>
       </c>
-      <c r="G14" s="384">
+      <c r="G18" s="384">
         <v>0.1</v>
       </c>
-      <c r="H14" s="385">
+      <c r="H18" s="385">
         <v>0.47</v>
       </c>
-      <c r="I14" s="279" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="335" t="s">
+      <c r="I18" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="335" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B19" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="336" t="s">
+      <c r="C19" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="351">
+      <c r="D19" s="351">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E15" s="338">
+      <c r="E19" s="338">
         <f t="shared" si="0"/>
         <v>-0.59783700075562041</v>
       </c>
-      <c r="F15" s="338">
+      <c r="F19" s="338">
         <f t="shared" si="1"/>
         <v>0.18864644158473734</v>
       </c>
-      <c r="G15" s="380">
+      <c r="G19" s="380">
         <v>0.38</v>
       </c>
-      <c r="H15" s="381">
+      <c r="H19" s="381">
         <v>0.81</v>
       </c>
-      <c r="I15" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="339" t="s">
+      <c r="I19" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="339" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="340" t="s">
+      <c r="B20" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="336" t="s">
+      <c r="C20" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="351">
+      <c r="D20" s="351">
         <v>1.1831</v>
       </c>
-      <c r="E16" s="338">
+      <c r="E20" s="338">
         <f t="shared" si="0"/>
         <v>0.1681381122774801</v>
       </c>
-      <c r="F16" s="338">
+      <c r="F20" s="338">
         <f t="shared" si="1"/>
         <v>1.069278589557306</v>
       </c>
-      <c r="G16" s="380">
+      <c r="G20" s="380">
         <v>0.14549000000000001</v>
       </c>
-      <c r="H16" s="381">
+      <c r="H20" s="381">
         <v>9.6190099999999994</v>
       </c>
-      <c r="I16" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="364" t="s">
+      <c r="I20" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="364" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="360" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="361" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="365"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="386"/>
-      <c r="H17" s="387"/>
-      <c r="I17" s="363" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="331" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="332" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="332" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="350">
-        <v>0.26</v>
-      </c>
-      <c r="E18" s="334">
-        <f t="shared" si="0"/>
-        <v>-1.3470736479666092</v>
-      </c>
-      <c r="F18" s="334">
-        <f t="shared" si="1"/>
-        <v>0.39448463685381729</v>
-      </c>
-      <c r="G18" s="384">
-        <v>0.12</v>
-      </c>
-      <c r="H18" s="385">
-        <v>0.59</v>
-      </c>
-      <c r="I18" s="279" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="335" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="336" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="351">
-        <v>0.64</v>
-      </c>
-      <c r="E19" s="338">
-        <f t="shared" si="0"/>
-        <v>-0.44628710262841947</v>
-      </c>
-      <c r="F19" s="338">
-        <f t="shared" si="1"/>
-        <v>0.20289947329903543</v>
-      </c>
-      <c r="G19" s="380">
-        <v>0.43</v>
-      </c>
-      <c r="H19" s="381">
-        <v>0.95</v>
-      </c>
-      <c r="I19" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="339" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="340" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="336" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="351">
-        <v>1.90327</v>
-      </c>
-      <c r="E20" s="338">
-        <f t="shared" si="0"/>
-        <v>0.64357345948996836</v>
-      </c>
-      <c r="F20" s="338">
-        <f t="shared" si="1"/>
-        <v>1.0986002748913657</v>
-      </c>
-      <c r="G20" s="380">
-        <v>0.22098000000000001</v>
-      </c>
-      <c r="H20" s="381">
-        <v>16.392299999999999</v>
-      </c>
-      <c r="I20" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="364" t="s">
-        <v>84</v>
       </c>
       <c r="B21" s="360" t="s">
         <v>169</v>
@@ -6793,9 +6808,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="331" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="332" t="s">
         <v>166</v>
@@ -6804,21 +6819,21 @@
         <v>108</v>
       </c>
       <c r="D22" s="350">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="E22" s="334">
         <f t="shared" si="0"/>
-        <v>-1.1394342831883648</v>
+        <v>-1.3470736479666092</v>
       </c>
       <c r="F22" s="334">
         <f t="shared" si="1"/>
-        <v>0.42177478223697346</v>
+        <v>0.39448463685381729</v>
       </c>
       <c r="G22" s="384">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H22" s="385">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="I22" s="279" t="s">
         <v>141</v>
@@ -6826,7 +6841,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="335" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="336" t="s">
         <v>167</v>
@@ -6835,29 +6850,29 @@
         <v>108</v>
       </c>
       <c r="D23" s="351">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E23" s="338">
         <f t="shared" si="0"/>
-        <v>-0.43078291609245423</v>
+        <v>-0.44628710262841947</v>
       </c>
       <c r="F23" s="338">
         <f t="shared" si="1"/>
-        <v>0.21080977255207892</v>
+        <v>0.20289947329903543</v>
       </c>
       <c r="G23" s="380">
         <v>0.43</v>
       </c>
       <c r="H23" s="381">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="I23" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="339" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="340" t="s">
         <v>168</v>
@@ -6866,239 +6881,247 @@
         <v>108</v>
       </c>
       <c r="D24" s="351">
-        <v>1.7105399999999999</v>
+        <v>1.90327</v>
       </c>
       <c r="E24" s="338">
         <f t="shared" si="0"/>
-        <v>0.53680911013725152</v>
+        <v>0.64357345948996836</v>
       </c>
       <c r="F24" s="338">
         <f t="shared" si="1"/>
-        <v>1.1099598802425241</v>
+        <v>1.0986002748913657</v>
       </c>
       <c r="G24" s="380">
-        <v>0.19423000000000001</v>
+        <v>0.22098000000000001</v>
       </c>
       <c r="H24" s="381">
-        <v>15.063940000000001</v>
+        <v>16.392299999999999</v>
       </c>
       <c r="I24" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="404" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="317" t="s">
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="364" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="360" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="330" t="s">
+      <c r="C25" s="361" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="405"/>
-      <c r="E25" s="406"/>
-      <c r="F25" s="406"/>
-      <c r="G25" s="304"/>
-      <c r="H25" s="323"/>
-      <c r="I25" s="407" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="366" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="357" t="s">
+      <c r="D25" s="365"/>
+      <c r="E25" s="362"/>
+      <c r="F25" s="362"/>
+      <c r="G25" s="386"/>
+      <c r="H25" s="387"/>
+      <c r="I25" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="331" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="357" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="367"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="388"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="359" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="332" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="350">
+        <v>0.32</v>
+      </c>
+      <c r="E26" s="334">
+        <f t="shared" si="0"/>
+        <v>-1.1394342831883648</v>
+      </c>
+      <c r="F26" s="334">
+        <f t="shared" si="1"/>
+        <v>0.42177478223697346</v>
+      </c>
+      <c r="G26" s="384">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H26" s="385">
+        <v>0.72</v>
+      </c>
+      <c r="I26" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="335" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B27" s="336" t="s">
         <v>167</v>
       </c>
       <c r="C27" s="336" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="337">
-        <v>0.42</v>
+        <v>108</v>
+      </c>
+      <c r="D27" s="351">
+        <v>0.65</v>
       </c>
       <c r="E27" s="338">
         <f t="shared" si="0"/>
-        <v>-0.86750056770472306</v>
+        <v>-0.43078291609245423</v>
       </c>
       <c r="F27" s="338">
         <f t="shared" si="1"/>
-        <v>0.24468014299075824</v>
+        <v>0.21080977255207892</v>
       </c>
       <c r="G27" s="380">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="H27" s="381">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
       <c r="I27" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="412" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="316" t="s">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="339" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="315" t="s">
+      <c r="C28" s="336" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="351">
+        <v>1.7105399999999999</v>
+      </c>
+      <c r="E28" s="338">
+        <f t="shared" si="0"/>
+        <v>0.53680911013725152</v>
+      </c>
+      <c r="F28" s="338">
+        <f t="shared" si="1"/>
+        <v>1.1099598802425241</v>
+      </c>
+      <c r="G28" s="380">
+        <v>0.19423000000000001</v>
+      </c>
+      <c r="H28" s="381">
+        <v>15.063940000000001</v>
+      </c>
+      <c r="I28" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="404" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="317" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="330" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="405"/>
+      <c r="E29" s="406"/>
+      <c r="F29" s="406"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="323"/>
+      <c r="I29" s="407" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="445" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="446" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="446" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="113"/>
+      <c r="E30" s="427"/>
+      <c r="F30" s="427"/>
+      <c r="G30" s="428"/>
+      <c r="H30" s="429"/>
+      <c r="I30" s="438"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="441" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="442" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="114"/>
+      <c r="E31" s="431"/>
+      <c r="F31" s="431"/>
+      <c r="G31" s="432"/>
+      <c r="H31" s="433"/>
+      <c r="I31" s="259"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="443" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="442" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="114"/>
+      <c r="E32" s="431"/>
+      <c r="F32" s="431"/>
+      <c r="G32" s="432"/>
+      <c r="H32" s="433"/>
+      <c r="I32" s="259"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="424" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="426" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="435"/>
+      <c r="F33" s="435"/>
+      <c r="G33" s="436"/>
+      <c r="H33" s="437"/>
+      <c r="I33" s="104"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="366" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="357" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="357" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="300"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="310"/>
-      <c r="I28" s="320" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="364" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="360" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="361" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="307"/>
-      <c r="E29" s="362"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="363" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="366" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="357" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="357" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="367"/>
-      <c r="E30" s="358"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="388"/>
-      <c r="H30" s="389"/>
-      <c r="I30" s="359" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="335" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="336" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="337">
-        <v>0.49</v>
-      </c>
-      <c r="E31" s="338">
-        <f t="shared" si="0"/>
-        <v>-0.71334988787746478</v>
-      </c>
-      <c r="F31" s="338">
-        <f t="shared" si="1"/>
-        <v>0.26761452455313911</v>
-      </c>
-      <c r="G31" s="380">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H31" s="381">
-        <v>0.82</v>
-      </c>
-      <c r="I31" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="368" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="369" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="370" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="371"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="372"/>
-      <c r="G32" s="390"/>
-      <c r="H32" s="391"/>
-      <c r="I32" s="373" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="364" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="360" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="361" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="307"/>
-      <c r="E33" s="362"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="386"/>
-      <c r="H33" s="387"/>
-      <c r="I33" s="363" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="314" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="315" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="315" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="300"/>
-      <c r="G34" s="303"/>
-      <c r="H34" s="310"/>
-      <c r="I34" s="320" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="367"/>
+      <c r="E34" s="358"/>
+      <c r="F34" s="358"/>
+      <c r="G34" s="388"/>
+      <c r="H34" s="389"/>
+      <c r="I34" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="335" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B35" s="336" t="s">
         <v>167</v>
@@ -7107,48 +7130,46 @@
         <v>144</v>
       </c>
       <c r="D35" s="337">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="E35" s="338">
         <f t="shared" si="0"/>
-        <v>-0.71334988787746478</v>
+        <v>-0.86750056770472306</v>
       </c>
       <c r="F35" s="338">
         <f t="shared" si="1"/>
-        <v>0.26761452455313911</v>
+        <v>0.24468014299075824</v>
       </c>
       <c r="G35" s="380">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="H35" s="381">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="I35" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="368" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="369" t="s">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="412" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="370" t="s">
+      <c r="C36" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="371"/>
-      <c r="E36" s="372"/>
-      <c r="F36" s="372"/>
-      <c r="G36" s="390"/>
-      <c r="H36" s="391"/>
-      <c r="I36" s="373" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="300"/>
+      <c r="G36" s="303"/>
+      <c r="H36" s="310"/>
+      <c r="I36" s="320" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="364" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B37" s="360" t="s">
         <v>169</v>
@@ -7165,13 +7186,257 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="4:9" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="35"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="366" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="357" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="357" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="367"/>
+      <c r="E38" s="358"/>
+      <c r="F38" s="358"/>
+      <c r="G38" s="388"/>
+      <c r="H38" s="389"/>
+      <c r="I38" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="335" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="336" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="336" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="337">
+        <v>0.49</v>
+      </c>
+      <c r="E39" s="338">
+        <f t="shared" si="0"/>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="F39" s="338">
+        <f t="shared" si="1"/>
+        <v>0.26761452455313911</v>
+      </c>
+      <c r="G39" s="380">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H39" s="381">
+        <v>0.82</v>
+      </c>
+      <c r="I39" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="368" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="369" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="370" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="371"/>
+      <c r="E40" s="372"/>
+      <c r="F40" s="372"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="391"/>
+      <c r="I40" s="373" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="364" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="360" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="361" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="307"/>
+      <c r="E41" s="362"/>
+      <c r="F41" s="362"/>
+      <c r="G41" s="386"/>
+      <c r="H41" s="387"/>
+      <c r="I41" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="314" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="315" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="315" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="300"/>
+      <c r="G42" s="303"/>
+      <c r="H42" s="310"/>
+      <c r="I42" s="320" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="335" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="336" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="336" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="337">
+        <v>0.49</v>
+      </c>
+      <c r="E43" s="338">
+        <f t="shared" si="0"/>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="F43" s="338">
+        <f t="shared" si="1"/>
+        <v>0.26761452455313911</v>
+      </c>
+      <c r="G43" s="380">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H43" s="381">
+        <v>0.82</v>
+      </c>
+      <c r="I43" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="368" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="369" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="370" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="371"/>
+      <c r="E44" s="372"/>
+      <c r="F44" s="372"/>
+      <c r="G44" s="390"/>
+      <c r="H44" s="391"/>
+      <c r="I44" s="373" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="364" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="360" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="361" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="307"/>
+      <c r="E45" s="362"/>
+      <c r="F45" s="362"/>
+      <c r="G45" s="386"/>
+      <c r="H45" s="387"/>
+      <c r="I45" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="441" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="442" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="442" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="E46" s="431"/>
+      <c r="F46" s="431"/>
+      <c r="G46" s="432"/>
+      <c r="H46" s="433"/>
+      <c r="I46" s="259"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="441" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="442" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="E47" s="431"/>
+      <c r="F47" s="431"/>
+      <c r="G47" s="432"/>
+      <c r="H47" s="433"/>
+      <c r="I47" s="259"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="443" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="442" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="431"/>
+      <c r="F48" s="431"/>
+      <c r="G48" s="432"/>
+      <c r="H48" s="433"/>
+      <c r="I48" s="259"/>
+    </row>
+    <row r="49" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="424" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="426" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="435"/>
+      <c r="F49" s="435"/>
+      <c r="G49" s="436"/>
+      <c r="H49" s="437"/>
+      <c r="I49" s="104"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7187,21 +7452,21 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="126" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="308" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="53"/>
+    <col min="1" max="1" width="21.140625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
@@ -7292,7 +7557,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="340" t="s">
         <v>58</v>
       </c>
@@ -7323,7 +7588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
@@ -7354,7 +7619,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
@@ -7385,7 +7650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
@@ -7416,7 +7681,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="340" t="s">
         <v>59</v>
       </c>
@@ -7447,7 +7712,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
@@ -7478,7 +7743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="288" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
@@ -7509,7 +7774,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
@@ -7540,7 +7805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="236" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="340" t="s">
         <v>60</v>
       </c>
@@ -7695,7 +7960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="342" t="s">
         <v>83</v>
       </c>
@@ -7819,7 +8084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="342" t="s">
         <v>84</v>
       </c>
@@ -7943,7 +8208,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="342" t="s">
         <v>85</v>
       </c>
@@ -7974,7 +8239,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="357" t="s">
         <v>145</v>
       </c>
@@ -7993,7 +8258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="336" t="s">
         <v>146</v>
       </c>
@@ -8024,7 +8289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="340" t="s">
         <v>147</v>
       </c>
@@ -8055,7 +8320,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="360" t="s">
         <v>148</v>
       </c>
@@ -8074,7 +8339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="357" t="s">
         <v>149</v>
       </c>
@@ -8093,7 +8358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="336" t="s">
         <v>150</v>
       </c>
@@ -8124,7 +8389,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="340" t="s">
         <v>151</v>
       </c>
@@ -8155,7 +8420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="360" t="s">
         <v>152</v>
       </c>
@@ -8174,7 +8439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="357" t="s">
         <v>153</v>
       </c>
@@ -8193,7 +8458,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="336" t="s">
         <v>154</v>
       </c>
@@ -8224,7 +8489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="340" t="s">
         <v>155</v>
       </c>
@@ -8255,7 +8520,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="360" t="s">
         <v>156</v>
       </c>
@@ -8274,7 +8539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -8293,25 +8558,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="126" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="308" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="53"/>
+    <col min="1" max="1" width="22.5703125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
@@ -8402,7 +8667,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="316" t="s">
         <v>58</v>
       </c>
@@ -8420,7 +8685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
@@ -8451,7 +8716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
@@ -8482,7 +8747,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
@@ -8513,7 +8778,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="369" t="s">
         <v>59</v>
       </c>
@@ -8532,7 +8797,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
@@ -8563,7 +8828,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="288" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
@@ -8594,7 +8859,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
@@ -8625,7 +8890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="236" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="316" t="s">
         <v>60</v>
       </c>
@@ -8755,7 +9020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="317" t="s">
         <v>83</v>
       </c>
@@ -8854,7 +9119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="317" t="s">
         <v>84</v>
       </c>
@@ -8953,7 +9218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="317" t="s">
         <v>85</v>
       </c>
@@ -8972,7 +9237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="416" t="s">
         <v>145</v>
       </c>
@@ -8991,7 +9256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="335" t="s">
         <v>146</v>
       </c>
@@ -9022,7 +9287,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="412" t="s">
         <v>147</v>
       </c>
@@ -9041,7 +9306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="404" t="s">
         <v>148</v>
       </c>
@@ -9060,7 +9325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="416" t="s">
         <v>149</v>
       </c>
@@ -9079,7 +9344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="335" t="s">
         <v>150</v>
       </c>
@@ -9110,7 +9375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="412" t="s">
         <v>151</v>
       </c>
@@ -9129,7 +9394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="404" t="s">
         <v>152</v>
       </c>
@@ -9148,7 +9413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="416" t="s">
         <v>153</v>
       </c>
@@ -9167,7 +9432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="335" t="s">
         <v>154</v>
       </c>
@@ -9198,7 +9463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="412" t="s">
         <v>155</v>
       </c>
@@ -9217,7 +9482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="404" t="s">
         <v>156</v>
       </c>
@@ -9236,7 +9501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -9259,15 +9524,15 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="255"/>
-    <col min="5" max="5" width="12.33203125" style="255" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="272"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="255"/>
+    <col min="5" max="5" width="12.28515625" style="255" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="272"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="260" t="s">
         <v>142</v>
       </c>
@@ -9287,7 +9552,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="261" t="s">
         <v>134</v>
       </c>
@@ -9307,7 +9572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="262" t="s">
         <v>134</v>
       </c>
@@ -9327,7 +9592,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="262" t="s">
         <v>134</v>
       </c>
@@ -9347,7 +9612,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="263" t="s">
         <v>134</v>
       </c>
@@ -9367,7 +9632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="261" t="s">
         <v>135</v>
       </c>
@@ -9387,7 +9652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="262" t="s">
         <v>135</v>
       </c>
@@ -9407,7 +9672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="262" t="s">
         <v>135</v>
       </c>
@@ -9427,7 +9692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="263" t="s">
         <v>135</v>
       </c>
@@ -9447,7 +9712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="261" t="s">
         <v>136</v>
       </c>
@@ -9467,7 +9732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="262" t="s">
         <v>136</v>
       </c>
@@ -9487,7 +9752,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="262" t="s">
         <v>136</v>
       </c>
@@ -9507,7 +9772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="263" t="s">
         <v>136</v>
       </c>
@@ -9527,7 +9792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="261" t="s">
         <v>137</v>
       </c>
@@ -9547,7 +9812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="262" t="s">
         <v>137</v>
       </c>
@@ -9567,7 +9832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="262" t="s">
         <v>137</v>
       </c>
@@ -9587,7 +9852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="263" t="s">
         <v>137</v>
       </c>
@@ -9607,7 +9872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="262" t="s">
         <v>138</v>
       </c>
@@ -9627,7 +9892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="262" t="s">
         <v>138</v>
       </c>
@@ -9647,7 +9912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="262" t="s">
         <v>138</v>
       </c>
@@ -9667,7 +9932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="263" t="s">
         <v>138</v>
       </c>
@@ -9701,16 +9966,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9736,7 +10001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -9762,7 +10027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9788,7 +10053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -9814,7 +10079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -9840,7 +10105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -9866,7 +10131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -9892,7 +10157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -9918,7 +10183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -9944,7 +10209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>

--- a/conductor_meta_analisi.xlsx
+++ b/conductor_meta_analisi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\Meta_Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="base_dades" sheetId="8" r:id="rId1"/>
@@ -18,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_dades!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="172">
   <si>
     <t>camp</t>
   </si>
@@ -2403,7 +2408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2420,20 +2425,20 @@
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="126" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="237" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="126" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="126" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="27.44140625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="237" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="126" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>58</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>1.908401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>62</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>4.5895770000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>51</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="152" t="s">
         <v>67</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A8" s="155" t="s">
         <v>59</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>1.077283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="156" t="s">
         <v>63</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>3.6779639999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="289" t="s">
         <v>52</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="153" t="s">
         <v>68</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="236" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A12" s="177" t="s">
         <v>60</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>3.952699</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A14" s="149" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A15" s="152" t="s">
         <v>69</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A16" s="180" t="s">
         <v>61</v>
       </c>
@@ -2858,7 +2863,7 @@
       <c r="G16" s="174"/>
       <c r="H16" s="175"/>
     </row>
-    <row r="17" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="156" t="s">
         <v>65</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>21.200749999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A18" s="122" t="s">
         <v>71</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>0.41005482857208825</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A19" s="120" t="s">
         <v>103</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="136" t="s">
         <v>79</v>
       </c>
@@ -2968,7 +2973,7 @@
         <v>1.8202546338296408</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="137" t="s">
         <v>83</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>1.4260497682962143</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="122" t="s">
         <v>72</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>0.67329558547649826</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A23" s="120" t="s">
         <v>104</v>
       </c>
@@ -3049,7 +3054,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
         <v>80</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>2.5662387101903139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="136" t="s">
         <v>84</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>1.769149959365147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="294" t="s">
         <v>73</v>
       </c>
@@ -3132,7 +3137,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
         <v>105</v>
       </c>
@@ -3159,7 +3164,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A28" s="163" t="s">
         <v>81</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>2.5407120591727339</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="164" t="s">
         <v>85</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>1.6509476168172175</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A30" s="132" t="s">
         <v>74</v>
       </c>
@@ -3241,7 +3246,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="133" t="s">
         <v>106</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="190" t="s">
         <v>82</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>0.81983048967654149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="164" t="s">
         <v>86</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>5.1344292625872816</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A34" s="117" t="s">
         <v>87</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>1.8477443039815267</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
         <v>114</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A36" s="119" t="s">
         <v>95</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>1.6492549821924745</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="182" t="s">
         <v>99</v>
       </c>
@@ -3412,7 +3417,7 @@
       <c r="G37" s="185"/>
       <c r="H37" s="186"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
@@ -3439,7 +3444,7 @@
         <v>1.7029463194240766</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>110</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" s="119" t="s">
         <v>96</v>
       </c>
@@ -3493,7 +3498,7 @@
         <v>1.158886893658885</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="180" t="s">
         <v>100</v>
       </c>
@@ -3509,7 +3514,7 @@
       <c r="G41" s="189"/>
       <c r="H41" s="187"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="299" t="s">
         <v>89</v>
       </c>
@@ -3525,7 +3530,7 @@
       <c r="G42" s="297"/>
       <c r="H42" s="298"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A43" s="118" t="s">
         <v>111</v>
       </c>
@@ -3552,7 +3557,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>1.158966268540393</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="180" t="s">
         <v>101</v>
       </c>
@@ -3595,7 +3600,7 @@
       <c r="G45" s="189"/>
       <c r="H45" s="187"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A46" s="117" t="s">
         <v>90</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>1.7508126997634368</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A47" s="118" t="s">
         <v>112</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A48" s="180" t="s">
         <v>98</v>
       </c>
@@ -3665,7 +3670,7 @@
       <c r="G48" s="189"/>
       <c r="H48" s="187"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="182" t="s">
         <v>102</v>
       </c>
@@ -3681,7 +3686,7 @@
       <c r="G49" s="185"/>
       <c r="H49" s="186"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A50" s="122" t="s">
         <v>145</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="G50" s="248"/>
       <c r="H50" s="123"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A51" s="120" t="s">
         <v>146</v>
       </c>
@@ -3725,7 +3730,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A52" s="136" t="s">
         <v>147</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>1.9377599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="137" t="s">
         <v>148</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="G53" s="249"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A54" s="122" t="s">
         <v>149</v>
       </c>
@@ -3785,7 +3790,7 @@
       <c r="G54" s="248"/>
       <c r="H54" s="123"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A55" s="120" t="s">
         <v>150</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A56" s="136" t="s">
         <v>151</v>
       </c>
@@ -3841,7 +3846,7 @@
         <v>2.63314</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="137" t="s">
         <v>152</v>
       </c>
@@ -3857,7 +3862,7 @@
       <c r="G57" s="249"/>
       <c r="H57" s="140"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A58" s="132" t="s">
         <v>153</v>
       </c>
@@ -3873,7 +3878,7 @@
       <c r="G58" s="265"/>
       <c r="H58" s="266"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A59" s="133" t="s">
         <v>154</v>
       </c>
@@ -3901,7 +3906,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A60" s="163" t="s">
         <v>155</v>
       </c>
@@ -3929,7 +3934,7 @@
         <v>2.65049</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="164" t="s">
         <v>156</v>
       </c>
@@ -3945,7 +3950,7 @@
       <c r="G61" s="249"/>
       <c r="H61" s="140"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A62" s="133" t="s">
         <v>157</v>
       </c>
@@ -3961,7 +3966,7 @@
       <c r="G62" s="248"/>
       <c r="H62" s="135"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A63" s="133" t="s">
         <v>158</v>
       </c>
@@ -3989,7 +3994,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A64" s="163" t="s">
         <v>159</v>
       </c>
@@ -4005,7 +4010,7 @@
       <c r="G64" s="250"/>
       <c r="H64" s="141"/>
     </row>
-    <row r="65" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="164" t="s">
         <v>160</v>
       </c>
@@ -4037,25 +4042,25 @@
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="66" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="66" customWidth="1"/>
     <col min="11" max="11" width="12" style="70" customWidth="1"/>
     <col min="12" max="12" width="12" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="105" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="13" width="8.88671875" style="105" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
@@ -4561,7 +4566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>90</v>
       </c>
@@ -4745,7 +4750,7 @@
         <v>0.15505352446870821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>0.13820150721193863</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>78</v>
       </c>
@@ -5113,7 +5118,7 @@
         <v>0.1169315641684552</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>0.32816135000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>61</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>0.49017310714285722</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>82</v>
       </c>
@@ -5518,7 +5523,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="73" t="s">
         <v>95</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>0.26924623979591833</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
         <v>96</v>
       </c>
@@ -5612,7 +5617,7 @@
         <v>0.29181282142857151</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
         <v>97</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>0.29946646938775501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="82" t="s">
         <v>98</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="s">
         <v>62</v>
       </c>
@@ -5742,7 +5747,7 @@
         <v>0.2804478245730157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="97" t="s">
         <v>63</v>
       </c>
@@ -5786,7 +5791,7 @@
         <v>0.29523424577300489</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="97" t="s">
         <v>64</v>
       </c>
@@ -5830,7 +5835,7 @@
         <v>0.3026013838774172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="97" t="s">
         <v>65</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>1.9144184239579749</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="93" t="s">
         <v>83</v>
       </c>
@@ -5918,7 +5923,7 @@
         <v>0.37108077380430665</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="97" t="s">
         <v>84</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>0.3929717925727606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="97" t="s">
         <v>85</v>
       </c>
@@ -6006,7 +6011,7 @@
         <v>0.39942732138071213</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>86</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>1.4320074807991772</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="97" t="s">
         <v>99</v>
       </c>
@@ -6075,7 +6080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="97" t="s">
         <v>100</v>
       </c>
@@ -6100,7 +6105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="97" t="s">
         <v>101</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="53"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -6167,7 +6172,7 @@
       <c r="L50" s="49"/>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -6209,25 +6214,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="126" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="308" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="2" max="2" width="13.44140625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="308" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="311" t="s">
         <v>0</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="341" t="s">
         <v>62</v>
       </c>
@@ -6380,7 +6385,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="331" t="s">
         <v>51</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="335" t="s">
         <v>67</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="339" t="s">
         <v>59</v>
       </c>
@@ -6473,7 +6478,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="341" t="s">
         <v>63</v>
       </c>
@@ -6504,7 +6509,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="346" t="s">
         <v>52</v>
       </c>
@@ -6535,7 +6540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="335" t="s">
         <v>68</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="339" t="s">
         <v>60</v>
       </c>
@@ -6638,12 +6643,26 @@
       <c r="C14" s="440" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="427"/>
-      <c r="F14" s="427"/>
-      <c r="G14" s="428"/>
-      <c r="H14" s="429"/>
-      <c r="I14" s="430"/>
+      <c r="D14" s="54">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="E14" s="427">
+        <f t="shared" si="0"/>
+        <v>0.10795714150509236</v>
+      </c>
+      <c r="F14" s="427">
+        <f t="shared" si="1"/>
+        <v>0.13799799540962621</v>
+      </c>
+      <c r="G14" s="428">
+        <v>0.85</v>
+      </c>
+      <c r="H14" s="429">
+        <v>1.53</v>
+      </c>
+      <c r="I14" s="430" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="441" t="s">
@@ -6655,12 +6674,26 @@
       <c r="C15" s="442" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="431"/>
-      <c r="F15" s="431"/>
-      <c r="G15" s="432"/>
-      <c r="H15" s="433"/>
-      <c r="I15" s="259"/>
+      <c r="D15" s="55">
+        <v>1.36</v>
+      </c>
+      <c r="E15" s="431">
+        <f t="shared" si="0"/>
+        <v>0.30748469974796072</v>
+      </c>
+      <c r="F15" s="431">
+        <f t="shared" si="1"/>
+        <v>0.18844903238063684</v>
+      </c>
+      <c r="G15" s="432">
+        <v>0.94</v>
+      </c>
+      <c r="H15" s="433">
+        <v>1.97</v>
+      </c>
+      <c r="I15" s="259" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="443" t="s">
@@ -6677,7 +6710,9 @@
       <c r="F16" s="431"/>
       <c r="G16" s="432"/>
       <c r="H16" s="433"/>
-      <c r="I16" s="434"/>
+      <c r="I16" s="434" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="424" t="s">
@@ -6694,9 +6729,11 @@
       <c r="F17" s="435"/>
       <c r="G17" s="436"/>
       <c r="H17" s="437"/>
-      <c r="I17" s="104"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I17" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="331" t="s">
         <v>71</v>
       </c>
@@ -6789,7 +6826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="364" t="s">
         <v>83</v>
       </c>
@@ -6808,7 +6845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="331" t="s">
         <v>72</v>
       </c>
@@ -6901,7 +6938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="364" t="s">
         <v>84</v>
       </c>
@@ -6920,7 +6957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="331" t="s">
         <v>73</v>
       </c>
@@ -7013,7 +7050,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="404" t="s">
         <v>85</v>
       </c>
@@ -7032,7 +7069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="445" t="s">
         <v>74</v>
       </c>
@@ -7042,14 +7079,22 @@
       <c r="C30" s="446" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="113"/>
+      <c r="D30" s="113">
+        <v>0.34</v>
+      </c>
       <c r="E30" s="427"/>
       <c r="F30" s="427"/>
-      <c r="G30" s="428"/>
-      <c r="H30" s="429"/>
-      <c r="I30" s="438"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G30" s="428">
+        <v>0.15</v>
+      </c>
+      <c r="H30" s="429">
+        <v>0.77</v>
+      </c>
+      <c r="I30" s="438" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="441" t="s">
         <v>106</v>
       </c>
@@ -7059,14 +7104,22 @@
       <c r="C31" s="442" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="114"/>
+      <c r="D31" s="114">
+        <v>0.66</v>
+      </c>
       <c r="E31" s="431"/>
       <c r="F31" s="431"/>
-      <c r="G31" s="432"/>
-      <c r="H31" s="433"/>
-      <c r="I31" s="259"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G31" s="432">
+        <v>0.44</v>
+      </c>
+      <c r="H31" s="433">
+        <v>0.99</v>
+      </c>
+      <c r="I31" s="259" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="443" t="s">
         <v>82</v>
       </c>
@@ -7081,9 +7134,11 @@
       <c r="F32" s="431"/>
       <c r="G32" s="432"/>
       <c r="H32" s="433"/>
-      <c r="I32" s="259"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="424" t="s">
         <v>86</v>
       </c>
@@ -7098,9 +7153,11 @@
       <c r="F33" s="435"/>
       <c r="G33" s="436"/>
       <c r="H33" s="437"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="I33" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="366" t="s">
         <v>145</v>
       </c>
@@ -7119,7 +7176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="335" t="s">
         <v>146</v>
       </c>
@@ -7150,7 +7207,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="412" t="s">
         <v>147</v>
       </c>
@@ -7167,7 +7224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="364" t="s">
         <v>148</v>
       </c>
@@ -7186,7 +7243,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="366" t="s">
         <v>149</v>
       </c>
@@ -7205,7 +7262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="335" t="s">
         <v>150</v>
       </c>
@@ -7255,7 +7312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="364" t="s">
         <v>152</v>
       </c>
@@ -7274,7 +7331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="314" t="s">
         <v>153</v>
       </c>
@@ -7291,7 +7348,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="335" t="s">
         <v>154</v>
       </c>
@@ -7341,7 +7398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="364" t="s">
         <v>156</v>
       </c>
@@ -7360,7 +7417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="441" t="s">
         <v>157</v>
       </c>
@@ -7375,9 +7432,11 @@
       <c r="F46" s="431"/>
       <c r="G46" s="432"/>
       <c r="H46" s="433"/>
-      <c r="I46" s="259"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="I46" s="259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="441" t="s">
         <v>158</v>
       </c>
@@ -7387,14 +7446,22 @@
       <c r="C47" s="442" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="55">
+        <v>0.49</v>
+      </c>
       <c r="E47" s="431"/>
       <c r="F47" s="431"/>
-      <c r="G47" s="432"/>
-      <c r="H47" s="433"/>
-      <c r="I47" s="259"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G47" s="432">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H47" s="433">
+        <v>0.83</v>
+      </c>
+      <c r="I47" s="259" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="443" t="s">
         <v>159</v>
       </c>
@@ -7409,7 +7476,9 @@
       <c r="F48" s="431"/>
       <c r="G48" s="432"/>
       <c r="H48" s="433"/>
-      <c r="I48" s="259"/>
+      <c r="I48" s="259" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="424" t="s">
@@ -7426,9 +7495,11 @@
       <c r="F49" s="435"/>
       <c r="G49" s="436"/>
       <c r="H49" s="437"/>
-      <c r="I49" s="104"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="53"/>
       <c r="B57" s="53"/>
       <c r="C57" s="53"/>
@@ -7446,27 +7517,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="308" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="21.109375" style="126" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
@@ -7540,11 +7611,11 @@
         <v>2.34</v>
       </c>
       <c r="E3" s="338">
-        <f t="shared" ref="E3:E36" si="1">LN(D3)</f>
+        <f t="shared" ref="E3:E44" si="1">LN(D3)</f>
         <v>0.85015092936961001</v>
       </c>
       <c r="F3" s="338">
-        <f t="shared" ref="F3:F36" si="2">(LN(D3/G3))/1.96</f>
+        <f t="shared" ref="F3:F44" si="2">(LN(D3/G3))/1.96</f>
         <v>0.1338593186058627</v>
       </c>
       <c r="G3" s="380">
@@ -7557,7 +7628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="340" t="s">
         <v>58</v>
       </c>
@@ -7588,7 +7659,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
@@ -7619,7 +7690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
@@ -7650,7 +7721,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
@@ -7681,7 +7752,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="340" t="s">
         <v>59</v>
       </c>
@@ -7712,7 +7783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
@@ -7743,7 +7814,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
@@ -7774,7 +7845,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
@@ -7805,7 +7876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="340" t="s">
         <v>60</v>
       </c>
@@ -7867,581 +7938,593 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="332" t="s">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="439" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="440" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="440" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="54">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E14" s="427">
+        <f t="shared" si="1"/>
+        <v>0.131028262406404</v>
+      </c>
+      <c r="F14" s="427">
+        <f t="shared" si="2"/>
+        <v>0.12060651942052568</v>
+      </c>
+      <c r="G14" s="428">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="429">
+        <v>1.43</v>
+      </c>
+      <c r="I14" s="430" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="441" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="55">
+        <v>1.47</v>
+      </c>
+      <c r="E15" s="431">
+        <f t="shared" si="1"/>
+        <v>0.38526240079064489</v>
+      </c>
+      <c r="F15" s="431">
+        <f t="shared" si="2"/>
+        <v>0.15729661206863085</v>
+      </c>
+      <c r="G15" s="432">
+        <v>1.08</v>
+      </c>
+      <c r="H15" s="433">
+        <v>1.99</v>
+      </c>
+      <c r="I15" s="259" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="443" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="431"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
+      <c r="I16" s="434" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="424" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="426" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="56">
+        <v>1.9817419999999999</v>
+      </c>
+      <c r="E17" s="435"/>
+      <c r="F17" s="435"/>
+      <c r="G17" s="436">
+        <v>1.0394589999999999</v>
+      </c>
+      <c r="H17" s="437">
+        <v>3.7782170000000002</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="332" t="s">
+      <c r="B18" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="331" t="s">
+      <c r="C18" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="350">
+      <c r="D18" s="350">
         <v>0.41</v>
       </c>
-      <c r="E14" s="334">
+      <c r="E18" s="334">
         <f t="shared" si="1"/>
         <v>-0.89159811928378363</v>
       </c>
-      <c r="F14" s="334">
+      <c r="F18" s="334">
         <f t="shared" si="2"/>
         <v>0.21313020443876463</v>
       </c>
-      <c r="G14" s="384">
+      <c r="G18" s="384">
         <v>0.27</v>
       </c>
-      <c r="H14" s="385">
+      <c r="H18" s="385">
         <v>0.63</v>
       </c>
-      <c r="I14" s="279" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="336" t="s">
+      <c r="I18" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="336" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B19" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="335" t="s">
+      <c r="C19" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="351">
+      <c r="D19" s="351">
         <v>0.53</v>
       </c>
-      <c r="E15" s="338">
+      <c r="E19" s="338">
         <f t="shared" si="1"/>
         <v>-0.6348782724359695</v>
       </c>
-      <c r="F15" s="338">
+      <c r="F19" s="338">
         <f t="shared" si="2"/>
         <v>0.11868484452487432</v>
       </c>
-      <c r="G15" s="380">
+      <c r="G19" s="380">
         <v>0.42</v>
       </c>
-      <c r="H15" s="381">
+      <c r="H19" s="381">
         <v>0.68</v>
       </c>
-      <c r="I15" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="340" t="s">
+      <c r="I19" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="340" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="340" t="s">
+      <c r="B20" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="335" t="s">
+      <c r="C20" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="351">
+      <c r="D20" s="351">
         <v>0.81655</v>
       </c>
-      <c r="E16" s="338">
+      <c r="E20" s="338">
         <f t="shared" si="1"/>
         <v>-0.20266713145938478</v>
       </c>
-      <c r="F16" s="338">
+      <c r="F20" s="338">
         <f t="shared" si="2"/>
         <v>0.46674602702980306</v>
       </c>
-      <c r="G16" s="380">
+      <c r="G20" s="380">
         <v>0.3271</v>
       </c>
-      <c r="H16" s="381">
+      <c r="H20" s="381">
         <v>2.0383900000000001</v>
       </c>
-      <c r="I16" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="342" t="s">
+      <c r="I20" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="342" t="s">
+      <c r="B21" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="376" t="s">
+      <c r="C21" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="352">
+      <c r="D21" s="352">
         <v>0.83754209999999996</v>
       </c>
-      <c r="E17" s="345">
+      <c r="E21" s="345">
         <f t="shared" si="1"/>
         <v>-0.17728374788962578</v>
       </c>
-      <c r="F17" s="345">
+      <c r="F21" s="345">
         <f t="shared" si="2"/>
         <v>0.37366098001101861</v>
       </c>
-      <c r="G17" s="382">
+      <c r="G21" s="382">
         <v>0.4026614</v>
       </c>
-      <c r="H17" s="383">
+      <c r="H21" s="383">
         <v>1.7421009999999999</v>
       </c>
-      <c r="I17" s="281" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="332" t="s">
+      <c r="I21" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="332" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="332" t="s">
+      <c r="B22" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="331" t="s">
+      <c r="C22" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="350">
+      <c r="D22" s="350">
         <v>0.62</v>
       </c>
-      <c r="E18" s="334">
+      <c r="E22" s="334">
         <f t="shared" si="1"/>
         <v>-0.4780358009429998</v>
       </c>
-      <c r="F18" s="334">
+      <c r="F22" s="334">
         <f t="shared" si="2"/>
         <v>0.23651670352828832</v>
       </c>
-      <c r="G18" s="384">
+      <c r="G22" s="384">
         <v>0.39</v>
       </c>
-      <c r="H18" s="385">
+      <c r="H22" s="385">
         <v>0.98</v>
       </c>
-      <c r="I18" s="279" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="336" t="s">
+      <c r="I22" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="336" t="s">
+      <c r="B23" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="335" t="s">
+      <c r="C23" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="351">
+      <c r="D23" s="351">
         <v>0.63</v>
       </c>
-      <c r="E19" s="338">
+      <c r="E23" s="338">
         <f t="shared" si="1"/>
         <v>-0.46203545959655867</v>
       </c>
-      <c r="F19" s="338">
+      <c r="F23" s="338">
         <f t="shared" si="2"/>
         <v>0.12822164708209499</v>
       </c>
-      <c r="G19" s="380">
+      <c r="G23" s="380">
         <v>0.49</v>
       </c>
-      <c r="H19" s="381">
+      <c r="H23" s="381">
         <v>0.81</v>
       </c>
-      <c r="I19" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="340" t="s">
+      <c r="I23" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="340" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="340" t="s">
+      <c r="B24" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="335" t="s">
+      <c r="C24" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="351">
+      <c r="D24" s="351">
         <v>1.0624199999999999</v>
       </c>
-      <c r="E20" s="338">
+      <c r="E24" s="338">
         <f t="shared" si="1"/>
         <v>6.0549324864043338E-2</v>
       </c>
-      <c r="F20" s="338">
+      <c r="F24" s="338">
         <f t="shared" si="2"/>
         <v>0.48956151003068227</v>
       </c>
-      <c r="G20" s="380">
+      <c r="G24" s="380">
         <v>0.40698000000000001</v>
       </c>
-      <c r="H20" s="381">
+      <c r="H24" s="381">
         <v>2.77345</v>
       </c>
-      <c r="I20" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="342" t="s">
+      <c r="I24" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="342" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="342" t="s">
+      <c r="B25" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="376" t="s">
+      <c r="C25" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="344">
+      <c r="D25" s="344">
         <v>0.93279719999999999</v>
       </c>
-      <c r="E21" s="345">
+      <c r="E25" s="345">
         <f t="shared" si="1"/>
         <v>-6.9567465105680154E-2</v>
       </c>
-      <c r="F21" s="345">
+      <c r="F25" s="345">
         <f t="shared" si="2"/>
         <v>0.39500489824470753</v>
       </c>
-      <c r="G21" s="382">
+      <c r="G25" s="382">
         <v>0.43008299999999999</v>
       </c>
-      <c r="H21" s="383">
+      <c r="H25" s="383">
         <v>2.0230929999999998</v>
       </c>
-      <c r="I21" s="281" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="332" t="s">
+      <c r="I25" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="332" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="332" t="s">
+      <c r="B26" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="331" t="s">
+      <c r="C26" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="350">
+      <c r="D26" s="350">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E22" s="334">
+      <c r="E26" s="334">
         <f t="shared" si="1"/>
         <v>-0.54472717544167215</v>
       </c>
-      <c r="F22" s="334">
+      <c r="F26" s="334">
         <f t="shared" si="2"/>
         <v>0.24332860820934152</v>
       </c>
-      <c r="G22" s="384">
+      <c r="G26" s="384">
         <v>0.36</v>
       </c>
-      <c r="H22" s="385">
+      <c r="H26" s="385">
         <v>0.93</v>
       </c>
-      <c r="I22" s="279" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="336" t="s">
+      <c r="I26" s="279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="336" t="s">
+      <c r="B27" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="335" t="s">
+      <c r="C27" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="351">
+      <c r="D27" s="351">
         <v>0.61</v>
       </c>
-      <c r="E23" s="338">
+      <c r="E27" s="338">
         <f t="shared" si="1"/>
         <v>-0.49429632181478012</v>
       </c>
-      <c r="F23" s="338">
+      <c r="F27" s="338">
         <f t="shared" si="2"/>
         <v>0.13302360329757787</v>
       </c>
-      <c r="G23" s="380">
+      <c r="G27" s="380">
         <v>0.47</v>
       </c>
-      <c r="H23" s="381">
+      <c r="H27" s="381">
         <v>0.8</v>
       </c>
-      <c r="I23" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="340" t="s">
+      <c r="I27" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="340" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="340" t="s">
+      <c r="B28" s="340" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="335" t="s">
+      <c r="C28" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="351">
+      <c r="D28" s="351">
         <v>0.97092999999999996</v>
       </c>
-      <c r="E24" s="338">
+      <c r="E28" s="338">
         <f t="shared" si="1"/>
         <v>-2.9500903917684746E-2</v>
       </c>
-      <c r="F24" s="338">
+      <c r="F28" s="338">
         <f t="shared" si="2"/>
         <v>0.5029358041372749</v>
       </c>
-      <c r="G24" s="380">
+      <c r="G28" s="380">
         <v>0.36231000000000002</v>
       </c>
-      <c r="H24" s="381">
+      <c r="H28" s="381">
         <v>2.6019100000000002</v>
       </c>
-      <c r="I24" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="342" t="s">
+      <c r="I28" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="342" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="342" t="s">
+      <c r="B29" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="376" t="s">
+      <c r="C29" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="352">
+      <c r="D29" s="352">
         <v>0.99697309999999995</v>
       </c>
-      <c r="E25" s="345">
+      <c r="E29" s="345">
         <f t="shared" si="1"/>
         <v>-3.0314903271194474E-3</v>
       </c>
-      <c r="F25" s="345">
+      <c r="F29" s="345">
         <f t="shared" si="2"/>
         <v>0.42063432931470246</v>
       </c>
-      <c r="G25" s="382">
+      <c r="G29" s="382">
         <v>0.43715179999999998</v>
       </c>
-      <c r="H25" s="383">
+      <c r="H29" s="383">
         <v>2.2737080000000001</v>
       </c>
-      <c r="I25" s="281" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="357" t="s">
+      <c r="I29" s="281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="445" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="446" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="446" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="113">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E30" s="427">
+        <f t="shared" si="1"/>
+        <v>-0.57981849525294205</v>
+      </c>
+      <c r="F30" s="427">
+        <f t="shared" si="2"/>
+        <v>0.23979777002333458</v>
+      </c>
+      <c r="G30" s="428">
+        <v>0.35</v>
+      </c>
+      <c r="H30" s="429">
+        <v>0.91</v>
+      </c>
+      <c r="I30" s="438" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="441" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="442" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="114">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E31" s="431">
+        <f t="shared" si="1"/>
+        <v>-0.54472717544167215</v>
+      </c>
+      <c r="F31" s="431">
+        <f t="shared" si="2"/>
+        <v>0.14094560032048883</v>
+      </c>
+      <c r="G31" s="432">
+        <v>0.44</v>
+      </c>
+      <c r="H31" s="433">
+        <v>0.77</v>
+      </c>
+      <c r="I31" s="259" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="443" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="442" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="114"/>
+      <c r="E32" s="431"/>
+      <c r="F32" s="431"/>
+      <c r="G32" s="432"/>
+      <c r="H32" s="433"/>
+      <c r="I32" s="259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="424" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="426" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="115">
+        <v>0.31717719999999999</v>
+      </c>
+      <c r="E33" s="435"/>
+      <c r="F33" s="435"/>
+      <c r="G33" s="436">
+        <v>0.178345</v>
+      </c>
+      <c r="H33" s="437">
+        <v>5.6408189999999996</v>
+      </c>
+      <c r="I33" s="104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="357" t="s">
         <v>145</v>
-      </c>
-      <c r="B26" s="357" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="366" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="367"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="388"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="359" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="336" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="335" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="337">
-        <v>0.51</v>
-      </c>
-      <c r="E27" s="338">
-        <f t="shared" si="1"/>
-        <v>-0.67334455326376563</v>
-      </c>
-      <c r="F27" s="338">
-        <f t="shared" si="2"/>
-        <v>0.13686938091565273</v>
-      </c>
-      <c r="G27" s="380">
-        <v>0.39</v>
-      </c>
-      <c r="H27" s="381">
-        <v>0.68</v>
-      </c>
-      <c r="I27" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="340" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="340" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="335" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="337">
-        <v>1.1185</v>
-      </c>
-      <c r="E28" s="338">
-        <f t="shared" si="1"/>
-        <v>0.1119885019480473</v>
-      </c>
-      <c r="F28" s="338">
-        <f t="shared" si="2"/>
-        <v>0.42015476523784562</v>
-      </c>
-      <c r="G28" s="380">
-        <v>0.4909</v>
-      </c>
-      <c r="H28" s="381">
-        <v>2.5487500000000001</v>
-      </c>
-      <c r="I28" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="360" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="360" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="377" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="307"/>
-      <c r="E29" s="362"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="363" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="357" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="357" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="366" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="367"/>
-      <c r="E30" s="358"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="388"/>
-      <c r="H30" s="389"/>
-      <c r="I30" s="359" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="336" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="335" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="337">
-        <v>0.61</v>
-      </c>
-      <c r="E31" s="338">
-        <f t="shared" si="1"/>
-        <v>-0.49429632181478012</v>
-      </c>
-      <c r="F31" s="338">
-        <f t="shared" si="2"/>
-        <v>0.15520988489948542</v>
-      </c>
-      <c r="G31" s="380">
-        <v>0.45</v>
-      </c>
-      <c r="H31" s="381">
-        <v>0.83</v>
-      </c>
-      <c r="I31" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="340" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="340" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="335" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="337">
-        <v>1.4371100000000001</v>
-      </c>
-      <c r="E32" s="338">
-        <f t="shared" si="1"/>
-        <v>0.36263415253185999</v>
-      </c>
-      <c r="F32" s="338">
-        <f t="shared" si="2"/>
-        <v>0.44284430921800055</v>
-      </c>
-      <c r="G32" s="380">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="H32" s="381">
-        <v>3.42327</v>
-      </c>
-      <c r="I32" s="280" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="360" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="360" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="377" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="307"/>
-      <c r="E33" s="362"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="386"/>
-      <c r="H33" s="387"/>
-      <c r="I33" s="363" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="357" t="s">
-        <v>153</v>
       </c>
       <c r="B34" s="357" t="s">
         <v>166</v>
@@ -8458,9 +8541,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="336" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B35" s="336" t="s">
         <v>167</v>
@@ -8469,29 +8552,29 @@
         <v>144</v>
       </c>
       <c r="D35" s="337">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="E35" s="338">
         <f t="shared" si="1"/>
-        <v>-0.52763274208237199</v>
+        <v>-0.67334455326376563</v>
       </c>
       <c r="F35" s="338">
         <f t="shared" si="2"/>
-        <v>0.16139659602661074</v>
+        <v>0.13686938091565273</v>
       </c>
       <c r="G35" s="380">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="H35" s="381">
-        <v>0.81</v>
+        <v>0.68</v>
       </c>
       <c r="I35" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="340" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B36" s="340" t="s">
         <v>168</v>
@@ -8500,29 +8583,29 @@
         <v>144</v>
       </c>
       <c r="D36" s="337">
-        <v>1.2930600000000001</v>
+        <v>1.1185</v>
       </c>
       <c r="E36" s="338">
         <f t="shared" si="1"/>
-        <v>0.25701150242539855</v>
+        <v>0.1119885019480473</v>
       </c>
       <c r="F36" s="338">
         <f t="shared" si="2"/>
-        <v>0.45822279028485141</v>
+        <v>0.42015476523784562</v>
       </c>
       <c r="G36" s="380">
-        <v>0.52671000000000001</v>
+        <v>0.4909</v>
       </c>
       <c r="H36" s="381">
-        <v>3.1744599999999998</v>
+        <v>2.5487500000000001</v>
       </c>
       <c r="I36" s="280" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="360" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B37" s="360" t="s">
         <v>169</v>
@@ -8539,15 +8622,297 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="357" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="357" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="366" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="367"/>
+      <c r="E38" s="358"/>
+      <c r="F38" s="358"/>
+      <c r="G38" s="388"/>
+      <c r="H38" s="389"/>
+      <c r="I38" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="336" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="336" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="335" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="337">
+        <v>0.61</v>
+      </c>
+      <c r="E39" s="338">
+        <f t="shared" si="1"/>
+        <v>-0.49429632181478012</v>
+      </c>
+      <c r="F39" s="338">
+        <f t="shared" si="2"/>
+        <v>0.15520988489948542</v>
+      </c>
+      <c r="G39" s="380">
+        <v>0.45</v>
+      </c>
+      <c r="H39" s="381">
+        <v>0.83</v>
+      </c>
+      <c r="I39" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="340" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="340" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="335" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="337">
+        <v>1.4371100000000001</v>
+      </c>
+      <c r="E40" s="338">
+        <f t="shared" si="1"/>
+        <v>0.36263415253185999</v>
+      </c>
+      <c r="F40" s="338">
+        <f t="shared" si="2"/>
+        <v>0.44284430921800055</v>
+      </c>
+      <c r="G40" s="380">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="H40" s="381">
+        <v>3.42327</v>
+      </c>
+      <c r="I40" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="360" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="360" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="377" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="307"/>
+      <c r="E41" s="362"/>
+      <c r="F41" s="362"/>
+      <c r="G41" s="386"/>
+      <c r="H41" s="387"/>
+      <c r="I41" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="357" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="357" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="366" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="367"/>
+      <c r="E42" s="358"/>
+      <c r="F42" s="358"/>
+      <c r="G42" s="388"/>
+      <c r="H42" s="389"/>
+      <c r="I42" s="359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="336" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="336" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="335" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="337">
+        <v>0.59</v>
+      </c>
+      <c r="E43" s="338">
+        <f t="shared" si="1"/>
+        <v>-0.52763274208237199</v>
+      </c>
+      <c r="F43" s="338">
+        <f t="shared" si="2"/>
+        <v>0.16139659602661074</v>
+      </c>
+      <c r="G43" s="380">
+        <v>0.43</v>
+      </c>
+      <c r="H43" s="381">
+        <v>0.81</v>
+      </c>
+      <c r="I43" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="340" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="340" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="335" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="337">
+        <v>1.2930600000000001</v>
+      </c>
+      <c r="E44" s="338">
+        <f t="shared" si="1"/>
+        <v>0.25701150242539855</v>
+      </c>
+      <c r="F44" s="338">
+        <f t="shared" si="2"/>
+        <v>0.45822279028485141</v>
+      </c>
+      <c r="G44" s="380">
+        <v>0.52671000000000001</v>
+      </c>
+      <c r="H44" s="381">
+        <v>3.1744599999999998</v>
+      </c>
+      <c r="I44" s="280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="360" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="360" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="377" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="307"/>
+      <c r="E45" s="362"/>
+      <c r="F45" s="362"/>
+      <c r="G45" s="386"/>
+      <c r="H45" s="387"/>
+      <c r="I45" s="363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="441" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="442" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="442" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="E46" s="431"/>
+      <c r="F46" s="431"/>
+      <c r="G46" s="432"/>
+      <c r="H46" s="433"/>
+      <c r="I46" s="259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="441" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="442" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="55">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E47" s="431"/>
+      <c r="F47" s="431"/>
+      <c r="G47" s="432">
+        <v>0.4</v>
+      </c>
+      <c r="H47" s="433">
+        <v>0.76</v>
+      </c>
+      <c r="I47" s="259" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="443" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="442" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="431"/>
+      <c r="F48" s="431"/>
+      <c r="G48" s="432"/>
+      <c r="H48" s="433"/>
+      <c r="I48" s="259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="424" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="426" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="435"/>
+      <c r="F49" s="435"/>
+      <c r="G49" s="436"/>
+      <c r="H49" s="437"/>
+      <c r="I49" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8556,27 +8921,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="126" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="237" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="308" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="308" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="237" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="237" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="22.5546875" style="126" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="126" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="237" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="308" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="312" t="s">
         <v>0</v>
       </c>
@@ -8650,11 +9015,11 @@
         <v>2.11</v>
       </c>
       <c r="E3" s="397">
-        <f t="shared" ref="E3:E35" si="1">LN(D3)</f>
+        <f t="shared" ref="E3:E43" si="1">LN(D3)</f>
         <v>0.74668794748797507</v>
       </c>
       <c r="F3" s="398">
-        <f t="shared" ref="F3:F35" si="2">(LN(D3/G3))/1.96</f>
+        <f t="shared" ref="F3:F43" si="2">(LN(D3/G3))/1.96</f>
         <v>0.17409328539786256</v>
       </c>
       <c r="G3" s="355">
@@ -8667,7 +9032,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="316" t="s">
         <v>58</v>
       </c>
@@ -8685,7 +9050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="342" t="s">
         <v>62</v>
       </c>
@@ -8716,7 +9081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="332" t="s">
         <v>51</v>
       </c>
@@ -8747,7 +9112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="336" t="s">
         <v>67</v>
       </c>
@@ -8778,7 +9143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="369" t="s">
         <v>59</v>
       </c>
@@ -8797,7 +9162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="342" t="s">
         <v>63</v>
       </c>
@@ -8828,7 +9193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="288" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="347" t="s">
         <v>52</v>
       </c>
@@ -8859,7 +9224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="336" t="s">
         <v>68</v>
       </c>
@@ -8890,7 +9255,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="236" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="316" t="s">
         <v>60</v>
       </c>
@@ -8940,162 +9305,163 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="332" t="s">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="439" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="440" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="440" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="54">
+        <v>1.37</v>
+      </c>
+      <c r="E14" s="427">
+        <f t="shared" si="1"/>
+        <v>0.3148107398400336</v>
+      </c>
+      <c r="F14" s="427">
+        <f t="shared" si="2"/>
+        <v>0.13572478350540895</v>
+      </c>
+      <c r="G14" s="428">
+        <v>1.05</v>
+      </c>
+      <c r="H14" s="429">
+        <v>1.78</v>
+      </c>
+      <c r="I14" s="430" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="441" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="442" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="55">
+        <v>1.61</v>
+      </c>
+      <c r="E15" s="431">
+        <f t="shared" si="1"/>
+        <v>0.47623417899637172</v>
+      </c>
+      <c r="F15" s="431">
+        <f t="shared" si="2"/>
+        <v>0.19434897917961572</v>
+      </c>
+      <c r="G15" s="432">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H15" s="433">
+        <v>2.35</v>
+      </c>
+      <c r="I15" s="259" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="443" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="444" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="431"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
+      <c r="I16" s="434" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="424" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="425" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="426" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="435"/>
+      <c r="F17" s="435"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="437"/>
+      <c r="I17" s="104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="332" t="s">
+      <c r="B18" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="332" t="s">
+      <c r="C18" s="332" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="402">
+      <c r="D18" s="402">
         <v>0.18</v>
       </c>
-      <c r="E14" s="395">
+      <c r="E18" s="395">
         <f t="shared" si="1"/>
         <v>-1.7147984280919266</v>
       </c>
-      <c r="F14" s="396">
+      <c r="F18" s="396">
         <f t="shared" si="2"/>
         <v>0.41373990623282081</v>
       </c>
-      <c r="G14" s="354">
+      <c r="G18" s="354">
         <v>0.08</v>
       </c>
-      <c r="H14" s="385">
+      <c r="H18" s="385">
         <v>0.38</v>
       </c>
-      <c r="I14" s="273" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="336" t="s">
+      <c r="I18" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="336" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B19" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="336" t="s">
+      <c r="C19" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="403">
+      <c r="D19" s="403">
         <v>0.49</v>
       </c>
-      <c r="E15" s="397">
+      <c r="E19" s="397">
         <f t="shared" si="1"/>
         <v>-0.71334988787746478</v>
       </c>
-      <c r="F15" s="398">
+      <c r="F19" s="398">
         <f t="shared" si="2"/>
         <v>0.20169017175721757</v>
       </c>
-      <c r="G15" s="355">
+      <c r="G19" s="355">
         <v>0.33</v>
       </c>
-      <c r="H15" s="381">
+      <c r="H19" s="381">
         <v>0.73</v>
-      </c>
-      <c r="I15" s="275" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="316" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="316" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="315" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="305"/>
-      <c r="E16" s="319"/>
-      <c r="F16" s="325"/>
-      <c r="H16" s="310"/>
-      <c r="I16" s="321" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="317" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="317" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="330" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="306"/>
-      <c r="E17" s="393"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="327" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="332" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="332" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="332" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="402">
-        <v>0.33</v>
-      </c>
-      <c r="E18" s="395">
-        <f t="shared" si="1"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="F18" s="396">
-        <f t="shared" si="2"/>
-        <v>0.4022741634511583</v>
-      </c>
-      <c r="G18" s="354">
-        <v>0.15</v>
-      </c>
-      <c r="H18" s="385">
-        <v>0.73</v>
-      </c>
-      <c r="I18" s="273" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="336" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="336" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="403">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E19" s="397">
-        <f t="shared" si="1"/>
-        <v>-0.54472717544167215</v>
-      </c>
-      <c r="F19" s="398">
-        <f t="shared" si="2"/>
-        <v>0.21574329123471098</v>
-      </c>
-      <c r="G19" s="355">
-        <v>0.38</v>
-      </c>
-      <c r="H19" s="381">
-        <v>0.87</v>
       </c>
       <c r="I19" s="275" t="s">
         <v>141</v>
@@ -9103,7 +9469,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="316" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="316" t="s">
         <v>168</v>
@@ -9119,9 +9485,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="317" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="317" t="s">
         <v>169</v>
@@ -9140,7 +9506,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="332" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="332" t="s">
         <v>166</v>
@@ -9149,21 +9515,21 @@
         <v>108</v>
       </c>
       <c r="D22" s="402">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E22" s="395">
         <f t="shared" si="1"/>
-        <v>-1.0498221244986778</v>
+        <v>-1.1086626245216111</v>
       </c>
       <c r="F22" s="396">
         <f t="shared" si="2"/>
-        <v>0.39936700982124107</v>
+        <v>0.4022741634511583</v>
       </c>
       <c r="G22" s="354">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H22" s="385">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="I22" s="273" t="s">
         <v>141</v>
@@ -9171,7 +9537,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="336" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="336" t="s">
         <v>167</v>
@@ -9180,21 +9546,21 @@
         <v>108</v>
       </c>
       <c r="D23" s="403">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E23" s="397">
         <f t="shared" si="1"/>
-        <v>-0.57981849525294205</v>
+        <v>-0.54472717544167215</v>
       </c>
       <c r="F23" s="398">
         <f t="shared" si="2"/>
-        <v>0.21144580514843106</v>
+        <v>0.21574329123471098</v>
       </c>
       <c r="G23" s="355">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="H23" s="381">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I23" s="275" t="s">
         <v>141</v>
@@ -9202,7 +9568,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="316" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="316" t="s">
         <v>168</v>
@@ -9218,9 +9584,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="317" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="317" t="s">
         <v>169</v>
@@ -9237,185 +9603,196 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="416" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="313" t="s">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="332" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="313" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="417"/>
-      <c r="E26" s="318"/>
-      <c r="F26" s="324"/>
-      <c r="G26" s="302"/>
-      <c r="H26" s="322"/>
-      <c r="I26" s="326" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="335" t="s">
-        <v>146</v>
+      <c r="C26" s="332" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="402">
+        <v>0.35</v>
+      </c>
+      <c r="E26" s="395">
+        <f t="shared" si="1"/>
+        <v>-1.0498221244986778</v>
+      </c>
+      <c r="F26" s="396">
+        <f t="shared" si="2"/>
+        <v>0.39936700982124107</v>
+      </c>
+      <c r="G26" s="354">
+        <v>0.16</v>
+      </c>
+      <c r="H26" s="385">
+        <v>0.77</v>
+      </c>
+      <c r="I26" s="273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="336" t="s">
+        <v>105</v>
       </c>
       <c r="B27" s="336" t="s">
         <v>167</v>
       </c>
       <c r="C27" s="336" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="337">
-        <v>0.45</v>
+        <v>108</v>
+      </c>
+      <c r="D27" s="403">
+        <v>0.56000000000000005</v>
       </c>
       <c r="E27" s="397">
         <f t="shared" si="1"/>
-        <v>-0.79850769621777162</v>
+        <v>-0.57981849525294205</v>
       </c>
       <c r="F27" s="398">
         <f t="shared" si="2"/>
-        <v>0.26062531824795437</v>
-      </c>
-      <c r="G27" s="380">
-        <v>0.27</v>
+        <v>0.21144580514843106</v>
+      </c>
+      <c r="G27" s="355">
+        <v>0.37</v>
       </c>
       <c r="H27" s="381">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="I27" s="275" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="412" t="s">
-        <v>147</v>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="316" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="316" t="s">
         <v>168</v>
       </c>
       <c r="C28" s="315" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="300"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="305"/>
       <c r="E28" s="319"/>
       <c r="F28" s="325"/>
-      <c r="G28" s="303"/>
       <c r="H28" s="310"/>
       <c r="I28" s="321" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="404" t="s">
-        <v>148</v>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="317" t="s">
+        <v>85</v>
       </c>
       <c r="B29" s="317" t="s">
         <v>169</v>
       </c>
       <c r="C29" s="330" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="418"/>
+        <v>108</v>
+      </c>
+      <c r="D29" s="306"/>
       <c r="E29" s="393"/>
       <c r="F29" s="394"/>
-      <c r="G29" s="304"/>
+      <c r="G29" s="309"/>
       <c r="H29" s="323"/>
       <c r="I29" s="327" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="416" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="313" t="s">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="445" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="446" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="313" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="417"/>
-      <c r="E30" s="318"/>
-      <c r="F30" s="324"/>
-      <c r="G30" s="302"/>
-      <c r="H30" s="322"/>
-      <c r="I30" s="326" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="335" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="336" t="s">
+      <c r="C30" s="446" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="113">
+        <v>0.41</v>
+      </c>
+      <c r="E30" s="427"/>
+      <c r="F30" s="427"/>
+      <c r="G30" s="428">
+        <v>0.19</v>
+      </c>
+      <c r="H30" s="429">
+        <v>0.91</v>
+      </c>
+      <c r="I30" s="438" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="441" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="442" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="336" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="337">
-        <v>0.54</v>
-      </c>
-      <c r="E31" s="397">
-        <f t="shared" si="1"/>
-        <v>-0.61618613942381695</v>
-      </c>
-      <c r="F31" s="398">
-        <f t="shared" si="2"/>
-        <v>0.26696333865538158</v>
-      </c>
-      <c r="G31" s="380">
-        <v>0.32</v>
-      </c>
-      <c r="H31" s="381">
+      <c r="C31" s="442" t="s">
+   